--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -35,7 +35,7 @@
     <t>Pub_Doi</t>
   </si>
   <si>
-    <t>Pub_Title</t>
+    <t>Pub_literature_title</t>
   </si>
   <si>
     <t>Pub_Journal</t>
@@ -10874,7 +10874,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28590" windowHeight="5805"/>
+    <workbookView windowWidth="16725" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
     <t>International Journal of Infectious Diseases</t>
   </si>
   <si>
-    <t>Seasonal and interannual risks of dengue introduction from South-East Asia into Chia, 2005-2015</t>
+    <t>Seasonal and interannual risks of dengue introduction from South-East Asia into China, 2005-2015</t>
   </si>
   <si>
     <t>Fudan University</t>
@@ -9958,11 +9958,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -10447,19 +10447,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10602,7 +10602,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10611,7 +10611,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11145,22 +11145,22 @@
   <dimension ref="A1:AM658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R93" sqref="R93"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16725" windowHeight="8130"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2231,7 +2231,7 @@
     <t>De Wu</t>
   </si>
   <si>
-    <t>Evolutionary and phylodynamic analyses of dengue virues serotype I in Guangdong province, China, between 1985 and 2015</t>
+    <t>Evolutionary and phylodynamic analyses of dengue viruses serotype I in Guangdong province, China, between 1985 and 2015</t>
   </si>
   <si>
     <t>Guangdong Guangzhou Center for Disease Control and Prevention</t>
@@ -11145,9 +11145,9 @@
   <dimension ref="A1:AM658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28230" windowHeight="7882"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$447</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$448</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15597" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15633" uniqueCount="1623">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -8996,6 +8996,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2017-2022</t>
     </r>
     <r>
@@ -11769,6 +11775,15 @@
   </si>
   <si>
     <t>AB622002-AB622079</t>
+  </si>
+  <si>
+    <t>Dengue-1 virus clade replacement in Thailand associated with enhaned mosquito transmission</t>
+  </si>
+  <si>
+    <t>Thomas Scott</t>
+  </si>
+  <si>
+    <t>Frequent in-migration and highly focal transmission of dengue viruses among children in Kamphaeng Phet, Thailand</t>
   </si>
   <si>
     <t>The Pennsylvania States University</t>
@@ -12400,11 +12415,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -12889,19 +12904,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13044,7 +13059,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13053,7 +13068,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13584,25 +13599,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM447"/>
+  <dimension ref="A1:AM448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AN311" sqref="AN311"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -57760,27 +57775,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" customHeight="1" spans="3:39">
+    <row r="383" customHeight="1" spans="2:39">
+      <c r="B383" s="2" t="s">
+        <v>1412</v>
+      </c>
       <c r="C383" s="2" t="s">
-        <v>129</v>
+        <v>1403</v>
       </c>
       <c r="D383" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G383" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H383" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="H383" s="2" t="s">
+      <c r="I383" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>45</v>
@@ -57795,7 +57813,7 @@
         <v>991</v>
       </c>
       <c r="N383" s="2" t="s">
-        <v>1405</v>
+        <v>45</v>
       </c>
       <c r="O383" s="2" t="s">
         <v>45</v>
@@ -57807,10 +57825,10 @@
         <v>45</v>
       </c>
       <c r="R383" s="2">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="S383" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="T383" s="2" t="s">
         <v>50</v>
@@ -57840,13 +57858,13 @@
         <v>76</v>
       </c>
       <c r="AC383" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD383" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE383" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF383" s="2" t="s">
         <v>80</v>
@@ -57878,22 +57896,22 @@
         <v>1414</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D384" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>989</v>
+        <v>1415</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>991</v>
+        <v>1416</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>45</v>
@@ -57911,7 +57929,7 @@
         <v>991</v>
       </c>
       <c r="N384" s="2" t="s">
-        <v>45</v>
+        <v>1405</v>
       </c>
       <c r="O384" s="2" t="s">
         <v>45</v>
@@ -57923,10 +57941,10 @@
         <v>45</v>
       </c>
       <c r="R384" s="2">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="S384" s="2">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="T384" s="2" t="s">
         <v>50</v>
@@ -57965,10 +57983,10 @@
         <v>79</v>
       </c>
       <c r="AF384" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG384" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH384" s="2" t="s">
         <v>45</v>
@@ -57991,13 +58009,13 @@
     </row>
     <row r="385" customHeight="1" spans="2:39">
       <c r="B385" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1345</v>
+        <v>89</v>
       </c>
       <c r="D385" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>989</v>
@@ -58009,10 +58027,10 @@
         <v>991</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>1416</v>
+        <v>1388</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>1388</v>
+        <v>45</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>45</v>
@@ -58027,7 +58045,7 @@
         <v>991</v>
       </c>
       <c r="N385" s="2" t="s">
-        <v>1400</v>
+        <v>45</v>
       </c>
       <c r="O385" s="2" t="s">
         <v>45</v>
@@ -58039,10 +58057,10 @@
         <v>45</v>
       </c>
       <c r="R385" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="S385" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="T385" s="2" t="s">
         <v>50</v>
@@ -58084,7 +58102,7 @@
         <v>91</v>
       </c>
       <c r="AG385" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH385" s="2" t="s">
         <v>45</v>
@@ -58107,16 +58125,16 @@
     </row>
     <row r="386" customHeight="1" spans="2:39">
       <c r="B386" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>115</v>
+        <v>1345</v>
       </c>
       <c r="D386" s="3">
         <v>2021</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1398</v>
+        <v>989</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>45</v>
@@ -58125,10 +58143,10 @@
         <v>991</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>45</v>
+        <v>1388</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>45</v>
@@ -58143,7 +58161,7 @@
         <v>991</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>45</v>
+        <v>1400</v>
       </c>
       <c r="O386" s="2" t="s">
         <v>45</v>
@@ -58155,10 +58173,10 @@
         <v>45</v>
       </c>
       <c r="R386" s="2">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="S386" s="2">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="T386" s="2" t="s">
         <v>50</v>
@@ -58199,8 +58217,8 @@
       <c r="AF386" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG386" s="2">
-        <v>454</v>
+      <c r="AG386" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="AH386" s="2" t="s">
         <v>45</v>
@@ -58223,16 +58241,16 @@
     </row>
     <row r="387" customHeight="1" spans="2:39">
       <c r="B387" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1420</v>
+        <v>115</v>
       </c>
       <c r="D387" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1421</v>
+        <v>1398</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>45</v>
@@ -58241,7 +58259,7 @@
         <v>991</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>45</v>
@@ -58271,16 +58289,16 @@
         <v>45</v>
       </c>
       <c r="R387" s="2">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="S387" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U387" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V387" s="2" t="s">
         <v>49</v>
@@ -58295,28 +58313,28 @@
         <v>49</v>
       </c>
       <c r="Z387" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA387" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB387" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC387" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD387" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE387" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF387" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG387" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="AG387" s="2">
+        <v>454</v>
       </c>
       <c r="AH387" s="2" t="s">
         <v>45</v>
@@ -58339,13 +58357,13 @@
     </row>
     <row r="388" customHeight="1" spans="2:39">
       <c r="B388" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D388" s="3">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>1424</v>
@@ -58354,10 +58372,10 @@
         <v>45</v>
       </c>
       <c r="G388" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H388" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>45</v>
@@ -58372,7 +58390,7 @@
         <v>46</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>1426</v>
+        <v>991</v>
       </c>
       <c r="N388" s="2" t="s">
         <v>45</v>
@@ -58387,52 +58405,52 @@
         <v>45</v>
       </c>
       <c r="R388" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="S388" s="2">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="T388" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z388" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V388" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W388" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X388" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y388" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z388" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="AA388" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB388" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC388" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD388" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE388" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF388" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG388" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH388" s="2" t="s">
         <v>45</v>
@@ -58455,25 +58473,25 @@
     </row>
     <row r="389" customHeight="1" spans="2:39">
       <c r="B389" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E389" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="F389" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G389" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="D389" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F389" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G389" s="2" t="s">
-        <v>1425</v>
-      </c>
       <c r="H389" s="2" t="s">
-        <v>1399</v>
+        <v>1362</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>45</v>
@@ -58488,7 +58506,7 @@
         <v>46</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="N389" s="2" t="s">
         <v>45</v>
@@ -58536,13 +58554,13 @@
         <v>76</v>
       </c>
       <c r="AC389" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF389" s="2" t="s">
         <v>80</v>
@@ -58571,25 +58589,25 @@
     </row>
     <row r="390" customHeight="1" spans="2:39">
       <c r="B390" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>330</v>
+        <v>1431</v>
       </c>
       <c r="D390" s="3">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1370</v>
+        <v>1427</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1371</v>
+        <v>1428</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58604,7 +58622,7 @@
         <v>46</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>45</v>
@@ -58619,10 +58637,10 @@
         <v>45</v>
       </c>
       <c r="R390" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="S390" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="T390" s="2" t="s">
         <v>50</v>
@@ -58652,13 +58670,13 @@
         <v>76</v>
       </c>
       <c r="AC390" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD390" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE390" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF390" s="2" t="s">
         <v>80</v>
@@ -58687,13 +58705,13 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D391" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>1370</v>
@@ -58705,7 +58723,7 @@
         <v>1371</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58720,7 +58738,7 @@
         <v>46</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>45</v>
@@ -58735,10 +58753,10 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="S391" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
@@ -58774,7 +58792,7 @@
         <v>45</v>
       </c>
       <c r="AE391" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF391" s="2" t="s">
         <v>80</v>
@@ -58803,25 +58821,25 @@
     </row>
     <row r="392" customHeight="1" spans="2:39">
       <c r="B392" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D392" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E392" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>1433</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H392" s="2" t="s">
-        <v>1435</v>
       </c>
       <c r="I392" s="2" t="s">
         <v>45</v>
@@ -58836,7 +58854,7 @@
         <v>46</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>45</v>
@@ -58851,10 +58869,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="S392" s="2">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -58881,19 +58899,19 @@
         <v>59</v>
       </c>
       <c r="AB392" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC392" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD392" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE392" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF392" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG392" s="2" t="s">
         <v>81</v>
@@ -58919,7 +58937,7 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>330</v>
@@ -58928,16 +58946,16 @@
         <v>2013</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -58952,7 +58970,7 @@
         <v>46</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>45</v>
@@ -58970,7 +58988,7 @@
         <v>2000</v>
       </c>
       <c r="S393" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
@@ -58997,13 +59015,13 @@
         <v>59</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD393" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE393" s="2" t="s">
         <v>45</v>
@@ -59035,22 +59053,22 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D394" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>1434</v>
       </c>
       <c r="H394" s="2" t="s">
         <v>1438</v>
@@ -59068,7 +59086,7 @@
         <v>46</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>45</v>
@@ -59083,16 +59101,16 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="S394" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U394" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V394" s="2" t="s">
         <v>49</v>
@@ -59110,10 +59128,10 @@
         <v>49</v>
       </c>
       <c r="AA394" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB394" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC394" s="2" t="s">
         <v>45</v>
@@ -59125,10 +59143,10 @@
         <v>45</v>
       </c>
       <c r="AF394" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG394" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH394" s="2" t="s">
         <v>45</v>
@@ -59151,26 +59169,26 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D395" s="3">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H395" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="H395" s="2" t="s">
-        <v>1442</v>
-      </c>
       <c r="I395" s="2" t="s">
         <v>45</v>
       </c>
@@ -59181,34 +59199,34 @@
         <v>45</v>
       </c>
       <c r="L395" s="2" t="s">
-        <v>1443</v>
+        <v>46</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>1441</v>
+        <v>45</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>1441</v>
+        <v>45</v>
       </c>
       <c r="Q395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="S395" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="T395" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U395" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V395" s="2" t="s">
         <v>49</v>
@@ -59226,25 +59244,25 @@
         <v>49</v>
       </c>
       <c r="AA395" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB395" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC395" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD395" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE395" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF395" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG395" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59265,24 +59283,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="396" customHeight="1" spans="3:39">
+    <row r="396" customHeight="1" spans="2:39">
+      <c r="B396" s="2" t="s">
+        <v>1442</v>
+      </c>
       <c r="C396" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D396" s="3">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59294,34 +59315,34 @@
         <v>45</v>
       </c>
       <c r="L396" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="O396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="Q396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="S396" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U396" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V396" s="2" t="s">
         <v>49</v>
@@ -59339,25 +59360,25 @@
         <v>49</v>
       </c>
       <c r="AA396" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB396" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC396" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD396" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE396" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF396" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59380,22 +59401,22 @@
     </row>
     <row r="397" customHeight="1" spans="3:39">
       <c r="C397" s="2" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="D397" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>45</v>
@@ -59407,34 +59428,34 @@
         <v>45</v>
       </c>
       <c r="L397" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="O397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="Q397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="S397" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U397" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V397" s="2" t="s">
         <v>49</v>
@@ -59455,16 +59476,16 @@
         <v>45</v>
       </c>
       <c r="AB397" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC397" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD397" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE397" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF397" s="2" t="s">
         <v>45</v>
@@ -59491,24 +59512,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="398" customHeight="1" spans="2:39">
-      <c r="B398" s="2" t="s">
-        <v>1444</v>
-      </c>
+    <row r="398" customHeight="1" spans="3:39">
       <c r="C398" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D398" s="3">
         <v>2016</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H398" s="2" t="s">
         <v>1445</v>
@@ -59523,19 +59541,19 @@
         <v>45</v>
       </c>
       <c r="L398" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="O398" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="Q398" s="2" t="s">
         <v>45</v>
@@ -59568,25 +59586,25 @@
         <v>49</v>
       </c>
       <c r="AA398" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB398" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC398" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD398" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE398" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF398" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59609,254 +59627,254 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D399" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="I399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L399" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M399" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N399" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P399" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R399" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S399" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T399" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U399" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA399" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB399" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF399" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG399" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL399" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM399" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="400" customHeight="1" spans="2:39">
+      <c r="B400" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="J399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L399" s="2" t="s">
+      <c r="C400" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L400" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M400" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N400" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P400" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R400" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S400" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X400" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z400" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE400" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM400" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="3:39">
+      <c r="C401" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E401" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="M399" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N399" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="O399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P399" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="Q399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R399" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S399" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X399" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE399" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL399" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM399" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="400" customHeight="1" spans="3:39">
-      <c r="C400" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D400" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L400" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M400" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N400" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="O400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P400" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="Q400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T400" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U400" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V400" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W400" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X400" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y400" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z400" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA400" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB400" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF400" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG400" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM400" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="401" customHeight="1" spans="2:39">
-      <c r="B401" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D401" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E401" s="2" t="s">
-        <v>1440</v>
-      </c>
       <c r="F401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
@@ -59868,34 +59886,34 @@
         <v>45</v>
       </c>
       <c r="L401" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="Q401" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R401" s="2">
-        <v>2003</v>
-      </c>
-      <c r="S401" s="2">
-        <v>2017</v>
+      <c r="R401" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S401" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U401" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V401" s="2" t="s">
         <v>49</v>
@@ -59913,10 +59931,10 @@
         <v>49</v>
       </c>
       <c r="AA401" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB401" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC401" s="2" t="s">
         <v>45</v>
@@ -59928,10 +59946,10 @@
         <v>45</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG401" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH401" s="2" t="s">
         <v>45</v>
@@ -59954,25 +59972,25 @@
     </row>
     <row r="402" customHeight="1" spans="2:39">
       <c r="B402" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D402" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -59984,28 +60002,28 @@
         <v>45</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="Q402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>1960</v>
+        <v>2003</v>
       </c>
       <c r="S402" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60068,21 +60086,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="3:39">
+    <row r="403" customHeight="1" spans="2:39">
+      <c r="B403" s="2" t="s">
+        <v>1456</v>
+      </c>
       <c r="C403" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D403" s="3">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="H403" s="2" t="s">
         <v>1457</v>
@@ -60097,34 +60118,34 @@
         <v>45</v>
       </c>
       <c r="L403" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="O403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P403" s="2" t="s">
-        <v>45</v>
+        <v>1444</v>
       </c>
       <c r="Q403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2008</v>
+        <v>1960</v>
       </c>
       <c r="S403" s="2">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U403" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V403" s="2" t="s">
         <v>49</v>
@@ -60142,13 +60163,13 @@
         <v>49</v>
       </c>
       <c r="AA403" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB403" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC403" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD403" s="2" t="s">
         <v>45</v>
@@ -60157,10 +60178,10 @@
         <v>45</v>
       </c>
       <c r="AF403" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60181,46 +60202,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="404" customHeight="1" spans="2:39">
-      <c r="B404" s="2" t="s">
+    <row r="404" customHeight="1" spans="3:39">
+      <c r="C404" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D404" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E404" s="2" t="s">
+      <c r="H404" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="F404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H404" s="2" t="s">
+      <c r="I404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L404" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M404" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N404" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="I404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L404" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M404" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="N404" s="2" t="s">
-        <v>1462</v>
-      </c>
       <c r="O404" s="2" t="s">
         <v>45</v>
       </c>
@@ -60231,10 +60249,10 @@
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="S404" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
@@ -60264,7 +60282,7 @@
         <v>76</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD404" s="2" t="s">
         <v>45</v>
@@ -60279,7 +60297,7 @@
         <v>81</v>
       </c>
       <c r="AH404" s="2" t="s">
-        <v>1463</v>
+        <v>45</v>
       </c>
       <c r="AI404" s="2" t="s">
         <v>45</v>
@@ -60299,44 +60317,44 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D405" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E405" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M405" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N405" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="F405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L405" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M405" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="N405" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O405" s="2" t="s">
         <v>45</v>
       </c>
@@ -60347,7 +60365,7 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="S405" s="2">
         <v>2012</v>
@@ -60377,10 +60395,10 @@
         <v>59</v>
       </c>
       <c r="AB405" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC405" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD405" s="2" t="s">
         <v>45</v>
@@ -60395,7 +60413,7 @@
         <v>81</v>
       </c>
       <c r="AH405" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AI405" s="2" t="s">
         <v>45</v>
@@ -60415,22 +60433,22 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E406" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D406" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>1455</v>
-      </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1456</v>
+        <v>1428</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>1469</v>
@@ -60445,10 +60463,10 @@
         <v>45</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>45</v>
@@ -60463,10 +60481,10 @@
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="S406" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
@@ -60493,7 +60511,7 @@
         <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC406" s="2" t="s">
         <v>77</v>
@@ -60511,7 +60529,7 @@
         <v>81</v>
       </c>
       <c r="AH406" s="2" t="s">
-        <v>45</v>
+        <v>1470</v>
       </c>
       <c r="AI406" s="2" t="s">
         <v>45</v>
@@ -60531,25 +60549,25 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="D407" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60561,10 +60579,10 @@
         <v>45</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="N407" s="2" t="s">
         <v>45</v>
@@ -60579,19 +60597,19 @@
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S407" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V407" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W407" s="2" t="s">
         <v>49</v>
@@ -60606,13 +60624,13 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB407" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD407" s="2" t="s">
         <v>45</v>
@@ -60621,10 +60639,10 @@
         <v>45</v>
       </c>
       <c r="AF407" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60647,25 +60665,25 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D408" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>45</v>
@@ -60677,38 +60695,38 @@
         <v>45</v>
       </c>
       <c r="L408" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>1472</v>
+        <v>45</v>
       </c>
       <c r="O408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P408" s="2" t="s">
-        <v>1473</v>
+        <v>45</v>
       </c>
       <c r="Q408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R408" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S408" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T408" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V408" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V408" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="W408" s="2" t="s">
         <v>49</v>
       </c>
@@ -60722,25 +60740,25 @@
         <v>49</v>
       </c>
       <c r="AA408" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB408" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC408" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD408" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE408" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF408" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG408" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH408" s="2" t="s">
         <v>45</v>
@@ -60766,22 +60784,22 @@
         <v>1474</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>136</v>
+        <v>379</v>
       </c>
       <c r="D409" s="3">
         <v>2021</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>45</v>
@@ -60793,10 +60811,10 @@
         <v>45</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>1475</v>
@@ -60811,10 +60829,10 @@
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S409" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
@@ -60853,10 +60871,10 @@
         <v>79</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -60877,63 +60895,66 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" customHeight="1" spans="3:39">
+    <row r="410" customHeight="1" spans="2:39">
+      <c r="B410" s="2" t="s">
+        <v>1477</v>
+      </c>
       <c r="C410" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D410" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1477</v>
+        <v>1458</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H410" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N410" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="I410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M410" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="N410" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P410" s="2" t="s">
-        <v>45</v>
+        <v>1479</v>
       </c>
       <c r="Q410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R410" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S410" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U410" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V410" s="2" t="s">
         <v>49</v>
@@ -60951,25 +60972,25 @@
         <v>49</v>
       </c>
       <c r="AA410" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB410" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD410" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE410" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG410" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH410" s="2" t="s">
         <v>45</v>
@@ -60990,15 +61011,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="2:39">
-      <c r="B411" s="2" t="s">
-        <v>1479</v>
-      </c>
+    <row r="411" customHeight="1" spans="3:39">
       <c r="C411" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D411" s="3">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>1480</v>
@@ -61007,11 +61025,11 @@
         <v>45</v>
       </c>
       <c r="G411" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H411" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="H411" s="2" t="s">
-        <v>1482</v>
-      </c>
       <c r="I411" s="2" t="s">
         <v>45</v>
       </c>
@@ -61022,10 +61040,10 @@
         <v>45</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>45</v>
@@ -61040,16 +61058,16 @@
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S411" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="T411" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U411" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V411" s="2" t="s">
         <v>49</v>
@@ -61067,10 +61085,10 @@
         <v>49</v>
       </c>
       <c r="AA411" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB411" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC411" s="2" t="s">
         <v>45</v>
@@ -61082,10 +61100,10 @@
         <v>45</v>
       </c>
       <c r="AF411" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG411" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH411" s="2" t="s">
         <v>45</v>
@@ -61108,22 +61126,22 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E412" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D412" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E412" s="2" t="s">
+      <c r="F412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G412" s="2" t="s">
         <v>1484</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>1485</v>
@@ -61138,13 +61156,13 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1425</v>
+        <v>1484</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>1486</v>
+        <v>45</v>
       </c>
       <c r="O412" s="2" t="s">
         <v>45</v>
@@ -61156,13 +61174,13 @@
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="S412" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="T412" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U412" s="2" t="s">
         <v>50</v>
@@ -61186,13 +61204,13 @@
         <v>59</v>
       </c>
       <c r="AB412" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD412" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE412" s="2" t="s">
         <v>45</v>
@@ -61224,22 +61242,22 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E413" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D413" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1480</v>
-      </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1481</v>
+        <v>1428</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>1488</v>
@@ -61254,14 +61272,14 @@
         <v>45</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="M413" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N413" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="N413" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O413" s="2" t="s">
         <v>45</v>
       </c>
@@ -61272,10 +61290,10 @@
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S413" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
@@ -61302,19 +61320,19 @@
         <v>59</v>
       </c>
       <c r="AB413" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD413" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF413" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG413" s="2" t="s">
         <v>81</v>
@@ -61343,37 +61361,37 @@
         <v>1490</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="D414" s="3">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E414" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H414" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="F414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G414" s="2" t="s">
+      <c r="I414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M414" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>1494</v>
       </c>
       <c r="N414" s="2" t="s">
         <v>45</v>
@@ -61391,7 +61409,7 @@
         <v>2005</v>
       </c>
       <c r="S414" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
@@ -61418,13 +61436,13 @@
         <v>59</v>
       </c>
       <c r="AB414" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE414" s="2" t="s">
         <v>45</v>
@@ -61456,26 +61474,26 @@
     </row>
     <row r="415" customHeight="1" spans="2:39">
       <c r="B415" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2007</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G415" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D415" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E415" s="2" t="s">
+      <c r="H415" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="F415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H415" s="2" t="s">
-        <v>1498</v>
-      </c>
       <c r="I415" s="2" t="s">
         <v>45</v>
       </c>
@@ -61486,13 +61504,13 @@
         <v>45</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>1499</v>
+        <v>1446</v>
       </c>
       <c r="M415" s="2" t="s">
         <v>1497</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="O415" s="2" t="s">
         <v>45</v>
@@ -61504,10 +61522,10 @@
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S415" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61540,10 +61558,10 @@
         <v>45</v>
       </c>
       <c r="AD415" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE415" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF415" s="2" t="s">
         <v>80</v>
@@ -61572,44 +61590,44 @@
     </row>
     <row r="416" customHeight="1" spans="2:39">
       <c r="B416" s="2" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D416" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E416" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L416" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H416" s="2" t="s">
+      <c r="M416" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N416" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="I416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L416" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="M416" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="N416" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
@@ -61620,10 +61638,10 @@
         <v>45</v>
       </c>
       <c r="R416" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S416" s="2">
         <v>2008</v>
-      </c>
-      <c r="S416" s="2">
-        <v>2011</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61656,13 +61674,13 @@
         <v>45</v>
       </c>
       <c r="AD416" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE416" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF416" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG416" s="2" t="s">
         <v>81</v>
@@ -61691,22 +61709,22 @@
         <v>1504</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D417" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="I417" s="2" t="s">
         <v>45</v>
@@ -61718,10 +61736,10 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>45</v>
@@ -61735,17 +61753,17 @@
       <c r="Q417" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S417" s="2" t="s">
-        <v>45</v>
+      <c r="R417" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S417" s="2">
+        <v>2011</v>
       </c>
       <c r="T417" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U417" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V417" s="2" t="s">
         <v>49</v>
@@ -61757,13 +61775,13 @@
         <v>49</v>
       </c>
       <c r="Y417" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z417" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA417" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB417" s="2" t="s">
         <v>45</v>
@@ -61772,16 +61790,16 @@
         <v>45</v>
       </c>
       <c r="AD417" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG417" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH417" s="2" t="s">
         <v>45</v>
@@ -61804,25 +61822,25 @@
     </row>
     <row r="418" customHeight="1" spans="2:39">
       <c r="B418" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D418" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="I418" s="2" t="s">
         <v>45</v>
@@ -61834,10 +61852,10 @@
         <v>45</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>45</v>
@@ -61851,53 +61869,53 @@
       <c r="Q418" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R418" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S418" s="2">
-        <v>2018</v>
+      <c r="R418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S418" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y418" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U418" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y418" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="Z418" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA418" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB418" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC418" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD418" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE418" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF418" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG418" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH418" s="2" t="s">
         <v>45</v>
@@ -61920,22 +61938,22 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="D419" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>1510</v>
@@ -61950,13 +61968,13 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1511</v>
+        <v>45</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
@@ -61968,16 +61986,16 @@
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S419" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U419" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V419" s="2" t="s">
         <v>49</v>
@@ -61995,25 +62013,25 @@
         <v>49</v>
       </c>
       <c r="AA419" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB419" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC419" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD419" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE419" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF419" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG419" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH419" s="2" t="s">
         <v>45</v>
@@ -62036,44 +62054,44 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E420" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D420" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E420" s="2" t="s">
+      <c r="F420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="F420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M420" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N420" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="I420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L420" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="M420" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="N420" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
@@ -62084,16 +62102,16 @@
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="S420" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U420" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V420" s="2" t="s">
         <v>49</v>
@@ -62111,19 +62129,19 @@
         <v>49</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB420" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC420" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE420" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF420" s="2" t="s">
         <v>45</v>
@@ -62155,10 +62173,10 @@
         <v>1515</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>115</v>
+        <v>1356</v>
       </c>
       <c r="D421" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>1516</v>
@@ -62167,11 +62185,11 @@
         <v>45</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="H421" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
       </c>
@@ -62182,13 +62200,13 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>1519</v>
+        <v>1500</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>45</v>
@@ -62200,10 +62218,10 @@
         <v>45</v>
       </c>
       <c r="R421" s="2">
-        <v>2017</v>
+        <v>1956</v>
       </c>
       <c r="S421" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
@@ -62230,22 +62248,22 @@
         <v>59</v>
       </c>
       <c r="AB421" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC421" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE421" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF421" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG421" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH421" s="2" t="s">
         <v>45</v>
@@ -62268,41 +62286,41 @@
     </row>
     <row r="422" customHeight="1" spans="2:39">
       <c r="B422" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G422" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="H422" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="D422" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E422" s="2" t="s">
+      <c r="I422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L422" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M422" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="F422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L422" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M422" s="2" t="s">
-        <v>1523</v>
-      </c>
       <c r="N422" s="2" t="s">
         <v>45</v>
       </c>
@@ -62316,7 +62334,7 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="S422" s="2">
         <v>2017</v>
@@ -62346,22 +62364,22 @@
         <v>59</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC422" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD422" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE422" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG422" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH422" s="2" t="s">
         <v>45</v>
@@ -62384,40 +62402,40 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E423" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="C423" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D423" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E423" s="2" t="s">
+      <c r="F423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="F423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G423" s="2" t="s">
+      <c r="H423" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L423" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="H423" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="M423" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>45</v>
@@ -62432,10 +62450,10 @@
         <v>45</v>
       </c>
       <c r="R423" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="S423" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="T423" s="2" t="s">
         <v>50</v>
@@ -62462,13 +62480,13 @@
         <v>59</v>
       </c>
       <c r="AB423" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC423" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD423" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE423" s="2" t="s">
         <v>79</v>
@@ -62477,7 +62495,7 @@
         <v>80</v>
       </c>
       <c r="AG423" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH423" s="2" t="s">
         <v>45</v>
@@ -62500,43 +62518,43 @@
     </row>
     <row r="424" customHeight="1" spans="2:39">
       <c r="B424" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D424" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E424" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H424" s="2" t="s">
+      <c r="I424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L424" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L424" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="M424" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>1533</v>
+        <v>45</v>
       </c>
       <c r="O424" s="2" t="s">
         <v>45</v>
@@ -62548,10 +62566,10 @@
         <v>45</v>
       </c>
       <c r="R424" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S424" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62584,13 +62602,13 @@
         <v>45</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE424" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF424" s="2" t="s">
-        <v>1534</v>
+        <v>80</v>
       </c>
       <c r="AG424" s="2" t="s">
         <v>81</v>
@@ -62616,43 +62634,43 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D425" s="3">
         <v>2013</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H425" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L425" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="I425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L425" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="M425" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>45</v>
+        <v>1536</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
@@ -62664,10 +62682,10 @@
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="S425" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62697,16 +62715,16 @@
         <v>45</v>
       </c>
       <c r="AC425" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF425" s="2" t="s">
-        <v>1137</v>
+        <v>1537</v>
       </c>
       <c r="AG425" s="2" t="s">
         <v>81</v>
@@ -62732,43 +62750,43 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="D426" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1358</v>
+        <v>1530</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>1539</v>
+        <v>45</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>1540</v>
+        <v>45</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>1533</v>
+        <v>45</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
@@ -62780,10 +62798,10 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="S426" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
@@ -62813,19 +62831,19 @@
         <v>45</v>
       </c>
       <c r="AC426" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>1541</v>
+        <v>81</v>
       </c>
       <c r="AH426" s="2" t="s">
         <v>45</v>
@@ -62848,43 +62866,43 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D427" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>1527</v>
+        <v>1358</v>
       </c>
       <c r="H427" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L427" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="I427" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="M427" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>45</v>
+        <v>1536</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -62896,10 +62914,10 @@
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="S427" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -62926,7 +62944,7 @@
         <v>59</v>
       </c>
       <c r="AB427" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC427" s="2" t="s">
         <v>45</v>
@@ -62935,13 +62953,13 @@
         <v>45</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>81</v>
+        <v>1544</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -62962,28 +62980,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="428" customHeight="1" spans="3:39">
+    <row r="428" customHeight="1" spans="2:39">
+      <c r="B428" s="2" t="s">
+        <v>1545</v>
+      </c>
       <c r="C428" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D428" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="H428" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I428" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J428" s="2" t="s">
         <v>45</v>
       </c>
@@ -62991,10 +63012,10 @@
         <v>45</v>
       </c>
       <c r="L428" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>45</v>
@@ -63009,7 +63030,7 @@
         <v>45</v>
       </c>
       <c r="R428" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="S428" s="2">
         <v>2016</v>
@@ -63018,7 +63039,7 @@
         <v>50</v>
       </c>
       <c r="U428" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V428" s="2" t="s">
         <v>49</v>
@@ -63039,7 +63060,7 @@
         <v>59</v>
       </c>
       <c r="AB428" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC428" s="2" t="s">
         <v>45</v>
@@ -63051,10 +63072,10 @@
         <v>45</v>
       </c>
       <c r="AF428" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG428" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63077,22 +63098,22 @@
     </row>
     <row r="429" customHeight="1" spans="3:39">
       <c r="C429" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E429" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="D429" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E429" s="2" t="s">
+      <c r="F429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G429" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="F429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G429" s="2" t="s">
-        <v>1527</v>
-      </c>
       <c r="H429" s="2" t="s">
-        <v>1538</v>
+        <v>1549</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
@@ -63104,10 +63125,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63122,16 +63143,16 @@
         <v>45</v>
       </c>
       <c r="R429" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S429" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U429" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V429" s="2" t="s">
         <v>49</v>
@@ -63155,7 +63176,7 @@
         <v>45</v>
       </c>
       <c r="AC429" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD429" s="2" t="s">
         <v>45</v>
@@ -63164,10 +63185,10 @@
         <v>45</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63188,27 +63209,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" customHeight="1" spans="2:39">
-      <c r="B430" s="2" t="s">
-        <v>1549</v>
-      </c>
+    <row r="430" customHeight="1" spans="3:39">
       <c r="C430" s="2" t="s">
-        <v>1521</v>
+        <v>1550</v>
       </c>
       <c r="D430" s="3">
         <v>2020</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1531</v>
+        <v>1551</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>45</v>
@@ -63220,13 +63238,13 @@
         <v>45</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M430" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>1551</v>
+        <v>45</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
@@ -63237,11 +63255,11 @@
       <c r="Q430" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S430" s="2" t="s">
-        <v>45</v>
+      <c r="R430" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S430" s="2">
+        <v>2019</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
@@ -63268,22 +63286,22 @@
         <v>59</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC430" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG430" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH430" s="2" t="s">
         <v>45</v>
@@ -63309,19 +63327,19 @@
         <v>1552</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>342</v>
+        <v>1524</v>
       </c>
       <c r="D431" s="3">
         <v>2020</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H431" s="2" t="s">
         <v>1553</v>
@@ -63336,13 +63354,13 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>45</v>
+        <v>1554</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63353,14 +63371,14 @@
       <c r="Q431" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R431" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S431" s="2">
-        <v>2015</v>
+      <c r="R431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S431" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T431" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U431" s="2" t="s">
         <v>50</v>
@@ -63372,7 +63390,7 @@
         <v>49</v>
       </c>
       <c r="X431" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y431" s="2" t="s">
         <v>49</v>
@@ -63384,16 +63402,16 @@
         <v>59</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC431" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD431" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE431" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF431" s="2" t="s">
         <v>363</v>
@@ -63422,22 +63440,22 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D432" s="3">
         <v>2020</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H432" s="2" t="s">
         <v>1556</v>
@@ -63452,10 +63470,10 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>45</v>
@@ -63470,17 +63488,17 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="S432" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T432" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U432" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U432" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="V432" s="2" t="s">
         <v>49</v>
       </c>
@@ -63488,7 +63506,7 @@
         <v>49</v>
       </c>
       <c r="X432" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y432" s="2" t="s">
         <v>49</v>
@@ -63497,7 +63515,7 @@
         <v>49</v>
       </c>
       <c r="AA432" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB432" s="2" t="s">
         <v>45</v>
@@ -63506,16 +63524,16 @@
         <v>45</v>
       </c>
       <c r="AD432" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63541,10 +63559,10 @@
         <v>1557</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="D433" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>1558</v>
@@ -63553,11 +63571,11 @@
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H433" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="H433" s="2" t="s">
-        <v>1560</v>
-      </c>
       <c r="I433" s="2" t="s">
         <v>45</v>
       </c>
@@ -63568,13 +63586,13 @@
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>1561</v>
+        <v>45</v>
       </c>
       <c r="O433" s="2" t="s">
         <v>45</v>
@@ -63586,13 +63604,13 @@
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="S433" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U433" s="2" t="s">
         <v>49</v>
@@ -63613,7 +63631,7 @@
         <v>49</v>
       </c>
       <c r="AA433" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB433" s="2" t="s">
         <v>45</v>
@@ -63654,22 +63672,22 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G434" s="2" t="s">
         <v>1562</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D434" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E434" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>1527</v>
       </c>
       <c r="H434" s="2" t="s">
         <v>1563</v>
@@ -63684,13 +63702,13 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>45</v>
+        <v>1564</v>
       </c>
       <c r="O434" s="2" t="s">
         <v>45</v>
@@ -63702,16 +63720,16 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
+        <v>2007</v>
+      </c>
+      <c r="S434" s="2">
         <v>2017</v>
       </c>
-      <c r="S434" s="2">
-        <v>2019</v>
-      </c>
       <c r="T434" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U434" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V434" s="2" t="s">
         <v>49</v>
@@ -63735,7 +63753,7 @@
         <v>45</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD434" s="2" t="s">
         <v>45</v>
@@ -63744,13 +63762,13 @@
         <v>45</v>
       </c>
       <c r="AF434" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG434" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH434" s="2" t="s">
-        <v>1564</v>
+        <v>45</v>
       </c>
       <c r="AI434" s="2" t="s">
         <v>45</v>
@@ -63773,19 +63791,19 @@
         <v>1565</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1392</v>
+        <v>115</v>
       </c>
       <c r="D435" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H435" s="2" t="s">
         <v>1566</v>
@@ -63800,10 +63818,10 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -63818,10 +63836,10 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="S435" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
@@ -63845,7 +63863,7 @@
         <v>49</v>
       </c>
       <c r="AA435" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB435" s="2" t="s">
         <v>45</v>
@@ -63866,7 +63884,7 @@
         <v>396</v>
       </c>
       <c r="AH435" s="2" t="s">
-        <v>45</v>
+        <v>1567</v>
       </c>
       <c r="AI435" s="2" t="s">
         <v>45</v>
@@ -63886,25 +63904,25 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D436" s="3">
         <v>2023</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
@@ -63916,10 +63934,10 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="N436" s="2" t="s">
         <v>45</v>
@@ -63934,7 +63952,7 @@
         <v>45</v>
       </c>
       <c r="R436" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="S436" s="2">
         <v>2023</v>
@@ -63967,10 +63985,10 @@
         <v>45</v>
       </c>
       <c r="AC436" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
         <v>45</v>
@@ -63982,7 +64000,7 @@
         <v>396</v>
       </c>
       <c r="AH436" s="2" t="s">
-        <v>1569</v>
+        <v>45</v>
       </c>
       <c r="AI436" s="2" t="s">
         <v>45</v>
@@ -64005,23 +64023,23 @@
         <v>1570</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D437" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E437" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H437" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="F437" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="H437" s="2" t="s">
-        <v>1573</v>
-      </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
       </c>
@@ -64032,10 +64050,10 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1572</v>
+        <v>1530</v>
       </c>
       <c r="N437" s="2" t="s">
         <v>45</v>
@@ -64050,10 +64068,10 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>1999</v>
+        <v>2023</v>
       </c>
       <c r="S437" s="2">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64077,16 +64095,16 @@
         <v>49</v>
       </c>
       <c r="AA437" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB437" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD437" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE437" s="2" t="s">
         <v>45</v>
@@ -64095,10 +64113,10 @@
         <v>91</v>
       </c>
       <c r="AG437" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH437" s="2" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="AI437" s="2" t="s">
         <v>45</v>
@@ -64118,26 +64136,26 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G438" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D438" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E438" s="2" t="s">
+      <c r="H438" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="F438" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G438" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>1577</v>
-      </c>
       <c r="I438" s="2" t="s">
         <v>45</v>
       </c>
@@ -64148,13 +64166,13 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>1579</v>
+        <v>45</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>45</v>
@@ -64166,16 +64184,16 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="S438" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T438" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V438" s="2" t="s">
         <v>49</v>
@@ -64193,10 +64211,10 @@
         <v>49</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB438" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC438" s="2" t="s">
         <v>45</v>
@@ -64208,13 +64226,13 @@
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH438" s="2" t="s">
-        <v>45</v>
+        <v>1577</v>
       </c>
       <c r="AI438" s="2" t="s">
         <v>45</v>
@@ -64234,58 +64252,58 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D439" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E439" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L439" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M439" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="F439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G439" s="2" t="s">
+      <c r="N439" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="H439" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I439" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L439" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="M439" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="N439" s="2" t="s">
-        <v>1587</v>
-      </c>
       <c r="O439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P439" s="2" t="s">
-        <v>1587</v>
+        <v>45</v>
       </c>
       <c r="Q439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="S439" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64309,10 +64327,10 @@
         <v>49</v>
       </c>
       <c r="AA439" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB439" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC439" s="2" t="s">
         <v>45</v>
@@ -64324,7 +64342,7 @@
         <v>45</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>1137</v>
+        <v>45</v>
       </c>
       <c r="AG439" s="2" t="s">
         <v>45</v>
@@ -64350,61 +64368,61 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J440" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D440" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E440" s="2" t="s">
+      <c r="K440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L440" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="F440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H440" s="2" t="s">
+      <c r="M440" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N440" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="I440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L440" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="M440" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="N440" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P440" s="2" t="s">
-        <v>45</v>
+        <v>1590</v>
       </c>
       <c r="Q440" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S440" s="2" t="s">
-        <v>45</v>
+      <c r="R440" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S440" s="2">
+        <v>2006</v>
       </c>
       <c r="T440" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
         <v>49</v>
@@ -64419,19 +64437,19 @@
         <v>49</v>
       </c>
       <c r="Y440" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z440" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA440" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC440" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD440" s="2" t="s">
         <v>45</v>
@@ -64440,7 +64458,7 @@
         <v>45</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG440" s="2" t="s">
         <v>45</v>
@@ -64466,28 +64484,28 @@
     </row>
     <row r="441" customHeight="1" spans="2:39">
       <c r="B441" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D441" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1537</v>
-      </c>
       <c r="F441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1358</v>
+        <v>1548</v>
       </c>
       <c r="H441" s="2" t="s">
         <v>1593</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>1538</v>
+        <v>45</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>45</v>
@@ -64496,7 +64514,7 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>45</v>
+        <v>1589</v>
       </c>
       <c r="M441" s="2" t="s">
         <v>1594</v>
@@ -64513,38 +64531,38 @@
       <c r="Q441" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R441" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S441" s="2">
-        <v>2018</v>
+      <c r="R441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S441" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X441" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y441" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U441" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V441" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W441" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X441" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y441" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="Z441" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA441" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB441" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC441" s="2" t="s">
         <v>77</v>
@@ -64556,10 +64574,10 @@
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64585,38 +64603,38 @@
         <v>1595</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D442" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E442" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H442" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="F442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="H442" s="2" t="s">
+      <c r="I442" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M442" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="I442" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M442" s="2" t="s">
-        <v>1594</v>
-      </c>
       <c r="N442" s="2" t="s">
         <v>45</v>
       </c>
@@ -64630,10 +64648,10 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S442" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64675,7 +64693,7 @@
         <v>91</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH442" s="2" t="s">
         <v>45</v>
@@ -64701,10 +64719,10 @@
         <v>1598</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D443" s="3">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>1599</v>
@@ -64713,13 +64731,13 @@
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="H443" s="2" t="s">
-        <v>1601</v>
-      </c>
       <c r="I443" s="2" t="s">
-        <v>45</v>
+        <v>1541</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>45</v>
@@ -64728,10 +64746,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1602</v>
+        <v>45</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64746,10 +64764,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="S443" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64776,10 +64794,10 @@
         <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC443" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD443" s="2" t="s">
         <v>45</v>
@@ -64814,40 +64832,40 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G444" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="D444" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E444" s="2" t="s">
+      <c r="I444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L444" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="F444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H444" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L444" s="2" t="s">
-        <v>1608</v>
-      </c>
       <c r="M444" s="2" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>45</v>
@@ -64862,16 +64880,16 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="S444" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U444" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V444" s="2" t="s">
         <v>49</v>
@@ -64889,10 +64907,10 @@
         <v>49</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC444" s="2" t="s">
         <v>45</v>
@@ -64904,10 +64922,10 @@
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG444" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH444" s="2" t="s">
         <v>45</v>
@@ -64930,43 +64948,43 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D445" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E445" s="2" t="s">
+      <c r="H445" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="F445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H445" s="2" t="s">
+      <c r="I445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L445" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="I445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L445" s="2" t="s">
-        <v>1608</v>
-      </c>
       <c r="M445" s="2" t="s">
-        <v>1545</v>
+        <v>1609</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>1612</v>
+        <v>45</v>
       </c>
       <c r="O445" s="2" t="s">
         <v>45</v>
@@ -64978,10 +64996,10 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="S445" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65046,43 +65064,43 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1604</v>
+        <v>115</v>
       </c>
       <c r="D446" s="3">
         <v>2023</v>
       </c>
       <c r="E446" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H446" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H446" s="2" t="s">
+      <c r="I446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M446" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N446" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="I446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L446" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="M446" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="N446" s="2" t="s">
-        <v>1616</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65103,7 +65121,7 @@
         <v>50</v>
       </c>
       <c r="U446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V446" s="2" t="s">
         <v>49</v>
@@ -65121,25 +65139,25 @@
         <v>49</v>
       </c>
       <c r="AA446" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB446" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD446" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH446" s="2" t="s">
         <v>45</v>
@@ -65162,43 +65180,43 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E447" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D447" s="3">
-        <v>2024</v>
-      </c>
-      <c r="E447" s="2" t="s">
+      <c r="F447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H447" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="F447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L447" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M447" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N447" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L447" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="M447" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="N447" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>45</v>
@@ -65219,7 +65237,7 @@
         <v>50</v>
       </c>
       <c r="U447" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V447" s="2" t="s">
         <v>49</v>
@@ -65237,25 +65255,25 @@
         <v>49</v>
       </c>
       <c r="AA447" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC447" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE447" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG447" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH447" s="2" t="s">
         <v>45</v>
@@ -65273,11 +65291,127 @@
         <v>45</v>
       </c>
       <c r="AM447" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" customHeight="1" spans="2:39">
+      <c r="B448" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M448" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R448" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S448" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T448" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM448" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM447">
+  <autoFilter ref="A1:AM448">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28230" windowHeight="7882"/>
+    <workbookView windowWidth="21360" windowHeight="5805"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$453</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15633" uniqueCount="1623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15807" uniqueCount="1640">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11846,6 +11846,45 @@
     <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
   </si>
   <si>
+    <t>Detection of genotype-1 of dengue virus serotype 3 for the first time and complete genome analysis of dengue viruses during the 2018 epidemic in Mandalay, Upper Myanmar</t>
+  </si>
+  <si>
+    <t>Mandalay</t>
+  </si>
+  <si>
+    <t>IonTorrent</t>
+  </si>
+  <si>
+    <t>Emergence of a novel dengue virus (DENV-3) genotype-I coincident with increased DENV-3 cases in Yangon, Myanmar between 2017 and 2019</t>
+  </si>
+  <si>
+    <t>MengLing Moi</t>
+  </si>
+  <si>
+    <t>Hlaing Myat Thu</t>
+  </si>
+  <si>
+    <t>Sujan Shresta</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Coinfection and circulation of chikungunya virus and dengue virus in pediatric patients in Myanmar, 2019</t>
+  </si>
+  <si>
+    <t>Microbes and Infection</t>
+  </si>
+  <si>
+    <t>Mya Myat Ngwe Tun</t>
+  </si>
+  <si>
+    <t>Dengue in Myanmar: spatiotemporal epidemiology, association with climate and short-term prediction</t>
+  </si>
+  <si>
+    <t>Richard Maude</t>
+  </si>
+  <si>
     <t>Complex dynamic of dengue virus serotype 2 and 3 in Cambodia following series of climate disasters</t>
   </si>
   <si>
@@ -11867,6 +11906,21 @@
     <t>Arnaud Tarantola</t>
   </si>
   <si>
+    <t>Co-circulation of dengue virus type 3 genotypes in Vientiane capital, Lao PDR</t>
+  </si>
+  <si>
+    <t>Institut Pasteur du Laos</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Marc Grandadam</t>
+  </si>
+  <si>
+    <t>Vientiane Capital</t>
+  </si>
+  <si>
     <t>Dengue virus surveillance for early warning, Singapore</t>
   </si>
   <si>
@@ -12171,9 +12225,6 @@
   </si>
   <si>
     <t>Ester Sabino</t>
-  </si>
-  <si>
-    <t>IonTorrent</t>
   </si>
   <si>
     <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
@@ -12415,11 +12466,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -12904,19 +12955,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13059,7 +13110,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13068,7 +13119,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13599,25 +13650,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM448"/>
+  <dimension ref="A1:AM453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
+      <selection pane="bottomLeft" activeCell="T397" sqref="T397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -58940,22 +58991,22 @@
         <v>1435</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="D393" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1436</v>
+        <v>1370</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>1437</v>
+        <v>1371</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -58970,10 +59021,10 @@
         <v>46</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>45</v>
+        <v>1436</v>
       </c>
       <c r="O393" s="2" t="s">
         <v>45</v>
@@ -58985,10 +59036,10 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="S393" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
@@ -59015,22 +59066,22 @@
         <v>59</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD393" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE393" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF393" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG393" s="2" t="s">
-        <v>81</v>
+        <v>1437</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59053,31 +59104,28 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D394" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H394" s="2" t="s">
-        <v>1438</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>45</v>
+        <v>1440</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>45</v>
+        <v>1441</v>
       </c>
       <c r="K394" s="2" t="s">
         <v>45</v>
@@ -59086,10 +59134,10 @@
         <v>46</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>45</v>
+        <v>1442</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>45</v>
@@ -59101,10 +59149,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="S394" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59134,13 +59182,13 @@
         <v>76</v>
       </c>
       <c r="AC394" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD394" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE394" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF394" s="2" t="s">
         <v>91</v>
@@ -59169,25 +59217,25 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>115</v>
+        <v>1444</v>
       </c>
       <c r="D395" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1436</v>
+        <v>1370</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>1437</v>
+        <v>1371</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="I395" s="2" t="s">
         <v>45</v>
@@ -59202,67 +59250,67 @@
         <v>46</v>
       </c>
       <c r="M395" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R395" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S395" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T395" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U395" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA395" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB395" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD395" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE395" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF395" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG395" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="N395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R395" s="2">
-        <v>2012</v>
-      </c>
-      <c r="S395" s="2">
-        <v>2013</v>
-      </c>
-      <c r="T395" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z395" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG395" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59285,25 +59333,25 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D396" s="3">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1443</v>
+        <v>989</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1444</v>
+        <v>991</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59315,255 +59363,261 @@
         <v>45</v>
       </c>
       <c r="L396" s="2" t="s">
-        <v>1446</v>
+        <v>46</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="O396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="Q396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="S396" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T396" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL396" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM396" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" customHeight="1" spans="2:39">
+      <c r="B397" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L397" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M397" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="N397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R397" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S397" s="2">
         <v>2008</v>
       </c>
-      <c r="T396" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U396" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V396" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W396" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X396" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y396" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z396" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA396" s="2" t="s">
+      <c r="T397" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U397" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z397" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA397" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB396" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC396" s="2" t="s">
+      <c r="AB397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC397" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD396" s="2" t="s">
+      <c r="AD397" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE396" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF396" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG396" s="2" t="s">
+      <c r="AE397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF397" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG397" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH396" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI396" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ396" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK396" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL396" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM396" s="2" t="s">
+      <c r="AH397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM397" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="397" customHeight="1" spans="3:39">
-      <c r="C397" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D397" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L397" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="M397" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="N397" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="O397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P397" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Q397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R397" s="2">
+    <row r="398" customHeight="1" spans="2:39">
+      <c r="B398" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L398" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M398" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="N398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R398" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S398" s="2">
         <v>2009</v>
       </c>
-      <c r="S397" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T397" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z397" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL397" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM397" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="398" customHeight="1" spans="3:39">
-      <c r="C398" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D398" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L398" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="M398" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="N398" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="O398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P398" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Q398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R398" s="2">
-        <v>2013</v>
-      </c>
-      <c r="S398" s="2">
-        <v>2014</v>
-      </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
       </c>
@@ -59586,25 +59640,25 @@
         <v>49</v>
       </c>
       <c r="AA398" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB398" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC398" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD398" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE398" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF398" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59627,25 +59681,25 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D399" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>45</v>
@@ -59657,34 +59711,34 @@
         <v>45</v>
       </c>
       <c r="L399" s="2" t="s">
-        <v>1446</v>
+        <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="N399" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="O399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="Q399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R399" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S399" s="2">
         <v>2013</v>
       </c>
-      <c r="S399" s="2">
-        <v>2014</v>
-      </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U399" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V399" s="2" t="s">
         <v>49</v>
@@ -59702,10 +59756,10 @@
         <v>49</v>
       </c>
       <c r="AA399" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB399" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC399" s="2" t="s">
         <v>45</v>
@@ -59717,10 +59771,10 @@
         <v>45</v>
       </c>
       <c r="AF399" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG399" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH399" s="2" t="s">
         <v>45</v>
@@ -59743,28 +59797,28 @@
     </row>
     <row r="400" customHeight="1" spans="2:39">
       <c r="B400" s="2" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D400" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>1452</v>
+        <v>45</v>
       </c>
       <c r="J400" s="2" t="s">
         <v>45</v>
@@ -59773,34 +59827,34 @@
         <v>45</v>
       </c>
       <c r="L400" s="2" t="s">
-        <v>1446</v>
+        <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="N400" s="2" t="s">
-        <v>1444</v>
+        <v>1459</v>
       </c>
       <c r="O400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="Q400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R400" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="S400" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="T400" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U400" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V400" s="2" t="s">
         <v>49</v>
@@ -59809,7 +59863,7 @@
         <v>49</v>
       </c>
       <c r="X400" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y400" s="2" t="s">
         <v>49</v>
@@ -59818,7 +59872,7 @@
         <v>49</v>
       </c>
       <c r="AA400" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB400" s="2" t="s">
         <v>45</v>
@@ -59827,16 +59881,16 @@
         <v>45</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE400" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF400" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG400" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH400" s="2" t="s">
         <v>45</v>
@@ -59857,24 +59911,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="401" customHeight="1" spans="3:39">
+    <row r="401" customHeight="1" spans="2:39">
+      <c r="B401" s="2" t="s">
+        <v>1460</v>
+      </c>
       <c r="C401" s="2" t="s">
-        <v>1453</v>
+        <v>115</v>
       </c>
       <c r="D401" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1448</v>
+        <v>1463</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
@@ -59886,28 +59943,28 @@
         <v>45</v>
       </c>
       <c r="L401" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="Q401" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R401" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S401" s="2" t="s">
-        <v>45</v>
+      <c r="R401" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S401" s="2">
+        <v>2008</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
@@ -59937,16 +59994,16 @@
         <v>76</v>
       </c>
       <c r="AC401" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE401" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG401" s="2" t="s">
         <v>81</v>
@@ -59970,27 +60027,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" customHeight="1" spans="2:39">
-      <c r="B402" s="2" t="s">
-        <v>1454</v>
-      </c>
+    <row r="402" customHeight="1" spans="3:39">
       <c r="C402" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D402" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -60002,28 +60056,28 @@
         <v>45</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="Q402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="S402" s="2">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60086,27 +60140,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="2:39">
-      <c r="B403" s="2" t="s">
-        <v>1456</v>
-      </c>
+    <row r="403" customHeight="1" spans="3:39">
       <c r="C403" s="2" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="D403" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60118,34 +60169,34 @@
         <v>45</v>
       </c>
       <c r="L403" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="O403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P403" s="2" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="Q403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>1960</v>
+        <v>2013</v>
       </c>
       <c r="S403" s="2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U403" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V403" s="2" t="s">
         <v>49</v>
@@ -60166,16 +60217,16 @@
         <v>45</v>
       </c>
       <c r="AB403" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC403" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD403" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE403" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF403" s="2" t="s">
         <v>45</v>
@@ -60202,24 +60253,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="404" customHeight="1" spans="3:39">
+    <row r="404" customHeight="1" spans="2:39">
+      <c r="B404" s="2" t="s">
+        <v>1465</v>
+      </c>
       <c r="C404" s="2" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="D404" s="3">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>45</v>
@@ -60231,28 +60285,28 @@
         <v>45</v>
       </c>
       <c r="L404" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="Q404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="S404" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
@@ -60282,7 +60336,7 @@
         <v>76</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD404" s="2" t="s">
         <v>45</v>
@@ -60291,7 +60345,7 @@
         <v>45</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG404" s="2" t="s">
         <v>81</v>
@@ -60317,64 +60371,64 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D405" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H405" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L405" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="I405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L405" s="2" t="s">
-        <v>1446</v>
-      </c>
       <c r="M405" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N405" s="2" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="O405" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P405" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="Q405" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="S405" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T405" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U405" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V405" s="2" t="s">
         <v>49</v>
@@ -60383,7 +60437,7 @@
         <v>49</v>
       </c>
       <c r="X405" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y405" s="2" t="s">
         <v>49</v>
@@ -60392,10 +60446,10 @@
         <v>49</v>
       </c>
       <c r="AA405" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB405" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC405" s="2" t="s">
         <v>45</v>
@@ -60404,55 +60458,52 @@
         <v>45</v>
       </c>
       <c r="AE405" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF405" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG405" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM405" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="406" customHeight="1" spans="3:39">
+      <c r="C406" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H406" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="AI405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM405" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="406" customHeight="1" spans="2:39">
-      <c r="B406" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D406" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>1469</v>
-      </c>
       <c r="I406" s="2" t="s">
         <v>45</v>
       </c>
@@ -60463,28 +60514,28 @@
         <v>45</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N406" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="O406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P406" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="Q406" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R406" s="2">
-        <v>2010</v>
-      </c>
-      <c r="S406" s="2">
-        <v>2012</v>
+      <c r="R406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S406" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
@@ -60511,10 +60562,10 @@
         <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD406" s="2" t="s">
         <v>45</v>
@@ -60523,13 +60574,13 @@
         <v>45</v>
       </c>
       <c r="AF406" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG406" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH406" s="2" t="s">
-        <v>1470</v>
+        <v>45</v>
       </c>
       <c r="AI406" s="2" t="s">
         <v>45</v>
@@ -60549,25 +60600,25 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D407" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60579,34 +60630,34 @@
         <v>45</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P407" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="Q407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="S407" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V407" s="2" t="s">
         <v>49</v>
@@ -60624,13 +60675,13 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB407" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD407" s="2" t="s">
         <v>45</v>
@@ -60639,10 +60690,10 @@
         <v>45</v>
       </c>
       <c r="AF407" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60665,58 +60716,58 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="D408" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H408" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L408" s="2" t="s">
-        <v>1446</v>
-      </c>
       <c r="M408" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="O408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P408" s="2" t="s">
-        <v>45</v>
+        <v>1462</v>
       </c>
       <c r="Q408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R408" s="2">
-        <v>2017</v>
+        <v>1960</v>
       </c>
       <c r="S408" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="T408" s="2" t="s">
         <v>50</v>
@@ -60725,7 +60776,7 @@
         <v>49</v>
       </c>
       <c r="V408" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W408" s="2" t="s">
         <v>49</v>
@@ -60779,60 +60830,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="409" customHeight="1" spans="2:39">
-      <c r="B409" s="2" t="s">
-        <v>1474</v>
-      </c>
+    <row r="409" customHeight="1" spans="3:39">
       <c r="C409" s="2" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="D409" s="3">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="H409" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L409" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="I409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L409" s="2" t="s">
-        <v>1446</v>
-      </c>
       <c r="M409" s="2" t="s">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="N409" s="2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="O409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P409" s="2" t="s">
-        <v>1476</v>
+        <v>45</v>
       </c>
       <c r="Q409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="S409" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
@@ -60865,16 +60913,16 @@
         <v>77</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE409" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -60897,58 +60945,58 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G410" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D410" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>1459</v>
-      </c>
       <c r="H410" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L410" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="I410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>1446</v>
-      </c>
       <c r="M410" s="2" t="s">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="O410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P410" s="2" t="s">
-        <v>1479</v>
+        <v>45</v>
       </c>
       <c r="Q410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R410" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="S410" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
@@ -60978,13 +61026,13 @@
         <v>76</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD410" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE410" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF410" s="2" t="s">
         <v>80</v>
@@ -60993,7 +61041,7 @@
         <v>81</v>
       </c>
       <c r="AH410" s="2" t="s">
-        <v>45</v>
+        <v>1484</v>
       </c>
       <c r="AI410" s="2" t="s">
         <v>45</v>
@@ -61011,24 +61059,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="3:39">
+    <row r="411" customHeight="1" spans="2:39">
+      <c r="B411" s="2" t="s">
+        <v>1485</v>
+      </c>
       <c r="C411" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D411" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1459</v>
+        <v>1428</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>45</v>
@@ -61040,10 +61091,10 @@
         <v>45</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>45</v>
@@ -61058,16 +61109,16 @@
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="S411" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="T411" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U411" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V411" s="2" t="s">
         <v>49</v>
@@ -61085,13 +61136,13 @@
         <v>49</v>
       </c>
       <c r="AA411" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC411" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD411" s="2" t="s">
         <v>45</v>
@@ -61100,13 +61151,13 @@
         <v>45</v>
       </c>
       <c r="AF411" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG411" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH411" s="2" t="s">
-        <v>45</v>
+        <v>1488</v>
       </c>
       <c r="AI411" s="2" t="s">
         <v>45</v>
@@ -61126,25 +61177,25 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="D412" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>45</v>
@@ -61156,10 +61207,10 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>45</v>
@@ -61174,13 +61225,13 @@
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="S412" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="T412" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U412" s="2" t="s">
         <v>50</v>
@@ -61207,7 +61258,7 @@
         <v>76</v>
       </c>
       <c r="AC412" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD412" s="2" t="s">
         <v>45</v>
@@ -61216,7 +61267,7 @@
         <v>45</v>
       </c>
       <c r="AF412" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG412" s="2" t="s">
         <v>81</v>
@@ -61242,25 +61293,25 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>89</v>
+        <v>404</v>
       </c>
       <c r="D413" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1428</v>
+        <v>1477</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>45</v>
@@ -61272,13 +61323,13 @@
         <v>45</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1428</v>
+        <v>1477</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>1489</v>
+        <v>45</v>
       </c>
       <c r="O413" s="2" t="s">
         <v>45</v>
@@ -61290,19 +61341,19 @@
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="S413" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U413" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V413" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W413" s="2" t="s">
         <v>49</v>
@@ -61317,7 +61368,7 @@
         <v>49</v>
       </c>
       <c r="AA413" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB413" s="2" t="s">
         <v>45</v>
@@ -61326,16 +61377,16 @@
         <v>45</v>
       </c>
       <c r="AD413" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF413" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG413" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH413" s="2" t="s">
         <v>45</v>
@@ -61358,25 +61409,25 @@
     </row>
     <row r="414" customHeight="1" spans="2:39">
       <c r="B414" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1304</v>
+        <v>379</v>
       </c>
       <c r="D414" s="3">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>45</v>
@@ -61388,28 +61439,28 @@
         <v>45</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>45</v>
+        <v>1493</v>
       </c>
       <c r="O414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>45</v>
+        <v>1494</v>
       </c>
       <c r="Q414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R414" s="2">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="S414" s="2">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
@@ -61439,19 +61490,19 @@
         <v>76</v>
       </c>
       <c r="AC414" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE414" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF414" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG414" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH414" s="2" t="s">
         <v>45</v>
@@ -61474,58 +61525,58 @@
     </row>
     <row r="415" customHeight="1" spans="2:39">
       <c r="B415" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D415" s="3">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1494</v>
+        <v>1476</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1495</v>
+        <v>1477</v>
       </c>
       <c r="H415" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L415" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N415" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="I415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L415" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="M415" s="2" t="s">
+      <c r="O415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P415" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="N415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P415" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S415" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61552,16 +61603,16 @@
         <v>59</v>
       </c>
       <c r="AB415" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC415" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD415" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE415" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF415" s="2" t="s">
         <v>80</v>
@@ -61588,28 +61639,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="2:39">
-      <c r="B416" s="2" t="s">
+    <row r="416" customHeight="1" spans="3:39">
+      <c r="C416" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E416" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D416" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E416" s="2" t="s">
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H416" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>1501</v>
-      </c>
       <c r="I416" s="2" t="s">
         <v>45</v>
       </c>
@@ -61620,13 +61668,13 @@
         <v>45</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>1502</v>
+        <v>1464</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>1500</v>
+        <v>1477</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1503</v>
+        <v>45</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
@@ -61638,16 +61686,16 @@
         <v>45</v>
       </c>
       <c r="R416" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S416" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U416" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V416" s="2" t="s">
         <v>49</v>
@@ -61665,7 +61713,7 @@
         <v>49</v>
       </c>
       <c r="AA416" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB416" s="2" t="s">
         <v>45</v>
@@ -61677,13 +61725,13 @@
         <v>45</v>
       </c>
       <c r="AE416" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF416" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG416" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH416" s="2" t="s">
         <v>45</v>
@@ -61706,25 +61754,25 @@
     </row>
     <row r="417" customHeight="1" spans="2:39">
       <c r="B417" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D417" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="I417" s="2" t="s">
         <v>45</v>
@@ -61736,11 +61784,11 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M417" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="M417" s="2" t="s">
-        <v>1500</v>
-      </c>
       <c r="N417" s="2" t="s">
         <v>45</v>
       </c>
@@ -61754,13 +61802,13 @@
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="S417" s="2">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="T417" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U417" s="2" t="s">
         <v>50</v>
@@ -61784,19 +61832,19 @@
         <v>59</v>
       </c>
       <c r="AB417" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD417" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG417" s="2" t="s">
         <v>81</v>
@@ -61822,44 +61870,44 @@
     </row>
     <row r="418" customHeight="1" spans="2:39">
       <c r="B418" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N418" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D418" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="H418" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L418" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M418" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="N418" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O418" s="2" t="s">
         <v>45</v>
       </c>
@@ -61869,17 +61917,17 @@
       <c r="Q418" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S418" s="2" t="s">
-        <v>45</v>
+      <c r="R418" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S418" s="2">
+        <v>2009</v>
       </c>
       <c r="T418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V418" s="2" t="s">
         <v>49</v>
@@ -61891,13 +61939,13 @@
         <v>49</v>
       </c>
       <c r="Y418" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z418" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA418" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB418" s="2" t="s">
         <v>45</v>
@@ -61906,16 +61954,16 @@
         <v>45</v>
       </c>
       <c r="AD418" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF418" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG418" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH418" s="2" t="s">
         <v>45</v>
@@ -61938,41 +61986,41 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2009</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D419" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="H419" s="2" t="s">
+      <c r="I419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M419" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="I419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L419" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M419" s="2" t="s">
-        <v>1500</v>
-      </c>
       <c r="N419" s="2" t="s">
         <v>45</v>
       </c>
@@ -61986,10 +62034,10 @@
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="S419" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62019,13 +62067,13 @@
         <v>76</v>
       </c>
       <c r="AC419" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD419" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE419" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF419" s="2" t="s">
         <v>80</v>
@@ -62057,10 +62105,10 @@
         <v>1511</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>379</v>
+        <v>61</v>
       </c>
       <c r="D420" s="3">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>1512</v>
@@ -62069,10 +62117,10 @@
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>45</v>
@@ -62084,13 +62132,13 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1502</v>
+        <v>1464</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1500</v>
+        <v>1515</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1514</v>
+        <v>45</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
@@ -62102,16 +62150,16 @@
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="S420" s="2">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U420" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V420" s="2" t="s">
         <v>49</v>
@@ -62129,7 +62177,7 @@
         <v>49</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB420" s="2" t="s">
         <v>45</v>
@@ -62138,16 +62186,16 @@
         <v>45</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF420" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG420" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH420" s="2" t="s">
         <v>45</v>
@@ -62170,25 +62218,25 @@
     </row>
     <row r="421" customHeight="1" spans="2:39">
       <c r="B421" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="D421" s="3">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1500</v>
+        <v>1518</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
@@ -62200,13 +62248,13 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1502</v>
+        <v>1520</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>1500</v>
+        <v>1518</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>47</v>
+        <v>1521</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>45</v>
@@ -62218,10 +62266,10 @@
         <v>45</v>
       </c>
       <c r="R421" s="2">
-        <v>1956</v>
+        <v>2002</v>
       </c>
       <c r="S421" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
@@ -62248,22 +62296,22 @@
         <v>59</v>
       </c>
       <c r="AB421" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC421" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE421" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF421" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG421" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH421" s="2" t="s">
         <v>45</v>
@@ -62286,40 +62334,40 @@
     </row>
     <row r="422" customHeight="1" spans="2:39">
       <c r="B422" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G422" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D422" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G422" s="2" t="s">
+      <c r="H422" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L422" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L422" s="2" t="s">
-        <v>1502</v>
-      </c>
       <c r="M422" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>45</v>
@@ -62334,10 +62382,10 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S422" s="2">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
@@ -62367,16 +62415,16 @@
         <v>45</v>
       </c>
       <c r="AC422" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD422" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>80</v>
+        <v>1137</v>
       </c>
       <c r="AG422" s="2" t="s">
         <v>81</v>
@@ -62402,26 +62450,26 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1524</v>
+        <v>129</v>
       </c>
       <c r="D423" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="H423" s="2" t="s">
-        <v>1448</v>
-      </c>
       <c r="I423" s="2" t="s">
         <v>45</v>
       </c>
@@ -62432,10 +62480,10 @@
         <v>45</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="M423" s="2" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>45</v>
@@ -62449,17 +62497,17 @@
       <c r="Q423" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R423" s="2">
-        <v>2015</v>
-      </c>
-      <c r="S423" s="2">
-        <v>2017</v>
+      <c r="R423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S423" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V423" s="2" t="s">
         <v>49</v>
@@ -62471,28 +62519,28 @@
         <v>49</v>
       </c>
       <c r="Y423" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z423" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA423" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB423" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC423" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD423" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE423" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF423" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG423" s="2" t="s">
         <v>45</v>
@@ -62518,26 +62566,26 @@
     </row>
     <row r="424" customHeight="1" spans="2:39">
       <c r="B424" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D424" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>1531</v>
-      </c>
       <c r="I424" s="2" t="s">
         <v>45</v>
       </c>
@@ -62548,10 +62596,10 @@
         <v>45</v>
       </c>
       <c r="L424" s="2" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="M424" s="2" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>45</v>
@@ -62566,10 +62614,10 @@
         <v>45</v>
       </c>
       <c r="R424" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="S424" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62596,13 +62644,13 @@
         <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC424" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE424" s="2" t="s">
         <v>79</v>
@@ -62634,25 +62682,25 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>71</v>
+        <v>379</v>
       </c>
       <c r="D425" s="3">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>45</v>
@@ -62664,14 +62712,14 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M425" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N425" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="M425" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N425" s="2" t="s">
-        <v>1536</v>
-      </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
       </c>
@@ -62682,16 +62730,16 @@
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="S425" s="2">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U425" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V425" s="2" t="s">
         <v>49</v>
@@ -62709,7 +62757,7 @@
         <v>49</v>
       </c>
       <c r="AA425" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB425" s="2" t="s">
         <v>45</v>
@@ -62718,16 +62766,16 @@
         <v>45</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF425" s="2" t="s">
-        <v>1537</v>
+        <v>45</v>
       </c>
       <c r="AG425" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH425" s="2" t="s">
         <v>45</v>
@@ -62750,13 +62798,13 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>129</v>
+        <v>1356</v>
       </c>
       <c r="D426" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>1534</v>
@@ -62765,7 +62813,7 @@
         <v>45</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="H426" s="2" t="s">
         <v>1535</v>
@@ -62780,13 +62828,13 @@
         <v>45</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
@@ -62798,10 +62846,10 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>1990</v>
+        <v>1956</v>
       </c>
       <c r="S426" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
@@ -62828,22 +62876,22 @@
         <v>59</v>
       </c>
       <c r="AB426" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC426" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD426" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>1137</v>
+        <v>45</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH426" s="2" t="s">
         <v>45</v>
@@ -62866,58 +62914,58 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D427" s="3">
+      <c r="I427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M427" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R427" s="2">
         <v>2017</v>
       </c>
-      <c r="E427" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H427" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I427" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="M427" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N427" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R427" s="2">
-        <v>2012</v>
-      </c>
       <c r="S427" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -62947,19 +62995,19 @@
         <v>45</v>
       </c>
       <c r="AC427" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>1544</v>
+        <v>81</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -62982,40 +63030,40 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L428" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D428" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1532</v>
-      </c>
       <c r="M428" s="2" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>45</v>
@@ -63030,10 +63078,10 @@
         <v>45</v>
       </c>
       <c r="R428" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="S428" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T428" s="2" t="s">
         <v>50</v>
@@ -63063,19 +63111,19 @@
         <v>76</v>
       </c>
       <c r="AC428" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD428" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE428" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF428" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG428" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63096,12 +63144,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" customHeight="1" spans="3:39">
+    <row r="429" customHeight="1" spans="2:39">
+      <c r="B429" s="2" t="s">
+        <v>1546</v>
+      </c>
       <c r="C429" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D429" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>1547</v>
@@ -63125,10 +63176,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63143,16 +63194,16 @@
         <v>45</v>
       </c>
       <c r="R429" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S429" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U429" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V429" s="2" t="s">
         <v>49</v>
@@ -63182,13 +63233,13 @@
         <v>45</v>
       </c>
       <c r="AE429" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63209,42 +63260,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" customHeight="1" spans="3:39">
+    <row r="430" customHeight="1" spans="2:39">
+      <c r="B430" s="2" t="s">
+        <v>1551</v>
+      </c>
       <c r="C430" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L430" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="D430" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E430" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H430" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L430" s="2" t="s">
-        <v>1532</v>
-      </c>
       <c r="M430" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>45</v>
+        <v>1554</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
@@ -63256,10 +63310,10 @@
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S430" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
@@ -63289,19 +63343,19 @@
         <v>45</v>
       </c>
       <c r="AC430" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>91</v>
+        <v>1555</v>
       </c>
       <c r="AG430" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH430" s="2" t="s">
         <v>45</v>
@@ -63324,22 +63378,22 @@
     </row>
     <row r="431" customHeight="1" spans="2:39">
       <c r="B431" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E431" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D431" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E431" s="2" t="s">
-        <v>1534</v>
-      </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H431" s="2" t="s">
         <v>1553</v>
@@ -63354,13 +63408,13 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>1554</v>
+        <v>45</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63371,11 +63425,11 @@
       <c r="Q431" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S431" s="2" t="s">
-        <v>45</v>
+      <c r="R431" s="2">
+        <v>1990</v>
+      </c>
+      <c r="S431" s="2">
+        <v>2010</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
@@ -63402,19 +63456,19 @@
         <v>59</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC431" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE431" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>363</v>
+        <v>1137</v>
       </c>
       <c r="AG431" s="2" t="s">
         <v>81</v>
@@ -63440,43 +63494,43 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D432" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1530</v>
+        <v>1358</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>45</v>
+        <v>1560</v>
       </c>
       <c r="J432" s="2" t="s">
-        <v>45</v>
+        <v>1561</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>45</v>
+        <v>1554</v>
       </c>
       <c r="O432" s="2" t="s">
         <v>45</v>
@@ -63488,13 +63542,13 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="S432" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="T432" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U432" s="2" t="s">
         <v>50</v>
@@ -63506,7 +63560,7 @@
         <v>49</v>
       </c>
       <c r="X432" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y432" s="2" t="s">
         <v>49</v>
@@ -63524,16 +63578,16 @@
         <v>45</v>
       </c>
       <c r="AD432" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE432" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>81</v>
+        <v>1437</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63556,28 +63610,28 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D433" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>45</v>
+        <v>1563</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>45</v>
@@ -63586,10 +63640,10 @@
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N433" s="2" t="s">
         <v>45</v>
@@ -63604,16 +63658,16 @@
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="S433" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U433" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V433" s="2" t="s">
         <v>49</v>
@@ -63631,10 +63685,10 @@
         <v>49</v>
       </c>
       <c r="AA433" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC433" s="2" t="s">
         <v>45</v>
@@ -63646,10 +63700,10 @@
         <v>45</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63670,27 +63724,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="434" customHeight="1" spans="2:39">
-      <c r="B434" s="2" t="s">
-        <v>1560</v>
-      </c>
+    <row r="434" customHeight="1" spans="3:39">
       <c r="C434" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D434" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="I434" s="2" t="s">
         <v>45</v>
@@ -63702,13 +63753,13 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>1564</v>
+        <v>45</v>
       </c>
       <c r="O434" s="2" t="s">
         <v>45</v>
@@ -63720,13 +63771,13 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="S434" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="T434" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U434" s="2" t="s">
         <v>49</v>
@@ -63786,27 +63837,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="2:39">
-      <c r="B435" s="2" t="s">
-        <v>1565</v>
-      </c>
+    <row r="435" customHeight="1" spans="3:39">
       <c r="C435" s="2" t="s">
-        <v>115</v>
+        <v>1567</v>
       </c>
       <c r="D435" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1534</v>
+        <v>1568</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>45</v>
@@ -63818,10 +63866,10 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -63836,7 +63884,7 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="S435" s="2">
         <v>2019</v>
@@ -63881,10 +63929,10 @@
         <v>91</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>396</v>
+        <v>1302</v>
       </c>
       <c r="AH435" s="2" t="s">
-        <v>1567</v>
+        <v>45</v>
       </c>
       <c r="AI435" s="2" t="s">
         <v>45</v>
@@ -63904,25 +63952,25 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1392</v>
+        <v>1542</v>
       </c>
       <c r="D436" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1534</v>
+        <v>1552</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
@@ -63934,13 +63982,13 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>45</v>
+        <v>1571</v>
       </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
@@ -63951,11 +63999,11 @@
       <c r="Q436" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R436" s="2">
-        <v>2021</v>
-      </c>
-      <c r="S436" s="2">
-        <v>2023</v>
+      <c r="R436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S436" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T436" s="2" t="s">
         <v>50</v>
@@ -63979,25 +64027,25 @@
         <v>49</v>
       </c>
       <c r="AA436" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB436" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC436" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64020,25 +64068,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="D437" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1534</v>
+        <v>1568</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64050,10 +64098,10 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="N437" s="2" t="s">
         <v>45</v>
@@ -64068,13 +64116,13 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="S437" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="T437" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U437" s="2" t="s">
         <v>50</v>
@@ -64086,7 +64134,7 @@
         <v>49</v>
       </c>
       <c r="X437" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y437" s="2" t="s">
         <v>49</v>
@@ -64095,7 +64143,7 @@
         <v>49</v>
       </c>
       <c r="AA437" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB437" s="2" t="s">
         <v>45</v>
@@ -64110,13 +64158,13 @@
         <v>45</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG437" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH437" s="2" t="s">
-        <v>1572</v>
+        <v>45</v>
       </c>
       <c r="AI437" s="2" t="s">
         <v>45</v>
@@ -64136,22 +64184,22 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="D438" s="3">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1575</v>
+        <v>1548</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>1576</v>
@@ -64166,10 +64214,10 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1575</v>
+        <v>1548</v>
       </c>
       <c r="N438" s="2" t="s">
         <v>45</v>
@@ -64184,16 +64232,16 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="S438" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="T438" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V438" s="2" t="s">
         <v>49</v>
@@ -64211,10 +64259,10 @@
         <v>49</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB438" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC438" s="2" t="s">
         <v>45</v>
@@ -64226,13 +64274,13 @@
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH438" s="2" t="s">
-        <v>1577</v>
+        <v>45</v>
       </c>
       <c r="AI438" s="2" t="s">
         <v>45</v>
@@ -64252,22 +64300,22 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E439" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D439" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E439" s="2" t="s">
+      <c r="F439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G439" s="2" t="s">
         <v>1579</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G439" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="H439" s="2" t="s">
         <v>1580</v>
@@ -64282,14 +64330,14 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="M439" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N439" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="N439" s="2" t="s">
-        <v>1582</v>
-      </c>
       <c r="O439" s="2" t="s">
         <v>45</v>
       </c>
@@ -64300,13 +64348,13 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="S439" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T439" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U439" s="2" t="s">
         <v>49</v>
@@ -64327,7 +64375,7 @@
         <v>49</v>
       </c>
       <c r="AA439" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB439" s="2" t="s">
         <v>45</v>
@@ -64368,64 +64416,64 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D440" s="3">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1584</v>
+        <v>1552</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>1585</v>
+        <v>1548</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>1587</v>
+        <v>45</v>
       </c>
       <c r="J440" s="2" t="s">
-        <v>1588</v>
+        <v>45</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1589</v>
+        <v>1550</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1585</v>
+        <v>1548</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>1590</v>
+        <v>45</v>
       </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P440" s="2" t="s">
-        <v>1590</v>
+        <v>45</v>
       </c>
       <c r="Q440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="S440" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T440" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V440" s="2" t="s">
         <v>49</v>
@@ -64446,10 +64494,10 @@
         <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC440" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD440" s="2" t="s">
         <v>45</v>
@@ -64458,13 +64506,13 @@
         <v>45</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG440" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH440" s="2" t="s">
-        <v>45</v>
+        <v>1584</v>
       </c>
       <c r="AI440" s="2" t="s">
         <v>45</v>
@@ -64484,16 +64532,16 @@
     </row>
     <row r="441" customHeight="1" spans="2:39">
       <c r="B441" s="2" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>129</v>
+        <v>1392</v>
       </c>
       <c r="D441" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1592</v>
+        <v>1552</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>45</v>
@@ -64502,7 +64550,7 @@
         <v>1548</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
@@ -64514,10 +64562,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1589</v>
+        <v>1550</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1594</v>
+        <v>1548</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64531,17 +64579,17 @@
       <c r="Q441" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S441" s="2" t="s">
-        <v>45</v>
+      <c r="R441" s="2">
+        <v>2021</v>
+      </c>
+      <c r="S441" s="2">
+        <v>2023</v>
       </c>
       <c r="T441" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U441" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V441" s="2" t="s">
         <v>49</v>
@@ -64553,7 +64601,7 @@
         <v>49</v>
       </c>
       <c r="Y441" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z441" s="2" t="s">
         <v>49</v>
@@ -64562,7 +64610,7 @@
         <v>45</v>
       </c>
       <c r="AB441" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC441" s="2" t="s">
         <v>77</v>
@@ -64574,10 +64622,10 @@
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64600,28 +64648,28 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D442" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1358</v>
+        <v>1548</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>1541</v>
+        <v>45</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>45</v>
@@ -64630,10 +64678,10 @@
         <v>45</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>45</v>
+        <v>1550</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>1597</v>
+        <v>1548</v>
       </c>
       <c r="N442" s="2" t="s">
         <v>45</v>
@@ -64648,10 +64696,10 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="S442" s="2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64675,16 +64723,16 @@
         <v>49</v>
       </c>
       <c r="AA442" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC442" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE442" s="2" t="s">
         <v>45</v>
@@ -64693,10 +64741,10 @@
         <v>91</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>1302</v>
+        <v>396</v>
       </c>
       <c r="AH442" s="2" t="s">
-        <v>45</v>
+        <v>1589</v>
       </c>
       <c r="AI442" s="2" t="s">
         <v>45</v>
@@ -64716,28 +64764,28 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D443" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>1541</v>
+        <v>45</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>45</v>
@@ -64746,10 +64794,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>45</v>
+        <v>1550</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64764,10 +64812,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="S443" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64794,10 +64842,10 @@
         <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC443" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD443" s="2" t="s">
         <v>45</v>
@@ -64812,7 +64860,7 @@
         <v>81</v>
       </c>
       <c r="AH443" s="2" t="s">
-        <v>45</v>
+        <v>1594</v>
       </c>
       <c r="AI443" s="2" t="s">
         <v>45</v>
@@ -64832,25 +64880,25 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D444" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1603</v>
+        <v>1416</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>45</v>
@@ -64862,13 +64910,13 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1605</v>
+        <v>1550</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>45</v>
+        <v>1599</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>45</v>
@@ -64880,16 +64928,16 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="S444" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U444" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V444" s="2" t="s">
         <v>49</v>
@@ -64907,10 +64955,10 @@
         <v>49</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC444" s="2" t="s">
         <v>45</v>
@@ -64922,10 +64970,10 @@
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG444" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH444" s="2" t="s">
         <v>45</v>
@@ -64948,58 +64996,58 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L445" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="M445" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N445" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="D445" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H445" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L445" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="M445" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="N445" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P445" s="2" t="s">
-        <v>45</v>
+        <v>1607</v>
       </c>
       <c r="Q445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="S445" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65023,10 +65071,10 @@
         <v>49</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB445" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC445" s="2" t="s">
         <v>45</v>
@@ -65038,7 +65086,7 @@
         <v>45</v>
       </c>
       <c r="AF445" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG445" s="2" t="s">
         <v>45</v>
@@ -65064,25 +65112,25 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D446" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1548</v>
+        <v>1565</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="I446" s="2" t="s">
         <v>45</v>
@@ -65094,13 +65142,13 @@
         <v>45</v>
       </c>
       <c r="L446" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M446" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="M446" s="2" t="s">
-        <v>1548</v>
-      </c>
       <c r="N446" s="2" t="s">
-        <v>1615</v>
+        <v>45</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65111,14 +65159,14 @@
       <c r="Q446" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R446" s="2">
-        <v>2023</v>
-      </c>
-      <c r="S446" s="2">
-        <v>2023</v>
+      <c r="R446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S446" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U446" s="2" t="s">
         <v>49</v>
@@ -65133,7 +65181,7 @@
         <v>49</v>
       </c>
       <c r="Y446" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z446" s="2" t="s">
         <v>49</v>
@@ -65142,10 +65190,10 @@
         <v>45</v>
       </c>
       <c r="AB446" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
@@ -65180,28 +65228,28 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1607</v>
+        <v>115</v>
       </c>
       <c r="D447" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1617</v>
+        <v>1558</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1609</v>
+        <v>1358</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>45</v>
+        <v>1559</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>45</v>
@@ -65210,13 +65258,13 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>1611</v>
+        <v>45</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>1619</v>
+        <v>45</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>45</v>
@@ -65228,10 +65276,10 @@
         <v>45</v>
       </c>
       <c r="R447" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S447" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65258,13 +65306,13 @@
         <v>59</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC447" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE447" s="2" t="s">
         <v>45</v>
@@ -65273,7 +65321,7 @@
         <v>91</v>
       </c>
       <c r="AG447" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH447" s="2" t="s">
         <v>45</v>
@@ -65296,122 +65344,702 @@
     </row>
     <row r="448" customHeight="1" spans="2:39">
       <c r="B448" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M448" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="N448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R448" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S448" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T448" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U448" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z448" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA448" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC448" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF448" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG448" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM448" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" customHeight="1" spans="2:39">
+      <c r="B449" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G449" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D448" s="3">
+      <c r="H449" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L449" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M449" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R449" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S449" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T449" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U449" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V449" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W449" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X449" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y449" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z449" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA449" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB449" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF449" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG449" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM449" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="450" customHeight="1" spans="2:39">
+      <c r="B450" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R450" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S450" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T450" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM450" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" customHeight="1" spans="2:39">
+      <c r="B451" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L451" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M451" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N451" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R451" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S451" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T451" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z451" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM451" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" customHeight="1" spans="2:39">
+      <c r="B452" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M452" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N452" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R452" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S452" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T452" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U452" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V452" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W452" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X452" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y452" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z452" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA452" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB452" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC452" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD452" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF452" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG452" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM452" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="453" customHeight="1" spans="2:39">
+      <c r="B453" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D453" s="3">
         <v>2024</v>
       </c>
-      <c r="E448" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="H448" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L448" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="M448" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="N448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R448" s="2">
+      <c r="E453" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M453" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R453" s="2">
         <v>2023</v>
       </c>
-      <c r="S448" s="2">
+      <c r="S453" s="2">
         <v>2023</v>
       </c>
-      <c r="T448" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z448" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM448" s="2" t="s">
+      <c r="T453" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z453" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM453" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM448">
+  <autoFilter ref="A1:AM453">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="5805"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$453</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$454</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15807" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="1643">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11919,6 +11919,15 @@
   </si>
   <si>
     <t>Vientiane Capital</t>
+  </si>
+  <si>
+    <t>Co-circulation of the dengue with chikungunya virus during the 2013 outbreak in the southern part of Lao PDR</t>
+  </si>
+  <si>
+    <t>Kansai Medical University</t>
+  </si>
+  <si>
+    <t>Seiji Kanda</t>
   </si>
   <si>
     <t>Dengue virus surveillance for early warning, Singapore</t>
@@ -13650,12 +13659,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM453"/>
+  <dimension ref="A1:AM454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T397" sqref="T397"/>
+      <selection pane="bottomLeft" activeCell="AC402" sqref="AC402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -59916,10 +59925,10 @@
         <v>1460</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>115</v>
+        <v>1383</v>
       </c>
       <c r="D401" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>1461</v>
@@ -59928,11 +59937,11 @@
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H401" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="H401" s="2" t="s">
-        <v>1463</v>
-      </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
       </c>
@@ -59943,28 +59952,28 @@
         <v>45</v>
       </c>
       <c r="L401" s="2" t="s">
-        <v>1464</v>
+        <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1462</v>
+        <v>45</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>1462</v>
+        <v>45</v>
       </c>
       <c r="Q401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R401" s="2">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="S401" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
@@ -59991,7 +60000,7 @@
         <v>59</v>
       </c>
       <c r="AB401" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC401" s="2" t="s">
         <v>77</v>
@@ -60000,7 +60009,7 @@
         <v>78</v>
       </c>
       <c r="AE401" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF401" s="2" t="s">
         <v>80</v>
@@ -60027,24 +60036,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" customHeight="1" spans="3:39">
+    <row r="402" customHeight="1" spans="2:39">
+      <c r="B402" s="2" t="s">
+        <v>1463</v>
+      </c>
       <c r="C402" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D402" s="3">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -60056,34 +60068,34 @@
         <v>45</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="Q402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="S402" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U402" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V402" s="2" t="s">
         <v>49</v>
@@ -60101,25 +60113,25 @@
         <v>49</v>
       </c>
       <c r="AA402" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB402" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC402" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD402" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE402" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF402" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG402" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH402" s="2" t="s">
         <v>45</v>
@@ -60142,135 +60154,132 @@
     </row>
     <row r="403" customHeight="1" spans="3:39">
       <c r="C403" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L403" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M403" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N403" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P403" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R403" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S403" s="2">
+        <v>2009</v>
+      </c>
+      <c r="T403" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM403" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" customHeight="1" spans="3:39">
+      <c r="C404" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D403" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L403" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M403" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N403" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="O403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P403" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R403" s="2">
-        <v>2013</v>
-      </c>
-      <c r="S403" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T403" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U403" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB403" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC403" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD403" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE403" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM403" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="404" customHeight="1" spans="2:39">
-      <c r="B404" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D404" s="3">
         <v>2016</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H404" s="2" t="s">
         <v>1466</v>
@@ -60285,19 +60294,19 @@
         <v>45</v>
       </c>
       <c r="L404" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="O404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="Q404" s="2" t="s">
         <v>45</v>
@@ -60330,25 +60339,25 @@
         <v>49</v>
       </c>
       <c r="AA404" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB404" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD404" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE404" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG404" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH404" s="2" t="s">
         <v>45</v>
@@ -60371,329 +60380,329 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D405" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H405" s="2" t="s">
         <v>1469</v>
       </c>
       <c r="I405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M405" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N405" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P405" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R405" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S405" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T405" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U405" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z405" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA405" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB405" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF405" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG405" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM405" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="406" customHeight="1" spans="2:39">
+      <c r="B406" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="J405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L405" s="2" t="s">
+      <c r="C406" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L406" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M406" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N406" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P406" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R406" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S406" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X406" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z406" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE406" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM406" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="407" customHeight="1" spans="3:39">
+      <c r="C407" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E407" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="M405" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N405" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="O405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P405" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R405" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S405" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X405" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z405" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE405" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM405" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="406" customHeight="1" spans="3:39">
-      <c r="C406" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D406" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L406" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M406" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N406" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="O406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P406" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T406" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U406" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V406" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W406" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X406" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y406" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z406" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA406" s="2" t="s">
+      <c r="F407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L407" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M407" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N407" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P407" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T407" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U407" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA407" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB406" s="2" t="s">
+      <c r="AB407" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF406" s="2" t="s">
+      <c r="AC407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF407" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG406" s="2" t="s">
+      <c r="AG407" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AH406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL406" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM406" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="407" customHeight="1" spans="2:39">
-      <c r="B407" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D407" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H407" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L407" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M407" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N407" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="O407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P407" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R407" s="2">
-        <v>2003</v>
-      </c>
-      <c r="S407" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T407" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG407" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60716,135 +60725,138 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D408" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M408" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N408" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P408" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R408" s="2">
+        <v>2003</v>
+      </c>
+      <c r="S408" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM408" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="409" customHeight="1" spans="2:39">
+      <c r="B409" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D409" s="3">
         <v>2023</v>
       </c>
-      <c r="E408" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L408" s="2" t="s">
+      <c r="E409" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="M408" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N408" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="O408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P408" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R408" s="2">
-        <v>1960</v>
-      </c>
-      <c r="S408" s="2">
-        <v>2021</v>
-      </c>
-      <c r="T408" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM408" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="409" customHeight="1" spans="3:39">
-      <c r="C409" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D409" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>1476</v>
-      </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>1478</v>
@@ -60859,144 +60871,141 @@
         <v>45</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="N409" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="O409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P409" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R409" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S409" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T409" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z409" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM409" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="410" customHeight="1" spans="3:39">
+      <c r="C410" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E410" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="O409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R409" s="2">
+      <c r="F410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N410" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="O410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R410" s="2">
         <v>2008</v>
       </c>
-      <c r="S409" s="2">
+      <c r="S410" s="2">
         <v>2010</v>
-      </c>
-      <c r="T409" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U409" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V409" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W409" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X409" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y409" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z409" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA409" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB409" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC409" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF409" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG409" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM409" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="410" customHeight="1" spans="2:39">
-      <c r="B410" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D410" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M410" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N410" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="O410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R410" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S410" s="2">
-        <v>2012</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
@@ -61026,7 +61035,7 @@
         <v>76</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD410" s="2" t="s">
         <v>45</v>
@@ -61041,7 +61050,7 @@
         <v>81</v>
       </c>
       <c r="AH410" s="2" t="s">
-        <v>1484</v>
+        <v>45</v>
       </c>
       <c r="AI410" s="2" t="s">
         <v>45</v>
@@ -61061,44 +61070,44 @@
     </row>
     <row r="411" customHeight="1" spans="2:39">
       <c r="B411" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D411" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E411" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L411" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M411" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N411" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="F411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L411" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M411" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N411" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O411" s="2" t="s">
         <v>45</v>
       </c>
@@ -61109,7 +61118,7 @@
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="S411" s="2">
         <v>2012</v>
@@ -61139,10 +61148,10 @@
         <v>59</v>
       </c>
       <c r="AB411" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC411" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD411" s="2" t="s">
         <v>45</v>
@@ -61157,7 +61166,7 @@
         <v>81</v>
       </c>
       <c r="AH411" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AI411" s="2" t="s">
         <v>45</v>
@@ -61177,22 +61186,22 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E412" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D412" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1476</v>
-      </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1477</v>
+        <v>1428</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>1490</v>
@@ -61207,10 +61216,10 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>45</v>
@@ -61225,10 +61234,10 @@
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="S412" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
@@ -61255,7 +61264,7 @@
         <v>59</v>
       </c>
       <c r="AB412" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC412" s="2" t="s">
         <v>77</v>
@@ -61273,7 +61282,7 @@
         <v>81</v>
       </c>
       <c r="AH412" s="2" t="s">
-        <v>45</v>
+        <v>1491</v>
       </c>
       <c r="AI412" s="2" t="s">
         <v>45</v>
@@ -61293,25 +61302,25 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="D413" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>45</v>
@@ -61323,10 +61332,10 @@
         <v>45</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="N413" s="2" t="s">
         <v>45</v>
@@ -61341,19 +61350,19 @@
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S413" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U413" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V413" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W413" s="2" t="s">
         <v>49</v>
@@ -61368,13 +61377,13 @@
         <v>49</v>
       </c>
       <c r="AA413" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB413" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC413" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD413" s="2" t="s">
         <v>45</v>
@@ -61383,10 +61392,10 @@
         <v>45</v>
       </c>
       <c r="AF413" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG413" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH413" s="2" t="s">
         <v>45</v>
@@ -61409,25 +61418,25 @@
     </row>
     <row r="414" customHeight="1" spans="2:39">
       <c r="B414" s="2" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D414" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>45</v>
@@ -61439,37 +61448,37 @@
         <v>45</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>1493</v>
+        <v>45</v>
       </c>
       <c r="O414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>1494</v>
+        <v>45</v>
       </c>
       <c r="Q414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R414" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S414" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U414" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V414" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W414" s="2" t="s">
         <v>49</v>
@@ -61484,25 +61493,25 @@
         <v>49</v>
       </c>
       <c r="AA414" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB414" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC414" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE414" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF414" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG414" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH414" s="2" t="s">
         <v>45</v>
@@ -61528,22 +61537,22 @@
         <v>1495</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>136</v>
+        <v>379</v>
       </c>
       <c r="D415" s="3">
         <v>2021</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="I415" s="2" t="s">
         <v>45</v>
@@ -61555,10 +61564,10 @@
         <v>45</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>1496</v>
@@ -61573,10 +61582,10 @@
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S415" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61615,152 +61624,152 @@
         <v>79</v>
       </c>
       <c r="AF415" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG415" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AH415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM415" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="416" customHeight="1" spans="2:39">
+      <c r="B416" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L416" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M416" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N416" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P416" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="Q416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R416" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S416" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T416" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U416" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z416" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA416" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB416" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC416" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD416" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE416" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF416" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG415" s="2" t="s">
+      <c r="AG416" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM415" s="2" t="s">
+      <c r="AH416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM416" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="3:39">
-      <c r="C416" s="2" t="s">
+    <row r="417" customHeight="1" spans="3:39">
+      <c r="C417" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D416" s="3">
+      <c r="D417" s="3">
         <v>2023</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L416" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M416" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R416" s="2">
-        <v>2005</v>
-      </c>
-      <c r="S416" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T416" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z416" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM416" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="417" customHeight="1" spans="2:39">
-      <c r="B417" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D417" s="3">
-        <v>2010</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>1501</v>
@@ -61769,11 +61778,11 @@
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="H417" s="2" t="s">
-        <v>1503</v>
-      </c>
       <c r="I417" s="2" t="s">
         <v>45</v>
       </c>
@@ -61784,10 +61793,10 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1502</v>
+        <v>1480</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>45</v>
@@ -61802,16 +61811,16 @@
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S417" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="T417" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U417" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V417" s="2" t="s">
         <v>49</v>
@@ -61829,10 +61838,10 @@
         <v>49</v>
       </c>
       <c r="AA417" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB417" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC417" s="2" t="s">
         <v>45</v>
@@ -61844,10 +61853,10 @@
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG417" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH417" s="2" t="s">
         <v>45</v>
@@ -61870,22 +61879,22 @@
     </row>
     <row r="418" customHeight="1" spans="2:39">
       <c r="B418" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E418" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D418" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E418" s="2" t="s">
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1428</v>
       </c>
       <c r="H418" s="2" t="s">
         <v>1506</v>
@@ -61900,13 +61909,13 @@
         <v>45</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>1428</v>
+        <v>1505</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>1507</v>
+        <v>45</v>
       </c>
       <c r="O418" s="2" t="s">
         <v>45</v>
@@ -61918,13 +61927,13 @@
         <v>45</v>
       </c>
       <c r="R418" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="S418" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="T418" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U418" s="2" t="s">
         <v>50</v>
@@ -61948,13 +61957,13 @@
         <v>59</v>
       </c>
       <c r="AB418" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD418" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE418" s="2" t="s">
         <v>45</v>
@@ -61986,22 +61995,22 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E419" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D419" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1501</v>
-      </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1502</v>
+        <v>1428</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>1509</v>
@@ -62016,14 +62025,14 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="M419" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N419" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="N419" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
@@ -62034,10 +62043,10 @@
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S419" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62064,19 +62073,19 @@
         <v>59</v>
       </c>
       <c r="AB419" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD419" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF419" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG419" s="2" t="s">
         <v>81</v>
@@ -62105,37 +62114,37 @@
         <v>1511</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="D420" s="3">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E420" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="F420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G420" s="2" t="s">
+      <c r="I420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M420" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="H420" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L420" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M420" s="2" t="s">
-        <v>1515</v>
       </c>
       <c r="N420" s="2" t="s">
         <v>45</v>
@@ -62153,7 +62162,7 @@
         <v>2005</v>
       </c>
       <c r="S420" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
@@ -62180,13 +62189,13 @@
         <v>59</v>
       </c>
       <c r="AB420" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE420" s="2" t="s">
         <v>45</v>
@@ -62218,26 +62227,26 @@
     </row>
     <row r="421" customHeight="1" spans="2:39">
       <c r="B421" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2007</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G421" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D421" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E421" s="2" t="s">
+      <c r="H421" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="F421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>1519</v>
-      </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
       </c>
@@ -62248,13 +62257,13 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1520</v>
+        <v>1467</v>
       </c>
       <c r="M421" s="2" t="s">
         <v>1518</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>1521</v>
+        <v>45</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>45</v>
@@ -62266,10 +62275,10 @@
         <v>45</v>
       </c>
       <c r="R421" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S421" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
@@ -62302,10 +62311,10 @@
         <v>45</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE421" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF421" s="2" t="s">
         <v>80</v>
@@ -62334,44 +62343,44 @@
     </row>
     <row r="422" customHeight="1" spans="2:39">
       <c r="B422" s="2" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D422" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E422" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L422" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="F422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H422" s="2" t="s">
+      <c r="M422" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N422" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="I422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L422" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M422" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N422" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O422" s="2" t="s">
         <v>45</v>
       </c>
@@ -62382,10 +62391,10 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S422" s="2">
         <v>2008</v>
-      </c>
-      <c r="S422" s="2">
-        <v>2011</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
@@ -62418,13 +62427,13 @@
         <v>45</v>
       </c>
       <c r="AD422" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE422" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG422" s="2" t="s">
         <v>81</v>
@@ -62453,22 +62462,22 @@
         <v>1525</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D423" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="I423" s="2" t="s">
         <v>45</v>
@@ -62480,10 +62489,10 @@
         <v>45</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="M423" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>45</v>
@@ -62497,17 +62506,17 @@
       <c r="Q423" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S423" s="2" t="s">
-        <v>45</v>
+      <c r="R423" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S423" s="2">
+        <v>2011</v>
       </c>
       <c r="T423" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U423" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V423" s="2" t="s">
         <v>49</v>
@@ -62519,13 +62528,13 @@
         <v>49</v>
       </c>
       <c r="Y423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z423" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA423" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB423" s="2" t="s">
         <v>45</v>
@@ -62534,16 +62543,16 @@
         <v>45</v>
       </c>
       <c r="AD423" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF423" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG423" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH423" s="2" t="s">
         <v>45</v>
@@ -62566,25 +62575,25 @@
     </row>
     <row r="424" customHeight="1" spans="2:39">
       <c r="B424" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D424" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I424" s="2" t="s">
         <v>45</v>
@@ -62596,10 +62605,10 @@
         <v>45</v>
       </c>
       <c r="L424" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="M424" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>45</v>
@@ -62613,17 +62622,17 @@
       <c r="Q424" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R424" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S424" s="2">
-        <v>2018</v>
+      <c r="R424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S424" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T424" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U424" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V424" s="2" t="s">
         <v>49</v>
@@ -62635,31 +62644,31 @@
         <v>49</v>
       </c>
       <c r="Y424" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z424" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA424" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC424" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE424" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF424" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG424" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH424" s="2" t="s">
         <v>45</v>
@@ -62682,22 +62691,22 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="D425" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H425" s="2" t="s">
         <v>1531</v>
@@ -62712,13 +62721,13 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>1532</v>
+        <v>45</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
@@ -62730,16 +62739,16 @@
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S425" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U425" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V425" s="2" t="s">
         <v>49</v>
@@ -62757,25 +62766,25 @@
         <v>49</v>
       </c>
       <c r="AA425" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB425" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC425" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE425" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF425" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG425" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH425" s="2" t="s">
         <v>45</v>
@@ -62798,44 +62807,44 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E426" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D426" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E426" s="2" t="s">
+      <c r="F426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H426" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="F426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H426" s="2" t="s">
+      <c r="I426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L426" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M426" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N426" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="I426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L426" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M426" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N426" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
       </c>
@@ -62846,16 +62855,16 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="S426" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U426" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V426" s="2" t="s">
         <v>49</v>
@@ -62873,19 +62882,19 @@
         <v>49</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB426" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC426" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD426" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
         <v>45</v>
@@ -62917,10 +62926,10 @@
         <v>1536</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>115</v>
+        <v>1356</v>
       </c>
       <c r="D427" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>1537</v>
@@ -62929,11 +62938,11 @@
         <v>45</v>
       </c>
       <c r="G427" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>1539</v>
-      </c>
       <c r="I427" s="2" t="s">
         <v>45</v>
       </c>
@@ -62944,13 +62953,13 @@
         <v>45</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>1540</v>
+        <v>1521</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -62962,10 +62971,10 @@
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>2017</v>
+        <v>1956</v>
       </c>
       <c r="S427" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -62992,22 +63001,22 @@
         <v>59</v>
       </c>
       <c r="AB427" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC427" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD427" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -63030,41 +63039,41 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G428" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="H428" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="D428" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E428" s="2" t="s">
+      <c r="I428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M428" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="F428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="M428" s="2" t="s">
-        <v>1544</v>
-      </c>
       <c r="N428" s="2" t="s">
         <v>45</v>
       </c>
@@ -63078,7 +63087,7 @@
         <v>45</v>
       </c>
       <c r="R428" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="S428" s="2">
         <v>2017</v>
@@ -63108,22 +63117,22 @@
         <v>59</v>
       </c>
       <c r="AB428" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC428" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD428" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE428" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF428" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG428" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63146,40 +63155,40 @@
     </row>
     <row r="429" customHeight="1" spans="2:39">
       <c r="B429" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E429" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D429" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E429" s="2" t="s">
+      <c r="F429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G429" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="F429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G429" s="2" t="s">
+      <c r="H429" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L429" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="H429" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L429" s="2" t="s">
-        <v>1550</v>
-      </c>
       <c r="M429" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63194,10 +63203,10 @@
         <v>45</v>
       </c>
       <c r="R429" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="S429" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
@@ -63224,13 +63233,13 @@
         <v>59</v>
       </c>
       <c r="AB429" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC429" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD429" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE429" s="2" t="s">
         <v>79</v>
@@ -63239,7 +63248,7 @@
         <v>80</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63262,43 +63271,43 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D430" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E430" s="2" t="s">
+      <c r="H430" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="F430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H430" s="2" t="s">
+      <c r="I430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L430" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="I430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L430" s="2" t="s">
-        <v>1550</v>
-      </c>
       <c r="M430" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>1554</v>
+        <v>45</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
@@ -63310,10 +63319,10 @@
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S430" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
@@ -63346,13 +63355,13 @@
         <v>45</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>1555</v>
+        <v>80</v>
       </c>
       <c r="AG430" s="2" t="s">
         <v>81</v>
@@ -63378,43 +63387,43 @@
     </row>
     <row r="431" customHeight="1" spans="2:39">
       <c r="B431" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D431" s="3">
         <v>2013</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H431" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L431" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="I431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L431" s="2" t="s">
-        <v>1550</v>
-      </c>
       <c r="M431" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>45</v>
+        <v>1557</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63426,10 +63435,10 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="S431" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
@@ -63459,16 +63468,16 @@
         <v>45</v>
       </c>
       <c r="AC431" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>1137</v>
+        <v>1558</v>
       </c>
       <c r="AG431" s="2" t="s">
         <v>81</v>
@@ -63494,43 +63503,43 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="D432" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1358</v>
+        <v>1551</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>1560</v>
+        <v>45</v>
       </c>
       <c r="J432" s="2" t="s">
-        <v>1561</v>
+        <v>45</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>1554</v>
+        <v>45</v>
       </c>
       <c r="O432" s="2" t="s">
         <v>45</v>
@@ -63542,10 +63551,10 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="S432" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T432" s="2" t="s">
         <v>50</v>
@@ -63575,19 +63584,19 @@
         <v>45</v>
       </c>
       <c r="AC432" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE432" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63610,43 +63619,43 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D433" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1552</v>
+        <v>1561</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1548</v>
+        <v>1358</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="I433" s="2" t="s">
         <v>1563</v>
       </c>
       <c r="J433" s="2" t="s">
-        <v>45</v>
+        <v>1564</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>45</v>
+        <v>1557</v>
       </c>
       <c r="O433" s="2" t="s">
         <v>45</v>
@@ -63658,10 +63667,10 @@
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="S433" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
@@ -63688,7 +63697,7 @@
         <v>59</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC433" s="2" t="s">
         <v>45</v>
@@ -63697,13 +63706,13 @@
         <v>45</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>81</v>
+        <v>1437</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63724,28 +63733,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="434" customHeight="1" spans="3:39">
+    <row r="434" customHeight="1" spans="2:39">
+      <c r="B434" s="2" t="s">
+        <v>1565</v>
+      </c>
       <c r="C434" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D434" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="H434" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I434" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="I434" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J434" s="2" t="s">
         <v>45</v>
       </c>
@@ -63753,10 +63765,10 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N434" s="2" t="s">
         <v>45</v>
@@ -63771,7 +63783,7 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="S434" s="2">
         <v>2016</v>
@@ -63780,7 +63792,7 @@
         <v>50</v>
       </c>
       <c r="U434" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V434" s="2" t="s">
         <v>49</v>
@@ -63801,7 +63813,7 @@
         <v>59</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC434" s="2" t="s">
         <v>45</v>
@@ -63813,10 +63825,10 @@
         <v>45</v>
       </c>
       <c r="AF434" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG434" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH434" s="2" t="s">
         <v>45</v>
@@ -63839,22 +63851,22 @@
     </row>
     <row r="435" customHeight="1" spans="3:39">
       <c r="C435" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E435" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="D435" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E435" s="2" t="s">
+      <c r="F435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G435" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="F435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>1548</v>
-      </c>
       <c r="H435" s="2" t="s">
-        <v>1559</v>
+        <v>1569</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>45</v>
@@ -63866,10 +63878,10 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -63884,16 +63896,16 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S435" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U435" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V435" s="2" t="s">
         <v>49</v>
@@ -63917,7 +63929,7 @@
         <v>45</v>
       </c>
       <c r="AC435" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD435" s="2" t="s">
         <v>45</v>
@@ -63926,10 +63938,10 @@
         <v>45</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH435" s="2" t="s">
         <v>45</v>
@@ -63950,27 +63962,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="436" customHeight="1" spans="2:39">
-      <c r="B436" s="2" t="s">
-        <v>1569</v>
-      </c>
+    <row r="436" customHeight="1" spans="3:39">
       <c r="C436" s="2" t="s">
-        <v>1542</v>
+        <v>1570</v>
       </c>
       <c r="D436" s="3">
         <v>2020</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1552</v>
+        <v>1571</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
@@ -63982,13 +63991,13 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>1571</v>
+        <v>45</v>
       </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
@@ -63999,11 +64008,11 @@
       <c r="Q436" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S436" s="2" t="s">
-        <v>45</v>
+      <c r="R436" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S436" s="2">
+        <v>2019</v>
       </c>
       <c r="T436" s="2" t="s">
         <v>50</v>
@@ -64030,22 +64039,22 @@
         <v>59</v>
       </c>
       <c r="AB436" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC436" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64071,19 +64080,19 @@
         <v>1572</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>342</v>
+        <v>1545</v>
       </c>
       <c r="D437" s="3">
         <v>2020</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H437" s="2" t="s">
         <v>1573</v>
@@ -64098,13 +64107,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>45</v>
+        <v>1574</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64115,14 +64124,14 @@
       <c r="Q437" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R437" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S437" s="2">
-        <v>2015</v>
+      <c r="R437" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S437" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T437" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U437" s="2" t="s">
         <v>50</v>
@@ -64134,7 +64143,7 @@
         <v>49</v>
       </c>
       <c r="X437" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y437" s="2" t="s">
         <v>49</v>
@@ -64146,16 +64155,16 @@
         <v>59</v>
       </c>
       <c r="AB437" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC437" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD437" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE437" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF437" s="2" t="s">
         <v>363</v>
@@ -64184,22 +64193,22 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D438" s="3">
         <v>2020</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>1576</v>
@@ -64214,10 +64223,10 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N438" s="2" t="s">
         <v>45</v>
@@ -64232,16 +64241,16 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="S438" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V438" s="2" t="s">
         <v>49</v>
@@ -64250,7 +64259,7 @@
         <v>49</v>
       </c>
       <c r="X438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y438" s="2" t="s">
         <v>49</v>
@@ -64259,7 +64268,7 @@
         <v>49</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB438" s="2" t="s">
         <v>45</v>
@@ -64268,16 +64277,16 @@
         <v>45</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH438" s="2" t="s">
         <v>45</v>
@@ -64303,10 +64312,10 @@
         <v>1577</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="D439" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>1578</v>
@@ -64315,11 +64324,11 @@
         <v>45</v>
       </c>
       <c r="G439" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H439" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="H439" s="2" t="s">
-        <v>1580</v>
-      </c>
       <c r="I439" s="2" t="s">
         <v>45</v>
       </c>
@@ -64330,13 +64339,13 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M439" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N439" s="2" t="s">
-        <v>1581</v>
+        <v>45</v>
       </c>
       <c r="O439" s="2" t="s">
         <v>45</v>
@@ -64348,13 +64357,13 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="S439" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T439" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U439" s="2" t="s">
         <v>49</v>
@@ -64375,7 +64384,7 @@
         <v>49</v>
       </c>
       <c r="AA439" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB439" s="2" t="s">
         <v>45</v>
@@ -64416,22 +64425,22 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G440" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D440" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>1548</v>
       </c>
       <c r="H440" s="2" t="s">
         <v>1583</v>
@@ -64446,13 +64455,13 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>45</v>
+        <v>1584</v>
       </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
@@ -64464,16 +64473,16 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
+        <v>2007</v>
+      </c>
+      <c r="S440" s="2">
         <v>2017</v>
       </c>
-      <c r="S440" s="2">
-        <v>2019</v>
-      </c>
       <c r="T440" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U440" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V440" s="2" t="s">
         <v>49</v>
@@ -64497,7 +64506,7 @@
         <v>45</v>
       </c>
       <c r="AC440" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD440" s="2" t="s">
         <v>45</v>
@@ -64506,13 +64515,13 @@
         <v>45</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG440" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH440" s="2" t="s">
-        <v>1584</v>
+        <v>45</v>
       </c>
       <c r="AI440" s="2" t="s">
         <v>45</v>
@@ -64535,19 +64544,19 @@
         <v>1585</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1392</v>
+        <v>115</v>
       </c>
       <c r="D441" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H441" s="2" t="s">
         <v>1586</v>
@@ -64562,10 +64571,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64580,10 +64589,10 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="S441" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
@@ -64607,7 +64616,7 @@
         <v>49</v>
       </c>
       <c r="AA441" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB441" s="2" t="s">
         <v>45</v>
@@ -64628,7 +64637,7 @@
         <v>396</v>
       </c>
       <c r="AH441" s="2" t="s">
-        <v>45</v>
+        <v>1587</v>
       </c>
       <c r="AI441" s="2" t="s">
         <v>45</v>
@@ -64648,25 +64657,25 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D442" s="3">
         <v>2023</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>45</v>
@@ -64678,10 +64687,10 @@
         <v>45</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="N442" s="2" t="s">
         <v>45</v>
@@ -64696,7 +64705,7 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="S442" s="2">
         <v>2023</v>
@@ -64729,10 +64738,10 @@
         <v>45</v>
       </c>
       <c r="AC442" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE442" s="2" t="s">
         <v>45</v>
@@ -64744,7 +64753,7 @@
         <v>396</v>
       </c>
       <c r="AH442" s="2" t="s">
-        <v>1589</v>
+        <v>45</v>
       </c>
       <c r="AI442" s="2" t="s">
         <v>45</v>
@@ -64767,23 +64776,23 @@
         <v>1590</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D443" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E443" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="F443" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G443" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="H443" s="2" t="s">
-        <v>1593</v>
-      </c>
       <c r="I443" s="2" t="s">
         <v>45</v>
       </c>
@@ -64794,10 +64803,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1592</v>
+        <v>1551</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64812,10 +64821,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>1999</v>
+        <v>2023</v>
       </c>
       <c r="S443" s="2">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64839,16 +64848,16 @@
         <v>49</v>
       </c>
       <c r="AA443" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE443" s="2" t="s">
         <v>45</v>
@@ -64857,10 +64866,10 @@
         <v>91</v>
       </c>
       <c r="AG443" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH443" s="2" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AI443" s="2" t="s">
         <v>45</v>
@@ -64880,103 +64889,103 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G444" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D444" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="F444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H444" s="2" t="s">
+      <c r="I444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L444" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M444" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R444" s="2">
+        <v>1999</v>
+      </c>
+      <c r="S444" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T444" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U444" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z444" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA444" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB444" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF444" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG444" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH444" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="I444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L444" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="M444" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="N444" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="O444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R444" s="2">
-        <v>2016</v>
-      </c>
-      <c r="S444" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T444" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z444" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH444" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AI444" s="2" t="s">
         <v>45</v>
@@ -64996,58 +65005,58 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D445" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E445" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L445" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M445" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="F445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G445" s="2" t="s">
+      <c r="N445" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="H445" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I445" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J445" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L445" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="M445" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="N445" s="2" t="s">
-        <v>1607</v>
-      </c>
       <c r="O445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P445" s="2" t="s">
-        <v>1607</v>
+        <v>45</v>
       </c>
       <c r="Q445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="S445" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65071,10 +65080,10 @@
         <v>49</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB445" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC445" s="2" t="s">
         <v>45</v>
@@ -65086,7 +65095,7 @@
         <v>45</v>
       </c>
       <c r="AF445" s="2" t="s">
-        <v>1137</v>
+        <v>45</v>
       </c>
       <c r="AG445" s="2" t="s">
         <v>45</v>
@@ -65112,61 +65121,61 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J446" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D446" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E446" s="2" t="s">
+      <c r="K446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L446" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="H446" s="2" t="s">
+      <c r="M446" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N446" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="I446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L446" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="M446" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="N446" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P446" s="2" t="s">
-        <v>45</v>
+        <v>1610</v>
       </c>
       <c r="Q446" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S446" s="2" t="s">
-        <v>45</v>
+      <c r="R446" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S446" s="2">
+        <v>2006</v>
       </c>
       <c r="T446" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U446" s="2" t="s">
         <v>49</v>
@@ -65181,19 +65190,19 @@
         <v>49</v>
       </c>
       <c r="Y446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z446" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA446" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB446" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
@@ -65202,7 +65211,7 @@
         <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG446" s="2" t="s">
         <v>45</v>
@@ -65228,28 +65237,28 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E447" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D447" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1558</v>
-      </c>
       <c r="F447" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1358</v>
+        <v>1568</v>
       </c>
       <c r="H447" s="2" t="s">
         <v>1613</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>1559</v>
+        <v>45</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>45</v>
@@ -65258,7 +65267,7 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>45</v>
+        <v>1609</v>
       </c>
       <c r="M447" s="2" t="s">
         <v>1614</v>
@@ -65275,17 +65284,17 @@
       <c r="Q447" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R447" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S447" s="2">
-        <v>2018</v>
+      <c r="R447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S447" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T447" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U447" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V447" s="2" t="s">
         <v>49</v>
@@ -65297,16 +65306,16 @@
         <v>49</v>
       </c>
       <c r="Y447" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z447" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA447" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC447" s="2" t="s">
         <v>77</v>
@@ -65318,10 +65327,10 @@
         <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG447" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH447" s="2" t="s">
         <v>45</v>
@@ -65347,38 +65356,38 @@
         <v>1615</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D448" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E448" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H448" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M448" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="I448" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M448" s="2" t="s">
-        <v>1614</v>
-      </c>
       <c r="N448" s="2" t="s">
         <v>45</v>
       </c>
@@ -65392,10 +65401,10 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S448" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T448" s="2" t="s">
         <v>50</v>
@@ -65437,7 +65446,7 @@
         <v>91</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH448" s="2" t="s">
         <v>45</v>
@@ -65463,10 +65472,10 @@
         <v>1618</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D449" s="3">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>1619</v>
@@ -65475,13 +65484,13 @@
         <v>45</v>
       </c>
       <c r="G449" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H449" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="H449" s="2" t="s">
-        <v>1621</v>
-      </c>
       <c r="I449" s="2" t="s">
-        <v>45</v>
+        <v>1562</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>45</v>
@@ -65490,10 +65499,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1622</v>
+        <v>45</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65508,10 +65517,10 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="S449" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
@@ -65538,10 +65547,10 @@
         <v>59</v>
       </c>
       <c r="AB449" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC449" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD449" s="2" t="s">
         <v>45</v>
@@ -65576,40 +65585,40 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="H450" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="D450" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E450" s="2" t="s">
+      <c r="I450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L450" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="F450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H450" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L450" s="2" t="s">
-        <v>1628</v>
-      </c>
       <c r="M450" s="2" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="N450" s="2" t="s">
         <v>45</v>
@@ -65624,16 +65633,16 @@
         <v>45</v>
       </c>
       <c r="R450" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="S450" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="T450" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65651,10 +65660,10 @@
         <v>49</v>
       </c>
       <c r="AA450" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC450" s="2" t="s">
         <v>45</v>
@@ -65666,10 +65675,10 @@
         <v>45</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>45</v>
@@ -65692,43 +65701,43 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G451" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D451" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E451" s="2" t="s">
+      <c r="H451" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="F451" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G451" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="H451" s="2" t="s">
+      <c r="I451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L451" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="I451" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J451" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K451" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L451" s="2" t="s">
-        <v>1628</v>
-      </c>
       <c r="M451" s="2" t="s">
-        <v>1565</v>
+        <v>1629</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>1632</v>
+        <v>45</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>45</v>
@@ -65740,10 +65749,10 @@
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="S451" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T451" s="2" t="s">
         <v>50</v>
@@ -65808,43 +65817,43 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1624</v>
+        <v>115</v>
       </c>
       <c r="D452" s="3">
         <v>2023</v>
       </c>
       <c r="E452" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H452" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="F452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G452" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H452" s="2" t="s">
+      <c r="I452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="M452" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N452" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="I452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L452" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="M452" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="N452" s="2" t="s">
-        <v>1636</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
@@ -65865,7 +65874,7 @@
         <v>50</v>
       </c>
       <c r="U452" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V452" s="2" t="s">
         <v>49</v>
@@ -65883,25 +65892,25 @@
         <v>49</v>
       </c>
       <c r="AA452" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB452" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD452" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>45</v>
@@ -65924,43 +65933,43 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E453" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D453" s="3">
-        <v>2024</v>
-      </c>
-      <c r="E453" s="2" t="s">
+      <c r="F453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H453" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="F453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H453" s="2" t="s">
+      <c r="I453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="M453" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="N453" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="I453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L453" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="M453" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="N453" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O453" s="2" t="s">
         <v>45</v>
@@ -65981,7 +65990,7 @@
         <v>50</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>49</v>
@@ -65999,25 +66008,25 @@
         <v>49</v>
       </c>
       <c r="AA453" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC453" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH453" s="2" t="s">
         <v>45</v>
@@ -66035,11 +66044,127 @@
         <v>45</v>
       </c>
       <c r="AM453" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="454" customHeight="1" spans="2:39">
+      <c r="B454" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L454" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="M454" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R454" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S454" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T454" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM454" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM453">
+  <autoFilter ref="A1:AM454">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$454</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$459</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16017" uniqueCount="1657">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11930,6 +11930,33 @@
     <t>Seiji Kanda</t>
   </si>
   <si>
+    <t>Molecular epidemiology of dengue viruses in three provinces of Lao PDR, 2006-2010</t>
+  </si>
+  <si>
+    <t>Lao-Oxford-Mahosot Hospital-Wellcome Trust Research Unit</t>
+  </si>
+  <si>
+    <t>Audrey Dubot-Peres</t>
+  </si>
+  <si>
+    <t>Rapid genotyping protocol to improve dengue virus serotype 2 survey in Lao PDR</t>
+  </si>
+  <si>
+    <t>Elodie Calvez</t>
+  </si>
+  <si>
+    <t>Trends of the dengue serotype-4 circulation with epidemiological, phylogenetic, and entomological insights in Lao PDR between 2015 and 2019</t>
+  </si>
+  <si>
+    <t>pathogens</t>
+  </si>
+  <si>
+    <t>Bg-trap</t>
+  </si>
+  <si>
+    <t>Using background sequencing data to anticipate DENV-1 circulation in the Lao PDR</t>
+  </si>
+  <si>
     <t>Dengue virus surveillance for early warning, Singapore</t>
   </si>
   <si>
@@ -12147,6 +12174,21 @@
   </si>
   <si>
     <t>Kerala</t>
+  </si>
+  <si>
+    <t>Dengue type 1 and 3 identified in travelers returning from Kathmandu, Nepal, during the October 2022 outbreak are related to strains recently identified in India</t>
+  </si>
+  <si>
+    <t>viruses</t>
+  </si>
+  <si>
+    <t>Chaim Sheba Medical Center</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Neta Zucherman</t>
   </si>
   <si>
     <t>Evolutionary dynamics of dengue virus in India</t>
@@ -13659,12 +13701,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM454"/>
+  <dimension ref="A1:AM459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC402" sqref="AC402"/>
+      <selection pane="bottomLeft" activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -60041,10 +60083,10 @@
         <v>1463</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D402" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>1464</v>
@@ -60053,11 +60095,11 @@
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H402" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="H402" s="2" t="s">
-        <v>1466</v>
-      </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
       </c>
@@ -60068,19 +60110,19 @@
         <v>45</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>1467</v>
+        <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>1465</v>
+        <v>45</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>1465</v>
+        <v>45</v>
       </c>
       <c r="Q402" s="2" t="s">
         <v>45</v>
@@ -60089,7 +60131,7 @@
         <v>2006</v>
       </c>
       <c r="S402" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60128,194 +60170,200 @@
         <v>79</v>
       </c>
       <c r="AF402" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG402" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AH402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM402" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="403" customHeight="1" spans="2:39">
+      <c r="B403" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L403" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M403" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R403" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S403" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T403" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U403" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z403" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA403" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC403" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF403" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG402" s="2" t="s">
+      <c r="AG403" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM402" s="2" t="s">
+      <c r="AH403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM403" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="3:39">
-      <c r="C403" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D403" s="3">
+    <row r="404" customHeight="1" spans="2:39">
+      <c r="B404" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L404" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M404" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R404" s="2">
         <v>2015</v>
       </c>
-      <c r="E403" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L403" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M403" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N403" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="O403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P403" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R403" s="2">
-        <v>2009</v>
-      </c>
-      <c r="S403" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T403" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z403" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM403" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="404" customHeight="1" spans="3:39">
-      <c r="C404" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D404" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H404" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L404" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M404" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N404" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="O404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P404" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R404" s="2">
-        <v>2013</v>
-      </c>
       <c r="S404" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
@@ -60339,25 +60387,25 @@
         <v>49</v>
       </c>
       <c r="AA404" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB404" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD404" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE404" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG404" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH404" s="2" t="s">
         <v>45</v>
@@ -60372,7 +60420,7 @@
         <v>45</v>
       </c>
       <c r="AL404" s="2" t="s">
-        <v>45</v>
+        <v>1470</v>
       </c>
       <c r="AM404" s="2" t="s">
         <v>45</v>
@@ -60380,58 +60428,58 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>342</v>
+        <v>1386</v>
       </c>
       <c r="D405" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M405" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R405" s="2">
         <v>2016</v>
       </c>
-      <c r="E405" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L405" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M405" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N405" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="O405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P405" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R405" s="2">
-        <v>2013</v>
-      </c>
       <c r="S405" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60470,7 +60518,7 @@
         <v>45</v>
       </c>
       <c r="AF405" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG405" s="2" t="s">
         <v>81</v>
@@ -60496,28 +60544,28 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D406" s="3">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>1473</v>
+        <v>45</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>45</v>
@@ -60526,34 +60574,34 @@
         <v>45</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="N406" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="O406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P406" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="Q406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="S406" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="T406" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U406" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V406" s="2" t="s">
         <v>49</v>
@@ -60562,7 +60610,7 @@
         <v>49</v>
       </c>
       <c r="X406" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y406" s="2" t="s">
         <v>49</v>
@@ -60571,25 +60619,25 @@
         <v>49</v>
       </c>
       <c r="AA406" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD406" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE406" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF406" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG406" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH406" s="2" t="s">
         <v>45</v>
@@ -60612,22 +60660,22 @@
     </row>
     <row r="407" customHeight="1" spans="3:39">
       <c r="C407" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="D407" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>1465</v>
-      </c>
       <c r="H407" s="2" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60639,34 +60687,34 @@
         <v>45</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P407" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="Q407" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S407" s="2" t="s">
-        <v>45</v>
+      <c r="R407" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S407" s="2">
+        <v>2009</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V407" s="2" t="s">
         <v>49</v>
@@ -60684,135 +60732,132 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM407" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="408" customHeight="1" spans="3:39">
+      <c r="C408" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M408" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N408" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="O408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P408" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Q408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R408" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S408" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB408" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF407" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG407" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM407" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="408" customHeight="1" spans="2:39">
-      <c r="B408" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D408" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L408" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M408" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N408" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="O408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P408" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R408" s="2">
-        <v>2003</v>
-      </c>
-      <c r="S408" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T408" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB408" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AC408" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD408" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE408" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF408" s="2" t="s">
         <v>45</v>
@@ -60844,19 +60889,19 @@
         <v>1477</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D409" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1464</v>
+        <v>1473</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>1478</v>
@@ -60871,34 +60916,34 @@
         <v>45</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="N409" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="O409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P409" s="2" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="Q409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>1960</v>
+        <v>2013</v>
       </c>
       <c r="S409" s="2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U409" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V409" s="2" t="s">
         <v>49</v>
@@ -60916,10 +60961,10 @@
         <v>49</v>
       </c>
       <c r="AA409" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB409" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC409" s="2" t="s">
         <v>45</v>
@@ -60931,10 +60976,10 @@
         <v>45</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -60955,27 +61000,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" customHeight="1" spans="3:39">
+    <row r="410" customHeight="1" spans="2:39">
+      <c r="B410" s="2" t="s">
+        <v>1479</v>
+      </c>
       <c r="C410" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D410" s="3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H410" s="2" t="s">
         <v>1481</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>45</v>
+        <v>1482</v>
       </c>
       <c r="J410" s="2" t="s">
         <v>45</v>
@@ -60984,34 +61032,34 @@
         <v>45</v>
       </c>
       <c r="L410" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="O410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P410" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="Q410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R410" s="2">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="S410" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T410" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U410" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V410" s="2" t="s">
         <v>49</v>
@@ -61020,7 +61068,7 @@
         <v>49</v>
       </c>
       <c r="X410" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y410" s="2" t="s">
         <v>49</v>
@@ -61029,25 +61077,25 @@
         <v>49</v>
       </c>
       <c r="AA410" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB410" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE410" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG410" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH410" s="2" t="s">
         <v>45</v>
@@ -61068,27 +61116,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="2:39">
-      <c r="B411" s="2" t="s">
+    <row r="411" customHeight="1" spans="3:39">
+      <c r="C411" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D411" s="3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>45</v>
@@ -61100,28 +61145,28 @@
         <v>45</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="N411" s="2" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="O411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="Q411" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R411" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S411" s="2">
-        <v>2012</v>
+      <c r="R411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S411" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T411" s="2" t="s">
         <v>50</v>
@@ -61160,13 +61205,13 @@
         <v>45</v>
       </c>
       <c r="AF411" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG411" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH411" s="2" t="s">
-        <v>1487</v>
+        <v>45</v>
       </c>
       <c r="AI411" s="2" t="s">
         <v>45</v>
@@ -61186,25 +61231,25 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D412" s="3">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1428</v>
+        <v>1474</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>45</v>
@@ -61216,34 +61261,34 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="O412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P412" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="Q412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="S412" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U412" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V412" s="2" t="s">
         <v>49</v>
@@ -61261,13 +61306,13 @@
         <v>49</v>
       </c>
       <c r="AA412" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC412" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD412" s="2" t="s">
         <v>45</v>
@@ -61276,13 +61321,13 @@
         <v>45</v>
       </c>
       <c r="AF412" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG412" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH412" s="2" t="s">
-        <v>1491</v>
+        <v>45</v>
       </c>
       <c r="AI412" s="2" t="s">
         <v>45</v>
@@ -61302,25 +61347,25 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D413" s="3">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>45</v>
@@ -61332,186 +61377,183 @@
         <v>45</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="O413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P413" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="Q413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R413" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S413" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM413" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="414" customHeight="1" spans="3:39">
+      <c r="C414" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R414" s="2">
         <v>2008</v>
       </c>
-      <c r="S413" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T413" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U413" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA413" s="2" t="s">
+      <c r="S414" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T414" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U414" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA414" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB413" s="2" t="s">
+      <c r="AB414" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC413" s="2" t="s">
+      <c r="AC414" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF413" s="2" t="s">
+      <c r="AD414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF414" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG413" s="2" t="s">
+      <c r="AG414" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AH413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM413" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="414" customHeight="1" spans="2:39">
-      <c r="B414" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D414" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="N414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R414" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S414" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T414" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V414" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG414" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH414" s="2" t="s">
         <v>45</v>
@@ -61534,58 +61576,58 @@
     </row>
     <row r="415" customHeight="1" spans="2:39">
       <c r="B415" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L415" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N415" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D415" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H415" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L415" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M415" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="N415" s="2" t="s">
-        <v>1496</v>
-      </c>
       <c r="O415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P415" s="2" t="s">
-        <v>1497</v>
+        <v>45</v>
       </c>
       <c r="Q415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="S415" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61615,22 +61657,22 @@
         <v>76</v>
       </c>
       <c r="AC415" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD415" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE415" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF415" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG415" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH415" s="2" t="s">
-        <v>45</v>
+        <v>1496</v>
       </c>
       <c r="AI415" s="2" t="s">
         <v>45</v>
@@ -61650,25 +61692,25 @@
     </row>
     <row r="416" customHeight="1" spans="2:39">
       <c r="B416" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E416" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D416" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1479</v>
-      </c>
       <c r="F416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>1480</v>
+        <v>1428</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I416" s="2" t="s">
         <v>45</v>
@@ -61680,28 +61722,28 @@
         <v>45</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1499</v>
+        <v>45</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R416" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="S416" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61728,16 +61770,16 @@
         <v>59</v>
       </c>
       <c r="AB416" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC416" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD416" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE416" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF416" s="2" t="s">
         <v>80</v>
@@ -61746,7 +61788,7 @@
         <v>81</v>
       </c>
       <c r="AH416" s="2" t="s">
-        <v>45</v>
+        <v>1500</v>
       </c>
       <c r="AI416" s="2" t="s">
         <v>45</v>
@@ -61764,21 +61806,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="3:39">
+    <row r="417" customHeight="1" spans="2:39">
+      <c r="B417" s="2" t="s">
+        <v>1501</v>
+      </c>
       <c r="C417" s="2" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="D417" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>1502</v>
@@ -61793,10 +61838,10 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>45</v>
@@ -61811,16 +61856,16 @@
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S417" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="T417" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U417" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V417" s="2" t="s">
         <v>49</v>
@@ -61838,13 +61883,13 @@
         <v>49</v>
       </c>
       <c r="AA417" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB417" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC417" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD417" s="2" t="s">
         <v>45</v>
@@ -61853,10 +61898,10 @@
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG417" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH417" s="2" t="s">
         <v>45</v>
@@ -61882,22 +61927,22 @@
         <v>1503</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="D418" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="I418" s="2" t="s">
         <v>45</v>
@@ -61909,10 +61954,10 @@
         <v>45</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>45</v>
@@ -61927,19 +61972,19 @@
         <v>45</v>
       </c>
       <c r="R418" s="2">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="S418" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="T418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U418" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W418" s="2" t="s">
         <v>49</v>
@@ -61954,10 +61999,10 @@
         <v>49</v>
       </c>
       <c r="AA418" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB418" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC418" s="2" t="s">
         <v>45</v>
@@ -61969,10 +62014,10 @@
         <v>45</v>
       </c>
       <c r="AF418" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG418" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH418" s="2" t="s">
         <v>45</v>
@@ -61995,25 +62040,25 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="D419" s="3">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1428</v>
+        <v>1489</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="I419" s="2" t="s">
         <v>45</v>
@@ -62025,28 +62070,28 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1428</v>
+        <v>1489</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>45</v>
+        <v>1506</v>
       </c>
       <c r="Q419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="S419" s="2">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62073,22 +62118,22 @@
         <v>59</v>
       </c>
       <c r="AB419" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC419" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD419" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE419" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF419" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG419" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH419" s="2" t="s">
         <v>45</v>
@@ -62111,25 +62156,25 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1304</v>
+        <v>136</v>
       </c>
       <c r="D420" s="3">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1512</v>
+        <v>1494</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>45</v>
@@ -62141,28 +62186,28 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1513</v>
+        <v>1489</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>45</v>
+        <v>1508</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>45</v>
+        <v>1509</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S420" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
@@ -62192,13 +62237,13 @@
         <v>76</v>
       </c>
       <c r="AC420" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE420" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF420" s="2" t="s">
         <v>80</v>
@@ -62225,27 +62270,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" customHeight="1" spans="2:39">
-      <c r="B421" s="2" t="s">
-        <v>1514</v>
-      </c>
+    <row r="421" customHeight="1" spans="3:39">
       <c r="C421" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D421" s="3">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1516</v>
+        <v>1489</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
@@ -62257,10 +62299,10 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>1518</v>
+        <v>1489</v>
       </c>
       <c r="N421" s="2" t="s">
         <v>45</v>
@@ -62278,13 +62320,13 @@
         <v>2005</v>
       </c>
       <c r="S421" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U421" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V421" s="2" t="s">
         <v>49</v>
@@ -62302,7 +62344,7 @@
         <v>49</v>
       </c>
       <c r="AA421" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB421" s="2" t="s">
         <v>45</v>
@@ -62311,16 +62353,16 @@
         <v>45</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF421" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG421" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH421" s="2" t="s">
         <v>45</v>
@@ -62343,25 +62385,25 @@
     </row>
     <row r="422" customHeight="1" spans="2:39">
       <c r="B422" s="2" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D422" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="I422" s="2" t="s">
         <v>45</v>
@@ -62373,13 +62415,13 @@
         <v>45</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>1523</v>
+        <v>1476</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>1524</v>
+        <v>45</v>
       </c>
       <c r="O422" s="2" t="s">
         <v>45</v>
@@ -62391,13 +62433,13 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="S422" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="T422" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U422" s="2" t="s">
         <v>50</v>
@@ -62421,7 +62463,7 @@
         <v>59</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC422" s="2" t="s">
         <v>45</v>
@@ -62430,10 +62472,10 @@
         <v>45</v>
       </c>
       <c r="AE422" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG422" s="2" t="s">
         <v>81</v>
@@ -62459,25 +62501,25 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D423" s="3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1521</v>
+        <v>1428</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="I423" s="2" t="s">
         <v>45</v>
@@ -62489,13 +62531,13 @@
         <v>45</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>1523</v>
+        <v>1476</v>
       </c>
       <c r="M423" s="2" t="s">
-        <v>1521</v>
+        <v>1428</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>45</v>
+        <v>1519</v>
       </c>
       <c r="O423" s="2" t="s">
         <v>45</v>
@@ -62510,7 +62552,7 @@
         <v>2008</v>
       </c>
       <c r="S423" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="T423" s="2" t="s">
         <v>50</v>
@@ -62549,7 +62591,7 @@
         <v>45</v>
       </c>
       <c r="AF423" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG423" s="2" t="s">
         <v>81</v>
@@ -62575,26 +62617,26 @@
     </row>
     <row r="424" customHeight="1" spans="2:39">
       <c r="B424" s="2" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>129</v>
+        <v>1304</v>
       </c>
       <c r="D424" s="3">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="H424" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="I424" s="2" t="s">
         <v>45</v>
       </c>
@@ -62605,10 +62647,10 @@
         <v>45</v>
       </c>
       <c r="L424" s="2" t="s">
-        <v>1523</v>
+        <v>1476</v>
       </c>
       <c r="M424" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>45</v>
@@ -62622,17 +62664,17 @@
       <c r="Q424" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S424" s="2" t="s">
-        <v>45</v>
+      <c r="R424" s="2">
+        <v>2005</v>
+      </c>
+      <c r="S424" s="2">
+        <v>2006</v>
       </c>
       <c r="T424" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U424" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V424" s="2" t="s">
         <v>49</v>
@@ -62644,16 +62686,16 @@
         <v>49</v>
       </c>
       <c r="Y424" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z424" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA424" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC424" s="2" t="s">
         <v>45</v>
@@ -62665,10 +62707,10 @@
         <v>45</v>
       </c>
       <c r="AF424" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG424" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH424" s="2" t="s">
         <v>45</v>
@@ -62691,25 +62733,25 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D425" s="3">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>45</v>
@@ -62721,10 +62763,10 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>1523</v>
+        <v>1476</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="N425" s="2" t="s">
         <v>45</v>
@@ -62739,10 +62781,10 @@
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="S425" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62769,16 +62811,16 @@
         <v>59</v>
       </c>
       <c r="AB425" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC425" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD425" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE425" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF425" s="2" t="s">
         <v>80</v>
@@ -62807,44 +62849,44 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L426" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D426" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E426" s="2" t="s">
+      <c r="M426" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N426" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="F426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H426" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L426" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M426" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N426" s="2" t="s">
-        <v>1535</v>
-      </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
       </c>
@@ -62855,16 +62897,16 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="S426" s="2">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U426" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V426" s="2" t="s">
         <v>49</v>
@@ -62882,7 +62924,7 @@
         <v>49</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB426" s="2" t="s">
         <v>45</v>
@@ -62894,13 +62936,13 @@
         <v>45</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH426" s="2" t="s">
         <v>45</v>
@@ -62923,26 +62965,26 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D427" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H427" s="2" t="s">
-        <v>1538</v>
-      </c>
       <c r="I427" s="2" t="s">
         <v>45</v>
       </c>
@@ -62953,13 +62995,13 @@
         <v>45</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -62971,10 +63013,10 @@
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>1956</v>
+        <v>2008</v>
       </c>
       <c r="S427" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -63001,22 +63043,22 @@
         <v>59</v>
       </c>
       <c r="AB427" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC427" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD427" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -63039,25 +63081,25 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D428" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="I428" s="2" t="s">
         <v>45</v>
@@ -63069,10 +63111,10 @@
         <v>45</v>
       </c>
       <c r="L428" s="2" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>45</v>
@@ -63086,17 +63128,17 @@
       <c r="Q428" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R428" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S428" s="2">
-        <v>2017</v>
+      <c r="R428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S428" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T428" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U428" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V428" s="2" t="s">
         <v>49</v>
@@ -63108,19 +63150,19 @@
         <v>49</v>
       </c>
       <c r="Y428" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z428" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA428" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC428" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD428" s="2" t="s">
         <v>45</v>
@@ -63129,10 +63171,10 @@
         <v>45</v>
       </c>
       <c r="AF428" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG428" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63155,25 +63197,25 @@
     </row>
     <row r="429" customHeight="1" spans="2:39">
       <c r="B429" s="2" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1545</v>
+        <v>136</v>
       </c>
       <c r="D429" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>1469</v>
+        <v>1540</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
@@ -63185,10 +63227,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63203,10 +63245,10 @@
         <v>45</v>
       </c>
       <c r="R429" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="S429" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
@@ -63248,7 +63290,7 @@
         <v>80</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63271,25 +63313,25 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="D430" s="3">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>45</v>
@@ -63301,13 +63343,13 @@
         <v>45</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="M430" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>45</v>
+        <v>1544</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
@@ -63319,16 +63361,16 @@
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="S430" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U430" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V430" s="2" t="s">
         <v>49</v>
@@ -63346,7 +63388,7 @@
         <v>49</v>
       </c>
       <c r="AA430" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB430" s="2" t="s">
         <v>45</v>
@@ -63358,13 +63400,13 @@
         <v>45</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG430" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH430" s="2" t="s">
         <v>45</v>
@@ -63387,25 +63429,25 @@
     </row>
     <row r="431" customHeight="1" spans="2:39">
       <c r="B431" s="2" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>71</v>
+        <v>1546</v>
       </c>
       <c r="D431" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>45</v>
@@ -63417,13 +63459,13 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>1557</v>
+        <v>45</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63435,10 +63477,10 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2001</v>
+        <v>2022</v>
       </c>
       <c r="S431" s="2">
-        <v>2001</v>
+        <v>2022</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
@@ -63465,7 +63507,7 @@
         <v>59</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC431" s="2" t="s">
         <v>45</v>
@@ -63477,10 +63519,10 @@
         <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>1558</v>
+        <v>91</v>
       </c>
       <c r="AG431" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH431" s="2" t="s">
         <v>45</v>
@@ -63503,25 +63545,25 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>129</v>
+        <v>1356</v>
       </c>
       <c r="D432" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
@@ -63533,13 +63575,13 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O432" s="2" t="s">
         <v>45</v>
@@ -63551,10 +63593,10 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>1990</v>
+        <v>1956</v>
       </c>
       <c r="S432" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="T432" s="2" t="s">
         <v>50</v>
@@ -63581,22 +63623,22 @@
         <v>59</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC432" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD432" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE432" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>1137</v>
+        <v>45</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63619,58 +63661,58 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D433" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M433" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R433" s="2">
         <v>2017</v>
       </c>
-      <c r="E433" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G433" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I433" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="J433" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="K433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L433" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M433" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N433" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="O433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R433" s="2">
-        <v>2012</v>
-      </c>
       <c r="S433" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
@@ -63700,19 +63742,19 @@
         <v>45</v>
       </c>
       <c r="AC433" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63735,28 +63777,28 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>342</v>
+        <v>1559</v>
       </c>
       <c r="D434" s="3">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1556</v>
+        <v>1478</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>1566</v>
+        <v>45</v>
       </c>
       <c r="J434" s="2" t="s">
         <v>45</v>
@@ -63765,10 +63807,10 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
       <c r="N434" s="2" t="s">
         <v>45</v>
@@ -63783,10 +63825,10 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="S434" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T434" s="2" t="s">
         <v>50</v>
@@ -63816,19 +63858,19 @@
         <v>76</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD434" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE434" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF434" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG434" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH434" s="2" t="s">
         <v>45</v>
@@ -63849,39 +63891,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="3:39">
+    <row r="435" customHeight="1" spans="2:39">
+      <c r="B435" s="2" t="s">
+        <v>1563</v>
+      </c>
       <c r="C435" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D435" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E435" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L435" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="F435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="H435" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L435" s="2" t="s">
-        <v>1553</v>
-      </c>
       <c r="M435" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -63896,16 +63941,16 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S435" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U435" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V435" s="2" t="s">
         <v>49</v>
@@ -63935,13 +63980,13 @@
         <v>45</v>
       </c>
       <c r="AE435" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH435" s="2" t="s">
         <v>45</v>
@@ -63962,43 +64007,46 @@
         <v>45</v>
       </c>
     </row>
-    <row r="436" customHeight="1" spans="3:39">
+    <row r="436" customHeight="1" spans="2:39">
+      <c r="B436" s="2" t="s">
+        <v>1568</v>
+      </c>
       <c r="C436" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H436" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="D436" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E436" s="2" t="s">
+      <c r="I436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M436" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N436" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="F436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L436" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M436" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N436" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
       </c>
@@ -64009,10 +64057,10 @@
         <v>45</v>
       </c>
       <c r="R436" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S436" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="T436" s="2" t="s">
         <v>50</v>
@@ -64042,19 +64090,19 @@
         <v>45</v>
       </c>
       <c r="AC436" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>91</v>
+        <v>1572</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64077,25 +64125,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1545</v>
+        <v>129</v>
       </c>
       <c r="D437" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1555</v>
+        <v>1569</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64107,13 +64155,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>1574</v>
+        <v>45</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64124,11 +64172,11 @@
       <c r="Q437" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R437" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S437" s="2" t="s">
-        <v>45</v>
+      <c r="R437" s="2">
+        <v>1990</v>
+      </c>
+      <c r="S437" s="2">
+        <v>2010</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64155,19 +64203,19 @@
         <v>59</v>
       </c>
       <c r="AB437" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC437" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD437" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE437" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>363</v>
+        <v>1137</v>
       </c>
       <c r="AG437" s="2" t="s">
         <v>81</v>
@@ -64193,43 +64241,43 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D438" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1551</v>
+        <v>1358</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>45</v>
+        <v>1577</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>45</v>
+        <v>1578</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>45</v>
+        <v>1571</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>45</v>
@@ -64241,13 +64289,13 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="S438" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="T438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U438" s="2" t="s">
         <v>50</v>
@@ -64259,7 +64307,7 @@
         <v>49</v>
       </c>
       <c r="X438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y438" s="2" t="s">
         <v>49</v>
@@ -64277,16 +64325,16 @@
         <v>45</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE438" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>81</v>
+        <v>1437</v>
       </c>
       <c r="AH438" s="2" t="s">
         <v>45</v>
@@ -64309,28 +64357,28 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D439" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>45</v>
+        <v>1580</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>45</v>
@@ -64339,10 +64387,10 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M439" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>45</v>
@@ -64357,16 +64405,16 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="S439" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U439" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V439" s="2" t="s">
         <v>49</v>
@@ -64384,10 +64432,10 @@
         <v>49</v>
       </c>
       <c r="AA439" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB439" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC439" s="2" t="s">
         <v>45</v>
@@ -64399,10 +64447,10 @@
         <v>45</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG439" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH439" s="2" t="s">
         <v>45</v>
@@ -64423,15 +64471,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" customHeight="1" spans="2:39">
-      <c r="B440" s="2" t="s">
-        <v>1580</v>
-      </c>
+    <row r="440" customHeight="1" spans="3:39">
       <c r="C440" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D440" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>1581</v>
@@ -64455,13 +64500,13 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>1584</v>
+        <v>45</v>
       </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
@@ -64473,13 +64518,13 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="S440" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="T440" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
         <v>49</v>
@@ -64539,27 +64584,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" customHeight="1" spans="2:39">
-      <c r="B441" s="2" t="s">
+    <row r="441" customHeight="1" spans="3:39">
+      <c r="C441" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D441" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1555</v>
-      </c>
       <c r="F441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
@@ -64571,10 +64613,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64589,7 +64631,7 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="S441" s="2">
         <v>2019</v>
@@ -64634,10 +64676,10 @@
         <v>91</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>396</v>
+        <v>1302</v>
       </c>
       <c r="AH441" s="2" t="s">
-        <v>1587</v>
+        <v>45</v>
       </c>
       <c r="AI441" s="2" t="s">
         <v>45</v>
@@ -64657,44 +64699,44 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M442" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N442" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D442" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E442" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H442" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L442" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M442" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N442" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O442" s="2" t="s">
         <v>45</v>
       </c>
@@ -64704,11 +64746,11 @@
       <c r="Q442" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R442" s="2">
-        <v>2021</v>
-      </c>
-      <c r="S442" s="2">
-        <v>2023</v>
+      <c r="R442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S442" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64732,25 +64774,25 @@
         <v>49</v>
       </c>
       <c r="AA442" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB442" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC442" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE442" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF442" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH442" s="2" t="s">
         <v>45</v>
@@ -64773,26 +64815,26 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D443" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E443" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F443" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G443" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H443" s="2" t="s">
-        <v>1591</v>
-      </c>
       <c r="I443" s="2" t="s">
         <v>45</v>
       </c>
@@ -64803,10 +64845,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64821,13 +64863,13 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="S443" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="T443" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U443" s="2" t="s">
         <v>50</v>
@@ -64839,7 +64881,7 @@
         <v>49</v>
       </c>
       <c r="X443" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y443" s="2" t="s">
         <v>49</v>
@@ -64848,7 +64890,7 @@
         <v>49</v>
       </c>
       <c r="AA443" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
         <v>45</v>
@@ -64863,13 +64905,13 @@
         <v>45</v>
       </c>
       <c r="AF443" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG443" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH443" s="2" t="s">
-        <v>1592</v>
+        <v>45</v>
       </c>
       <c r="AI443" s="2" t="s">
         <v>45</v>
@@ -64889,26 +64931,26 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H444" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D444" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F444" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H444" s="2" t="s">
-        <v>1596</v>
-      </c>
       <c r="I444" s="2" t="s">
         <v>45</v>
       </c>
@@ -64919,10 +64961,10 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1595</v>
+        <v>1565</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>45</v>
@@ -64937,16 +64979,16 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="S444" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U444" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V444" s="2" t="s">
         <v>49</v>
@@ -64964,10 +65006,10 @@
         <v>49</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC444" s="2" t="s">
         <v>45</v>
@@ -64979,13 +65021,13 @@
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG444" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH444" s="2" t="s">
-        <v>1597</v>
+        <v>45</v>
       </c>
       <c r="AI444" s="2" t="s">
         <v>45</v>
@@ -65005,44 +65047,44 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L445" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M445" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N445" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D445" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H445" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L445" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M445" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="N445" s="2" t="s">
-        <v>1602</v>
-      </c>
       <c r="O445" s="2" t="s">
         <v>45</v>
       </c>
@@ -65053,13 +65095,13 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="S445" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T445" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U445" s="2" t="s">
         <v>49</v>
@@ -65080,7 +65122,7 @@
         <v>49</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB445" s="2" t="s">
         <v>45</v>
@@ -65121,64 +65163,64 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D446" s="3">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1604</v>
+        <v>1569</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1605</v>
+        <v>1565</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>1607</v>
+        <v>45</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>1608</v>
+        <v>45</v>
       </c>
       <c r="K446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L446" s="2" t="s">
-        <v>1609</v>
+        <v>1567</v>
       </c>
       <c r="M446" s="2" t="s">
-        <v>1605</v>
+        <v>1565</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>1610</v>
+        <v>45</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P446" s="2" t="s">
-        <v>1610</v>
+        <v>45</v>
       </c>
       <c r="Q446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R446" s="2">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="S446" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T446" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U446" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V446" s="2" t="s">
         <v>49</v>
@@ -65199,10 +65241,10 @@
         <v>59</v>
       </c>
       <c r="AB446" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
@@ -65211,13 +65253,13 @@
         <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH446" s="2" t="s">
-        <v>45</v>
+        <v>1601</v>
       </c>
       <c r="AI446" s="2" t="s">
         <v>45</v>
@@ -65237,25 +65279,25 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>129</v>
+        <v>1392</v>
       </c>
       <c r="D447" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1612</v>
+        <v>1569</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="I447" s="2" t="s">
         <v>45</v>
@@ -65267,10 +65309,10 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>1609</v>
+        <v>1567</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>1614</v>
+        <v>1565</v>
       </c>
       <c r="N447" s="2" t="s">
         <v>45</v>
@@ -65284,17 +65326,17 @@
       <c r="Q447" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S447" s="2" t="s">
-        <v>45</v>
+      <c r="R447" s="2">
+        <v>2021</v>
+      </c>
+      <c r="S447" s="2">
+        <v>2023</v>
       </c>
       <c r="T447" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U447" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V447" s="2" t="s">
         <v>49</v>
@@ -65306,7 +65348,7 @@
         <v>49</v>
       </c>
       <c r="Y447" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z447" s="2" t="s">
         <v>49</v>
@@ -65315,7 +65357,7 @@
         <v>45</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC447" s="2" t="s">
         <v>77</v>
@@ -65327,10 +65369,10 @@
         <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG447" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH447" s="2" t="s">
         <v>45</v>
@@ -65353,28 +65395,28 @@
     </row>
     <row r="448" customHeight="1" spans="2:39">
       <c r="B448" s="2" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D448" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>1358</v>
+        <v>1565</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>1562</v>
+        <v>45</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>45</v>
@@ -65383,10 +65425,10 @@
         <v>45</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>45</v>
+        <v>1567</v>
       </c>
       <c r="M448" s="2" t="s">
-        <v>1617</v>
+        <v>1565</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>45</v>
@@ -65401,10 +65443,10 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="S448" s="2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="T448" s="2" t="s">
         <v>50</v>
@@ -65428,16 +65470,16 @@
         <v>49</v>
       </c>
       <c r="AA448" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC448" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD448" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE448" s="2" t="s">
         <v>45</v>
@@ -65446,10 +65488,10 @@
         <v>91</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>1302</v>
+        <v>396</v>
       </c>
       <c r="AH448" s="2" t="s">
-        <v>45</v>
+        <v>1606</v>
       </c>
       <c r="AI448" s="2" t="s">
         <v>45</v>
@@ -65469,28 +65511,28 @@
     </row>
     <row r="449" customHeight="1" spans="2:39">
       <c r="B449" s="2" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D449" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>1562</v>
+        <v>45</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>45</v>
@@ -65499,10 +65541,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>45</v>
+        <v>1567</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65517,10 +65559,10 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="S449" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
@@ -65547,10 +65589,10 @@
         <v>59</v>
       </c>
       <c r="AB449" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC449" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD449" s="2" t="s">
         <v>45</v>
@@ -65565,7 +65607,7 @@
         <v>81</v>
       </c>
       <c r="AH449" s="2" t="s">
-        <v>45</v>
+        <v>1611</v>
       </c>
       <c r="AI449" s="2" t="s">
         <v>45</v>
@@ -65585,25 +65627,25 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D450" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>1623</v>
+        <v>1416</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="I450" s="2" t="s">
         <v>45</v>
@@ -65615,13 +65657,13 @@
         <v>45</v>
       </c>
       <c r="L450" s="2" t="s">
-        <v>1625</v>
+        <v>1567</v>
       </c>
       <c r="M450" s="2" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>45</v>
+        <v>1616</v>
       </c>
       <c r="O450" s="2" t="s">
         <v>45</v>
@@ -65633,16 +65675,16 @@
         <v>45</v>
       </c>
       <c r="R450" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="S450" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T450" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65660,10 +65702,10 @@
         <v>49</v>
       </c>
       <c r="AA450" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC450" s="2" t="s">
         <v>45</v>
@@ -65675,10 +65717,10 @@
         <v>45</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>45</v>
@@ -65701,58 +65743,58 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1627</v>
+        <v>115</v>
       </c>
       <c r="D451" s="3">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>45</v>
+        <v>1621</v>
       </c>
       <c r="J451" s="2" t="s">
-        <v>45</v>
+        <v>1622</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>45</v>
+        <v>1624</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P451" s="2" t="s">
-        <v>45</v>
+        <v>1624</v>
       </c>
       <c r="Q451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="S451" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="T451" s="2" t="s">
         <v>50</v>
@@ -65776,10 +65818,10 @@
         <v>49</v>
       </c>
       <c r="AA451" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB451" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC451" s="2" t="s">
         <v>45</v>
@@ -65791,7 +65833,7 @@
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG451" s="2" t="s">
         <v>45</v>
@@ -65817,25 +65859,25 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D452" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="I452" s="2" t="s">
         <v>45</v>
@@ -65847,13 +65889,13 @@
         <v>45</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>1568</v>
+        <v>1628</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>1635</v>
+        <v>45</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
@@ -65864,14 +65906,14 @@
       <c r="Q452" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R452" s="2">
-        <v>2023</v>
-      </c>
-      <c r="S452" s="2">
-        <v>2023</v>
+      <c r="R452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S452" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T452" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U452" s="2" t="s">
         <v>49</v>
@@ -65886,7 +65928,7 @@
         <v>49</v>
       </c>
       <c r="Y452" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z452" s="2" t="s">
         <v>49</v>
@@ -65895,10 +65937,10 @@
         <v>45</v>
       </c>
       <c r="AB452" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD452" s="2" t="s">
         <v>45</v>
@@ -65933,28 +65975,28 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1627</v>
+        <v>115</v>
       </c>
       <c r="D453" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1637</v>
+        <v>1575</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>1629</v>
+        <v>1358</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>45</v>
+        <v>1576</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>45</v>
@@ -65963,13 +66005,13 @@
         <v>45</v>
       </c>
       <c r="L453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M453" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="M453" s="2" t="s">
-        <v>1629</v>
-      </c>
       <c r="N453" s="2" t="s">
-        <v>1639</v>
+        <v>45</v>
       </c>
       <c r="O453" s="2" t="s">
         <v>45</v>
@@ -65981,10 +66023,10 @@
         <v>45</v>
       </c>
       <c r="R453" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S453" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T453" s="2" t="s">
         <v>50</v>
@@ -66011,13 +66053,13 @@
         <v>59</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC453" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
@@ -66026,7 +66068,7 @@
         <v>91</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH453" s="2" t="s">
         <v>45</v>
@@ -66049,122 +66091,702 @@
     </row>
     <row r="454" customHeight="1" spans="2:39">
       <c r="B454" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M454" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R454" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S454" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T454" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U454" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z454" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA454" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC454" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF454" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG454" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM454" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" customHeight="1" spans="2:39">
+      <c r="B455" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L455" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="M455" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="N455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R455" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S455" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T455" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U455" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V455" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W455" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X455" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y455" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z455" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA455" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB455" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF455" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG455" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM455" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" customHeight="1" spans="2:39">
+      <c r="B456" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D454" s="3">
+      <c r="C456" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M456" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R456" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S456" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T456" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z456" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM456" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" customHeight="1" spans="2:39">
+      <c r="B457" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L457" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M457" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N457" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R457" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S457" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T457" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z457" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM457" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="458" customHeight="1" spans="2:39">
+      <c r="B458" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M458" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N458" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R458" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S458" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T458" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U458" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V458" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W458" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X458" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y458" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z458" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA458" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB458" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC458" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD458" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF458" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG458" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM458" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="459" customHeight="1" spans="2:39">
+      <c r="B459" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D459" s="3">
         <v>2024</v>
       </c>
-      <c r="E454" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H454" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L454" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="M454" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="N454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R454" s="2">
+      <c r="E459" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L459" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M459" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R459" s="2">
         <v>2023</v>
       </c>
-      <c r="S454" s="2">
+      <c r="S459" s="2">
         <v>2023</v>
       </c>
-      <c r="T454" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z454" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM454" s="2" t="s">
+      <c r="T459" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL459" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM459" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM454">
+  <autoFilter ref="A1:AM459">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$459</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$460</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16017" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16052" uniqueCount="1661">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11805,6 +11805,18 @@
   </si>
   <si>
     <t>Irina Beey</t>
+  </si>
+  <si>
+    <t>Reconstructing unseen transmission events to infer dengue dynamics from viral sequences</t>
+  </si>
+  <si>
+    <t>Nature Communication</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>Henrik Salje</t>
   </si>
   <si>
     <t>Influence of climate variables on dengue fever occurrence in the southern region of Thailand</t>
@@ -13701,12 +13713,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM459"/>
+  <dimension ref="A1:AM460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B406" sqref="B406"/>
+      <selection pane="bottomLeft" activeCell="AG389" sqref="AG389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -58465,7 +58477,7 @@
         <v>1423</v>
       </c>
       <c r="D388" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>1424</v>
@@ -58474,7 +58486,7 @@
         <v>45</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>991</v>
+        <v>1358</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>1425</v>
@@ -58507,22 +58519,22 @@
         <v>45</v>
       </c>
       <c r="R388" s="2">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="S388" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="T388" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U388" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V388" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W388" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X388" s="2" t="s">
         <v>49</v>
@@ -58531,28 +58543,28 @@
         <v>49</v>
       </c>
       <c r="Z388" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA388" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB388" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC388" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD388" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE388" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF388" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG388" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH388" s="2" t="s">
         <v>45</v>
@@ -58578,22 +58590,22 @@
         <v>1426</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>115</v>
+        <v>1427</v>
       </c>
       <c r="D389" s="3">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1428</v>
+        <v>991</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>1362</v>
+        <v>1429</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>45</v>
@@ -58608,7 +58620,7 @@
         <v>46</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1429</v>
+        <v>991</v>
       </c>
       <c r="N389" s="2" t="s">
         <v>45</v>
@@ -58623,16 +58635,16 @@
         <v>45</v>
       </c>
       <c r="R389" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="S389" s="2">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="T389" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U389" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V389" s="2" t="s">
         <v>49</v>
@@ -58647,28 +58659,28 @@
         <v>49</v>
       </c>
       <c r="Z389" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA389" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB389" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC389" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF389" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG389" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH389" s="2" t="s">
         <v>45</v>
@@ -58694,22 +58706,22 @@
         <v>1430</v>
       </c>
       <c r="C390" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E390" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="D390" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>1427</v>
-      </c>
       <c r="F390" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>1399</v>
+        <v>1362</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58724,7 +58736,7 @@
         <v>46</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>45</v>
@@ -58772,13 +58784,13 @@
         <v>76</v>
       </c>
       <c r="AC390" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD390" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE390" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF390" s="2" t="s">
         <v>80</v>
@@ -58807,25 +58819,25 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2006</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G391" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="C391" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D391" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F391" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>1371</v>
-      </c>
       <c r="H391" s="2" t="s">
-        <v>1433</v>
+        <v>1399</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58840,7 +58852,7 @@
         <v>46</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>45</v>
@@ -58855,10 +58867,10 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="S391" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
@@ -58888,13 +58900,13 @@
         <v>76</v>
       </c>
       <c r="AC391" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD391" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE391" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF391" s="2" t="s">
         <v>80</v>
@@ -58923,13 +58935,13 @@
     </row>
     <row r="392" customHeight="1" spans="2:39">
       <c r="B392" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D392" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>1370</v>
@@ -58941,7 +58953,7 @@
         <v>1371</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="I392" s="2" t="s">
         <v>45</v>
@@ -58956,7 +58968,7 @@
         <v>46</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>45</v>
@@ -58971,10 +58983,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="S392" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -59010,7 +59022,7 @@
         <v>45</v>
       </c>
       <c r="AE392" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF392" s="2" t="s">
         <v>80</v>
@@ -59039,13 +59051,13 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="D393" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>1370</v>
@@ -59057,7 +59069,7 @@
         <v>1371</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -59072,10 +59084,10 @@
         <v>46</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>1436</v>
+        <v>45</v>
       </c>
       <c r="O393" s="2" t="s">
         <v>45</v>
@@ -59087,10 +59099,10 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="S393" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
@@ -59120,19 +59132,19 @@
         <v>76</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD393" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE393" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF393" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG393" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59155,7 +59167,10 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D394" s="3">
         <v>2021</v>
@@ -59170,13 +59185,13 @@
         <v>1371</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>1440</v>
+        <v>45</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>1441</v>
+        <v>45</v>
       </c>
       <c r="K394" s="2" t="s">
         <v>45</v>
@@ -59185,10 +59200,10 @@
         <v>46</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>45</v>
@@ -59200,10 +59215,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S394" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59233,7 +59248,7 @@
         <v>76</v>
       </c>
       <c r="AC394" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD394" s="2" t="s">
         <v>78</v>
@@ -59245,7 +59260,7 @@
         <v>91</v>
       </c>
       <c r="AG394" s="2" t="s">
-        <v>81</v>
+        <v>1441</v>
       </c>
       <c r="AH394" s="2" t="s">
         <v>45</v>
@@ -59268,13 +59283,10 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D395" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>1370</v>
@@ -59286,13 +59298,13 @@
         <v>1371</v>
       </c>
       <c r="H395" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J395" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="I395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J395" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="K395" s="2" t="s">
         <v>45</v>
@@ -59301,10 +59313,10 @@
         <v>46</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>45</v>
+        <v>1446</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>45</v>
@@ -59316,7 +59328,7 @@
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="S395" s="2">
         <v>2019</v>
@@ -59349,7 +59361,7 @@
         <v>76</v>
       </c>
       <c r="AC395" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD395" s="2" t="s">
         <v>78</v>
@@ -59361,7 +59373,7 @@
         <v>91</v>
       </c>
       <c r="AG395" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59384,25 +59396,25 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>129</v>
+        <v>1448</v>
       </c>
       <c r="D396" s="3">
         <v>2023</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>989</v>
+        <v>1370</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59417,7 +59429,7 @@
         <v>46</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="N396" s="2" t="s">
         <v>45</v>
@@ -59432,16 +59444,16 @@
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="S396" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U396" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V396" s="2" t="s">
         <v>49</v>
@@ -59459,25 +59471,25 @@
         <v>49</v>
       </c>
       <c r="AA396" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB396" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD396" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE396" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF396" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>45</v>
+        <v>1441</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59500,22 +59512,22 @@
     </row>
     <row r="397" customHeight="1" spans="2:39">
       <c r="B397" s="2" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D397" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1449</v>
+        <v>989</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1450</v>
+        <v>991</v>
       </c>
       <c r="H397" s="2" t="s">
         <v>1451</v>
@@ -59533,7 +59545,7 @@
         <v>46</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="N397" s="2" t="s">
         <v>45</v>
@@ -59548,16 +59560,16 @@
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="S397" s="2">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U397" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V397" s="2" t="s">
         <v>49</v>
@@ -59575,25 +59587,25 @@
         <v>49</v>
       </c>
       <c r="AA397" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC397" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD397" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF397" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG397" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH397" s="2" t="s">
         <v>45</v>
@@ -59625,16 +59637,16 @@
         <v>2013</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="I398" s="2" t="s">
         <v>45</v>
@@ -59649,7 +59661,7 @@
         <v>46</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="N398" s="2" t="s">
         <v>45</v>
@@ -59667,7 +59679,7 @@
         <v>2000</v>
       </c>
       <c r="S398" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
@@ -59694,13 +59706,13 @@
         <v>59</v>
       </c>
       <c r="AB398" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC398" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD398" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE398" s="2" t="s">
         <v>45</v>
@@ -59732,25 +59744,25 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E399" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D399" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>1449</v>
-      </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>45</v>
@@ -59765,7 +59777,7 @@
         <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>45</v>
@@ -59780,16 +59792,16 @@
         <v>45</v>
       </c>
       <c r="R399" s="2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="S399" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U399" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V399" s="2" t="s">
         <v>49</v>
@@ -59807,10 +59819,10 @@
         <v>49</v>
       </c>
       <c r="AA399" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB399" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC399" s="2" t="s">
         <v>45</v>
@@ -59822,10 +59834,10 @@
         <v>45</v>
       </c>
       <c r="AF399" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG399" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH399" s="2" t="s">
         <v>45</v>
@@ -59848,22 +59860,22 @@
     </row>
     <row r="400" customHeight="1" spans="2:39">
       <c r="B400" s="2" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D400" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H400" s="2" t="s">
         <v>1458</v>
@@ -59881,10 +59893,10 @@
         <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="N400" s="2" t="s">
-        <v>1459</v>
+        <v>45</v>
       </c>
       <c r="O400" s="2" t="s">
         <v>45</v>
@@ -59905,7 +59917,7 @@
         <v>50</v>
       </c>
       <c r="U400" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V400" s="2" t="s">
         <v>49</v>
@@ -59923,7 +59935,7 @@
         <v>49</v>
       </c>
       <c r="AA400" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB400" s="2" t="s">
         <v>45</v>
@@ -59932,16 +59944,16 @@
         <v>45</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF400" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG400" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH400" s="2" t="s">
         <v>45</v>
@@ -59964,22 +59976,22 @@
     </row>
     <row r="401" customHeight="1" spans="2:39">
       <c r="B401" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E401" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D401" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E401" s="2" t="s">
+      <c r="F401" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G401" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1371</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>1462</v>
@@ -59997,10 +60009,10 @@
         <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>45</v>
+        <v>1463</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
@@ -60012,7 +60024,7 @@
         <v>45</v>
       </c>
       <c r="R401" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="S401" s="2">
         <v>2013</v>
@@ -60045,7 +60057,7 @@
         <v>45</v>
       </c>
       <c r="AC401" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD401" s="2" t="s">
         <v>78</v>
@@ -60080,25 +60092,25 @@
     </row>
     <row r="402" customHeight="1" spans="2:39">
       <c r="B402" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>129</v>
+        <v>1383</v>
       </c>
       <c r="D402" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1457</v>
+        <v>1371</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -60113,7 +60125,7 @@
         <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N402" s="2" t="s">
         <v>45</v>
@@ -60128,10 +60140,10 @@
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="S402" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60158,7 +60170,7 @@
         <v>59</v>
       </c>
       <c r="AB402" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC402" s="2" t="s">
         <v>77</v>
@@ -60167,13 +60179,13 @@
         <v>78</v>
       </c>
       <c r="AE402" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF402" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG402" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH402" s="2" t="s">
         <v>45</v>
@@ -60196,25 +60208,25 @@
     </row>
     <row r="403" customHeight="1" spans="2:39">
       <c r="B403" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D403" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60229,7 +60241,7 @@
         <v>46</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>45</v>
@@ -60244,10 +60256,10 @@
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="S403" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
@@ -60274,22 +60286,22 @@
         <v>59</v>
       </c>
       <c r="AB403" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC403" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD403" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE403" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF403" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>81</v>
+        <v>1441</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60312,25 +60324,25 @@
     </row>
     <row r="404" customHeight="1" spans="2:39">
       <c r="B404" s="2" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1469</v>
+        <v>89</v>
       </c>
       <c r="D404" s="3">
         <v>2020</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>45</v>
@@ -60345,7 +60357,7 @@
         <v>46</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N404" s="2" t="s">
         <v>45</v>
@@ -60360,7 +60372,7 @@
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="S404" s="2">
         <v>2019</v>
@@ -60393,13 +60405,13 @@
         <v>45</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE404" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF404" s="2" t="s">
         <v>80</v>
@@ -60420,7 +60432,7 @@
         <v>45</v>
       </c>
       <c r="AL404" s="2" t="s">
-        <v>1470</v>
+        <v>45</v>
       </c>
       <c r="AM404" s="2" t="s">
         <v>45</v>
@@ -60428,25 +60440,25 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D405" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E405" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>1467</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>45</v>
@@ -60461,7 +60473,7 @@
         <v>46</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>45</v>
@@ -60476,10 +60488,10 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="S405" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60506,7 +60518,7 @@
         <v>59</v>
       </c>
       <c r="AB405" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC405" s="2" t="s">
         <v>45</v>
@@ -60515,7 +60527,7 @@
         <v>45</v>
       </c>
       <c r="AE405" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF405" s="2" t="s">
         <v>80</v>
@@ -60536,7 +60548,7 @@
         <v>45</v>
       </c>
       <c r="AL405" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="AM405" s="2" t="s">
         <v>45</v>
@@ -60544,25 +60556,25 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>115</v>
+        <v>1386</v>
       </c>
       <c r="D406" s="3">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>45</v>
@@ -60574,28 +60586,28 @@
         <v>45</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>1476</v>
+        <v>46</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="N406" s="2" t="s">
-        <v>1474</v>
+        <v>45</v>
       </c>
       <c r="O406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P406" s="2" t="s">
-        <v>1474</v>
+        <v>45</v>
       </c>
       <c r="Q406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="S406" s="2">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
@@ -60625,13 +60637,13 @@
         <v>76</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD406" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE406" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF406" s="2" t="s">
         <v>80</v>
@@ -60658,24 +60670,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="407" customHeight="1" spans="3:39">
+    <row r="407" customHeight="1" spans="2:39">
+      <c r="B407" s="2" t="s">
+        <v>1476</v>
+      </c>
       <c r="C407" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D407" s="3">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60687,34 +60702,34 @@
         <v>45</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P407" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="Q407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="S407" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V407" s="2" t="s">
         <v>49</v>
@@ -60732,25 +60747,25 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB407" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD407" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE407" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF407" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60773,162 +60788,159 @@
     </row>
     <row r="408" customHeight="1" spans="3:39">
       <c r="C408" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M408" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N408" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P408" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R408" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S408" s="2">
+        <v>2009</v>
+      </c>
+      <c r="T408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM408" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="409" customHeight="1" spans="3:39">
+      <c r="C409" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D408" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L408" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M408" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N408" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P408" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Q408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R408" s="2">
-        <v>2013</v>
-      </c>
-      <c r="S408" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T408" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U408" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB408" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC408" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD408" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE408" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM408" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="409" customHeight="1" spans="2:39">
-      <c r="B409" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D409" s="3">
         <v>2016</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="H409" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L409" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M409" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="I409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L409" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M409" s="2" t="s">
-        <v>1474</v>
-      </c>
       <c r="N409" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="O409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P409" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="Q409" s="2" t="s">
         <v>45</v>
@@ -60961,25 +60973,25 @@
         <v>49</v>
       </c>
       <c r="AA409" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB409" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC409" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE409" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -61002,329 +61014,329 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N410" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P410" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R410" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S410" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T410" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U410" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA410" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB410" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF410" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG410" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM410" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" customHeight="1" spans="2:39">
+      <c r="B411" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D410" s="3">
+      <c r="D411" s="3">
         <v>2017</v>
       </c>
-      <c r="E410" s="2" t="s">
+      <c r="E411" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L411" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="F410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="I410" s="2" t="s">
+      <c r="M411" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N411" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P411" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R411" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S411" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X411" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z411" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE411" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM411" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="412" customHeight="1" spans="3:39">
+      <c r="C412" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H412" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M410" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N410" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P410" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Q410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R410" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S410" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X410" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE410" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM410" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="411" customHeight="1" spans="3:39">
-      <c r="C411" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D411" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H411" s="2" t="s">
+      <c r="I412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M412" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="I411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L411" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M411" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N411" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P411" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Q411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T411" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U411" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V411" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W411" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X411" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y411" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z411" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA411" s="2" t="s">
+      <c r="N412" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P412" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T412" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U412" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA412" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB411" s="2" t="s">
+      <c r="AB412" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF411" s="2" t="s">
+      <c r="AC412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF412" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG411" s="2" t="s">
+      <c r="AG412" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AH411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM411" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="412" customHeight="1" spans="2:39">
-      <c r="B412" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D412" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L412" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M412" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N412" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P412" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Q412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R412" s="2">
-        <v>2003</v>
-      </c>
-      <c r="S412" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T412" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z412" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG412" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH412" s="2" t="s">
         <v>45</v>
@@ -61347,251 +61359,251 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D413" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L413" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N413" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R413" s="2">
+        <v>2003</v>
+      </c>
+      <c r="S413" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM413" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="414" customHeight="1" spans="2:39">
+      <c r="B414" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D414" s="3">
         <v>2023</v>
       </c>
-      <c r="E413" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L413" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M413" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N413" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P413" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Q413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R413" s="2">
+      <c r="E414" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R414" s="2">
         <v>1960</v>
       </c>
-      <c r="S413" s="2">
+      <c r="S414" s="2">
         <v>2021</v>
       </c>
-      <c r="T413" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM413" s="2" t="s">
+      <c r="T414" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM414" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="414" customHeight="1" spans="3:39">
-      <c r="C414" s="2" t="s">
+    <row r="415" customHeight="1" spans="3:39">
+      <c r="C415" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D414" s="3">
+      <c r="D415" s="3">
         <v>2011</v>
       </c>
-      <c r="E414" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N414" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="O414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R414" s="2">
-        <v>2008</v>
-      </c>
-      <c r="S414" s="2">
-        <v>2010</v>
-      </c>
-      <c r="T414" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U414" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA414" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB414" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC414" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF414" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG414" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM414" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="415" customHeight="1" spans="2:39">
-      <c r="B415" s="2" t="s">
+      <c r="E415" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D415" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E415" s="2" t="s">
+      <c r="F415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G415" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>1489</v>
       </c>
       <c r="H415" s="2" t="s">
         <v>1494</v>
@@ -61606,10 +61618,10 @@
         <v>45</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>1495</v>
@@ -61624,10 +61636,10 @@
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="S415" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61657,7 +61669,7 @@
         <v>76</v>
       </c>
       <c r="AC415" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD415" s="2" t="s">
         <v>45</v>
@@ -61672,7 +61684,7 @@
         <v>81</v>
       </c>
       <c r="AH415" s="2" t="s">
-        <v>1496</v>
+        <v>45</v>
       </c>
       <c r="AI415" s="2" t="s">
         <v>45</v>
@@ -61692,44 +61704,44 @@
     </row>
     <row r="416" customHeight="1" spans="2:39">
       <c r="B416" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D416" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E416" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H416" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H416" s="2" t="s">
+      <c r="I416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L416" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M416" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N416" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="I416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L416" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M416" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N416" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
@@ -61740,7 +61752,7 @@
         <v>45</v>
       </c>
       <c r="R416" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="S416" s="2">
         <v>2012</v>
@@ -61770,10 +61782,10 @@
         <v>59</v>
       </c>
       <c r="AB416" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC416" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD416" s="2" t="s">
         <v>45</v>
@@ -61811,22 +61823,22 @@
         <v>1501</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D417" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1489</v>
+        <v>1432</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="I417" s="2" t="s">
         <v>45</v>
@@ -61838,10 +61850,10 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>45</v>
@@ -61856,10 +61868,10 @@
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="S417" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="T417" s="2" t="s">
         <v>50</v>
@@ -61886,7 +61898,7 @@
         <v>59</v>
       </c>
       <c r="AB417" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC417" s="2" t="s">
         <v>77</v>
@@ -61904,7 +61916,7 @@
         <v>81</v>
       </c>
       <c r="AH417" s="2" t="s">
-        <v>45</v>
+        <v>1504</v>
       </c>
       <c r="AI417" s="2" t="s">
         <v>45</v>
@@ -61924,25 +61936,25 @@
     </row>
     <row r="418" customHeight="1" spans="2:39">
       <c r="B418" s="2" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="D418" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E418" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1489</v>
-      </c>
       <c r="H418" s="2" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="I418" s="2" t="s">
         <v>45</v>
@@ -61954,10 +61966,10 @@
         <v>45</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>45</v>
@@ -61972,19 +61984,19 @@
         <v>45</v>
       </c>
       <c r="R418" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S418" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T418" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V418" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W418" s="2" t="s">
         <v>49</v>
@@ -61999,13 +62011,13 @@
         <v>49</v>
       </c>
       <c r="AA418" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB418" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC418" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD418" s="2" t="s">
         <v>45</v>
@@ -62014,10 +62026,10 @@
         <v>45</v>
       </c>
       <c r="AF418" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG418" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH418" s="2" t="s">
         <v>45</v>
@@ -62040,25 +62052,25 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D419" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E419" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G419" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1489</v>
-      </c>
       <c r="H419" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="I419" s="2" t="s">
         <v>45</v>
@@ -62070,37 +62082,37 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1505</v>
+        <v>45</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>1506</v>
+        <v>45</v>
       </c>
       <c r="Q419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S419" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U419" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V419" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W419" s="2" t="s">
         <v>49</v>
@@ -62115,25 +62127,25 @@
         <v>49</v>
       </c>
       <c r="AA419" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB419" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC419" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD419" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE419" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF419" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG419" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH419" s="2" t="s">
         <v>45</v>
@@ -62156,25 +62168,25 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>136</v>
+        <v>379</v>
       </c>
       <c r="D420" s="3">
         <v>2021</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>45</v>
@@ -62186,28 +62198,28 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S420" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
@@ -62246,161 +62258,161 @@
         <v>79</v>
       </c>
       <c r="AF420" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG420" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AH420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL420" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM420" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="421" customHeight="1" spans="2:39">
+      <c r="B421" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N421" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="O421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P421" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="Q421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R421" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S421" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA421" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB421" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC421" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD421" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE421" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF421" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG420" s="2" t="s">
+      <c r="AG421" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL420" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM420" s="2" t="s">
+      <c r="AH421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM421" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="421" customHeight="1" spans="3:39">
-      <c r="C421" s="2" t="s">
+    <row r="422" customHeight="1" spans="3:39">
+      <c r="C422" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D421" s="3">
+      <c r="D422" s="3">
         <v>2023</v>
       </c>
-      <c r="E421" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M421" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R421" s="2">
-        <v>2005</v>
-      </c>
-      <c r="S421" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T421" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM421" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="422" customHeight="1" spans="2:39">
-      <c r="B422" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D422" s="3">
-        <v>2010</v>
-      </c>
       <c r="E422" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="H422" s="2" t="s">
         <v>1515</v>
@@ -62415,10 +62427,10 @@
         <v>45</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>45</v>
@@ -62433,16 +62445,16 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S422" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="T422" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U422" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V422" s="2" t="s">
         <v>49</v>
@@ -62460,10 +62472,10 @@
         <v>49</v>
       </c>
       <c r="AA422" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC422" s="2" t="s">
         <v>45</v>
@@ -62475,10 +62487,10 @@
         <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG422" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH422" s="2" t="s">
         <v>45</v>
@@ -62504,10 +62516,10 @@
         <v>1516</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D423" s="3">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>1517</v>
@@ -62516,28 +62528,28 @@
         <v>45</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1428</v>
+        <v>1518</v>
       </c>
       <c r="H423" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M423" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M423" s="2" t="s">
-        <v>1428</v>
-      </c>
       <c r="N423" s="2" t="s">
-        <v>1519</v>
+        <v>45</v>
       </c>
       <c r="O423" s="2" t="s">
         <v>45</v>
@@ -62549,13 +62561,13 @@
         <v>45</v>
       </c>
       <c r="R423" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="S423" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="T423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U423" s="2" t="s">
         <v>50</v>
@@ -62579,13 +62591,13 @@
         <v>59</v>
       </c>
       <c r="AB423" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD423" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE423" s="2" t="s">
         <v>45</v>
@@ -62620,55 +62632,55 @@
         <v>1520</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1304</v>
+        <v>89</v>
       </c>
       <c r="D424" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N424" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R424" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S424" s="2">
         <v>2009</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L424" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M424" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="N424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R424" s="2">
-        <v>2005</v>
-      </c>
-      <c r="S424" s="2">
-        <v>2006</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62695,19 +62707,19 @@
         <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF424" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG424" s="2" t="s">
         <v>81</v>
@@ -62733,40 +62745,40 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="D425" s="3">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="H425" s="2" t="s">
+      <c r="I425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L425" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M425" s="2" t="s">
         <v>1526</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L425" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M425" s="2" t="s">
-        <v>1527</v>
       </c>
       <c r="N425" s="2" t="s">
         <v>45</v>
@@ -62784,7 +62796,7 @@
         <v>2005</v>
       </c>
       <c r="S425" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62811,13 +62823,13 @@
         <v>59</v>
       </c>
       <c r="AB425" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE425" s="2" t="s">
         <v>45</v>
@@ -62849,43 +62861,43 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2007</v>
+      </c>
+      <c r="E426" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D426" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E426" s="2" t="s">
+      <c r="F426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G426" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="F426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G426" s="2" t="s">
+      <c r="H426" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="H426" s="2" t="s">
+      <c r="I426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L426" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M426" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="I426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L426" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="M426" s="2" t="s">
-        <v>1530</v>
-      </c>
       <c r="N426" s="2" t="s">
-        <v>1533</v>
+        <v>45</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
@@ -62897,10 +62909,10 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S426" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
@@ -62933,10 +62945,10 @@
         <v>45</v>
       </c>
       <c r="AD426" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
         <v>80</v>
@@ -62965,43 +62977,43 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D427" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E427" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H427" s="2" t="s">
+      <c r="I427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L427" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="I427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1532</v>
-      </c>
       <c r="M427" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>45</v>
+        <v>1537</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -63013,10 +63025,10 @@
         <v>45</v>
       </c>
       <c r="R427" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S427" s="2">
         <v>2008</v>
-      </c>
-      <c r="S427" s="2">
-        <v>2011</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -63049,13 +63061,13 @@
         <v>45</v>
       </c>
       <c r="AD427" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG427" s="2" t="s">
         <v>81</v>
@@ -63081,25 +63093,25 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D428" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1529</v>
+        <v>1539</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="I428" s="2" t="s">
         <v>45</v>
@@ -63111,10 +63123,10 @@
         <v>45</v>
       </c>
       <c r="L428" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>45</v>
@@ -63128,17 +63140,17 @@
       <c r="Q428" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S428" s="2" t="s">
-        <v>45</v>
+      <c r="R428" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S428" s="2">
+        <v>2011</v>
       </c>
       <c r="T428" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U428" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V428" s="2" t="s">
         <v>49</v>
@@ -63150,13 +63162,13 @@
         <v>49</v>
       </c>
       <c r="Y428" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z428" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA428" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB428" s="2" t="s">
         <v>45</v>
@@ -63165,16 +63177,16 @@
         <v>45</v>
       </c>
       <c r="AD428" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF428" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG428" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63197,25 +63209,25 @@
     </row>
     <row r="429" customHeight="1" spans="2:39">
       <c r="B429" s="2" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D429" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
@@ -63227,10 +63239,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63244,17 +63256,17 @@
       <c r="Q429" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R429" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S429" s="2">
-        <v>2018</v>
+      <c r="R429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S429" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T429" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U429" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V429" s="2" t="s">
         <v>49</v>
@@ -63266,31 +63278,31 @@
         <v>49</v>
       </c>
       <c r="Y429" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z429" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA429" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB429" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC429" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD429" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE429" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63313,25 +63325,25 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="D430" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>45</v>
@@ -63343,13 +63355,13 @@
         <v>45</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="M430" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>1544</v>
+        <v>45</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
@@ -63361,16 +63373,16 @@
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S430" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U430" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V430" s="2" t="s">
         <v>49</v>
@@ -63388,25 +63400,25 @@
         <v>49</v>
       </c>
       <c r="AA430" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC430" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG430" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH430" s="2" t="s">
         <v>45</v>
@@ -63432,41 +63444,41 @@
         <v>1545</v>
       </c>
       <c r="C431" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E431" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="D431" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E431" s="2" t="s">
+      <c r="F431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H431" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="F431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G431" s="2" t="s">
+      <c r="I431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M431" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N431" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="H431" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L431" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="M431" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N431" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
       </c>
@@ -63477,16 +63489,16 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="S431" s="2">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U431" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V431" s="2" t="s">
         <v>49</v>
@@ -63504,25 +63516,25 @@
         <v>49</v>
       </c>
       <c r="AA431" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG431" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH431" s="2" t="s">
         <v>45</v>
@@ -63545,10 +63557,10 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>1550</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>1356</v>
       </c>
       <c r="D432" s="3">
         <v>2023</v>
@@ -63560,10 +63572,10 @@
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1530</v>
+        <v>1552</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
@@ -63575,13 +63587,13 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O432" s="2" t="s">
         <v>45</v>
@@ -63593,10 +63605,10 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>1956</v>
+        <v>2022</v>
       </c>
       <c r="S432" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="T432" s="2" t="s">
         <v>50</v>
@@ -63626,19 +63638,19 @@
         <v>76</v>
       </c>
       <c r="AC432" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD432" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE432" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63661,22 +63673,22 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>115</v>
+        <v>1356</v>
       </c>
       <c r="D433" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="H433" s="2" t="s">
         <v>1556</v>
@@ -63691,13 +63703,13 @@
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1557</v>
+        <v>1534</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O433" s="2" t="s">
         <v>45</v>
@@ -63709,10 +63721,10 @@
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2017</v>
+        <v>1956</v>
       </c>
       <c r="S433" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
@@ -63739,22 +63751,22 @@
         <v>59</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC433" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD433" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63777,26 +63789,26 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E434" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="F434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G434" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="D434" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E434" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="F434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>1478</v>
-      </c>
       <c r="I434" s="2" t="s">
         <v>45</v>
       </c>
@@ -63807,7 +63819,7 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="M434" s="2" t="s">
         <v>1561</v>
@@ -63825,7 +63837,7 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="S434" s="2">
         <v>2017</v>
@@ -63855,22 +63867,22 @@
         <v>59</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC434" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD434" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE434" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF434" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG434" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH434" s="2" t="s">
         <v>45</v>
@@ -63893,13 +63905,13 @@
     </row>
     <row r="435" customHeight="1" spans="2:39">
       <c r="B435" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D435" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>1564</v>
@@ -63911,19 +63923,19 @@
         <v>1565</v>
       </c>
       <c r="H435" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L435" s="2" t="s">
         <v>1566</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K435" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L435" s="2" t="s">
-        <v>1567</v>
       </c>
       <c r="M435" s="2" t="s">
         <v>1565</v>
@@ -63941,10 +63953,10 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="S435" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
@@ -63971,13 +63983,13 @@
         <v>59</v>
       </c>
       <c r="AB435" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC435" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD435" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE435" s="2" t="s">
         <v>79</v>
@@ -63986,7 +63998,7 @@
         <v>80</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH435" s="2" t="s">
         <v>45</v>
@@ -64009,22 +64021,22 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E436" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D436" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E436" s="2" t="s">
+      <c r="F436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G436" s="2" t="s">
         <v>1569</v>
-      </c>
-      <c r="F436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>1565</v>
       </c>
       <c r="H436" s="2" t="s">
         <v>1570</v>
@@ -64039,13 +64051,13 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>1571</v>
+        <v>45</v>
       </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
@@ -64057,10 +64069,10 @@
         <v>45</v>
       </c>
       <c r="R436" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S436" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="T436" s="2" t="s">
         <v>50</v>
@@ -64093,13 +64105,13 @@
         <v>45</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>1572</v>
+        <v>80</v>
       </c>
       <c r="AG436" s="2" t="s">
         <v>81</v>
@@ -64125,25 +64137,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D437" s="3">
         <v>2013</v>
       </c>
       <c r="E437" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G437" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F437" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="H437" s="2" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64155,13 +64167,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>45</v>
+        <v>1575</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64173,10 +64185,10 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="S437" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64206,16 +64218,16 @@
         <v>45</v>
       </c>
       <c r="AC437" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD437" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>1137</v>
+        <v>1576</v>
       </c>
       <c r="AG437" s="2" t="s">
         <v>81</v>
@@ -64241,43 +64253,43 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H438" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D438" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G438" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>1576</v>
-      </c>
       <c r="I438" s="2" t="s">
-        <v>1577</v>
+        <v>45</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>1578</v>
+        <v>45</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>1571</v>
+        <v>45</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>45</v>
@@ -64289,10 +64301,10 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="S438" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T438" s="2" t="s">
         <v>50</v>
@@ -64322,19 +64334,19 @@
         <v>45</v>
       </c>
       <c r="AC438" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE438" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>1437</v>
+        <v>81</v>
       </c>
       <c r="AH438" s="2" t="s">
         <v>45</v>
@@ -64357,43 +64369,43 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D439" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E439" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L439" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M439" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G439" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="H439" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="I439" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L439" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M439" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="N439" s="2" t="s">
-        <v>45</v>
+        <v>1575</v>
       </c>
       <c r="O439" s="2" t="s">
         <v>45</v>
@@ -64405,10 +64417,10 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="S439" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64435,7 +64447,7 @@
         <v>59</v>
       </c>
       <c r="AB439" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC439" s="2" t="s">
         <v>45</v>
@@ -64444,13 +64456,13 @@
         <v>45</v>
       </c>
       <c r="AE439" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG439" s="2" t="s">
-        <v>81</v>
+        <v>1441</v>
       </c>
       <c r="AH439" s="2" t="s">
         <v>45</v>
@@ -64471,27 +64483,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" customHeight="1" spans="3:39">
+    <row r="440" customHeight="1" spans="2:39">
+      <c r="B440" s="2" t="s">
+        <v>1583</v>
+      </c>
       <c r="C440" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D440" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>45</v>
+        <v>1584</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>45</v>
@@ -64500,10 +64515,10 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N440" s="2" t="s">
         <v>45</v>
@@ -64518,7 +64533,7 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="S440" s="2">
         <v>2016</v>
@@ -64527,7 +64542,7 @@
         <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V440" s="2" t="s">
         <v>49</v>
@@ -64548,7 +64563,7 @@
         <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC440" s="2" t="s">
         <v>45</v>
@@ -64560,10 +64575,10 @@
         <v>45</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG440" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH440" s="2" t="s">
         <v>45</v>
@@ -64586,10 +64601,10 @@
     </row>
     <row r="441" customHeight="1" spans="3:39">
       <c r="C441" s="2" t="s">
-        <v>1584</v>
+        <v>129</v>
       </c>
       <c r="D441" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>1585</v>
@@ -64598,10 +64613,10 @@
         <v>45</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1565</v>
+        <v>1586</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
@@ -64613,10 +64628,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64631,16 +64646,16 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S441" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U441" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V441" s="2" t="s">
         <v>49</v>
@@ -64664,7 +64679,7 @@
         <v>45</v>
       </c>
       <c r="AC441" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD441" s="2" t="s">
         <v>45</v>
@@ -64673,10 +64688,10 @@
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64697,27 +64712,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" customHeight="1" spans="2:39">
-      <c r="B442" s="2" t="s">
-        <v>1586</v>
-      </c>
+    <row r="442" customHeight="1" spans="3:39">
       <c r="C442" s="2" t="s">
-        <v>1559</v>
+        <v>1588</v>
       </c>
       <c r="D442" s="3">
         <v>2020</v>
       </c>
       <c r="E442" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="H442" s="2" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>45</v>
@@ -64729,13 +64741,13 @@
         <v>45</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>1588</v>
+        <v>45</v>
       </c>
       <c r="O442" s="2" t="s">
         <v>45</v>
@@ -64746,11 +64758,11 @@
       <c r="Q442" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S442" s="2" t="s">
-        <v>45</v>
+      <c r="R442" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S442" s="2">
+        <v>2019</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64777,22 +64789,22 @@
         <v>59</v>
       </c>
       <c r="AB442" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC442" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE442" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF442" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH442" s="2" t="s">
         <v>45</v>
@@ -64815,25 +64827,25 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>342</v>
+        <v>1563</v>
       </c>
       <c r="D443" s="3">
         <v>2020</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>45</v>
@@ -64845,13 +64857,13 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>45</v>
+        <v>1592</v>
       </c>
       <c r="O443" s="2" t="s">
         <v>45</v>
@@ -64862,14 +64874,14 @@
       <c r="Q443" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R443" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S443" s="2">
-        <v>2015</v>
+      <c r="R443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S443" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T443" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U443" s="2" t="s">
         <v>50</v>
@@ -64881,7 +64893,7 @@
         <v>49</v>
       </c>
       <c r="X443" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y443" s="2" t="s">
         <v>49</v>
@@ -64893,16 +64905,16 @@
         <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC443" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD443" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE443" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF443" s="2" t="s">
         <v>363</v>
@@ -64931,25 +64943,25 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D444" s="3">
         <v>2020</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>45</v>
@@ -64961,10 +64973,10 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>45</v>
@@ -64979,16 +64991,16 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="S444" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T444" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U444" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V444" s="2" t="s">
         <v>49</v>
@@ -64997,7 +65009,7 @@
         <v>49</v>
       </c>
       <c r="X444" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y444" s="2" t="s">
         <v>49</v>
@@ -65006,7 +65018,7 @@
         <v>49</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB444" s="2" t="s">
         <v>45</v>
@@ -65015,16 +65027,16 @@
         <v>45</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG444" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH444" s="2" t="s">
         <v>45</v>
@@ -65047,22 +65059,22 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="D445" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1596</v>
+        <v>1569</v>
       </c>
       <c r="H445" s="2" t="s">
         <v>1597</v>
@@ -65077,13 +65089,13 @@
         <v>45</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>1598</v>
+        <v>45</v>
       </c>
       <c r="O445" s="2" t="s">
         <v>45</v>
@@ -65095,13 +65107,13 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="S445" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T445" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U445" s="2" t="s">
         <v>49</v>
@@ -65122,7 +65134,7 @@
         <v>49</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB445" s="2" t="s">
         <v>45</v>
@@ -65163,43 +65175,43 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E446" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D446" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E446" s="2" t="s">
+      <c r="F446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M446" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L446" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M446" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="N446" s="2" t="s">
-        <v>45</v>
+        <v>1602</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65211,16 +65223,16 @@
         <v>45</v>
       </c>
       <c r="R446" s="2">
+        <v>2007</v>
+      </c>
+      <c r="S446" s="2">
         <v>2017</v>
       </c>
-      <c r="S446" s="2">
-        <v>2019</v>
-      </c>
       <c r="T446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V446" s="2" t="s">
         <v>49</v>
@@ -65244,7 +65256,7 @@
         <v>45</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
@@ -65253,13 +65265,13 @@
         <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH446" s="2" t="s">
-        <v>1601</v>
+        <v>45</v>
       </c>
       <c r="AI446" s="2" t="s">
         <v>45</v>
@@ -65279,25 +65291,25 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1392</v>
+        <v>115</v>
       </c>
       <c r="D447" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E447" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="H447" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="I447" s="2" t="s">
         <v>45</v>
@@ -65309,10 +65321,10 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N447" s="2" t="s">
         <v>45</v>
@@ -65327,10 +65339,10 @@
         <v>45</v>
       </c>
       <c r="R447" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="S447" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65354,7 +65366,7 @@
         <v>49</v>
       </c>
       <c r="AA447" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB447" s="2" t="s">
         <v>45</v>
@@ -65375,7 +65387,7 @@
         <v>396</v>
       </c>
       <c r="AH447" s="2" t="s">
-        <v>45</v>
+        <v>1605</v>
       </c>
       <c r="AI447" s="2" t="s">
         <v>45</v>
@@ -65395,25 +65407,25 @@
     </row>
     <row r="448" customHeight="1" spans="2:39">
       <c r="B448" s="2" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D448" s="3">
         <v>2023</v>
       </c>
       <c r="E448" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="H448" s="2" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="I448" s="2" t="s">
         <v>45</v>
@@ -65425,10 +65437,10 @@
         <v>45</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M448" s="2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>45</v>
@@ -65443,7 +65455,7 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="S448" s="2">
         <v>2023</v>
@@ -65476,10 +65488,10 @@
         <v>45</v>
       </c>
       <c r="AC448" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD448" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE448" s="2" t="s">
         <v>45</v>
@@ -65491,7 +65503,7 @@
         <v>396</v>
       </c>
       <c r="AH448" s="2" t="s">
-        <v>1606</v>
+        <v>45</v>
       </c>
       <c r="AI448" s="2" t="s">
         <v>45</v>
@@ -65511,26 +65523,26 @@
     </row>
     <row r="449" customHeight="1" spans="2:39">
       <c r="B449" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D449" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1608</v>
+        <v>1573</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G449" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H449" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="H449" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="I449" s="2" t="s">
         <v>45</v>
       </c>
@@ -65541,10 +65553,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1609</v>
+        <v>1569</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65559,10 +65571,10 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>1999</v>
+        <v>2023</v>
       </c>
       <c r="S449" s="2">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
@@ -65586,16 +65598,16 @@
         <v>49</v>
       </c>
       <c r="AA449" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB449" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD449" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE449" s="2" t="s">
         <v>45</v>
@@ -65604,10 +65616,10 @@
         <v>91</v>
       </c>
       <c r="AG449" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH449" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="AI449" s="2" t="s">
         <v>45</v>
@@ -65627,22 +65639,22 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E450" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D450" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E450" s="2" t="s">
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
         <v>1613</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>1614</v>
@@ -65657,73 +65669,73 @@
         <v>45</v>
       </c>
       <c r="L450" s="2" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="M450" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="N450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R450" s="2">
+        <v>1999</v>
+      </c>
+      <c r="S450" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T450" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U450" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z450" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA450" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB450" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF450" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG450" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH450" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="N450" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="O450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R450" s="2">
-        <v>2016</v>
-      </c>
-      <c r="S450" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T450" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z450" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH450" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AI450" s="2" t="s">
         <v>45</v>
@@ -65743,58 +65755,58 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D451" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E451" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H451" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="F451" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G451" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="H451" s="2" t="s">
-        <v>1620</v>
-      </c>
       <c r="I451" s="2" t="s">
-        <v>1621</v>
+        <v>45</v>
       </c>
       <c r="J451" s="2" t="s">
-        <v>1622</v>
+        <v>45</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1623</v>
+        <v>1571</v>
       </c>
       <c r="M451" s="2" t="s">
         <v>1619</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P451" s="2" t="s">
-        <v>1624</v>
+        <v>45</v>
       </c>
       <c r="Q451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="S451" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T451" s="2" t="s">
         <v>50</v>
@@ -65818,10 +65830,10 @@
         <v>49</v>
       </c>
       <c r="AA451" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB451" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC451" s="2" t="s">
         <v>45</v>
@@ -65833,7 +65845,7 @@
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>1137</v>
+        <v>45</v>
       </c>
       <c r="AG451" s="2" t="s">
         <v>45</v>
@@ -65859,61 +65871,61 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I452" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D452" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E452" s="2" t="s">
+      <c r="J452" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="F452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G452" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H452" s="2" t="s">
+      <c r="K452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L452" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="I452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L452" s="2" t="s">
+      <c r="M452" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="M452" s="2" t="s">
+      <c r="N452" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="N452" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P452" s="2" t="s">
-        <v>45</v>
+        <v>1628</v>
       </c>
       <c r="Q452" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S452" s="2" t="s">
-        <v>45</v>
+      <c r="R452" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S452" s="2">
+        <v>2006</v>
       </c>
       <c r="T452" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U452" s="2" t="s">
         <v>49</v>
@@ -65928,19 +65940,19 @@
         <v>49</v>
       </c>
       <c r="Y452" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z452" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA452" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB452" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD452" s="2" t="s">
         <v>45</v>
@@ -65949,7 +65961,7 @@
         <v>45</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG452" s="2" t="s">
         <v>45</v>
@@ -65978,25 +65990,25 @@
         <v>1629</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D453" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1575</v>
+        <v>1630</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>1358</v>
+        <v>1586</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>1576</v>
+        <v>45</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>45</v>
@@ -66005,10 +66017,10 @@
         <v>45</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>45</v>
+        <v>1627</v>
       </c>
       <c r="M453" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>45</v>
@@ -66022,17 +66034,17 @@
       <c r="Q453" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R453" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S453" s="2">
-        <v>2018</v>
+      <c r="R453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S453" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>49</v>
@@ -66044,16 +66056,16 @@
         <v>49</v>
       </c>
       <c r="Y453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z453" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA453" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC453" s="2" t="s">
         <v>77</v>
@@ -66065,10 +66077,10 @@
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH453" s="2" t="s">
         <v>45</v>
@@ -66091,28 +66103,28 @@
     </row>
     <row r="454" customHeight="1" spans="2:39">
       <c r="B454" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D454" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1633</v>
+        <v>1579</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1631</v>
+        <v>1358</v>
       </c>
       <c r="H454" s="2" t="s">
         <v>1634</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>45</v>
@@ -66124,7 +66136,7 @@
         <v>45</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>45</v>
@@ -66139,10 +66151,10 @@
         <v>45</v>
       </c>
       <c r="R454" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S454" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T454" s="2" t="s">
         <v>50</v>
@@ -66184,7 +66196,7 @@
         <v>91</v>
       </c>
       <c r="AG454" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH454" s="2" t="s">
         <v>45</v>
@@ -66207,28 +66219,28 @@
     </row>
     <row r="455" customHeight="1" spans="2:39">
       <c r="B455" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G455" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D455" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F455" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G455" s="2" t="s">
-        <v>1637</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>1638</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>45</v>
+        <v>1580</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>45</v>
@@ -66237,10 +66249,10 @@
         <v>45</v>
       </c>
       <c r="L455" s="2" t="s">
-        <v>1639</v>
+        <v>45</v>
       </c>
       <c r="M455" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="N455" s="2" t="s">
         <v>45</v>
@@ -66255,10 +66267,10 @@
         <v>45</v>
       </c>
       <c r="R455" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="S455" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T455" s="2" t="s">
         <v>50</v>
@@ -66285,10 +66297,10 @@
         <v>59</v>
       </c>
       <c r="AB455" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC455" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD455" s="2" t="s">
         <v>45</v>
@@ -66323,40 +66335,40 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E456" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="F456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="D456" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E456" s="2" t="s">
+      <c r="H456" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="F456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G456" s="2" t="s">
+      <c r="I456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L456" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="H456" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="I456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L456" s="2" t="s">
-        <v>1645</v>
-      </c>
       <c r="M456" s="2" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="N456" s="2" t="s">
         <v>45</v>
@@ -66371,16 +66383,16 @@
         <v>45</v>
       </c>
       <c r="R456" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="S456" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U456" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V456" s="2" t="s">
         <v>49</v>
@@ -66398,10 +66410,10 @@
         <v>49</v>
       </c>
       <c r="AA456" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB456" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC456" s="2" t="s">
         <v>45</v>
@@ -66413,10 +66425,10 @@
         <v>45</v>
       </c>
       <c r="AF456" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG456" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH456" s="2" t="s">
         <v>45</v>
@@ -66439,22 +66451,22 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E457" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D457" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E457" s="2" t="s">
+      <c r="F457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G457" s="2" t="s">
         <v>1647</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G457" s="2" t="s">
-        <v>1582</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>1648</v>
@@ -66469,13 +66481,13 @@
         <v>45</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1582</v>
+        <v>1647</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>1649</v>
+        <v>45</v>
       </c>
       <c r="O457" s="2" t="s">
         <v>45</v>
@@ -66487,10 +66499,10 @@
         <v>45</v>
       </c>
       <c r="R457" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="S457" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T457" s="2" t="s">
         <v>50</v>
@@ -66558,7 +66570,7 @@
         <v>1650</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1641</v>
+        <v>115</v>
       </c>
       <c r="D458" s="3">
         <v>2023</v>
@@ -66570,7 +66582,7 @@
         <v>45</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1643</v>
+        <v>1586</v>
       </c>
       <c r="H458" s="2" t="s">
         <v>1652</v>
@@ -66585,10 +66597,10 @@
         <v>45</v>
       </c>
       <c r="L458" s="2" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="M458" s="2" t="s">
-        <v>1643</v>
+        <v>1586</v>
       </c>
       <c r="N458" s="2" t="s">
         <v>1653</v>
@@ -66612,7 +66624,7 @@
         <v>50</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>49</v>
@@ -66630,25 +66642,25 @@
         <v>49</v>
       </c>
       <c r="AA458" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB458" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC458" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF458" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG458" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH458" s="2" t="s">
         <v>45</v>
@@ -66674,10 +66686,10 @@
         <v>1654</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="D459" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>1655</v>
@@ -66686,7 +66698,7 @@
         <v>45</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1596</v>
+        <v>1647</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>1656</v>
@@ -66701,13 +66713,13 @@
         <v>45</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>1596</v>
+        <v>1647</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>45</v>
+        <v>1657</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>45</v>
@@ -66728,7 +66740,7 @@
         <v>50</v>
       </c>
       <c r="U459" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V459" s="2" t="s">
         <v>49</v>
@@ -66746,25 +66758,25 @@
         <v>49</v>
       </c>
       <c r="AA459" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB459" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC459" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD459" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF459" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG459" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH459" s="2" t="s">
         <v>45</v>
@@ -66782,11 +66794,127 @@
         <v>45</v>
       </c>
       <c r="AM459" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="460" customHeight="1" spans="2:39">
+      <c r="B460" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L460" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M460" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R460" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S460" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T460" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM460" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM459">
+  <autoFilter ref="A1:AM460">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28230" windowHeight="5872"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$460</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$464</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16052" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16192" uniqueCount="1672">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11795,6 +11795,36 @@
     <t>Emergence of genotype cosmopolitan of dengue virus type 2 and genotype III of dengue virus type 3 in Thailand</t>
   </si>
   <si>
+    <t>Does Bangkok have a central role in the dengue dynamics of Thailand?</t>
+  </si>
+  <si>
+    <t>Queensland University of Technology</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Phylogenetic and recombinant analyses of complete coding sequences of DENV-1 from field-caught mosquitoes in Thailand</t>
+  </si>
+  <si>
+    <t>Chulalongkorn University</t>
+  </si>
+  <si>
+    <t>Wunrada Surat</t>
+  </si>
+  <si>
+    <t>Revealing two dynamic dengue epidemic clusters in Thailand</t>
+  </si>
+  <si>
+    <t>National University of Singapore</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Jue Tao Lim</t>
+  </si>
+  <si>
     <t>Genetic diversity and dengue virus in clinical specimens from Bangkok, Thailand, during 2018-2020: co-circulation of all four serotypes with multiple genotypes and/or clade</t>
   </si>
   <si>
@@ -11819,6 +11849,18 @@
     <t>Henrik Salje</t>
   </si>
   <si>
+    <t>Beneath the surface: amino acid variation underlying two decades of dengue virus antigenic dynamics in Bangkok, Thailand</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Leah Katzelnick</t>
+  </si>
+  <si>
+    <t>Derek Cummings</t>
+  </si>
+  <si>
     <t>Influence of climate variables on dengue fever occurrence in the southern region of Thailand</t>
   </si>
   <si>
@@ -11834,12 +11876,6 @@
     <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
   </si>
   <si>
-    <t>Queensland University of Technology</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -11973,9 +12009,6 @@
   </si>
   <si>
     <t>National Environment Agency, Singapore</t>
-  </si>
-  <si>
-    <t>Singapore</t>
   </si>
   <si>
     <t>Lee-Ching Ng</t>
@@ -12529,11 +12562,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13018,19 +13051,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13173,7 +13206,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13182,7 +13215,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13713,25 +13746,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM460"/>
+  <dimension ref="A1:AM464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG389" sqref="AG389"/>
+      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -58242,25 +58275,25 @@
         <v>1418</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1345</v>
+        <v>588</v>
       </c>
       <c r="D386" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>989</v>
+        <v>1419</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>991</v>
+        <v>1420</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>1419</v>
+        <v>335</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>1388</v>
+        <v>45</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>45</v>
@@ -58275,7 +58308,7 @@
         <v>991</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>1400</v>
+        <v>45</v>
       </c>
       <c r="O386" s="2" t="s">
         <v>45</v>
@@ -58287,16 +58320,16 @@
         <v>45</v>
       </c>
       <c r="R386" s="2">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="S386" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="T386" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U386" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V386" s="2" t="s">
         <v>49</v>
@@ -58317,22 +58350,22 @@
         <v>59</v>
       </c>
       <c r="AB386" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC386" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD386" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE386" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF386" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG386" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH386" s="2" t="s">
         <v>45</v>
@@ -58355,16 +58388,16 @@
     </row>
     <row r="387" customHeight="1" spans="2:39">
       <c r="B387" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D387" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1398</v>
+        <v>1422</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>45</v>
@@ -58373,7 +58406,7 @@
         <v>991</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>45</v>
@@ -58403,10 +58436,10 @@
         <v>45</v>
       </c>
       <c r="R387" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="S387" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>50</v>
@@ -58418,7 +58451,7 @@
         <v>49</v>
       </c>
       <c r="W387" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X387" s="2" t="s">
         <v>49</v>
@@ -58436,19 +58469,19 @@
         <v>76</v>
       </c>
       <c r="AC387" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD387" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE387" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF387" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG387" s="2">
-        <v>454</v>
+      <c r="AG387" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="AH387" s="2" t="s">
         <v>45</v>
@@ -58471,25 +58504,25 @@
     </row>
     <row r="388" customHeight="1" spans="2:39">
       <c r="B388" s="2" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1423</v>
+        <v>333</v>
       </c>
       <c r="D388" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1358</v>
+        <v>1426</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>45</v>
@@ -58519,22 +58552,22 @@
         <v>45</v>
       </c>
       <c r="R388" s="2">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="S388" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="T388" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U388" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V388" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W388" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X388" s="2" t="s">
         <v>49</v>
@@ -58543,28 +58576,28 @@
         <v>49</v>
       </c>
       <c r="Z388" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA388" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB388" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC388" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD388" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE388" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF388" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG388" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH388" s="2" t="s">
         <v>45</v>
@@ -58587,16 +58620,16 @@
     </row>
     <row r="389" customHeight="1" spans="2:39">
       <c r="B389" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1427</v>
+        <v>1345</v>
       </c>
       <c r="D389" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1428</v>
+        <v>989</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>45</v>
@@ -58608,7 +58641,7 @@
         <v>1429</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>45</v>
+        <v>1388</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>45</v>
@@ -58623,7 +58656,7 @@
         <v>991</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>45</v>
+        <v>1400</v>
       </c>
       <c r="O389" s="2" t="s">
         <v>45</v>
@@ -58635,16 +58668,16 @@
         <v>45</v>
       </c>
       <c r="R389" s="2">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="S389" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="T389" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U389" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V389" s="2" t="s">
         <v>49</v>
@@ -58659,28 +58692,28 @@
         <v>49</v>
       </c>
       <c r="Z389" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA389" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB389" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC389" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF389" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG389" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH389" s="2" t="s">
         <v>45</v>
@@ -58709,19 +58742,19 @@
         <v>115</v>
       </c>
       <c r="D390" s="3">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="E390" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H390" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H390" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58736,7 +58769,7 @@
         <v>46</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1433</v>
+        <v>991</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>45</v>
@@ -58751,10 +58784,10 @@
         <v>45</v>
       </c>
       <c r="R390" s="2">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="S390" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="T390" s="2" t="s">
         <v>50</v>
@@ -58793,10 +58826,10 @@
         <v>79</v>
       </c>
       <c r="AF390" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG390" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="AG390" s="2">
+        <v>454</v>
       </c>
       <c r="AH390" s="2" t="s">
         <v>45</v>
@@ -58819,25 +58852,25 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E391" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="F391" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H391" s="2" t="s">
         <v>1435</v>
-      </c>
-      <c r="D391" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F391" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H391" s="2" t="s">
-        <v>1399</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58852,7 +58885,7 @@
         <v>46</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1433</v>
+        <v>991</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>45</v>
@@ -58867,10 +58900,10 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="S391" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
@@ -58882,7 +58915,7 @@
         <v>49</v>
       </c>
       <c r="W391" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X391" s="2" t="s">
         <v>49</v>
@@ -58900,19 +58933,19 @@
         <v>76</v>
       </c>
       <c r="AC391" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD391" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE391" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF391" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG391" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH391" s="2" t="s">
         <v>45</v>
@@ -58938,25 +58971,25 @@
         <v>1436</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>330</v>
+        <v>1356</v>
       </c>
       <c r="D392" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1370</v>
+        <v>1437</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>1371</v>
+        <v>1416</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>45</v>
+        <v>1439</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>45</v>
@@ -58968,10 +59001,10 @@
         <v>46</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1433</v>
+        <v>991</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>45</v>
+        <v>1400</v>
       </c>
       <c r="O392" s="2" t="s">
         <v>45</v>
@@ -58983,10 +59016,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="S392" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -59019,16 +59052,16 @@
         <v>77</v>
       </c>
       <c r="AD392" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE392" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF392" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG392" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH392" s="2" t="s">
         <v>45</v>
@@ -59051,25 +59084,25 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>327</v>
+        <v>1441</v>
       </c>
       <c r="D393" s="3">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1370</v>
+        <v>1442</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>1371</v>
+        <v>991</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -59084,7 +59117,7 @@
         <v>46</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1433</v>
+        <v>991</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>45</v>
@@ -59099,16 +59132,16 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="S393" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U393" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V393" s="2" t="s">
         <v>49</v>
@@ -59123,16 +59156,16 @@
         <v>49</v>
       </c>
       <c r="Z393" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA393" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD393" s="2" t="s">
         <v>45</v>
@@ -59141,10 +59174,10 @@
         <v>45</v>
       </c>
       <c r="AF393" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG393" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59167,25 +59200,25 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D394" s="3">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1370</v>
+        <v>1419</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1371</v>
+        <v>1420</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1437</v>
+        <v>1362</v>
       </c>
       <c r="I394" s="2" t="s">
         <v>45</v>
@@ -59200,10 +59233,10 @@
         <v>46</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>1440</v>
+        <v>45</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>45</v>
@@ -59215,10 +59248,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="S394" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59248,7 +59281,7 @@
         <v>76</v>
       </c>
       <c r="AC394" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD394" s="2" t="s">
         <v>78</v>
@@ -59257,10 +59290,10 @@
         <v>79</v>
       </c>
       <c r="AF394" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG394" s="2" t="s">
-        <v>1441</v>
+        <v>81</v>
       </c>
       <c r="AH394" s="2" t="s">
         <v>45</v>
@@ -59283,28 +59316,31 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1442</v>
+        <v>1446</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1447</v>
       </c>
       <c r="D395" s="3">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1370</v>
+        <v>1419</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>1371</v>
+        <v>1420</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>1443</v>
+        <v>1399</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>1444</v>
+        <v>45</v>
       </c>
       <c r="J395" s="2" t="s">
-        <v>1445</v>
+        <v>45</v>
       </c>
       <c r="K395" s="2" t="s">
         <v>45</v>
@@ -59313,10 +59349,10 @@
         <v>46</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>1446</v>
+        <v>45</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>45</v>
@@ -59328,10 +59364,10 @@
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="S395" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="T395" s="2" t="s">
         <v>50</v>
@@ -59361,16 +59397,16 @@
         <v>76</v>
       </c>
       <c r="AC395" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD395" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE395" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF395" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG395" s="2" t="s">
         <v>81</v>
@@ -59396,13 +59432,13 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1448</v>
+        <v>330</v>
       </c>
       <c r="D396" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>1370</v>
@@ -59429,7 +59465,7 @@
         <v>46</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="N396" s="2" t="s">
         <v>45</v>
@@ -59444,10 +59480,10 @@
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="S396" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
@@ -59477,19 +59513,19 @@
         <v>76</v>
       </c>
       <c r="AC396" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD396" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE396" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF396" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>1441</v>
+        <v>81</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59515,22 +59551,22 @@
         <v>1450</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="D397" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>989</v>
+        <v>1370</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>45</v>
@@ -59545,7 +59581,7 @@
         <v>46</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="N397" s="2" t="s">
         <v>45</v>
@@ -59560,16 +59596,16 @@
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="S397" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U397" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V397" s="2" t="s">
         <v>49</v>
@@ -59587,13 +59623,13 @@
         <v>49</v>
       </c>
       <c r="AA397" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB397" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC397" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD397" s="2" t="s">
         <v>45</v>
@@ -59602,10 +59638,10 @@
         <v>45</v>
       </c>
       <c r="AF397" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG397" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH397" s="2" t="s">
         <v>45</v>
@@ -59628,25 +59664,25 @@
     </row>
     <row r="398" customHeight="1" spans="2:39">
       <c r="B398" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="D398" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1453</v>
+        <v>1370</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1454</v>
+        <v>1371</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="I398" s="2" t="s">
         <v>45</v>
@@ -59661,10 +59697,10 @@
         <v>46</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>45</v>
+        <v>1452</v>
       </c>
       <c r="O398" s="2" t="s">
         <v>45</v>
@@ -59676,10 +59712,10 @@
         <v>45</v>
       </c>
       <c r="R398" s="2">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="S398" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
@@ -59706,22 +59742,22 @@
         <v>59</v>
       </c>
       <c r="AB398" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC398" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD398" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE398" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF398" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>81</v>
+        <v>1453</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59744,31 +59780,28 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>330</v>
+        <v>1454</v>
       </c>
       <c r="D399" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1453</v>
+        <v>1370</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1454</v>
+        <v>1371</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>1455</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>45</v>
+        <v>1456</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>45</v>
+        <v>1457</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>45</v>
@@ -59777,10 +59810,10 @@
         <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="N399" s="2" t="s">
-        <v>45</v>
+        <v>1458</v>
       </c>
       <c r="O399" s="2" t="s">
         <v>45</v>
@@ -59792,10 +59825,10 @@
         <v>45</v>
       </c>
       <c r="R399" s="2">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="S399" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
@@ -59825,13 +59858,13 @@
         <v>76</v>
       </c>
       <c r="AC399" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD399" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE399" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF399" s="2" t="s">
         <v>91</v>
@@ -59860,25 +59893,25 @@
     </row>
     <row r="400" customHeight="1" spans="2:39">
       <c r="B400" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>115</v>
+        <v>1460</v>
       </c>
       <c r="D400" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1453</v>
+        <v>1370</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1454</v>
+        <v>1371</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>45</v>
@@ -59893,7 +59926,7 @@
         <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>45</v>
@@ -59908,16 +59941,16 @@
         <v>45</v>
       </c>
       <c r="R400" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="S400" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="T400" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U400" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V400" s="2" t="s">
         <v>49</v>
@@ -59935,25 +59968,25 @@
         <v>49</v>
       </c>
       <c r="AA400" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB400" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE400" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF400" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG400" s="2" t="s">
-        <v>45</v>
+        <v>1453</v>
       </c>
       <c r="AH400" s="2" t="s">
         <v>45</v>
@@ -59976,25 +60009,25 @@
     </row>
     <row r="401" customHeight="1" spans="2:39">
       <c r="B401" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D401" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1460</v>
+        <v>989</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1461</v>
+        <v>991</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
@@ -60009,10 +60042,10 @@
         <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1463</v>
+        <v>45</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
@@ -60027,13 +60060,13 @@
         <v>2012</v>
       </c>
       <c r="S401" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U401" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V401" s="2" t="s">
         <v>49</v>
@@ -60051,7 +60084,7 @@
         <v>49</v>
       </c>
       <c r="AA401" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB401" s="2" t="s">
         <v>45</v>
@@ -60060,16 +60093,16 @@
         <v>45</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG401" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH401" s="2" t="s">
         <v>45</v>
@@ -60095,10 +60128,10 @@
         <v>1464</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1383</v>
+        <v>330</v>
       </c>
       <c r="D402" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>1465</v>
@@ -60107,10 +60140,10 @@
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1371</v>
+        <v>1466</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -60125,7 +60158,7 @@
         <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="N402" s="2" t="s">
         <v>45</v>
@@ -60140,10 +60173,10 @@
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="S402" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60182,7 +60215,7 @@
         <v>45</v>
       </c>
       <c r="AF402" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG402" s="2" t="s">
         <v>81</v>
@@ -60208,25 +60241,25 @@
     </row>
     <row r="403" customHeight="1" spans="2:39">
       <c r="B403" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H403" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D403" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>1469</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60241,7 +60274,7 @@
         <v>46</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>45</v>
@@ -60256,10 +60289,10 @@
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="S403" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
@@ -60289,19 +60322,19 @@
         <v>76</v>
       </c>
       <c r="AC403" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD403" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE403" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF403" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>1441</v>
+        <v>81</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60324,25 +60357,25 @@
     </row>
     <row r="404" customHeight="1" spans="2:39">
       <c r="B404" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H404" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D404" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F404" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H404" s="2" t="s">
-        <v>1471</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>45</v>
@@ -60357,7 +60390,7 @@
         <v>46</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="N404" s="2" t="s">
         <v>45</v>
@@ -60372,16 +60405,16 @@
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="S404" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U404" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V404" s="2" t="s">
         <v>49</v>
@@ -60399,13 +60432,13 @@
         <v>49</v>
       </c>
       <c r="AA404" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD404" s="2" t="s">
         <v>45</v>
@@ -60414,10 +60447,10 @@
         <v>45</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG404" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH404" s="2" t="s">
         <v>45</v>
@@ -60440,25 +60473,25 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E405" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="F405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="D405" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E405" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1461</v>
-      </c>
       <c r="H405" s="2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>45</v>
@@ -60473,10 +60506,10 @@
         <v>46</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
       <c r="N405" s="2" t="s">
-        <v>45</v>
+        <v>1475</v>
       </c>
       <c r="O405" s="2" t="s">
         <v>45</v>
@@ -60488,10 +60521,10 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="S405" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60524,10 +60557,10 @@
         <v>45</v>
       </c>
       <c r="AD405" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE405" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF405" s="2" t="s">
         <v>80</v>
@@ -60548,7 +60581,7 @@
         <v>45</v>
       </c>
       <c r="AL405" s="2" t="s">
-        <v>1474</v>
+        <v>45</v>
       </c>
       <c r="AM405" s="2" t="s">
         <v>45</v>
@@ -60556,25 +60589,25 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D406" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1460</v>
+        <v>1477</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1461</v>
+        <v>1371</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>45</v>
@@ -60589,7 +60622,7 @@
         <v>46</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>45</v>
@@ -60604,10 +60637,10 @@
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="S406" s="2">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
@@ -60634,13 +60667,13 @@
         <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD406" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE406" s="2" t="s">
         <v>45</v>
@@ -60672,25 +60705,25 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D407" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60702,19 +60735,19 @@
         <v>45</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>1480</v>
+        <v>46</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>1478</v>
+        <v>45</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P407" s="2" t="s">
-        <v>1478</v>
+        <v>45</v>
       </c>
       <c r="Q407" s="2" t="s">
         <v>45</v>
@@ -60723,7 +60756,7 @@
         <v>2006</v>
       </c>
       <c r="S407" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
@@ -60762,194 +60795,200 @@
         <v>79</v>
       </c>
       <c r="AF407" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG407" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AH407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL407" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM407" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="408" customHeight="1" spans="2:39">
+      <c r="B408" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M408" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R408" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S408" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z408" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA408" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC408" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF408" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG407" s="2" t="s">
+      <c r="AG408" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL407" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM407" s="2" t="s">
+      <c r="AH408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM408" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="408" customHeight="1" spans="3:39">
-      <c r="C408" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D408" s="3">
+    <row r="409" customHeight="1" spans="2:39">
+      <c r="B409" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L409" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M409" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R409" s="2">
         <v>2015</v>
       </c>
-      <c r="E408" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L408" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M408" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N408" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="O408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P408" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R408" s="2">
-        <v>2009</v>
-      </c>
-      <c r="S408" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T408" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z408" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM408" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="409" customHeight="1" spans="3:39">
-      <c r="C409" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D409" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H409" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="I409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L409" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M409" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N409" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="O409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P409" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R409" s="2">
-        <v>2013</v>
-      </c>
       <c r="S409" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
@@ -60973,25 +61012,25 @@
         <v>49</v>
       </c>
       <c r="AA409" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB409" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC409" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE409" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -61006,7 +61045,7 @@
         <v>45</v>
       </c>
       <c r="AL409" s="2" t="s">
-        <v>45</v>
+        <v>1486</v>
       </c>
       <c r="AM409" s="2" t="s">
         <v>45</v>
@@ -61014,58 +61053,58 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>342</v>
+        <v>1386</v>
       </c>
       <c r="D410" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q410" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R410" s="2">
         <v>2016</v>
       </c>
-      <c r="E410" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M410" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N410" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="O410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P410" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q410" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R410" s="2">
-        <v>2013</v>
-      </c>
       <c r="S410" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
@@ -61104,7 +61143,7 @@
         <v>45</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG410" s="2" t="s">
         <v>81</v>
@@ -61130,28 +61169,28 @@
     </row>
     <row r="411" customHeight="1" spans="2:39">
       <c r="B411" s="2" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D411" s="3">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>1486</v>
+        <v>45</v>
       </c>
       <c r="J411" s="2" t="s">
         <v>45</v>
@@ -61160,34 +61199,34 @@
         <v>45</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="N411" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="O411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="Q411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="S411" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="T411" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U411" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V411" s="2" t="s">
         <v>49</v>
@@ -61196,7 +61235,7 @@
         <v>49</v>
       </c>
       <c r="X411" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y411" s="2" t="s">
         <v>49</v>
@@ -61205,25 +61244,25 @@
         <v>49</v>
       </c>
       <c r="AA411" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB411" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC411" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD411" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE411" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF411" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG411" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH411" s="2" t="s">
         <v>45</v>
@@ -61246,22 +61285,22 @@
     </row>
     <row r="412" customHeight="1" spans="3:39">
       <c r="C412" s="2" t="s">
-        <v>1487</v>
+        <v>61</v>
       </c>
       <c r="D412" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1477</v>
+        <v>1489</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>1482</v>
+        <v>1490</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>45</v>
@@ -61273,34 +61312,34 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="O412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P412" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="Q412" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S412" s="2" t="s">
-        <v>45</v>
+      <c r="R412" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S412" s="2">
+        <v>2009</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U412" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V412" s="2" t="s">
         <v>49</v>
@@ -61318,135 +61357,132 @@
         <v>49</v>
       </c>
       <c r="AA412" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM412" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="413" customHeight="1" spans="3:39">
+      <c r="C413" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L413" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N413" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R413" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S413" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U413" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB413" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF412" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG412" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM412" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="413" customHeight="1" spans="2:39">
-      <c r="B413" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D413" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="I413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L413" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M413" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N413" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="O413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P413" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R413" s="2">
-        <v>2003</v>
-      </c>
-      <c r="S413" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T413" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z413" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB413" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AC413" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD413" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE413" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF413" s="2" t="s">
         <v>45</v>
@@ -61475,255 +61511,255 @@
     </row>
     <row r="414" customHeight="1" spans="2:39">
       <c r="B414" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C414" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R414" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S414" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T414" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U414" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA414" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB414" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF414" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG414" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM414" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" customHeight="1" spans="2:39">
+      <c r="B415" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D414" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H414" s="2" t="s">
+      <c r="D415" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L415" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="I414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N414" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="O414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R414" s="2">
-        <v>1960</v>
-      </c>
-      <c r="S414" s="2">
-        <v>2021</v>
-      </c>
-      <c r="T414" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z414" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM414" s="2" t="s">
+      <c r="M415" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N415" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P415" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R415" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S415" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X415" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE415" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM415" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="415" customHeight="1" spans="3:39">
-      <c r="C415" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D415" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G415" s="2" t="s">
+    <row r="416" customHeight="1" spans="3:39">
+      <c r="C416" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H416" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="H415" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L415" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M415" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="N415" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="O415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R415" s="2">
-        <v>2008</v>
-      </c>
-      <c r="S415" s="2">
-        <v>2010</v>
-      </c>
-      <c r="T415" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U415" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V415" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W415" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X415" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y415" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z415" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA415" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB415" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC415" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF415" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG415" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL415" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM415" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="416" customHeight="1" spans="2:39">
-      <c r="B416" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D416" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>1498</v>
-      </c>
       <c r="I416" s="2" t="s">
         <v>45</v>
       </c>
@@ -61734,28 +61770,28 @@
         <v>45</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>1493</v>
+        <v>1426</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1499</v>
+        <v>1426</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>45</v>
+        <v>1426</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R416" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S416" s="2">
-        <v>2012</v>
+      <c r="R416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S416" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61794,13 +61830,13 @@
         <v>45</v>
       </c>
       <c r="AF416" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG416" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH416" s="2" t="s">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="AI416" s="2" t="s">
         <v>45</v>
@@ -61820,25 +61856,25 @@
     </row>
     <row r="417" customHeight="1" spans="2:39">
       <c r="B417" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D417" s="3">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="I417" s="2" t="s">
         <v>45</v>
@@ -61850,34 +61886,34 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1493</v>
+        <v>1426</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>45</v>
+        <v>1426</v>
       </c>
       <c r="O417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P417" s="2" t="s">
-        <v>45</v>
+        <v>1426</v>
       </c>
       <c r="Q417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="S417" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T417" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U417" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V417" s="2" t="s">
         <v>49</v>
@@ -61895,13 +61931,13 @@
         <v>49</v>
       </c>
       <c r="AA417" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC417" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD417" s="2" t="s">
         <v>45</v>
@@ -61910,13 +61946,13 @@
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG417" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH417" s="2" t="s">
-        <v>1504</v>
+        <v>45</v>
       </c>
       <c r="AI417" s="2" t="s">
         <v>45</v>
@@ -61936,216 +61972,213 @@
     </row>
     <row r="418" customHeight="1" spans="2:39">
       <c r="B418" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R418" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S418" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T418" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM418" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="419" customHeight="1" spans="3:39">
+      <c r="C419" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D418" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H418" s="2" t="s">
+      <c r="I419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M419" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N419" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="I418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L418" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M418" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="N418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R418" s="2">
+      <c r="O419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R419" s="2">
         <v>2008</v>
       </c>
-      <c r="S418" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T418" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U418" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA418" s="2" t="s">
+      <c r="S419" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T419" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U419" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z419" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA419" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB418" s="2" t="s">
+      <c r="AB419" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC418" s="2" t="s">
+      <c r="AC419" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF418" s="2" t="s">
+      <c r="AD419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF419" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG418" s="2" t="s">
+      <c r="AG419" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AH418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM418" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="419" customHeight="1" spans="2:39">
-      <c r="B419" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D419" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H419" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L419" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M419" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="N419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R419" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S419" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T419" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U419" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V419" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W419" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X419" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y419" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z419" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG419" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH419" s="2" t="s">
         <v>45</v>
@@ -62168,25 +62201,25 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E420" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D420" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E420" s="2" t="s">
-        <v>1497</v>
-      </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1498</v>
+        <v>1509</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>45</v>
@@ -62198,28 +62231,28 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>1510</v>
+        <v>45</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="S420" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
@@ -62249,22 +62282,22 @@
         <v>76</v>
       </c>
       <c r="AC420" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE420" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF420" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG420" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH420" s="2" t="s">
-        <v>45</v>
+        <v>1511</v>
       </c>
       <c r="AI420" s="2" t="s">
         <v>45</v>
@@ -62284,25 +62317,25 @@
     </row>
     <row r="421" customHeight="1" spans="2:39">
       <c r="B421" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D421" s="3">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1492</v>
+        <v>1513</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1493</v>
+        <v>1420</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>1498</v>
+        <v>1514</v>
       </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
@@ -62314,28 +62347,28 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>1512</v>
+        <v>45</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P421" s="2" t="s">
-        <v>1513</v>
+        <v>45</v>
       </c>
       <c r="Q421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R421" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="S421" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
@@ -62362,16 +62395,16 @@
         <v>59</v>
       </c>
       <c r="AB421" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC421" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE421" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF421" s="2" t="s">
         <v>80</v>
@@ -62380,7 +62413,7 @@
         <v>81</v>
       </c>
       <c r="AH421" s="2" t="s">
-        <v>45</v>
+        <v>1515</v>
       </c>
       <c r="AI421" s="2" t="s">
         <v>45</v>
@@ -62398,24 +62431,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" customHeight="1" spans="3:39">
+    <row r="422" customHeight="1" spans="2:39">
+      <c r="B422" s="2" t="s">
+        <v>1516</v>
+      </c>
       <c r="C422" s="2" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="D422" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="I422" s="2" t="s">
         <v>45</v>
@@ -62427,10 +62463,10 @@
         <v>45</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>45</v>
@@ -62445,16 +62481,16 @@
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S422" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U422" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V422" s="2" t="s">
         <v>49</v>
@@ -62472,13 +62508,13 @@
         <v>49</v>
       </c>
       <c r="AA422" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC422" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD422" s="2" t="s">
         <v>45</v>
@@ -62487,10 +62523,10 @@
         <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG422" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH422" s="2" t="s">
         <v>45</v>
@@ -62513,25 +62549,25 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="D423" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="I423" s="2" t="s">
         <v>45</v>
@@ -62543,10 +62579,10 @@
         <v>45</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M423" s="2" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>45</v>
@@ -62561,19 +62597,19 @@
         <v>45</v>
       </c>
       <c r="R423" s="2">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="S423" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="T423" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V423" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W423" s="2" t="s">
         <v>49</v>
@@ -62588,10 +62624,10 @@
         <v>49</v>
       </c>
       <c r="AA423" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB423" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC423" s="2" t="s">
         <v>45</v>
@@ -62603,10 +62639,10 @@
         <v>45</v>
       </c>
       <c r="AF423" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG423" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH423" s="2" t="s">
         <v>45</v>
@@ -62629,58 +62665,58 @@
     </row>
     <row r="424" customHeight="1" spans="2:39">
       <c r="B424" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N424" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D424" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E424" s="2" t="s">
+      <c r="O424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P424" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L424" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M424" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="N424" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="O424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P424" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R424" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="S424" s="2">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62707,22 +62743,22 @@
         <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC424" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD424" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE424" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF424" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG424" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH424" s="2" t="s">
         <v>45</v>
@@ -62745,58 +62781,58 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L425" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M425" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N425" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P425" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D425" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L425" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M425" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="N425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P425" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S425" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62826,13 +62862,13 @@
         <v>76</v>
       </c>
       <c r="AC425" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE425" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF425" s="2" t="s">
         <v>80</v>
@@ -62859,27 +62895,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="426" customHeight="1" spans="2:39">
-      <c r="B426" s="2" t="s">
-        <v>1527</v>
-      </c>
+    <row r="426" customHeight="1" spans="3:39">
       <c r="C426" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D426" s="3">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1529</v>
+        <v>1504</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>45</v>
@@ -62891,10 +62924,10 @@
         <v>45</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>1531</v>
+        <v>1504</v>
       </c>
       <c r="N426" s="2" t="s">
         <v>45</v>
@@ -62912,13 +62945,13 @@
         <v>2005</v>
       </c>
       <c r="S426" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U426" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V426" s="2" t="s">
         <v>49</v>
@@ -62936,7 +62969,7 @@
         <v>49</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB426" s="2" t="s">
         <v>45</v>
@@ -62945,16 +62978,16 @@
         <v>45</v>
       </c>
       <c r="AD426" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH426" s="2" t="s">
         <v>45</v>
@@ -62977,25 +63010,25 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D427" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="I427" s="2" t="s">
         <v>45</v>
@@ -63007,13 +63040,13 @@
         <v>45</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>1536</v>
+        <v>1491</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>1537</v>
+        <v>45</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -63025,13 +63058,13 @@
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="S427" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="T427" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U427" s="2" t="s">
         <v>50</v>
@@ -63055,7 +63088,7 @@
         <v>59</v>
       </c>
       <c r="AB427" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC427" s="2" t="s">
         <v>45</v>
@@ -63064,10 +63097,10 @@
         <v>45</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG427" s="2" t="s">
         <v>81</v>
@@ -63093,43 +63126,43 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D428" s="3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G428" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M428" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N428" s="2" t="s">
         <v>1534</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="M428" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O428" s="2" t="s">
         <v>45</v>
@@ -63144,7 +63177,7 @@
         <v>2008</v>
       </c>
       <c r="S428" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="T428" s="2" t="s">
         <v>50</v>
@@ -63183,7 +63216,7 @@
         <v>45</v>
       </c>
       <c r="AF428" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG428" s="2" t="s">
         <v>81</v>
@@ -63209,25 +63242,25 @@
     </row>
     <row r="429" customHeight="1" spans="2:39">
       <c r="B429" s="2" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>129</v>
+        <v>1304</v>
       </c>
       <c r="D429" s="3">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
@@ -63239,10 +63272,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1536</v>
+        <v>1491</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63256,17 +63289,17 @@
       <c r="Q429" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S429" s="2" t="s">
-        <v>45</v>
+      <c r="R429" s="2">
+        <v>2005</v>
+      </c>
+      <c r="S429" s="2">
+        <v>2006</v>
       </c>
       <c r="T429" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U429" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V429" s="2" t="s">
         <v>49</v>
@@ -63278,16 +63311,16 @@
         <v>49</v>
       </c>
       <c r="Y429" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z429" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA429" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB429" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC429" s="2" t="s">
         <v>45</v>
@@ -63299,10 +63332,10 @@
         <v>45</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63325,25 +63358,25 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D430" s="3">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>45</v>
@@ -63355,10 +63388,10 @@
         <v>45</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>1536</v>
+        <v>1491</v>
       </c>
       <c r="M430" s="2" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="N430" s="2" t="s">
         <v>45</v>
@@ -63373,10 +63406,10 @@
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="S430" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
@@ -63403,16 +63436,16 @@
         <v>59</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC430" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD430" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
         <v>80</v>
@@ -63441,40 +63474,40 @@
     </row>
     <row r="431" customHeight="1" spans="2:39">
       <c r="B431" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G431" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D431" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E431" s="2" t="s">
+      <c r="H431" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="F431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G431" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H431" s="2" t="s">
+      <c r="I431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L431" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="I431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K431" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L431" s="2" t="s">
-        <v>1536</v>
-      </c>
       <c r="M431" s="2" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="N431" s="2" t="s">
         <v>1548</v>
@@ -63489,16 +63522,16 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="S431" s="2">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U431" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V431" s="2" t="s">
         <v>49</v>
@@ -63516,7 +63549,7 @@
         <v>49</v>
       </c>
       <c r="AA431" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB431" s="2" t="s">
         <v>45</v>
@@ -63528,13 +63561,13 @@
         <v>45</v>
       </c>
       <c r="AE431" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG431" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH431" s="2" t="s">
         <v>45</v>
@@ -63560,23 +63593,23 @@
         <v>1549</v>
       </c>
       <c r="C432" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E432" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="D432" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E432" s="2" t="s">
+      <c r="F432" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H432" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="F432" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>1553</v>
-      </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
       </c>
@@ -63587,10 +63620,10 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>45</v>
@@ -63605,10 +63638,10 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="S432" s="2">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="T432" s="2" t="s">
         <v>50</v>
@@ -63635,7 +63668,7 @@
         <v>59</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC432" s="2" t="s">
         <v>45</v>
@@ -63647,10 +63680,10 @@
         <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63673,25 +63706,25 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1356</v>
+        <v>129</v>
       </c>
       <c r="D433" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I433" s="2" t="s">
         <v>45</v>
@@ -63703,13 +63736,13 @@
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O433" s="2" t="s">
         <v>45</v>
@@ -63720,17 +63753,17 @@
       <c r="Q433" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R433" s="2">
-        <v>1956</v>
-      </c>
-      <c r="S433" s="2">
-        <v>2018</v>
+      <c r="R433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S433" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U433" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V433" s="2" t="s">
         <v>49</v>
@@ -63742,25 +63775,25 @@
         <v>49</v>
       </c>
       <c r="Y433" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z433" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA433" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC433" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD433" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF433" s="2" t="s">
         <v>45</v>
@@ -63789,25 +63822,25 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D434" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="I434" s="2" t="s">
         <v>45</v>
@@ -63819,10 +63852,10 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="N434" s="2" t="s">
         <v>45</v>
@@ -63837,10 +63870,10 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S434" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T434" s="2" t="s">
         <v>50</v>
@@ -63867,16 +63900,16 @@
         <v>59</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC434" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD434" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE434" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF434" s="2" t="s">
         <v>80</v>
@@ -63905,25 +63938,25 @@
     </row>
     <row r="435" customHeight="1" spans="2:39">
       <c r="B435" s="2" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1563</v>
+        <v>379</v>
       </c>
       <c r="D435" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>1482</v>
+        <v>1558</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>45</v>
@@ -63935,13 +63968,13 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1566</v>
+        <v>1547</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
       <c r="N435" s="2" t="s">
-        <v>45</v>
+        <v>1559</v>
       </c>
       <c r="O435" s="2" t="s">
         <v>45</v>
@@ -63953,16 +63986,16 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="S435" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U435" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V435" s="2" t="s">
         <v>49</v>
@@ -63980,22 +64013,22 @@
         <v>49</v>
       </c>
       <c r="AA435" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB435" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC435" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD435" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE435" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG435" s="2" t="s">
         <v>45</v>
@@ -64021,25 +64054,25 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>115</v>
+        <v>1561</v>
       </c>
       <c r="D436" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
@@ -64051,10 +64084,10 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1571</v>
+        <v>1547</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
       <c r="N436" s="2" t="s">
         <v>45</v>
@@ -64069,10 +64102,10 @@
         <v>45</v>
       </c>
       <c r="R436" s="2">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="S436" s="2">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="T436" s="2" t="s">
         <v>50</v>
@@ -64099,22 +64132,22 @@
         <v>59</v>
       </c>
       <c r="AB436" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64137,25 +64170,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="D437" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64167,13 +64200,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1571</v>
+        <v>1547</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>1575</v>
+        <v>47</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64185,10 +64218,10 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>2001</v>
+        <v>1956</v>
       </c>
       <c r="S437" s="2">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64215,22 +64248,22 @@
         <v>59</v>
       </c>
       <c r="AB437" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC437" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD437" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE437" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>1576</v>
+        <v>45</v>
       </c>
       <c r="AG437" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH437" s="2" t="s">
         <v>45</v>
@@ -64253,25 +64286,25 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D438" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="I438" s="2" t="s">
         <v>45</v>
@@ -64283,10 +64316,10 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1571</v>
+        <v>1547</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="N438" s="2" t="s">
         <v>45</v>
@@ -64301,10 +64334,10 @@
         <v>45</v>
       </c>
       <c r="R438" s="2">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="S438" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T438" s="2" t="s">
         <v>50</v>
@@ -64343,7 +64376,7 @@
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG438" s="2" t="s">
         <v>81</v>
@@ -64369,58 +64402,58 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>342</v>
+        <v>1574</v>
       </c>
       <c r="D439" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L439" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M439" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R439" s="2">
+        <v>2015</v>
+      </c>
+      <c r="S439" s="2">
         <v>2017</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G439" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H439" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I439" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="K439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L439" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M439" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N439" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="O439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q439" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R439" s="2">
-        <v>2012</v>
-      </c>
-      <c r="S439" s="2">
-        <v>2012</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64447,22 +64480,22 @@
         <v>59</v>
       </c>
       <c r="AB439" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC439" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD439" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE439" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG439" s="2" t="s">
-        <v>1441</v>
+        <v>45</v>
       </c>
       <c r="AH439" s="2" t="s">
         <v>45</v>
@@ -64485,28 +64518,28 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D440" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>1584</v>
+        <v>45</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>45</v>
@@ -64515,10 +64548,10 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N440" s="2" t="s">
         <v>45</v>
@@ -64533,10 +64566,10 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="S440" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="T440" s="2" t="s">
         <v>50</v>
@@ -64563,7 +64596,7 @@
         <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC440" s="2" t="s">
         <v>45</v>
@@ -64572,7 +64605,7 @@
         <v>45</v>
       </c>
       <c r="AE440" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF440" s="2" t="s">
         <v>80</v>
@@ -64599,42 +64632,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" customHeight="1" spans="3:39">
+    <row r="441" customHeight="1" spans="2:39">
+      <c r="B441" s="2" t="s">
+        <v>1583</v>
+      </c>
       <c r="C441" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D441" s="3">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E441" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H441" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="F441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G441" s="2" t="s">
+      <c r="I441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L441" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M441" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N441" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="H441" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L441" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M441" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N441" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O441" s="2" t="s">
         <v>45</v>
@@ -64649,13 +64685,13 @@
         <v>2001</v>
       </c>
       <c r="S441" s="2">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U441" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V441" s="2" t="s">
         <v>49</v>
@@ -64682,16 +64718,16 @@
         <v>45</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>45</v>
+        <v>1587</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64712,40 +64748,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" customHeight="1" spans="3:39">
+    <row r="442" customHeight="1" spans="2:39">
+      <c r="B442" s="2" t="s">
+        <v>1588</v>
+      </c>
       <c r="C442" s="2" t="s">
-        <v>1588</v>
+        <v>129</v>
       </c>
       <c r="D442" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="H442" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M442" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="I442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L442" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M442" s="2" t="s">
-        <v>1569</v>
-      </c>
       <c r="N442" s="2" t="s">
         <v>45</v>
       </c>
@@ -64759,10 +64798,10 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="S442" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64801,10 +64840,10 @@
         <v>45</v>
       </c>
       <c r="AF442" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH442" s="2" t="s">
         <v>45</v>
@@ -64827,43 +64866,43 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E443" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D443" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E443" s="2" t="s">
-        <v>1573</v>
-      </c>
       <c r="F443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1569</v>
+        <v>1358</v>
       </c>
       <c r="H443" s="2" t="s">
         <v>1591</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>45</v>
+        <v>1592</v>
       </c>
       <c r="J443" s="2" t="s">
-        <v>45</v>
+        <v>1593</v>
       </c>
       <c r="K443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="O443" s="2" t="s">
         <v>45</v>
@@ -64874,11 +64913,11 @@
       <c r="Q443" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R443" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S443" s="2" t="s">
-        <v>45</v>
+      <c r="R443" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S443" s="2">
+        <v>2012</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64905,22 +64944,22 @@
         <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC443" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE443" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF443" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG443" s="2" t="s">
-        <v>81</v>
+        <v>1453</v>
       </c>
       <c r="AH443" s="2" t="s">
         <v>45</v>
@@ -64943,28 +64982,28 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D444" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>45</v>
+        <v>1595</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>45</v>
@@ -64973,10 +65012,10 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>45</v>
@@ -64991,13 +65030,13 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="S444" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T444" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U444" s="2" t="s">
         <v>50</v>
@@ -65009,7 +65048,7 @@
         <v>49</v>
       </c>
       <c r="X444" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y444" s="2" t="s">
         <v>49</v>
@@ -65021,19 +65060,19 @@
         <v>59</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AG444" s="2" t="s">
         <v>81</v>
@@ -65057,15 +65096,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" customHeight="1" spans="2:39">
-      <c r="B445" s="2" t="s">
-        <v>1595</v>
-      </c>
+    <row r="445" customHeight="1" spans="3:39">
       <c r="C445" s="2" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="D445" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>1596</v>
@@ -65074,10 +65110,10 @@
         <v>45</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1569</v>
+        <v>1597</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="I445" s="2" t="s">
         <v>45</v>
@@ -65089,10 +65125,10 @@
         <v>45</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>45</v>
@@ -65107,10 +65143,10 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="S445" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65134,7 +65170,7 @@
         <v>49</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB445" s="2" t="s">
         <v>45</v>
@@ -65173,27 +65209,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="446" customHeight="1" spans="2:39">
-      <c r="B446" s="2" t="s">
-        <v>1598</v>
-      </c>
+    <row r="446" customHeight="1" spans="3:39">
       <c r="C446" s="2" t="s">
-        <v>89</v>
+        <v>1599</v>
       </c>
       <c r="D446" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1600</v>
+        <v>1580</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="I446" s="2" t="s">
         <v>45</v>
@@ -65205,13 +65238,13 @@
         <v>45</v>
       </c>
       <c r="L446" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M446" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>1602</v>
+        <v>45</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65223,16 +65256,16 @@
         <v>45</v>
       </c>
       <c r="R446" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="S446" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T446" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U446" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V446" s="2" t="s">
         <v>49</v>
@@ -65256,7 +65289,7 @@
         <v>45</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
@@ -65265,10 +65298,10 @@
         <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH446" s="2" t="s">
         <v>45</v>
@@ -65291,44 +65324,44 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L447" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M447" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N447" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D447" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H447" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L447" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M447" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N447" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O447" s="2" t="s">
         <v>45</v>
       </c>
@@ -65338,11 +65371,11 @@
       <c r="Q447" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R447" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S447" s="2">
-        <v>2019</v>
+      <c r="R447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S447" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65369,25 +65402,25 @@
         <v>59</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC447" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE447" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG447" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH447" s="2" t="s">
-        <v>1605</v>
+        <v>45</v>
       </c>
       <c r="AI447" s="2" t="s">
         <v>45</v>
@@ -65407,25 +65440,25 @@
     </row>
     <row r="448" customHeight="1" spans="2:39">
       <c r="B448" s="2" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1392</v>
+        <v>342</v>
       </c>
       <c r="D448" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1573</v>
+        <v>1600</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="I448" s="2" t="s">
         <v>45</v>
@@ -65437,10 +65470,10 @@
         <v>45</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M448" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>45</v>
@@ -65455,13 +65488,13 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="S448" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="T448" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U448" s="2" t="s">
         <v>50</v>
@@ -65473,7 +65506,7 @@
         <v>49</v>
       </c>
       <c r="X448" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y448" s="2" t="s">
         <v>49</v>
@@ -65482,25 +65515,25 @@
         <v>49</v>
       </c>
       <c r="AA448" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC448" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD448" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF448" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH448" s="2" t="s">
         <v>45</v>
@@ -65523,26 +65556,26 @@
     </row>
     <row r="449" customHeight="1" spans="2:39">
       <c r="B449" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H449" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D449" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G449" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H449" s="2" t="s">
-        <v>1609</v>
-      </c>
       <c r="I449" s="2" t="s">
         <v>45</v>
       </c>
@@ -65553,10 +65586,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65571,16 +65604,16 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="S449" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U449" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V449" s="2" t="s">
         <v>49</v>
@@ -65607,19 +65640,19 @@
         <v>45</v>
       </c>
       <c r="AD449" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF449" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG449" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH449" s="2" t="s">
-        <v>1610</v>
+        <v>45</v>
       </c>
       <c r="AI449" s="2" t="s">
         <v>45</v>
@@ -65639,44 +65672,44 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D450" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E450" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H450" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="F450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G450" s="2" t="s">
+      <c r="I450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N450" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="H450" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L450" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M450" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="N450" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O450" s="2" t="s">
         <v>45</v>
       </c>
@@ -65687,16 +65720,16 @@
         <v>45</v>
       </c>
       <c r="R450" s="2">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="S450" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T450" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65717,7 +65750,7 @@
         <v>59</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC450" s="2" t="s">
         <v>45</v>
@@ -65729,13 +65762,13 @@
         <v>45</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH450" s="2" t="s">
-        <v>1615</v>
+        <v>45</v>
       </c>
       <c r="AI450" s="2" t="s">
         <v>45</v>
@@ -65755,25 +65788,25 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D451" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1617</v>
+        <v>1584</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1416</v>
+        <v>1580</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I451" s="2" t="s">
         <v>45</v>
@@ -65785,13 +65818,13 @@
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>1619</v>
+        <v>1580</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>1620</v>
+        <v>45</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>45</v>
@@ -65803,7 +65836,7 @@
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S451" s="2">
         <v>2019</v>
@@ -65812,7 +65845,7 @@
         <v>50</v>
       </c>
       <c r="U451" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V451" s="2" t="s">
         <v>49</v>
@@ -65830,13 +65863,13 @@
         <v>49</v>
       </c>
       <c r="AA451" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC451" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD451" s="2" t="s">
         <v>45</v>
@@ -65845,13 +65878,13 @@
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG451" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH451" s="2" t="s">
-        <v>45</v>
+        <v>1616</v>
       </c>
       <c r="AI451" s="2" t="s">
         <v>45</v>
@@ -65871,64 +65904,64 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D452" s="3">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1622</v>
+        <v>1584</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1623</v>
+        <v>1580</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>1625</v>
+        <v>45</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>1626</v>
+        <v>45</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>1627</v>
+        <v>1582</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>1623</v>
+        <v>1580</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>1628</v>
+        <v>45</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P452" s="2" t="s">
-        <v>1628</v>
+        <v>45</v>
       </c>
       <c r="Q452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R452" s="2">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="S452" s="2">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="T452" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U452" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V452" s="2" t="s">
         <v>49</v>
@@ -65946,13 +65979,13 @@
         <v>49</v>
       </c>
       <c r="AA452" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB452" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD452" s="2" t="s">
         <v>45</v>
@@ -65961,10 +65994,10 @@
         <v>45</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>45</v>
@@ -65987,25 +66020,25 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D453" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1630</v>
+        <v>1584</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="I453" s="2" t="s">
         <v>45</v>
@@ -66017,10 +66050,10 @@
         <v>45</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>1627</v>
+        <v>1582</v>
       </c>
       <c r="M453" s="2" t="s">
-        <v>1632</v>
+        <v>1580</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>45</v>
@@ -66034,17 +66067,17 @@
       <c r="Q453" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S453" s="2" t="s">
-        <v>45</v>
+      <c r="R453" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S453" s="2">
+        <v>2023</v>
       </c>
       <c r="T453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>49</v>
@@ -66056,7 +66089,7 @@
         <v>49</v>
       </c>
       <c r="Y453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z453" s="2" t="s">
         <v>49</v>
@@ -66065,25 +66098,25 @@
         <v>45</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC453" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH453" s="2" t="s">
-        <v>45</v>
+        <v>1621</v>
       </c>
       <c r="AI453" s="2" t="s">
         <v>45</v>
@@ -66103,28 +66136,28 @@
     </row>
     <row r="454" customHeight="1" spans="2:39">
       <c r="B454" s="2" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D454" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1358</v>
+        <v>1624</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>1580</v>
+        <v>45</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>45</v>
@@ -66133,10 +66166,10 @@
         <v>45</v>
       </c>
       <c r="L454" s="2" t="s">
-        <v>45</v>
+        <v>1582</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>45</v>
@@ -66151,10 +66184,10 @@
         <v>45</v>
       </c>
       <c r="R454" s="2">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="S454" s="2">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="T454" s="2" t="s">
         <v>50</v>
@@ -66181,10 +66214,10 @@
         <v>59</v>
       </c>
       <c r="AB454" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC454" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD454" s="2" t="s">
         <v>45</v>
@@ -66196,10 +66229,10 @@
         <v>91</v>
       </c>
       <c r="AG454" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH454" s="2" t="s">
-        <v>45</v>
+        <v>1626</v>
       </c>
       <c r="AI454" s="2" t="s">
         <v>45</v>
@@ -66219,28 +66252,28 @@
     </row>
     <row r="455" customHeight="1" spans="2:39">
       <c r="B455" s="2" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D455" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>1635</v>
+        <v>1416</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>1580</v>
+        <v>45</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>45</v>
@@ -66249,13 +66282,13 @@
         <v>45</v>
       </c>
       <c r="L455" s="2" t="s">
-        <v>45</v>
+        <v>1582</v>
       </c>
       <c r="M455" s="2" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>45</v>
+        <v>1631</v>
       </c>
       <c r="O455" s="2" t="s">
         <v>45</v>
@@ -66267,7 +66300,7 @@
         <v>45</v>
       </c>
       <c r="R455" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S455" s="2">
         <v>2019</v>
@@ -66276,7 +66309,7 @@
         <v>50</v>
       </c>
       <c r="U455" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V455" s="2" t="s">
         <v>49</v>
@@ -66294,13 +66327,13 @@
         <v>49</v>
       </c>
       <c r="AA455" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB455" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC455" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD455" s="2" t="s">
         <v>45</v>
@@ -66309,10 +66342,10 @@
         <v>45</v>
       </c>
       <c r="AF455" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG455" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH455" s="2" t="s">
         <v>45</v>
@@ -66335,64 +66368,64 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J456" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="M456" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N456" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D456" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E456" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G456" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="H456" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L456" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="M456" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="N456" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P456" s="2" t="s">
-        <v>45</v>
+        <v>1639</v>
       </c>
       <c r="Q456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R456" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="S456" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U456" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V456" s="2" t="s">
         <v>49</v>
@@ -66425,10 +66458,10 @@
         <v>45</v>
       </c>
       <c r="AF456" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG456" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH456" s="2" t="s">
         <v>45</v>
@@ -66451,25 +66484,25 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1645</v>
+        <v>129</v>
       </c>
       <c r="D457" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>1647</v>
+        <v>1597</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>45</v>
@@ -66481,10 +66514,10 @@
         <v>45</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>45</v>
@@ -66498,14 +66531,14 @@
       <c r="Q457" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R457" s="2">
-        <v>2020</v>
-      </c>
-      <c r="S457" s="2">
-        <v>2020</v>
+      <c r="R457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S457" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T457" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U457" s="2" t="s">
         <v>49</v>
@@ -66520,7 +66553,7 @@
         <v>49</v>
       </c>
       <c r="Y457" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z457" s="2" t="s">
         <v>49</v>
@@ -66529,10 +66562,10 @@
         <v>45</v>
       </c>
       <c r="AB457" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC457" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD457" s="2" t="s">
         <v>45</v>
@@ -66567,28 +66600,28 @@
     </row>
     <row r="458" customHeight="1" spans="2:39">
       <c r="B458" s="2" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D458" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1651</v>
+        <v>1590</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1586</v>
+        <v>1358</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>45</v>
+        <v>1591</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>45</v>
@@ -66597,13 +66630,13 @@
         <v>45</v>
       </c>
       <c r="L458" s="2" t="s">
-        <v>1649</v>
+        <v>45</v>
       </c>
       <c r="M458" s="2" t="s">
-        <v>1586</v>
+        <v>1646</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>1653</v>
+        <v>45</v>
       </c>
       <c r="O458" s="2" t="s">
         <v>45</v>
@@ -66615,16 +66648,16 @@
         <v>45</v>
       </c>
       <c r="R458" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S458" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T458" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>49</v>
@@ -66642,13 +66675,13 @@
         <v>49</v>
       </c>
       <c r="AA458" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC458" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD458" s="2" t="s">
         <v>45</v>
@@ -66657,10 +66690,10 @@
         <v>45</v>
       </c>
       <c r="AF458" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG458" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH458" s="2" t="s">
         <v>45</v>
@@ -66683,28 +66716,28 @@
     </row>
     <row r="459" customHeight="1" spans="2:39">
       <c r="B459" s="2" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1645</v>
+        <v>129</v>
       </c>
       <c r="D459" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>45</v>
+        <v>1591</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>45</v>
@@ -66713,13 +66746,13 @@
         <v>45</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>1649</v>
+        <v>45</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>1657</v>
+        <v>45</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>45</v>
@@ -66731,10 +66764,10 @@
         <v>45</v>
       </c>
       <c r="R459" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="S459" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T459" s="2" t="s">
         <v>50</v>
@@ -66761,13 +66794,13 @@
         <v>59</v>
       </c>
       <c r="AB459" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC459" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD459" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE459" s="2" t="s">
         <v>45</v>
@@ -66799,122 +66832,586 @@
     </row>
     <row r="460" customHeight="1" spans="2:39">
       <c r="B460" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L460" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M460" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="N460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R460" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S460" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T460" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U460" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z460" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA460" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB460" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF460" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG460" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM460" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" customHeight="1" spans="2:39">
+      <c r="B461" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G461" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D460" s="3">
+      <c r="H461" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L461" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M461" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R461" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S461" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T461" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z461" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM461" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="462" customHeight="1" spans="2:39">
+      <c r="B462" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M462" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N462" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R462" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S462" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T462" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z462" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM462" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="463" customHeight="1" spans="2:39">
+      <c r="B463" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M463" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N463" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R463" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S463" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T463" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U463" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA463" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB463" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC463" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD463" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF463" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG463" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM463" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" customHeight="1" spans="2:39">
+      <c r="B464" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D464" s="3">
         <v>2024</v>
       </c>
-      <c r="E460" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G460" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H460" s="2" t="s">
+      <c r="E464" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L464" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="I460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L460" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M460" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="N460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R460" s="2">
+      <c r="M464" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R464" s="2">
         <v>2023</v>
       </c>
-      <c r="S460" s="2">
+      <c r="S464" s="2">
         <v>2023</v>
       </c>
-      <c r="T460" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z460" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM460" s="2" t="s">
+      <c r="T464" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM464" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM460">
+  <autoFilter ref="A1:AM464">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$467</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16192" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="1678">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11729,12 +11729,18 @@
     <t>OQ426566-OQ427062</t>
   </si>
   <si>
+    <t>Molecular and in vitro analysis of eight dengue type 2 viruses isolated from patients exhibiting different disease severities</t>
+  </si>
+  <si>
+    <t>Virology</t>
+  </si>
+  <si>
+    <t>Marlou Mangada</t>
+  </si>
+  <si>
     <t>The molecular epidemiology of dengue virus serotype 4 in Bangkok, Thailand</t>
   </si>
   <si>
-    <t>Virology</t>
-  </si>
-  <si>
     <t>U.S. Army Medical Component-Armed Forces Research Institute of Medical Sciences</t>
   </si>
   <si>
@@ -11744,15 +11750,18 @@
     <t>Bangkok</t>
   </si>
   <si>
+    <t>Clade replacements in dengue virus serotype 1 and 3 are associated with changing serotype prevalence</t>
+  </si>
+  <si>
+    <t>Journal of Virology</t>
+  </si>
+  <si>
     <t>Structure and age of genetic diversity of dengue virus type 2 in Thailand</t>
   </si>
   <si>
     <t>Microevolution of dengue viruses circulating among primary school children in Kamphaeng Phet, Thailand</t>
   </si>
   <si>
-    <t>Journal of Virology</t>
-  </si>
-  <si>
     <t>Richard Jarman</t>
   </si>
   <si>
@@ -11795,6 +11804,18 @@
     <t>Emergence of genotype cosmopolitan of dengue virus type 2 and genotype III of dengue virus type 3 in Thailand</t>
   </si>
   <si>
+    <t>Phylogenetic analysis revealed the co-circulation of four dengue virus serotypes in Southern Thailand</t>
+  </si>
+  <si>
+    <t>Universite de Montpelier</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Dorothee Misse</t>
+  </si>
+  <si>
     <t>Does Bangkok have a central role in the dengue dynamics of Thailand?</t>
   </si>
   <si>
@@ -12330,9 +12351,6 @@
   </si>
   <si>
     <t>Institut Pasteur</t>
-  </si>
-  <si>
-    <t>France</t>
   </si>
   <si>
     <t>Mikhail Churakov</t>
@@ -13746,12 +13764,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM464"/>
+  <dimension ref="A1:AM467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
+      <selection pane="bottomLeft" activeCell="AF379" sqref="AF379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -57350,19 +57368,19 @@
         <v>1397</v>
       </c>
       <c r="D378" s="3">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E378" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H378" s="2" t="s">
         <v>1398</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="H378" s="2" t="s">
-        <v>1399</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>45</v>
@@ -57380,7 +57398,7 @@
         <v>991</v>
       </c>
       <c r="N378" s="2" t="s">
-        <v>1400</v>
+        <v>45</v>
       </c>
       <c r="O378" s="2" t="s">
         <v>45</v>
@@ -57392,13 +57410,13 @@
         <v>45</v>
       </c>
       <c r="R378" s="2">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="S378" s="2">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="T378" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U378" s="2" t="s">
         <v>50</v>
@@ -57425,19 +57443,19 @@
         <v>45</v>
       </c>
       <c r="AC378" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD378" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE378" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF378" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG378" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH378" s="2" t="s">
         <v>45</v>
@@ -57460,16 +57478,16 @@
     </row>
     <row r="379" customHeight="1" spans="2:39">
       <c r="B379" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1304</v>
+        <v>1397</v>
       </c>
       <c r="D379" s="3">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>45</v>
@@ -57478,7 +57496,7 @@
         <v>991</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="I379" s="2" t="s">
         <v>45</v>
@@ -57496,7 +57514,7 @@
         <v>991</v>
       </c>
       <c r="N379" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O379" s="2" t="s">
         <v>45</v>
@@ -57508,13 +57526,13 @@
         <v>45</v>
       </c>
       <c r="R379" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S379" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="T379" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U379" s="2" t="s">
         <v>50</v>
@@ -57541,19 +57559,19 @@
         <v>45</v>
       </c>
       <c r="AC379" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD379" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE379" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF379" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG379" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH379" s="2" t="s">
         <v>45</v>
@@ -57576,16 +57594,16 @@
     </row>
     <row r="380" customHeight="1" spans="2:39">
       <c r="B380" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D380" s="3">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>45</v>
@@ -57594,7 +57612,7 @@
         <v>991</v>
       </c>
       <c r="H380" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I380" s="2" t="s">
         <v>45</v>
@@ -57612,7 +57630,7 @@
         <v>991</v>
       </c>
       <c r="N380" s="2" t="s">
-        <v>1405</v>
+        <v>45</v>
       </c>
       <c r="O380" s="2" t="s">
         <v>45</v>
@@ -57624,10 +57642,10 @@
         <v>45</v>
       </c>
       <c r="R380" s="2">
-        <v>2001</v>
+        <v>1974</v>
       </c>
       <c r="S380" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="T380" s="2" t="s">
         <v>50</v>
@@ -57657,7 +57675,7 @@
         <v>76</v>
       </c>
       <c r="AC380" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD380" s="2" t="s">
         <v>78</v>
@@ -57692,16 +57710,16 @@
     </row>
     <row r="381" customHeight="1" spans="2:39">
       <c r="B381" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="D381" s="3">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>45</v>
@@ -57710,7 +57728,7 @@
         <v>991</v>
       </c>
       <c r="H381" s="2" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I381" s="2" t="s">
         <v>45</v>
@@ -57728,7 +57746,7 @@
         <v>991</v>
       </c>
       <c r="N381" s="2" t="s">
-        <v>1400</v>
+        <v>45</v>
       </c>
       <c r="O381" s="2" t="s">
         <v>45</v>
@@ -57740,13 +57758,13 @@
         <v>45</v>
       </c>
       <c r="R381" s="2">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="S381" s="2">
         <v>2001</v>
       </c>
       <c r="T381" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U381" s="2" t="s">
         <v>50</v>
@@ -57770,10 +57788,10 @@
         <v>59</v>
       </c>
       <c r="AB381" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC381" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD381" s="2" t="s">
         <v>45</v>
@@ -57808,16 +57826,16 @@
     </row>
     <row r="382" customHeight="1" spans="2:39">
       <c r="B382" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="D382" s="3">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>989</v>
+        <v>1400</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>45</v>
@@ -57826,7 +57844,7 @@
         <v>991</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>45</v>
@@ -57844,7 +57862,7 @@
         <v>991</v>
       </c>
       <c r="N382" s="2" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="O382" s="2" t="s">
         <v>45</v>
@@ -57856,10 +57874,10 @@
         <v>45</v>
       </c>
       <c r="R382" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="S382" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="T382" s="2" t="s">
         <v>50</v>
@@ -57886,13 +57904,13 @@
         <v>59</v>
       </c>
       <c r="AB382" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC382" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD382" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE382" s="2" t="s">
         <v>45</v>
@@ -57904,7 +57922,7 @@
         <v>81</v>
       </c>
       <c r="AH382" s="2" t="s">
-        <v>1411</v>
+        <v>45</v>
       </c>
       <c r="AI382" s="2" t="s">
         <v>45</v>
@@ -57924,16 +57942,16 @@
     </row>
     <row r="383" customHeight="1" spans="2:39">
       <c r="B383" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1403</v>
+        <v>61</v>
       </c>
       <c r="D383" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>45</v>
@@ -57942,10 +57960,10 @@
         <v>991</v>
       </c>
       <c r="H383" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>1404</v>
+        <v>45</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>45</v>
@@ -57960,7 +57978,7 @@
         <v>991</v>
       </c>
       <c r="N383" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O383" s="2" t="s">
         <v>45</v>
@@ -57972,10 +57990,10 @@
         <v>45</v>
       </c>
       <c r="R383" s="2">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="S383" s="2">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="T383" s="2" t="s">
         <v>50</v>
@@ -58014,7 +58032,7 @@
         <v>45</v>
       </c>
       <c r="AF383" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG383" s="2" t="s">
         <v>81</v>
@@ -58040,25 +58058,25 @@
     </row>
     <row r="384" customHeight="1" spans="2:39">
       <c r="B384" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>129</v>
+        <v>1412</v>
       </c>
       <c r="D384" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1415</v>
+        <v>989</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>1416</v>
+        <v>991</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>45</v>
@@ -58076,7 +58094,7 @@
         <v>991</v>
       </c>
       <c r="N384" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="O384" s="2" t="s">
         <v>45</v>
@@ -58088,10 +58106,10 @@
         <v>45</v>
       </c>
       <c r="R384" s="2">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="S384" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="T384" s="2" t="s">
         <v>50</v>
@@ -58118,16 +58136,16 @@
         <v>59</v>
       </c>
       <c r="AB384" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC384" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD384" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE384" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF384" s="2" t="s">
         <v>80</v>
@@ -58136,7 +58154,7 @@
         <v>81</v>
       </c>
       <c r="AH384" s="2" t="s">
-        <v>45</v>
+        <v>1414</v>
       </c>
       <c r="AI384" s="2" t="s">
         <v>45</v>
@@ -58156,16 +58174,16 @@
     </row>
     <row r="385" customHeight="1" spans="2:39">
       <c r="B385" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>89</v>
+        <v>1404</v>
       </c>
       <c r="D385" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>989</v>
+        <v>1400</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>45</v>
@@ -58174,10 +58192,10 @@
         <v>991</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>1388</v>
+        <v>1416</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>45</v>
+        <v>1407</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>45</v>
@@ -58204,10 +58222,10 @@
         <v>45</v>
       </c>
       <c r="R385" s="2">
-        <v>2016</v>
+        <v>1985</v>
       </c>
       <c r="S385" s="2">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="T385" s="2" t="s">
         <v>50</v>
@@ -58237,19 +58255,19 @@
         <v>76</v>
       </c>
       <c r="AC385" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD385" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE385" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF385" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG385" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH385" s="2" t="s">
         <v>45</v>
@@ -58272,25 +58290,25 @@
     </row>
     <row r="386" customHeight="1" spans="2:39">
       <c r="B386" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E386" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D386" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E386" s="2" t="s">
+      <c r="F386" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G386" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="F386" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>1420</v>
-      </c>
       <c r="H386" s="2" t="s">
-        <v>335</v>
+        <v>1407</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>45</v>
@@ -58308,7 +58326,7 @@
         <v>991</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>45</v>
+        <v>1408</v>
       </c>
       <c r="O386" s="2" t="s">
         <v>45</v>
@@ -58323,13 +58341,13 @@
         <v>2004</v>
       </c>
       <c r="S386" s="2">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="T386" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U386" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V386" s="2" t="s">
         <v>49</v>
@@ -58350,22 +58368,22 @@
         <v>59</v>
       </c>
       <c r="AB386" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC386" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD386" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE386" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF386" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG386" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH386" s="2" t="s">
         <v>45</v>
@@ -58388,16 +58406,16 @@
     </row>
     <row r="387" customHeight="1" spans="2:39">
       <c r="B387" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="D387" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1422</v>
+        <v>989</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>45</v>
@@ -58406,7 +58424,7 @@
         <v>991</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>1423</v>
+        <v>1388</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>45</v>
@@ -58436,10 +58454,10 @@
         <v>45</v>
       </c>
       <c r="R387" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="S387" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>50</v>
@@ -58451,7 +58469,7 @@
         <v>49</v>
       </c>
       <c r="W387" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X387" s="2" t="s">
         <v>49</v>
@@ -58469,19 +58487,19 @@
         <v>76</v>
       </c>
       <c r="AC387" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD387" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE387" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF387" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG387" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH387" s="2" t="s">
         <v>45</v>
@@ -58504,25 +58522,25 @@
     </row>
     <row r="388" customHeight="1" spans="2:39">
       <c r="B388" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H388" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D388" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G388" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>1427</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>45</v>
@@ -58552,16 +58570,16 @@
         <v>45</v>
       </c>
       <c r="R388" s="2">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="S388" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T388" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U388" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V388" s="2" t="s">
         <v>49</v>
@@ -58576,28 +58594,28 @@
         <v>49</v>
       </c>
       <c r="Z388" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA388" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB388" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC388" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD388" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE388" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF388" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG388" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH388" s="2" t="s">
         <v>45</v>
@@ -58620,28 +58638,28 @@
     </row>
     <row r="389" customHeight="1" spans="2:39">
       <c r="B389" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1345</v>
+        <v>588</v>
       </c>
       <c r="D389" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>989</v>
+        <v>1426</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>991</v>
+        <v>1427</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>1429</v>
+        <v>335</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>1388</v>
+        <v>45</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>45</v>
@@ -58656,7 +58674,7 @@
         <v>991</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>1400</v>
+        <v>45</v>
       </c>
       <c r="O389" s="2" t="s">
         <v>45</v>
@@ -58668,16 +58686,16 @@
         <v>45</v>
       </c>
       <c r="R389" s="2">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="S389" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="T389" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U389" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V389" s="2" t="s">
         <v>49</v>
@@ -58698,22 +58716,22 @@
         <v>59</v>
       </c>
       <c r="AB389" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC389" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF389" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG389" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH389" s="2" t="s">
         <v>45</v>
@@ -58736,16 +58754,16 @@
     </row>
     <row r="390" customHeight="1" spans="2:39">
       <c r="B390" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D390" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>45</v>
@@ -58754,7 +58772,7 @@
         <v>991</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58784,10 +58802,10 @@
         <v>45</v>
       </c>
       <c r="R390" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="S390" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="T390" s="2" t="s">
         <v>50</v>
@@ -58799,7 +58817,7 @@
         <v>49</v>
       </c>
       <c r="W390" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X390" s="2" t="s">
         <v>49</v>
@@ -58817,19 +58835,19 @@
         <v>76</v>
       </c>
       <c r="AC390" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD390" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE390" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF390" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG390" s="2">
-        <v>454</v>
+      <c r="AG390" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="AH390" s="2" t="s">
         <v>45</v>
@@ -58852,25 +58870,25 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E391" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="F391" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G391" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="D391" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E391" s="2" t="s">
+      <c r="H391" s="2" t="s">
         <v>1434</v>
-      </c>
-      <c r="F391" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H391" s="2" t="s">
-        <v>1435</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58900,22 +58918,22 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="S391" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U391" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V391" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W391" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X391" s="2" t="s">
         <v>49</v>
@@ -58924,28 +58942,28 @@
         <v>49</v>
       </c>
       <c r="Z391" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA391" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB391" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC391" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD391" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE391" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF391" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG391" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH391" s="2" t="s">
         <v>45</v>
@@ -58968,28 +58986,28 @@
     </row>
     <row r="392" customHeight="1" spans="2:39">
       <c r="B392" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D392" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H392" s="2" t="s">
-        <v>1438</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>1439</v>
+        <v>1388</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>45</v>
@@ -59004,7 +59022,7 @@
         <v>991</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="O392" s="2" t="s">
         <v>45</v>
@@ -59016,10 +59034,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>1994</v>
+        <v>2018</v>
       </c>
       <c r="S392" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -59061,7 +59079,7 @@
         <v>91</v>
       </c>
       <c r="AG392" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH392" s="2" t="s">
         <v>45</v>
@@ -59084,16 +59102,16 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1441</v>
+        <v>115</v>
       </c>
       <c r="D393" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1442</v>
+        <v>1400</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>45</v>
@@ -59102,7 +59120,7 @@
         <v>991</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -59132,16 +59150,16 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="S393" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U393" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V393" s="2" t="s">
         <v>49</v>
@@ -59156,28 +59174,28 @@
         <v>49</v>
       </c>
       <c r="Z393" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA393" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD393" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE393" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF393" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG393" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="AG393" s="2">
+        <v>454</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59200,25 +59218,25 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>115</v>
+        <v>1440</v>
       </c>
       <c r="D394" s="3">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1420</v>
+        <v>1358</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1362</v>
+        <v>1442</v>
       </c>
       <c r="I394" s="2" t="s">
         <v>45</v>
@@ -59233,7 +59251,7 @@
         <v>46</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1445</v>
+        <v>991</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>45</v>
@@ -59248,10 +59266,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="S394" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59263,7 +59281,7 @@
         <v>49</v>
       </c>
       <c r="W394" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X394" s="2" t="s">
         <v>49</v>
@@ -59290,10 +59308,10 @@
         <v>79</v>
       </c>
       <c r="AF394" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG394" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH394" s="2" t="s">
         <v>45</v>
@@ -59316,28 +59334,28 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I395" s="2" t="s">
         <v>1446</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D395" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H395" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I395" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>45</v>
@@ -59349,10 +59367,10 @@
         <v>46</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1445</v>
+        <v>991</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>45</v>
@@ -59364,10 +59382,10 @@
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="S395" s="2">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="T395" s="2" t="s">
         <v>50</v>
@@ -59397,19 +59415,19 @@
         <v>76</v>
       </c>
       <c r="AC395" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD395" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE395" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF395" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG395" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59432,25 +59450,25 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D396" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1370</v>
+        <v>1449</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1371</v>
+        <v>991</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59465,7 +59483,7 @@
         <v>46</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1445</v>
+        <v>991</v>
       </c>
       <c r="N396" s="2" t="s">
         <v>45</v>
@@ -59480,16 +59498,16 @@
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="S396" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U396" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V396" s="2" t="s">
         <v>49</v>
@@ -59504,28 +59522,28 @@
         <v>49</v>
       </c>
       <c r="Z396" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA396" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB396" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC396" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE396" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF396" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59548,25 +59566,25 @@
     </row>
     <row r="397" customHeight="1" spans="2:39">
       <c r="B397" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="D397" s="3">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1370</v>
+        <v>1426</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1371</v>
+        <v>1427</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>1449</v>
+        <v>1362</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>45</v>
@@ -59581,7 +59599,7 @@
         <v>46</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="N397" s="2" t="s">
         <v>45</v>
@@ -59596,10 +59614,10 @@
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="S397" s="2">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
@@ -59632,10 +59650,10 @@
         <v>77</v>
       </c>
       <c r="AD397" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE397" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF397" s="2" t="s">
         <v>80</v>
@@ -59664,25 +59682,25 @@
     </row>
     <row r="398" customHeight="1" spans="2:39">
       <c r="B398" s="2" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>89</v>
+        <v>1454</v>
       </c>
       <c r="D398" s="3">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1370</v>
+        <v>1426</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1371</v>
+        <v>1427</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>1449</v>
+        <v>1401</v>
       </c>
       <c r="I398" s="2" t="s">
         <v>45</v>
@@ -59697,10 +59715,10 @@
         <v>46</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>1452</v>
+        <v>45</v>
       </c>
       <c r="O398" s="2" t="s">
         <v>45</v>
@@ -59712,10 +59730,10 @@
         <v>45</v>
       </c>
       <c r="R398" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="S398" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
@@ -59748,16 +59766,16 @@
         <v>45</v>
       </c>
       <c r="AD398" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE398" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF398" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>1453</v>
+        <v>81</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59780,10 +59798,13 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D399" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>1370</v>
@@ -59795,13 +59816,13 @@
         <v>1371</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>1456</v>
+        <v>45</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>1457</v>
+        <v>45</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>45</v>
@@ -59810,10 +59831,10 @@
         <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="N399" s="2" t="s">
-        <v>1458</v>
+        <v>45</v>
       </c>
       <c r="O399" s="2" t="s">
         <v>45</v>
@@ -59825,10 +59846,10 @@
         <v>45</v>
       </c>
       <c r="R399" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="S399" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
@@ -59861,13 +59882,13 @@
         <v>77</v>
       </c>
       <c r="AD399" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE399" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF399" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG399" s="2" t="s">
         <v>81</v>
@@ -59893,13 +59914,13 @@
     </row>
     <row r="400" customHeight="1" spans="2:39">
       <c r="B400" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1460</v>
+        <v>327</v>
       </c>
       <c r="D400" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>1370</v>
@@ -59911,7 +59932,7 @@
         <v>1371</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>45</v>
@@ -59926,7 +59947,7 @@
         <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>45</v>
@@ -59941,10 +59962,10 @@
         <v>45</v>
       </c>
       <c r="R400" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="S400" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="T400" s="2" t="s">
         <v>50</v>
@@ -59974,19 +59995,19 @@
         <v>76</v>
       </c>
       <c r="AC400" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE400" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF400" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG400" s="2" t="s">
-        <v>1453</v>
+        <v>81</v>
       </c>
       <c r="AH400" s="2" t="s">
         <v>45</v>
@@ -60009,25 +60030,25 @@
     </row>
     <row r="401" customHeight="1" spans="2:39">
       <c r="B401" s="2" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D401" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>989</v>
+        <v>1370</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
@@ -60042,10 +60063,10 @@
         <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>45</v>
+        <v>1459</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
@@ -60057,16 +60078,16 @@
         <v>45</v>
       </c>
       <c r="R401" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="S401" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U401" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V401" s="2" t="s">
         <v>49</v>
@@ -60084,25 +60105,25 @@
         <v>49</v>
       </c>
       <c r="AA401" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB401" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE401" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG401" s="2" t="s">
-        <v>45</v>
+        <v>1460</v>
       </c>
       <c r="AH401" s="2" t="s">
         <v>45</v>
@@ -60125,31 +60146,28 @@
     </row>
     <row r="402" customHeight="1" spans="2:39">
       <c r="B402" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D402" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J402" s="2" t="s">
         <v>1464</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D402" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E402" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J402" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="K402" s="2" t="s">
         <v>45</v>
@@ -60158,10 +60176,10 @@
         <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>45</v>
+        <v>1465</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
@@ -60173,10 +60191,10 @@
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="S402" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60203,7 +60221,7 @@
         <v>59</v>
       </c>
       <c r="AB402" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC402" s="2" t="s">
         <v>77</v>
@@ -60212,7 +60230,7 @@
         <v>78</v>
       </c>
       <c r="AE402" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF402" s="2" t="s">
         <v>91</v>
@@ -60241,25 +60259,25 @@
     </row>
     <row r="403" customHeight="1" spans="2:39">
       <c r="B403" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H403" s="2" t="s">
         <v>1468</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D403" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>1467</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60274,7 +60292,7 @@
         <v>46</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>45</v>
@@ -60289,10 +60307,10 @@
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="S403" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
@@ -60325,16 +60343,16 @@
         <v>45</v>
       </c>
       <c r="AD403" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE403" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF403" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>81</v>
+        <v>1460</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60360,19 +60378,19 @@
         <v>1469</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D404" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1465</v>
+        <v>989</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>1466</v>
+        <v>991</v>
       </c>
       <c r="H404" s="2" t="s">
         <v>1470</v>
@@ -60390,7 +60408,7 @@
         <v>46</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="N404" s="2" t="s">
         <v>45</v>
@@ -60408,7 +60426,7 @@
         <v>2012</v>
       </c>
       <c r="S404" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
@@ -60476,10 +60494,10 @@
         <v>1471</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="D405" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1472</v>
@@ -60509,7 +60527,7 @@
         <v>1473</v>
       </c>
       <c r="N405" s="2" t="s">
-        <v>1475</v>
+        <v>45</v>
       </c>
       <c r="O405" s="2" t="s">
         <v>45</v>
@@ -60521,10 +60539,10 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="S405" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60554,7 +60572,7 @@
         <v>45</v>
       </c>
       <c r="AC405" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD405" s="2" t="s">
         <v>78</v>
@@ -60563,7 +60581,7 @@
         <v>45</v>
       </c>
       <c r="AF405" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG405" s="2" t="s">
         <v>81</v>
@@ -60589,25 +60607,25 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1383</v>
+        <v>330</v>
       </c>
       <c r="D406" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1371</v>
+        <v>1473</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>45</v>
@@ -60637,10 +60655,10 @@
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="S406" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
@@ -60667,19 +60685,19 @@
         <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD406" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF406" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG406" s="2" t="s">
         <v>81</v>
@@ -60705,16 +60723,16 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D407" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
@@ -60723,7 +60741,7 @@
         <v>1473</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60753,16 +60771,16 @@
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="S407" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V407" s="2" t="s">
         <v>49</v>
@@ -60780,25 +60798,25 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB407" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD407" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE407" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF407" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>1453</v>
+        <v>45</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60821,25 +60839,25 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D408" s="3">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>45</v>
@@ -60854,10 +60872,10 @@
         <v>46</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>45</v>
+        <v>1482</v>
       </c>
       <c r="O408" s="2" t="s">
         <v>45</v>
@@ -60869,10 +60887,10 @@
         <v>45</v>
       </c>
       <c r="R408" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="S408" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T408" s="2" t="s">
         <v>50</v>
@@ -60902,10 +60920,10 @@
         <v>45</v>
       </c>
       <c r="AC408" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD408" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE408" s="2" t="s">
         <v>45</v>
@@ -60937,25 +60955,25 @@
     </row>
     <row r="409" customHeight="1" spans="2:39">
       <c r="B409" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E409" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="F409" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="D409" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F409" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="H409" s="2" t="s">
-        <v>1483</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>45</v>
@@ -60970,7 +60988,7 @@
         <v>46</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>45</v>
@@ -60985,10 +61003,10 @@
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="S409" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
@@ -61018,13 +61036,13 @@
         <v>45</v>
       </c>
       <c r="AC409" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE409" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF409" s="2" t="s">
         <v>80</v>
@@ -61045,7 +61063,7 @@
         <v>45</v>
       </c>
       <c r="AL409" s="2" t="s">
-        <v>1486</v>
+        <v>45</v>
       </c>
       <c r="AM409" s="2" t="s">
         <v>45</v>
@@ -61053,25 +61071,25 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E410" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D410" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1472</v>
-      </c>
       <c r="F410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="I410" s="2" t="s">
         <v>45</v>
@@ -61086,7 +61104,7 @@
         <v>46</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="N410" s="2" t="s">
         <v>45</v>
@@ -61101,10 +61119,10 @@
         <v>45</v>
       </c>
       <c r="R410" s="2">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="S410" s="2">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
@@ -61134,19 +61152,19 @@
         <v>76</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD410" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE410" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG410" s="2" t="s">
-        <v>81</v>
+        <v>1460</v>
       </c>
       <c r="AH410" s="2" t="s">
         <v>45</v>
@@ -61169,22 +61187,22 @@
     </row>
     <row r="411" customHeight="1" spans="2:39">
       <c r="B411" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D411" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>1490</v>
@@ -61199,28 +61217,28 @@
         <v>45</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>1491</v>
+        <v>46</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="N411" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="O411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="Q411" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="S411" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="T411" s="2" t="s">
         <v>50</v>
@@ -61247,16 +61265,16 @@
         <v>59</v>
       </c>
       <c r="AB411" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC411" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD411" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE411" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF411" s="2" t="s">
         <v>80</v>
@@ -61283,21 +61301,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="412" customHeight="1" spans="3:39">
+    <row r="412" customHeight="1" spans="2:39">
+      <c r="B412" s="2" t="s">
+        <v>1491</v>
+      </c>
       <c r="C412" s="2" t="s">
-        <v>61</v>
+        <v>1492</v>
       </c>
       <c r="D412" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>1490</v>
@@ -61312,34 +61333,34 @@
         <v>45</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>1491</v>
+        <v>46</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="O412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P412" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="Q412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="S412" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U412" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V412" s="2" t="s">
         <v>49</v>
@@ -61357,7 +61378,7 @@
         <v>49</v>
       </c>
       <c r="AA412" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB412" s="2" t="s">
         <v>45</v>
@@ -61369,13 +61390,13 @@
         <v>45</v>
       </c>
       <c r="AE412" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF412" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG412" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH412" s="2" t="s">
         <v>45</v>
@@ -61390,27 +61411,30 @@
         <v>45</v>
       </c>
       <c r="AL412" s="2" t="s">
-        <v>45</v>
+        <v>1493</v>
       </c>
       <c r="AM412" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="413" customHeight="1" spans="3:39">
+    <row r="413" customHeight="1" spans="2:39">
+      <c r="B413" s="2" t="s">
+        <v>1494</v>
+      </c>
       <c r="C413" s="2" t="s">
-        <v>333</v>
+        <v>1386</v>
       </c>
       <c r="D413" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>1490</v>
@@ -61425,28 +61449,28 @@
         <v>45</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>1491</v>
+        <v>46</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="O413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P413" s="2" t="s">
-        <v>1426</v>
+        <v>45</v>
       </c>
       <c r="Q413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="S413" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
@@ -61470,25 +61494,25 @@
         <v>49</v>
       </c>
       <c r="AA413" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB413" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC413" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD413" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE413" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF413" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG413" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH413" s="2" t="s">
         <v>45</v>
@@ -61511,25 +61535,25 @@
     </row>
     <row r="414" customHeight="1" spans="2:39">
       <c r="B414" s="2" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D414" s="3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>45</v>
@@ -61541,28 +61565,28 @@
         <v>45</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="O414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="Q414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R414" s="2">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="S414" s="2">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
@@ -61592,16 +61616,16 @@
         <v>76</v>
       </c>
       <c r="AC414" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE414" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF414" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG414" s="2" t="s">
         <v>81</v>
@@ -61625,30 +61649,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="415" customHeight="1" spans="2:39">
-      <c r="B415" s="2" t="s">
-        <v>1494</v>
-      </c>
+    <row r="415" customHeight="1" spans="3:39">
       <c r="C415" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D415" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>1497</v>
+        <v>45</v>
       </c>
       <c r="J415" s="2" t="s">
         <v>45</v>
@@ -61657,31 +61678,31 @@
         <v>45</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="O415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P415" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="Q415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="S415" s="2">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="T415" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U415" s="2" t="s">
         <v>49</v>
@@ -61693,7 +61714,7 @@
         <v>49</v>
       </c>
       <c r="X415" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y415" s="2" t="s">
         <v>49</v>
@@ -61714,7 +61735,7 @@
         <v>45</v>
       </c>
       <c r="AE415" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF415" s="2" t="s">
         <v>45</v>
@@ -61743,55 +61764,55 @@
     </row>
     <row r="416" customHeight="1" spans="3:39">
       <c r="C416" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L416" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="D416" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L416" s="2" t="s">
-        <v>1491</v>
-      </c>
       <c r="M416" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S416" s="2" t="s">
-        <v>45</v>
+      <c r="R416" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S416" s="2">
+        <v>2014</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61815,25 +61836,25 @@
         <v>49</v>
       </c>
       <c r="AA416" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB416" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC416" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD416" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE416" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF416" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG416" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH416" s="2" t="s">
         <v>45</v>
@@ -61859,19 +61880,19 @@
         <v>1499</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D417" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>1500</v>
@@ -61886,34 +61907,34 @@
         <v>45</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="O417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P417" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="Q417" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R417" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="S417" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="T417" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U417" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V417" s="2" t="s">
         <v>49</v>
@@ -61931,10 +61952,10 @@
         <v>49</v>
       </c>
       <c r="AA417" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB417" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC417" s="2" t="s">
         <v>45</v>
@@ -61946,10 +61967,10 @@
         <v>45</v>
       </c>
       <c r="AF417" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG417" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH417" s="2" t="s">
         <v>45</v>
@@ -61978,22 +61999,22 @@
         <v>129</v>
       </c>
       <c r="D418" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1489</v>
+        <v>1502</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>45</v>
+        <v>1504</v>
       </c>
       <c r="J418" s="2" t="s">
         <v>45</v>
@@ -62002,31 +62023,31 @@
         <v>45</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="O418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P418" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="Q418" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R418" s="2">
-        <v>1960</v>
+        <v>2017</v>
       </c>
       <c r="S418" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="T418" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U418" s="2" t="s">
         <v>49</v>
@@ -62038,7 +62059,7 @@
         <v>49</v>
       </c>
       <c r="X418" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y418" s="2" t="s">
         <v>49</v>
@@ -62059,7 +62080,7 @@
         <v>45</v>
       </c>
       <c r="AE418" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF418" s="2" t="s">
         <v>45</v>
@@ -62088,22 +62109,22 @@
     </row>
     <row r="419" customHeight="1" spans="3:39">
       <c r="C419" s="2" t="s">
-        <v>89</v>
+        <v>1505</v>
       </c>
       <c r="D419" s="3">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="I419" s="2" t="s">
         <v>45</v>
@@ -62115,28 +62136,28 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1506</v>
+        <v>1433</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>45</v>
+        <v>1433</v>
       </c>
       <c r="Q419" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R419" s="2">
-        <v>2008</v>
-      </c>
-      <c r="S419" s="2">
-        <v>2010</v>
+      <c r="R419" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S419" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62166,7 +62187,7 @@
         <v>76</v>
       </c>
       <c r="AC419" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD419" s="2" t="s">
         <v>45</v>
@@ -62175,7 +62196,7 @@
         <v>45</v>
       </c>
       <c r="AF419" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG419" s="2" t="s">
         <v>81</v>
@@ -62201,25 +62222,25 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D420" s="3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>45</v>
@@ -62231,34 +62252,34 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1510</v>
+        <v>1433</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>45</v>
+        <v>1433</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="S420" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T420" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U420" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V420" s="2" t="s">
         <v>49</v>
@@ -62276,10 +62297,10 @@
         <v>49</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB420" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC420" s="2" t="s">
         <v>45</v>
@@ -62291,13 +62312,13 @@
         <v>45</v>
       </c>
       <c r="AF420" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG420" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH420" s="2" t="s">
-        <v>1511</v>
+        <v>45</v>
       </c>
       <c r="AI420" s="2" t="s">
         <v>45</v>
@@ -62317,159 +62338,156 @@
     </row>
     <row r="421" customHeight="1" spans="2:39">
       <c r="B421" s="2" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D421" s="3">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E421" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N421" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P421" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R421" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S421" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM421" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" customHeight="1" spans="3:39">
+      <c r="C422" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L422" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M422" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N422" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M421" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R421" s="2">
-        <v>2010</v>
-      </c>
-      <c r="S421" s="2">
-        <v>2012</v>
-      </c>
-      <c r="T421" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U421" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA421" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC421" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF421" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG421" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH421" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="AI421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM421" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="422" customHeight="1" spans="2:39">
-      <c r="B422" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D422" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L422" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M422" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N422" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O422" s="2" t="s">
         <v>45</v>
@@ -62484,7 +62502,7 @@
         <v>2008</v>
       </c>
       <c r="S422" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
@@ -62549,103 +62567,103 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N423" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="O423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R423" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S423" s="2">
+        <v>2012</v>
+      </c>
+      <c r="T423" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U423" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA423" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB423" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF423" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG423" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH423" s="2" t="s">
         <v>1518</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D423" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E423" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M423" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R423" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S423" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T423" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V423" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH423" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AI423" s="2" t="s">
         <v>45</v>
@@ -62668,22 +62686,22 @@
         <v>1519</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="D424" s="3">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1508</v>
+        <v>1520</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1504</v>
+        <v>1427</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>1509</v>
+        <v>1521</v>
       </c>
       <c r="I424" s="2" t="s">
         <v>45</v>
@@ -62695,28 +62713,28 @@
         <v>45</v>
       </c>
       <c r="L424" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M424" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>1520</v>
+        <v>45</v>
       </c>
       <c r="O424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P424" s="2" t="s">
-        <v>1521</v>
+        <v>45</v>
       </c>
       <c r="Q424" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R424" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="S424" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62743,25 +62761,25 @@
         <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC424" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE424" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF424" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG424" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH424" s="2" t="s">
-        <v>45</v>
+        <v>1522</v>
       </c>
       <c r="AI424" s="2" t="s">
         <v>45</v>
@@ -62781,25 +62799,25 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="D425" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>1509</v>
+        <v>1524</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>45</v>
@@ -62811,28 +62829,28 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>1523</v>
+        <v>45</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P425" s="2" t="s">
-        <v>1524</v>
+        <v>45</v>
       </c>
       <c r="Q425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="S425" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62865,10 +62883,10 @@
         <v>77</v>
       </c>
       <c r="AD425" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE425" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF425" s="2" t="s">
         <v>80</v>
@@ -62895,24 +62913,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="426" customHeight="1" spans="3:39">
+    <row r="426" customHeight="1" spans="2:39">
+      <c r="B426" s="2" t="s">
+        <v>1525</v>
+      </c>
       <c r="C426" s="2" t="s">
-        <v>129</v>
+        <v>404</v>
       </c>
       <c r="D426" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>45</v>
@@ -62924,10 +62945,10 @@
         <v>45</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="N426" s="2" t="s">
         <v>45</v>
@@ -62942,10 +62963,10 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="S426" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
@@ -62954,7 +62975,7 @@
         <v>49</v>
       </c>
       <c r="V426" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W426" s="2" t="s">
         <v>49</v>
@@ -63010,61 +63031,61 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M427" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N427" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D427" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E427" s="2" t="s">
+      <c r="O427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P427" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H427" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M427" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="N427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="S427" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="T427" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U427" s="2" t="s">
         <v>50</v>
@@ -63091,19 +63112,19 @@
         <v>76</v>
       </c>
       <c r="AC427" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD427" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF427" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -63126,58 +63147,58 @@
     </row>
     <row r="428" customHeight="1" spans="2:39">
       <c r="B428" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M428" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N428" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="O428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P428" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D428" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M428" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="O428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R428" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="S428" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T428" s="2" t="s">
         <v>50</v>
@@ -63204,19 +63225,19 @@
         <v>59</v>
       </c>
       <c r="AB428" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC428" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD428" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE428" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF428" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG428" s="2" t="s">
         <v>81</v>
@@ -63240,27 +63261,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" customHeight="1" spans="2:39">
-      <c r="B429" s="2" t="s">
-        <v>1535</v>
-      </c>
+    <row r="429" customHeight="1" spans="3:39">
       <c r="C429" s="2" t="s">
-        <v>1304</v>
+        <v>129</v>
       </c>
       <c r="D429" s="3">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>1529</v>
+        <v>1511</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
@@ -63272,10 +63290,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1537</v>
+        <v>1511</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>45</v>
@@ -63293,13 +63311,13 @@
         <v>2005</v>
       </c>
       <c r="S429" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U429" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V429" s="2" t="s">
         <v>49</v>
@@ -63317,10 +63335,10 @@
         <v>49</v>
       </c>
       <c r="AA429" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB429" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC429" s="2" t="s">
         <v>45</v>
@@ -63332,10 +63350,10 @@
         <v>45</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63358,61 +63376,61 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D430" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L430" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M430" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R430" s="2">
+        <v>2004</v>
+      </c>
+      <c r="S430" s="2">
         <v>2007</v>
       </c>
-      <c r="E430" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H430" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L430" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M430" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R430" s="2">
-        <v>2005</v>
-      </c>
-      <c r="S430" s="2">
-        <v>2005</v>
-      </c>
       <c r="T430" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U430" s="2" t="s">
         <v>50</v>
@@ -63436,19 +63454,19 @@
         <v>59</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG430" s="2" t="s">
         <v>81</v>
@@ -63474,25 +63492,25 @@
     </row>
     <row r="431" customHeight="1" spans="2:39">
       <c r="B431" s="2" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D431" s="3">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1545</v>
+        <v>1427</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>45</v>
@@ -63504,13 +63522,13 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1547</v>
+        <v>1498</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1545</v>
+        <v>1427</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63522,10 +63540,10 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="S431" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
@@ -63558,13 +63576,13 @@
         <v>45</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE431" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG431" s="2" t="s">
         <v>81</v>
@@ -63590,25 +63608,25 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>71</v>
+        <v>1304</v>
       </c>
       <c r="D432" s="3">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
@@ -63620,10 +63638,10 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1547</v>
+        <v>1498</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>45</v>
@@ -63638,10 +63656,10 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="S432" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="T432" s="2" t="s">
         <v>50</v>
@@ -63668,19 +63686,19 @@
         <v>59</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD432" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG432" s="2" t="s">
         <v>81</v>
@@ -63706,25 +63724,25 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D433" s="3">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="I433" s="2" t="s">
         <v>45</v>
@@ -63736,10 +63754,10 @@
         <v>45</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>1547</v>
+        <v>1498</v>
       </c>
       <c r="M433" s="2" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="N433" s="2" t="s">
         <v>45</v>
@@ -63753,17 +63771,17 @@
       <c r="Q433" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S433" s="2" t="s">
-        <v>45</v>
+      <c r="R433" s="2">
+        <v>2005</v>
+      </c>
+      <c r="S433" s="2">
+        <v>2005</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U433" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V433" s="2" t="s">
         <v>49</v>
@@ -63775,13 +63793,13 @@
         <v>49</v>
       </c>
       <c r="Y433" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z433" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA433" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB433" s="2" t="s">
         <v>45</v>
@@ -63790,16 +63808,16 @@
         <v>45</v>
       </c>
       <c r="AD433" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63822,44 +63840,44 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L434" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="C434" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D434" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E434" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H434" s="2" t="s">
+      <c r="M434" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="N434" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="I434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K434" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L434" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="M434" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="N434" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O434" s="2" t="s">
         <v>45</v>
       </c>
@@ -63870,10 +63888,10 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="S434" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="T434" s="2" t="s">
         <v>50</v>
@@ -63900,13 +63918,13 @@
         <v>59</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD434" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE434" s="2" t="s">
         <v>79</v>
@@ -63941,10 +63959,10 @@
         <v>1556</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>379</v>
+        <v>71</v>
       </c>
       <c r="D435" s="3">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>1557</v>
@@ -63953,7 +63971,7 @@
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="H435" s="2" t="s">
         <v>1558</v>
@@ -63968,13 +63986,13 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="N435" s="2" t="s">
-        <v>1559</v>
+        <v>45</v>
       </c>
       <c r="O435" s="2" t="s">
         <v>45</v>
@@ -63986,16 +64004,16 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S435" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U435" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V435" s="2" t="s">
         <v>49</v>
@@ -64013,7 +64031,7 @@
         <v>49</v>
       </c>
       <c r="AA435" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB435" s="2" t="s">
         <v>45</v>
@@ -64022,16 +64040,16 @@
         <v>45</v>
       </c>
       <c r="AD435" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH435" s="2" t="s">
         <v>45</v>
@@ -64054,26 +64072,26 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H436" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D436" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>1564</v>
-      </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
       </c>
@@ -64084,10 +64102,10 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="N436" s="2" t="s">
         <v>45</v>
@@ -64101,17 +64119,17 @@
       <c r="Q436" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R436" s="2">
-        <v>2022</v>
-      </c>
-      <c r="S436" s="2">
-        <v>2022</v>
+      <c r="R436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S436" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T436" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U436" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V436" s="2" t="s">
         <v>49</v>
@@ -64123,31 +64141,31 @@
         <v>49</v>
       </c>
       <c r="Y436" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z436" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA436" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB436" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64170,25 +64188,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1356</v>
+        <v>136</v>
       </c>
       <c r="D437" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64200,13 +64218,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64218,7 +64236,7 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>1956</v>
+        <v>2018</v>
       </c>
       <c r="S437" s="2">
         <v>2018</v>
@@ -64260,10 +64278,10 @@
         <v>79</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG437" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH437" s="2" t="s">
         <v>45</v>
@@ -64286,25 +64304,25 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="D438" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1570</v>
+        <v>1552</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="I438" s="2" t="s">
         <v>45</v>
@@ -64316,13 +64334,13 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>45</v>
+        <v>1566</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>45</v>
@@ -64337,13 +64355,13 @@
         <v>2017</v>
       </c>
       <c r="S438" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T438" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V438" s="2" t="s">
         <v>49</v>
@@ -64361,13 +64379,13 @@
         <v>49</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC438" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD438" s="2" t="s">
         <v>45</v>
@@ -64376,10 +64394,10 @@
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH438" s="2" t="s">
         <v>45</v>
@@ -64402,25 +64420,25 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D439" s="3">
         <v>2023</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>1493</v>
+        <v>1571</v>
       </c>
       <c r="I439" s="2" t="s">
         <v>45</v>
@@ -64432,10 +64450,10 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1577</v>
+        <v>1554</v>
       </c>
       <c r="M439" s="2" t="s">
-        <v>1576</v>
+        <v>1552</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>45</v>
@@ -64450,10 +64468,10 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="S439" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64483,19 +64501,19 @@
         <v>76</v>
       </c>
       <c r="AC439" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD439" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE439" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG439" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH439" s="2" t="s">
         <v>45</v>
@@ -64518,25 +64536,25 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>115</v>
+        <v>1356</v>
       </c>
       <c r="D440" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>1580</v>
+        <v>1552</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="I440" s="2" t="s">
         <v>45</v>
@@ -64548,13 +64566,13 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1582</v>
+        <v>1554</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1580</v>
+        <v>1552</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
@@ -64566,10 +64584,10 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2010</v>
+        <v>1956</v>
       </c>
       <c r="S440" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="T440" s="2" t="s">
         <v>50</v>
@@ -64596,22 +64614,22 @@
         <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC440" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD440" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE440" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG440" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH440" s="2" t="s">
         <v>45</v>
@@ -64634,25 +64652,25 @@
     </row>
     <row r="441" customHeight="1" spans="2:39">
       <c r="B441" s="2" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D441" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
@@ -64664,13 +64682,13 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1582</v>
+        <v>1554</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="N441" s="2" t="s">
-        <v>1586</v>
+        <v>45</v>
       </c>
       <c r="O441" s="2" t="s">
         <v>45</v>
@@ -64682,10 +64700,10 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="S441" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
@@ -64715,16 +64733,16 @@
         <v>45</v>
       </c>
       <c r="AC441" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>1587</v>
+        <v>80</v>
       </c>
       <c r="AG441" s="2" t="s">
         <v>81</v>
@@ -64750,40 +64768,40 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>129</v>
+        <v>1581</v>
       </c>
       <c r="D442" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E442" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L442" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="F442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H442" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K442" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L442" s="2" t="s">
-        <v>1582</v>
-      </c>
       <c r="M442" s="2" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="N442" s="2" t="s">
         <v>45</v>
@@ -64798,10 +64816,10 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="S442" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64828,22 +64846,22 @@
         <v>59</v>
       </c>
       <c r="AB442" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC442" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE442" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF442" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG442" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH442" s="2" t="s">
         <v>45</v>
@@ -64866,43 +64884,43 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L443" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D443" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E443" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F443" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G443" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H443" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I443" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="J443" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K443" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L443" s="2" t="s">
-        <v>1582</v>
-      </c>
       <c r="M443" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>1586</v>
+        <v>45</v>
       </c>
       <c r="O443" s="2" t="s">
         <v>45</v>
@@ -64914,10 +64932,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="S443" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64956,10 +64974,10 @@
         <v>79</v>
       </c>
       <c r="AF443" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG443" s="2" t="s">
-        <v>1453</v>
+        <v>81</v>
       </c>
       <c r="AH443" s="2" t="s">
         <v>45</v>
@@ -64982,28 +65000,28 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>342</v>
+        <v>71</v>
       </c>
       <c r="D444" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>1595</v>
+        <v>45</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>45</v>
@@ -65012,13 +65030,13 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>45</v>
+        <v>1593</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>45</v>
@@ -65030,10 +65048,10 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="S444" s="2">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
@@ -65060,19 +65078,19 @@
         <v>59</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>80</v>
+        <v>1594</v>
       </c>
       <c r="AG444" s="2" t="s">
         <v>81</v>
@@ -65096,24 +65114,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" customHeight="1" spans="3:39">
+    <row r="445" customHeight="1" spans="2:39">
+      <c r="B445" s="2" t="s">
+        <v>1595</v>
+      </c>
       <c r="C445" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D445" s="3">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="I445" s="2" t="s">
         <v>45</v>
@@ -65125,10 +65146,10 @@
         <v>45</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>45</v>
@@ -65143,16 +65164,16 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="S445" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U445" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V445" s="2" t="s">
         <v>49</v>
@@ -65176,7 +65197,7 @@
         <v>45</v>
       </c>
       <c r="AC445" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD445" s="2" t="s">
         <v>45</v>
@@ -65185,10 +65206,10 @@
         <v>45</v>
       </c>
       <c r="AF445" s="2" t="s">
-        <v>45</v>
+        <v>1137</v>
       </c>
       <c r="AG445" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH445" s="2" t="s">
         <v>45</v>
@@ -65209,42 +65230,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="446" customHeight="1" spans="3:39">
+    <row r="446" customHeight="1" spans="2:39">
+      <c r="B446" s="2" t="s">
+        <v>1596</v>
+      </c>
       <c r="C446" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I446" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="D446" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E446" s="2" t="s">
+      <c r="J446" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L446" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M446" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>45</v>
+        <v>1593</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65256,10 +65280,10 @@
         <v>45</v>
       </c>
       <c r="R446" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="S446" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T446" s="2" t="s">
         <v>50</v>
@@ -65289,19 +65313,19 @@
         <v>45</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE446" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF446" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>1302</v>
+        <v>1460</v>
       </c>
       <c r="AH446" s="2" t="s">
         <v>45</v>
@@ -65327,26 +65351,26 @@
         <v>1601</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1574</v>
+        <v>342</v>
       </c>
       <c r="D447" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H447" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I447" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="I447" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J447" s="2" t="s">
         <v>45</v>
       </c>
@@ -65354,13 +65378,13 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>1603</v>
+        <v>45</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>45</v>
@@ -65371,11 +65395,11 @@
       <c r="Q447" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S447" s="2" t="s">
-        <v>45</v>
+      <c r="R447" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S447" s="2">
+        <v>2016</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65405,16 +65429,16 @@
         <v>76</v>
       </c>
       <c r="AC447" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE447" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AG447" s="2" t="s">
         <v>81</v>
@@ -65438,28 +65462,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="448" customHeight="1" spans="2:39">
-      <c r="B448" s="2" t="s">
+    <row r="448" customHeight="1" spans="3:39">
+      <c r="C448" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H448" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D448" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H448" s="2" t="s">
-        <v>1605</v>
-      </c>
       <c r="I448" s="2" t="s">
         <v>45</v>
       </c>
@@ -65470,10 +65491,10 @@
         <v>45</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M448" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>45</v>
@@ -65488,16 +65509,16 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="S448" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T448" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U448" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V448" s="2" t="s">
         <v>49</v>
@@ -65506,7 +65527,7 @@
         <v>49</v>
       </c>
       <c r="X448" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y448" s="2" t="s">
         <v>49</v>
@@ -65524,16 +65545,16 @@
         <v>45</v>
       </c>
       <c r="AD448" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF448" s="2" t="s">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH448" s="2" t="s">
         <v>45</v>
@@ -65554,27 +65575,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="2:39">
-      <c r="B449" s="2" t="s">
-        <v>1606</v>
-      </c>
+    <row r="449" customHeight="1" spans="3:39">
       <c r="C449" s="2" t="s">
-        <v>379</v>
+        <v>1605</v>
       </c>
       <c r="D449" s="3">
         <v>2020</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>45</v>
@@ -65586,10 +65604,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65604,16 +65622,16 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="S449" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U449" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V449" s="2" t="s">
         <v>49</v>
@@ -65631,13 +65649,13 @@
         <v>49</v>
       </c>
       <c r="AA449" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC449" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD449" s="2" t="s">
         <v>45</v>
@@ -65646,10 +65664,10 @@
         <v>45</v>
       </c>
       <c r="AF449" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG449" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH449" s="2" t="s">
         <v>45</v>
@@ -65672,44 +65690,44 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N450" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D450" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="H450" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L450" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="M450" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="N450" s="2" t="s">
-        <v>1613</v>
-      </c>
       <c r="O450" s="2" t="s">
         <v>45</v>
       </c>
@@ -65719,17 +65737,17 @@
       <c r="Q450" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R450" s="2">
-        <v>2007</v>
-      </c>
-      <c r="S450" s="2">
-        <v>2017</v>
+      <c r="R450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S450" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T450" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65750,22 +65768,22 @@
         <v>59</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC450" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD450" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE450" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>45</v>
@@ -65788,25 +65806,25 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="D451" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1584</v>
+        <v>1606</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="I451" s="2" t="s">
         <v>45</v>
@@ -65818,10 +65836,10 @@
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>45</v>
@@ -65836,13 +65854,13 @@
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="S451" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="T451" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U451" s="2" t="s">
         <v>50</v>
@@ -65854,7 +65872,7 @@
         <v>49</v>
       </c>
       <c r="X451" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y451" s="2" t="s">
         <v>49</v>
@@ -65869,22 +65887,22 @@
         <v>45</v>
       </c>
       <c r="AC451" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD451" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG451" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH451" s="2" t="s">
-        <v>1616</v>
+        <v>45</v>
       </c>
       <c r="AI451" s="2" t="s">
         <v>45</v>
@@ -65904,25 +65922,25 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1392</v>
+        <v>379</v>
       </c>
       <c r="D452" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1584</v>
+        <v>1613</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="I452" s="2" t="s">
         <v>45</v>
@@ -65934,10 +65952,10 @@
         <v>45</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="N452" s="2" t="s">
         <v>45</v>
@@ -65952,16 +65970,16 @@
         <v>45</v>
       </c>
       <c r="R452" s="2">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="S452" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T452" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U452" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V452" s="2" t="s">
         <v>49</v>
@@ -65985,7 +66003,7 @@
         <v>45</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD452" s="2" t="s">
         <v>45</v>
@@ -65994,10 +66012,10 @@
         <v>45</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>45</v>
@@ -66020,44 +66038,44 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M453" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N453" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D453" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H453" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L453" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="M453" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="N453" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O453" s="2" t="s">
         <v>45</v>
       </c>
@@ -66068,16 +66086,16 @@
         <v>45</v>
       </c>
       <c r="R453" s="2">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="S453" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="T453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>49</v>
@@ -66095,7 +66113,7 @@
         <v>49</v>
       </c>
       <c r="AA453" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB453" s="2" t="s">
         <v>45</v>
@@ -66104,19 +66122,19 @@
         <v>45</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH453" s="2" t="s">
-        <v>1621</v>
+        <v>45</v>
       </c>
       <c r="AI453" s="2" t="s">
         <v>45</v>
@@ -66136,25 +66154,25 @@
     </row>
     <row r="454" customHeight="1" spans="2:39">
       <c r="B454" s="2" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D454" s="3">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1623</v>
+        <v>1591</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1624</v>
+        <v>1587</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="I454" s="2" t="s">
         <v>45</v>
@@ -66166,10 +66184,10 @@
         <v>45</v>
       </c>
       <c r="L454" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1624</v>
+        <v>1587</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>45</v>
@@ -66184,10 +66202,10 @@
         <v>45</v>
       </c>
       <c r="R454" s="2">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="S454" s="2">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="T454" s="2" t="s">
         <v>50</v>
@@ -66214,10 +66232,10 @@
         <v>59</v>
       </c>
       <c r="AB454" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC454" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD454" s="2" t="s">
         <v>45</v>
@@ -66229,10 +66247,10 @@
         <v>91</v>
       </c>
       <c r="AG454" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH454" s="2" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="AI454" s="2" t="s">
         <v>45</v>
@@ -66252,25 +66270,25 @@
     </row>
     <row r="455" customHeight="1" spans="2:39">
       <c r="B455" s="2" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D455" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1628</v>
+        <v>1591</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>1416</v>
+        <v>1587</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>45</v>
@@ -66282,13 +66300,13 @@
         <v>45</v>
       </c>
       <c r="L455" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="M455" s="2" t="s">
-        <v>1630</v>
+        <v>1587</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>1631</v>
+        <v>45</v>
       </c>
       <c r="O455" s="2" t="s">
         <v>45</v>
@@ -66300,16 +66318,16 @@
         <v>45</v>
       </c>
       <c r="R455" s="2">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="S455" s="2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="T455" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U455" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V455" s="2" t="s">
         <v>49</v>
@@ -66333,7 +66351,7 @@
         <v>45</v>
       </c>
       <c r="AC455" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD455" s="2" t="s">
         <v>45</v>
@@ -66342,10 +66360,10 @@
         <v>45</v>
       </c>
       <c r="AF455" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG455" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH455" s="2" t="s">
         <v>45</v>
@@ -66368,64 +66386,64 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D456" s="3">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1633</v>
+        <v>1591</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>1634</v>
+        <v>1587</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>1636</v>
+        <v>45</v>
       </c>
       <c r="J456" s="2" t="s">
-        <v>1637</v>
+        <v>45</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L456" s="2" t="s">
-        <v>1638</v>
+        <v>1589</v>
       </c>
       <c r="M456" s="2" t="s">
-        <v>1634</v>
+        <v>1587</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>1639</v>
+        <v>45</v>
       </c>
       <c r="O456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P456" s="2" t="s">
-        <v>1639</v>
+        <v>45</v>
       </c>
       <c r="Q456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R456" s="2">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="S456" s="2">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U456" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V456" s="2" t="s">
         <v>49</v>
@@ -66443,28 +66461,28 @@
         <v>49</v>
       </c>
       <c r="AA456" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB456" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD456" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF456" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG456" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH456" s="2" t="s">
-        <v>45</v>
+        <v>1627</v>
       </c>
       <c r="AI456" s="2" t="s">
         <v>45</v>
@@ -66484,25 +66502,25 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D457" s="3">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>1597</v>
+        <v>1630</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>45</v>
@@ -66514,10 +66532,10 @@
         <v>45</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>1638</v>
+        <v>1589</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>45</v>
@@ -66531,17 +66549,17 @@
       <c r="Q457" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R457" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S457" s="2" t="s">
-        <v>45</v>
+      <c r="R457" s="2">
+        <v>1999</v>
+      </c>
+      <c r="S457" s="2">
+        <v>2010</v>
       </c>
       <c r="T457" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U457" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V457" s="2" t="s">
         <v>49</v>
@@ -66553,19 +66571,19 @@
         <v>49</v>
       </c>
       <c r="Y457" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z457" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA457" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB457" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC457" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD457" s="2" t="s">
         <v>45</v>
@@ -66574,13 +66592,13 @@
         <v>45</v>
       </c>
       <c r="AF457" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG457" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH457" s="2" t="s">
-        <v>45</v>
+        <v>1632</v>
       </c>
       <c r="AI457" s="2" t="s">
         <v>45</v>
@@ -66600,64 +66618,64 @@
     </row>
     <row r="458" customHeight="1" spans="2:39">
       <c r="B458" s="2" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D458" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M458" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N458" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="O458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q458" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R458" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S458" s="2">
         <v>2019</v>
       </c>
-      <c r="E458" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G458" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H458" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="I458" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M458" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="N458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q458" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R458" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S458" s="2">
-        <v>2018</v>
-      </c>
       <c r="T458" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>49</v>
@@ -66675,13 +66693,13 @@
         <v>49</v>
       </c>
       <c r="AA458" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC458" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD458" s="2" t="s">
         <v>45</v>
@@ -66690,10 +66708,10 @@
         <v>45</v>
       </c>
       <c r="AF458" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG458" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH458" s="2" t="s">
         <v>45</v>
@@ -66716,64 +66734,64 @@
     </row>
     <row r="459" customHeight="1" spans="2:39">
       <c r="B459" s="2" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D459" s="3">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>1591</v>
+        <v>1642</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>45</v>
+        <v>1643</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>45</v>
+        <v>1644</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P459" s="2" t="s">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="Q459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R459" s="2">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="S459" s="2">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="T459" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U459" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V459" s="2" t="s">
         <v>49</v>
@@ -66794,10 +66812,10 @@
         <v>59</v>
       </c>
       <c r="AB459" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC459" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD459" s="2" t="s">
         <v>45</v>
@@ -66806,10 +66824,10 @@
         <v>45</v>
       </c>
       <c r="AF459" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG459" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH459" s="2" t="s">
         <v>45</v>
@@ -66832,25 +66850,25 @@
     </row>
     <row r="460" customHeight="1" spans="2:39">
       <c r="B460" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D460" s="3">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1652</v>
+        <v>1423</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="I460" s="2" t="s">
         <v>45</v>
@@ -66862,10 +66880,10 @@
         <v>45</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="N460" s="2" t="s">
         <v>45</v>
@@ -66879,17 +66897,17 @@
       <c r="Q460" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R460" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S460" s="2">
-        <v>2011</v>
+      <c r="R460" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S460" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T460" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U460" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V460" s="2" t="s">
         <v>49</v>
@@ -66901,19 +66919,19 @@
         <v>49</v>
       </c>
       <c r="Y460" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z460" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA460" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB460" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AC460" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD460" s="2" t="s">
         <v>45</v>
@@ -66922,10 +66940,10 @@
         <v>45</v>
       </c>
       <c r="AF460" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG460" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH460" s="2" t="s">
         <v>45</v>
@@ -66948,28 +66966,28 @@
     </row>
     <row r="461" customHeight="1" spans="2:39">
       <c r="B461" s="2" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1656</v>
+        <v>115</v>
       </c>
       <c r="D461" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1657</v>
+        <v>1597</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1658</v>
+        <v>1358</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>45</v>
+        <v>1598</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>45</v>
@@ -66978,10 +66996,10 @@
         <v>45</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>1660</v>
+        <v>45</v>
       </c>
       <c r="M461" s="2" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="N461" s="2" t="s">
         <v>45</v>
@@ -66996,16 +67014,16 @@
         <v>45</v>
       </c>
       <c r="R461" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="S461" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="T461" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U461" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V461" s="2" t="s">
         <v>49</v>
@@ -67023,13 +67041,13 @@
         <v>49</v>
       </c>
       <c r="AA461" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC461" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD461" s="2" t="s">
         <v>45</v>
@@ -67038,10 +67056,10 @@
         <v>45</v>
       </c>
       <c r="AF461" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG461" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH461" s="2" t="s">
         <v>45</v>
@@ -67064,28 +67082,28 @@
     </row>
     <row r="462" customHeight="1" spans="2:39">
       <c r="B462" s="2" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D462" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>1597</v>
+        <v>1652</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>45</v>
+        <v>1598</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>45</v>
@@ -67094,13 +67112,13 @@
         <v>45</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>1660</v>
+        <v>45</v>
       </c>
       <c r="M462" s="2" t="s">
-        <v>1597</v>
+        <v>1652</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>1664</v>
+        <v>45</v>
       </c>
       <c r="O462" s="2" t="s">
         <v>45</v>
@@ -67112,16 +67130,16 @@
         <v>45</v>
       </c>
       <c r="R462" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="S462" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T462" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V462" s="2" t="s">
         <v>49</v>
@@ -67139,13 +67157,13 @@
         <v>49</v>
       </c>
       <c r="AA462" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB462" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC462" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD462" s="2" t="s">
         <v>45</v>
@@ -67154,10 +67172,10 @@
         <v>45</v>
       </c>
       <c r="AF462" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG462" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH462" s="2" t="s">
         <v>45</v>
@@ -67180,16 +67198,16 @@
     </row>
     <row r="463" customHeight="1" spans="2:39">
       <c r="B463" s="2" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1656</v>
+        <v>71</v>
       </c>
       <c r="D463" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>45</v>
@@ -67198,7 +67216,7 @@
         <v>1658</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="I463" s="2" t="s">
         <v>45</v>
@@ -67216,7 +67234,7 @@
         <v>1658</v>
       </c>
       <c r="N463" s="2" t="s">
-        <v>1668</v>
+        <v>45</v>
       </c>
       <c r="O463" s="2" t="s">
         <v>45</v>
@@ -67228,10 +67246,10 @@
         <v>45</v>
       </c>
       <c r="R463" s="2">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="S463" s="2">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="T463" s="2" t="s">
         <v>50</v>
@@ -67261,10 +67279,10 @@
         <v>76</v>
       </c>
       <c r="AC463" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD463" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE463" s="2" t="s">
         <v>45</v>
@@ -67296,122 +67314,470 @@
     </row>
     <row r="464" customHeight="1" spans="2:39">
       <c r="B464" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L464" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M464" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R464" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S464" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T464" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z464" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL464" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM464" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" customHeight="1" spans="2:39">
+      <c r="B465" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H465" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D464" s="3">
+      <c r="I465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L465" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M465" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N465" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="O465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R465" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S465" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T465" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z465" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL465" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM465" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="466" customHeight="1" spans="2:39">
+      <c r="B466" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L466" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M466" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N466" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R466" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S466" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T466" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U466" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V466" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W466" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X466" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y466" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z466" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA466" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB466" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC466" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD466" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF466" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG466" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM466" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" customHeight="1" spans="2:39">
+      <c r="B467" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D467" s="3">
         <v>2024</v>
       </c>
-      <c r="E464" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="F464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G464" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="H464" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="I464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L464" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="M464" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="N464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R464" s="2">
+      <c r="E467" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L467" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M467" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="N467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R467" s="2">
         <v>2023</v>
       </c>
-      <c r="S464" s="2">
+      <c r="S467" s="2">
         <v>2023</v>
       </c>
-      <c r="T464" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z464" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL464" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM464" s="2" t="s">
+      <c r="T467" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z467" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL467" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM467" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM464">
+  <autoFilter ref="A1:AM467">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28230" windowHeight="5872"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$469</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16367" uniqueCount="1682">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11792,6 +11792,12 @@
     <t>Thomas Scott</t>
   </si>
   <si>
+    <t>Fine scale spatiotemporal clustering of dengue virus transmission in children and Aedes aegypti in rural Thai village</t>
+  </si>
+  <si>
+    <t>In-Kyu Yoon</t>
+  </si>
+  <si>
     <t>Frequent in-migration and highly focal transmission of dengue viruses among children in Kamphaeng Phet, Thailand</t>
   </si>
   <si>
@@ -11799,6 +11805,12 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Molecular evolution and epidemiology of four serotypes of dengue virus in Thailand from 1973 to 2007</t>
+  </si>
+  <si>
+    <t>S.P. Chen</t>
   </si>
   <si>
     <t>Emergence of genotype cosmopolitan of dengue virus type 2 and genotype III of dengue virus type 3 in Thailand</t>
@@ -12580,11 +12592,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13069,19 +13081,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13224,7 +13236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13233,7 +13245,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13764,25 +13776,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM467"/>
+  <dimension ref="A1:AM469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF379" sqref="AF379"/>
+      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -58296,19 +58308,19 @@
         <v>129</v>
       </c>
       <c r="D386" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E386" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H386" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="H386" s="2" t="s">
-        <v>1407</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>45</v>
@@ -58326,7 +58338,7 @@
         <v>991</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>1408</v>
+        <v>45</v>
       </c>
       <c r="O386" s="2" t="s">
         <v>45</v>
@@ -58347,13 +58359,13 @@
         <v>50</v>
       </c>
       <c r="U386" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V386" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W386" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X386" s="2" t="s">
         <v>49</v>
@@ -58368,22 +58380,22 @@
         <v>59</v>
       </c>
       <c r="AB386" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC386" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD386" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE386" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF386" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG386" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH386" s="2" t="s">
         <v>45</v>
@@ -58398,7 +58410,7 @@
         <v>45</v>
       </c>
       <c r="AL386" s="2" t="s">
-        <v>45</v>
+        <v>1071</v>
       </c>
       <c r="AM386" s="2" t="s">
         <v>45</v>
@@ -58406,25 +58418,25 @@
     </row>
     <row r="387" customHeight="1" spans="2:39">
       <c r="B387" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E387" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D387" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>989</v>
-      </c>
       <c r="F387" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>991</v>
+        <v>1421</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>1388</v>
+        <v>1407</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>45</v>
@@ -58442,7 +58454,7 @@
         <v>991</v>
       </c>
       <c r="N387" s="2" t="s">
-        <v>45</v>
+        <v>1408</v>
       </c>
       <c r="O387" s="2" t="s">
         <v>45</v>
@@ -58454,10 +58466,10 @@
         <v>45</v>
       </c>
       <c r="R387" s="2">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="S387" s="2">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>50</v>
@@ -58496,10 +58508,10 @@
         <v>79</v>
       </c>
       <c r="AF387" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG387" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH387" s="2" t="s">
         <v>45</v>
@@ -58522,25 +58534,25 @@
     </row>
     <row r="388" customHeight="1" spans="2:39">
       <c r="B388" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="D388" s="3">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1422</v>
+        <v>110</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>45</v>
+        <v>563</v>
       </c>
       <c r="G388" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H388" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>1424</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>45</v>
@@ -58570,13 +58582,13 @@
         <v>45</v>
       </c>
       <c r="R388" s="2">
-        <v>2015</v>
+        <v>1973</v>
       </c>
       <c r="S388" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="T388" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U388" s="2" t="s">
         <v>50</v>
@@ -58600,22 +58612,22 @@
         <v>59</v>
       </c>
       <c r="AB388" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC388" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD388" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE388" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF388" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG388" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH388" s="2" t="s">
         <v>45</v>
@@ -58638,25 +58650,25 @@
     </row>
     <row r="389" customHeight="1" spans="2:39">
       <c r="B389" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>588</v>
+        <v>89</v>
       </c>
       <c r="D389" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1426</v>
+        <v>989</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1427</v>
+        <v>991</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>335</v>
+        <v>1388</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>45</v>
@@ -58686,7 +58698,7 @@
         <v>45</v>
       </c>
       <c r="R389" s="2">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="S389" s="2">
         <v>2017</v>
@@ -58695,7 +58707,7 @@
         <v>50</v>
       </c>
       <c r="U389" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V389" s="2" t="s">
         <v>49</v>
@@ -58716,22 +58728,22 @@
         <v>59</v>
       </c>
       <c r="AB389" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC389" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF389" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG389" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH389" s="2" t="s">
         <v>45</v>
@@ -58754,25 +58766,25 @@
     </row>
     <row r="390" customHeight="1" spans="2:39">
       <c r="B390" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H390" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D390" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="H390" s="2" t="s">
-        <v>1430</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58805,7 +58817,7 @@
         <v>2015</v>
       </c>
       <c r="S390" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T390" s="2" t="s">
         <v>50</v>
@@ -58817,7 +58829,7 @@
         <v>49</v>
       </c>
       <c r="W390" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X390" s="2" t="s">
         <v>49</v>
@@ -58835,16 +58847,16 @@
         <v>76</v>
       </c>
       <c r="AC390" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD390" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE390" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF390" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG390" s="2" t="s">
         <v>81</v>
@@ -58870,25 +58882,25 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>333</v>
+        <v>588</v>
       </c>
       <c r="D391" s="3">
         <v>2020</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>1434</v>
+        <v>335</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58918,10 +58930,10 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="S391" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
@@ -58942,7 +58954,7 @@
         <v>49</v>
       </c>
       <c r="Z391" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA391" s="2" t="s">
         <v>59</v>
@@ -58986,16 +58998,16 @@
     </row>
     <row r="392" customHeight="1" spans="2:39">
       <c r="B392" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1345</v>
+        <v>177</v>
       </c>
       <c r="D392" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>989</v>
+        <v>1433</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>45</v>
@@ -59004,10 +59016,10 @@
         <v>991</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>1388</v>
+        <v>45</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>45</v>
@@ -59022,7 +59034,7 @@
         <v>991</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>1402</v>
+        <v>45</v>
       </c>
       <c r="O392" s="2" t="s">
         <v>45</v>
@@ -59034,10 +59046,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="S392" s="2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -59049,7 +59061,7 @@
         <v>49</v>
       </c>
       <c r="W392" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X392" s="2" t="s">
         <v>49</v>
@@ -59067,13 +59079,13 @@
         <v>76</v>
       </c>
       <c r="AC392" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD392" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE392" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF392" s="2" t="s">
         <v>91</v>
@@ -59102,22 +59114,22 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D393" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>1438</v>
@@ -59150,16 +59162,16 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="S393" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U393" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V393" s="2" t="s">
         <v>49</v>
@@ -59174,28 +59186,28 @@
         <v>49</v>
       </c>
       <c r="Z393" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA393" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD393" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE393" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF393" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG393" s="2">
-        <v>454</v>
+        <v>45</v>
+      </c>
+      <c r="AG393" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59221,25 +59233,25 @@
         <v>1439</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1440</v>
+        <v>1345</v>
       </c>
       <c r="D394" s="3">
         <v>2021</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1441</v>
+        <v>989</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1358</v>
+        <v>991</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>45</v>
+        <v>1388</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>45</v>
@@ -59254,7 +59266,7 @@
         <v>991</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>45</v>
@@ -59266,10 +59278,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>1994</v>
+        <v>2018</v>
       </c>
       <c r="S394" s="2">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59281,7 +59293,7 @@
         <v>49</v>
       </c>
       <c r="W394" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X394" s="2" t="s">
         <v>49</v>
@@ -59311,7 +59323,7 @@
         <v>91</v>
       </c>
       <c r="AG394" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH394" s="2" t="s">
         <v>45</v>
@@ -59334,28 +59346,28 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1356</v>
+        <v>115</v>
       </c>
       <c r="D395" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1444</v>
+        <v>1400</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>1419</v>
+        <v>991</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>1446</v>
+        <v>45</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>45</v>
@@ -59370,7 +59382,7 @@
         <v>991</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>1402</v>
+        <v>45</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>45</v>
@@ -59382,10 +59394,10 @@
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="S395" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="T395" s="2" t="s">
         <v>50</v>
@@ -59426,8 +59438,8 @@
       <c r="AF395" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG395" s="2" t="s">
-        <v>396</v>
+      <c r="AG395" s="2">
+        <v>454</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59450,25 +59462,25 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D396" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>991</v>
+        <v>1358</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59498,22 +59510,22 @@
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="S396" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U396" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V396" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W396" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X396" s="2" t="s">
         <v>49</v>
@@ -59522,28 +59534,28 @@
         <v>49</v>
       </c>
       <c r="Z396" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA396" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB396" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC396" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD396" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE396" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF396" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59566,28 +59578,28 @@
     </row>
     <row r="397" customHeight="1" spans="2:39">
       <c r="B397" s="2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>115</v>
+        <v>1356</v>
       </c>
       <c r="D397" s="3">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1426</v>
+        <v>1448</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>1362</v>
+        <v>1449</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>45</v>
+        <v>1450</v>
       </c>
       <c r="J397" s="2" t="s">
         <v>45</v>
@@ -59599,10 +59611,10 @@
         <v>46</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1452</v>
+        <v>991</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O397" s="2" t="s">
         <v>45</v>
@@ -59614,10 +59626,10 @@
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="S397" s="2">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
@@ -59656,10 +59668,10 @@
         <v>79</v>
       </c>
       <c r="AF397" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG397" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH397" s="2" t="s">
         <v>45</v>
@@ -59682,25 +59694,25 @@
     </row>
     <row r="398" customHeight="1" spans="2:39">
       <c r="B398" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E398" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="F398" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H398" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="D398" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="I398" s="2" t="s">
         <v>45</v>
@@ -59715,7 +59727,7 @@
         <v>46</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1452</v>
+        <v>991</v>
       </c>
       <c r="N398" s="2" t="s">
         <v>45</v>
@@ -59730,16 +59742,16 @@
         <v>45</v>
       </c>
       <c r="R398" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="S398" s="2">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U398" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V398" s="2" t="s">
         <v>49</v>
@@ -59754,13 +59766,13 @@
         <v>49</v>
       </c>
       <c r="Z398" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA398" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB398" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC398" s="2" t="s">
         <v>45</v>
@@ -59772,10 +59784,10 @@
         <v>45</v>
       </c>
       <c r="AF398" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59801,22 +59813,22 @@
         <v>1455</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="D399" s="3">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1370</v>
+        <v>1430</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1371</v>
+        <v>1431</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>1456</v>
+        <v>1362</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>45</v>
@@ -59831,7 +59843,7 @@
         <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>45</v>
@@ -59846,10 +59858,10 @@
         <v>45</v>
       </c>
       <c r="R399" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="S399" s="2">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
@@ -59882,7 +59894,7 @@
         <v>77</v>
       </c>
       <c r="AD399" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE399" s="2" t="s">
         <v>79</v>
@@ -59917,22 +59929,22 @@
         <v>1457</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>327</v>
+        <v>1458</v>
       </c>
       <c r="D400" s="3">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1370</v>
+        <v>1430</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1371</v>
+        <v>1431</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>1456</v>
+        <v>1401</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>45</v>
@@ -59947,7 +59959,7 @@
         <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>45</v>
@@ -59962,10 +59974,10 @@
         <v>45</v>
       </c>
       <c r="R400" s="2">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="S400" s="2">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="T400" s="2" t="s">
         <v>50</v>
@@ -59995,7 +60007,7 @@
         <v>76</v>
       </c>
       <c r="AC400" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD400" s="2" t="s">
         <v>45</v>
@@ -60030,13 +60042,13 @@
     </row>
     <row r="401" customHeight="1" spans="2:39">
       <c r="B401" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="D401" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>1370</v>
@@ -60048,7 +60060,7 @@
         <v>1371</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>45</v>
@@ -60063,10 +60075,10 @@
         <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1459</v>
+        <v>45</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
@@ -60078,10 +60090,10 @@
         <v>45</v>
       </c>
       <c r="R401" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="S401" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
@@ -60111,19 +60123,19 @@
         <v>76</v>
       </c>
       <c r="AC401" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE401" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG401" s="2" t="s">
-        <v>1460</v>
+        <v>81</v>
       </c>
       <c r="AH401" s="2" t="s">
         <v>45</v>
@@ -60148,8 +60160,11 @@
       <c r="B402" s="2" t="s">
         <v>1461</v>
       </c>
+      <c r="C402" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="D402" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>1370</v>
@@ -60161,13 +60176,13 @@
         <v>1371</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>1463</v>
+        <v>45</v>
       </c>
       <c r="J402" s="2" t="s">
-        <v>1464</v>
+        <v>45</v>
       </c>
       <c r="K402" s="2" t="s">
         <v>45</v>
@@ -60176,10 +60191,10 @@
         <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N402" s="2" t="s">
-        <v>1465</v>
+        <v>45</v>
       </c>
       <c r="O402" s="2" t="s">
         <v>45</v>
@@ -60191,10 +60206,10 @@
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="S402" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
@@ -60227,13 +60242,13 @@
         <v>77</v>
       </c>
       <c r="AD402" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE402" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF402" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG402" s="2" t="s">
         <v>81</v>
@@ -60259,13 +60274,13 @@
     </row>
     <row r="403" customHeight="1" spans="2:39">
       <c r="B403" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1467</v>
+        <v>89</v>
       </c>
       <c r="D403" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>1370</v>
@@ -60277,7 +60292,7 @@
         <v>1371</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60292,10 +60307,10 @@
         <v>46</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>45</v>
+        <v>1463</v>
       </c>
       <c r="O403" s="2" t="s">
         <v>45</v>
@@ -60307,10 +60322,10 @@
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="S403" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
@@ -60352,7 +60367,7 @@
         <v>91</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60375,31 +60390,28 @@
     </row>
     <row r="404" customHeight="1" spans="2:39">
       <c r="B404" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>129</v>
+        <v>1465</v>
       </c>
       <c r="D404" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>989</v>
+        <v>1370</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>45</v>
+        <v>1467</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>45</v>
+        <v>1468</v>
       </c>
       <c r="K404" s="2" t="s">
         <v>45</v>
@@ -60408,10 +60420,10 @@
         <v>46</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>45</v>
+        <v>1469</v>
       </c>
       <c r="O404" s="2" t="s">
         <v>45</v>
@@ -60423,16 +60435,16 @@
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="S404" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U404" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V404" s="2" t="s">
         <v>49</v>
@@ -60450,25 +60462,25 @@
         <v>49</v>
       </c>
       <c r="AA404" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB404" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD404" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE404" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG404" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH404" s="2" t="s">
         <v>45</v>
@@ -60491,25 +60503,25 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D405" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E405" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>1472</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>1474</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>45</v>
@@ -60524,7 +60536,7 @@
         <v>46</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>45</v>
@@ -60539,10 +60551,10 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="S405" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60569,22 +60581,22 @@
         <v>59</v>
       </c>
       <c r="AB405" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC405" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD405" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE405" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF405" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG405" s="2" t="s">
-        <v>81</v>
+        <v>1464</v>
       </c>
       <c r="AH405" s="2" t="s">
         <v>45</v>
@@ -60607,22 +60619,22 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D406" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1472</v>
+        <v>989</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1473</v>
+        <v>991</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>1474</v>
@@ -60640,7 +60652,7 @@
         <v>46</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>45</v>
@@ -60655,16 +60667,16 @@
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="S406" s="2">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U406" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V406" s="2" t="s">
         <v>49</v>
@@ -60682,10 +60694,10 @@
         <v>49</v>
       </c>
       <c r="AA406" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC406" s="2" t="s">
         <v>45</v>
@@ -60697,10 +60709,10 @@
         <v>45</v>
       </c>
       <c r="AF406" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG406" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH406" s="2" t="s">
         <v>45</v>
@@ -60723,25 +60735,25 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E407" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D407" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>1472</v>
-      </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60756,7 +60768,7 @@
         <v>46</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="N407" s="2" t="s">
         <v>45</v>
@@ -60771,16 +60783,16 @@
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="S407" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U407" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V407" s="2" t="s">
         <v>49</v>
@@ -60798,25 +60810,25 @@
         <v>49</v>
       </c>
       <c r="AA407" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD407" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF407" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60839,25 +60851,25 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D408" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1481</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>45</v>
@@ -60872,10 +60884,10 @@
         <v>46</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>1482</v>
+        <v>45</v>
       </c>
       <c r="O408" s="2" t="s">
         <v>45</v>
@@ -60887,10 +60899,10 @@
         <v>45</v>
       </c>
       <c r="R408" s="2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="S408" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="T408" s="2" t="s">
         <v>50</v>
@@ -60917,19 +60929,19 @@
         <v>59</v>
       </c>
       <c r="AB408" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD408" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE408" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF408" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG408" s="2" t="s">
         <v>81</v>
@@ -60955,25 +60967,25 @@
     </row>
     <row r="409" customHeight="1" spans="2:39">
       <c r="B409" s="2" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1383</v>
+        <v>115</v>
       </c>
       <c r="D409" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1371</v>
+        <v>1477</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>45</v>
@@ -60988,7 +61000,7 @@
         <v>46</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>45</v>
@@ -61003,7 +61015,7 @@
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="S409" s="2">
         <v>2013</v>
@@ -61012,7 +61024,7 @@
         <v>50</v>
       </c>
       <c r="U409" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V409" s="2" t="s">
         <v>49</v>
@@ -61030,25 +61042,25 @@
         <v>49</v>
       </c>
       <c r="AA409" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC409" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -61071,25 +61083,25 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D410" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="I410" s="2" t="s">
         <v>45</v>
@@ -61104,10 +61116,10 @@
         <v>46</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>45</v>
+        <v>1486</v>
       </c>
       <c r="O410" s="2" t="s">
         <v>45</v>
@@ -61119,10 +61131,10 @@
         <v>45</v>
       </c>
       <c r="R410" s="2">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="S410" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
@@ -61149,22 +61161,22 @@
         <v>59</v>
       </c>
       <c r="AB410" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC410" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD410" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE410" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG410" s="2" t="s">
-        <v>1460</v>
+        <v>81</v>
       </c>
       <c r="AH410" s="2" t="s">
         <v>45</v>
@@ -61187,25 +61199,25 @@
     </row>
     <row r="411" customHeight="1" spans="2:39">
       <c r="B411" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H411" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D411" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>1490</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>45</v>
@@ -61220,7 +61232,7 @@
         <v>46</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>45</v>
@@ -61235,10 +61247,10 @@
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="S411" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T411" s="2" t="s">
         <v>50</v>
@@ -61271,7 +61283,7 @@
         <v>77</v>
       </c>
       <c r="AD411" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE411" s="2" t="s">
         <v>45</v>
@@ -61303,25 +61315,25 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E412" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="F412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H412" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="D412" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>1490</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>45</v>
@@ -61336,7 +61348,7 @@
         <v>46</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>45</v>
@@ -61351,10 +61363,10 @@
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="S412" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
@@ -61381,22 +61393,22 @@
         <v>59</v>
       </c>
       <c r="AB412" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC412" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD412" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE412" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF412" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG412" s="2" t="s">
-        <v>81</v>
+        <v>1464</v>
       </c>
       <c r="AH412" s="2" t="s">
         <v>45</v>
@@ -61411,7 +61423,7 @@
         <v>45</v>
       </c>
       <c r="AL412" s="2" t="s">
-        <v>1493</v>
+        <v>45</v>
       </c>
       <c r="AM412" s="2" t="s">
         <v>45</v>
@@ -61419,25 +61431,25 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H413" s="2" t="s">
         <v>1494</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D413" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>1490</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>45</v>
@@ -61452,7 +61464,7 @@
         <v>46</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="N413" s="2" t="s">
         <v>45</v>
@@ -61467,10 +61479,10 @@
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="S413" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
@@ -61497,10 +61509,10 @@
         <v>59</v>
       </c>
       <c r="AB413" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC413" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD413" s="2" t="s">
         <v>45</v>
@@ -61538,22 +61550,22 @@
         <v>1495</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>115</v>
+        <v>1496</v>
       </c>
       <c r="D414" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1433</v>
+        <v>1484</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>45</v>
@@ -61565,28 +61577,28 @@
         <v>45</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>1498</v>
+        <v>46</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>1433</v>
+        <v>1484</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>1433</v>
+        <v>45</v>
       </c>
       <c r="O414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>1433</v>
+        <v>45</v>
       </c>
       <c r="Q414" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R414" s="2">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="S414" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
@@ -61613,13 +61625,13 @@
         <v>59</v>
       </c>
       <c r="AB414" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC414" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE414" s="2" t="s">
         <v>79</v>
@@ -61643,30 +61655,33 @@
         <v>45</v>
       </c>
       <c r="AL414" s="2" t="s">
-        <v>45</v>
+        <v>1497</v>
       </c>
       <c r="AM414" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="415" customHeight="1" spans="3:39">
+    <row r="415" customHeight="1" spans="2:39">
+      <c r="B415" s="2" t="s">
+        <v>1498</v>
+      </c>
       <c r="C415" s="2" t="s">
-        <v>61</v>
+        <v>1386</v>
       </c>
       <c r="D415" s="3">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1433</v>
+        <v>1484</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I415" s="2" t="s">
         <v>45</v>
@@ -61678,34 +61693,34 @@
         <v>45</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>1498</v>
+        <v>46</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>1433</v>
+        <v>1484</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>1433</v>
+        <v>45</v>
       </c>
       <c r="O415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P415" s="2" t="s">
-        <v>1433</v>
+        <v>45</v>
       </c>
       <c r="Q415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="S415" s="2">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U415" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V415" s="2" t="s">
         <v>49</v>
@@ -61723,10 +61738,10 @@
         <v>49</v>
       </c>
       <c r="AA415" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB415" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC415" s="2" t="s">
         <v>45</v>
@@ -61738,10 +61753,10 @@
         <v>45</v>
       </c>
       <c r="AF415" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG415" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH415" s="2" t="s">
         <v>45</v>
@@ -61762,24 +61777,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="3:39">
+    <row r="416" customHeight="1" spans="2:39">
+      <c r="B416" s="2" t="s">
+        <v>1499</v>
+      </c>
       <c r="C416" s="2" t="s">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="D416" s="3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="I416" s="2" t="s">
         <v>45</v>
@@ -61791,28 +61809,28 @@
         <v>45</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R416" s="2">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="S416" s="2">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61836,7 +61854,7 @@
         <v>49</v>
       </c>
       <c r="AA416" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB416" s="2" t="s">
         <v>76</v>
@@ -61851,10 +61869,10 @@
         <v>79</v>
       </c>
       <c r="AF416" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG416" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH416" s="2" t="s">
         <v>45</v>
@@ -61875,209 +61893,203 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="2:39">
-      <c r="B417" s="2" t="s">
-        <v>1499</v>
-      </c>
+    <row r="417" customHeight="1" spans="3:39">
       <c r="C417" s="2" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="D417" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M417" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N417" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P417" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Q417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R417" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S417" s="2">
+        <v>2009</v>
+      </c>
+      <c r="T417" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM417" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="418" customHeight="1" spans="3:39">
+      <c r="C418" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D418" s="3">
         <v>2016</v>
       </c>
-      <c r="E417" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H417" s="2" t="s">
+      <c r="E418" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="I417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L417" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M417" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="N417" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P417" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Q417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R417" s="2">
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Q418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R418" s="2">
         <v>2013</v>
       </c>
-      <c r="S417" s="2">
+      <c r="S418" s="2">
         <v>2014</v>
       </c>
-      <c r="T417" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U417" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA417" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB417" s="2" t="s">
+      <c r="T418" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U418" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z418" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB418" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF417" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG417" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM417" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="418" customHeight="1" spans="2:39">
-      <c r="B418" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D418" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H418" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="J418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L418" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M418" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="N418" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P418" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Q418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R418" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S418" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X418" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z418" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB418" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AC418" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD418" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE418" s="2" t="s">
         <v>79</v>
@@ -62107,24 +62119,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="419" customHeight="1" spans="3:39">
+    <row r="419" customHeight="1" spans="2:39">
+      <c r="B419" s="2" t="s">
+        <v>1503</v>
+      </c>
       <c r="C419" s="2" t="s">
-        <v>1505</v>
+        <v>342</v>
       </c>
       <c r="D419" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="I419" s="2" t="s">
         <v>45</v>
@@ -62136,28 +62151,28 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="Q419" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R419" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S419" s="2" t="s">
-        <v>45</v>
+      <c r="R419" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S419" s="2">
+        <v>2014</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62222,28 +62237,28 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D420" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1496</v>
+        <v>1506</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="H420" s="2" t="s">
         <v>1507</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>45</v>
+        <v>1508</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>45</v>
@@ -62252,31 +62267,31 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="S420" s="2">
         <v>2017</v>
       </c>
       <c r="T420" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U420" s="2" t="s">
         <v>49</v>
@@ -62288,7 +62303,7 @@
         <v>49</v>
       </c>
       <c r="X420" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y420" s="2" t="s">
         <v>49</v>
@@ -62309,7 +62324,7 @@
         <v>45</v>
       </c>
       <c r="AE420" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF420" s="2" t="s">
         <v>45</v>
@@ -62336,141 +62351,141 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" customHeight="1" spans="2:39">
-      <c r="B421" s="2" t="s">
-        <v>1508</v>
-      </c>
+    <row r="421" customHeight="1" spans="3:39">
       <c r="C421" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N421" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P421" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Q421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA421" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB421" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF421" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG421" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL421" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM421" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" customHeight="1" spans="2:39">
+      <c r="B422" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D421" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E421" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M421" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="N421" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Q421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R421" s="2">
-        <v>1960</v>
-      </c>
-      <c r="S421" s="2">
-        <v>2021</v>
-      </c>
-      <c r="T421" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z421" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM421" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="422" customHeight="1" spans="3:39">
-      <c r="C422" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D422" s="3">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H422" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>1512</v>
-      </c>
       <c r="I422" s="2" t="s">
         <v>45</v>
       </c>
@@ -62481,34 +62496,34 @@
         <v>45</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>1511</v>
+        <v>1437</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>1513</v>
+        <v>1437</v>
       </c>
       <c r="O422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P422" s="2" t="s">
-        <v>45</v>
+        <v>1437</v>
       </c>
       <c r="Q422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="S422" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U422" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V422" s="2" t="s">
         <v>49</v>
@@ -62526,13 +62541,13 @@
         <v>49</v>
       </c>
       <c r="AA422" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC422" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD422" s="2" t="s">
         <v>45</v>
@@ -62541,10 +62556,10 @@
         <v>45</v>
       </c>
       <c r="AF422" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG422" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH422" s="2" t="s">
         <v>45</v>
@@ -62567,160 +62582,157 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D423" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E423" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N423" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Q423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R423" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S423" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T423" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM423" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" customHeight="1" spans="3:39">
+      <c r="C424" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="F423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H423" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M423" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="N423" s="2" t="s">
+      <c r="I424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N424" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="O423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R423" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S423" s="2">
-        <v>2012</v>
-      </c>
-      <c r="T423" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U423" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA423" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB423" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF423" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG423" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH423" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AI423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM423" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="424" customHeight="1" spans="2:39">
-      <c r="B424" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D424" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L424" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M424" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="N424" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O424" s="2" t="s">
         <v>45</v>
       </c>
@@ -62731,10 +62743,10 @@
         <v>45</v>
       </c>
       <c r="R424" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S424" s="2">
         <v>2010</v>
-      </c>
-      <c r="S424" s="2">
-        <v>2012</v>
       </c>
       <c r="T424" s="2" t="s">
         <v>50</v>
@@ -62761,7 +62773,7 @@
         <v>59</v>
       </c>
       <c r="AB424" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC424" s="2" t="s">
         <v>77</v>
@@ -62779,7 +62791,7 @@
         <v>81</v>
       </c>
       <c r="AH424" s="2" t="s">
-        <v>1522</v>
+        <v>45</v>
       </c>
       <c r="AI424" s="2" t="s">
         <v>45</v>
@@ -62799,25 +62811,25 @@
     </row>
     <row r="425" customHeight="1" spans="2:39">
       <c r="B425" s="2" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D425" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>45</v>
@@ -62829,13 +62841,13 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>45</v>
+        <v>1521</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
@@ -62847,10 +62859,10 @@
         <v>45</v>
       </c>
       <c r="R425" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="S425" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62880,7 +62892,7 @@
         <v>76</v>
       </c>
       <c r="AC425" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD425" s="2" t="s">
         <v>45</v>
@@ -62895,7 +62907,7 @@
         <v>81</v>
       </c>
       <c r="AH425" s="2" t="s">
-        <v>45</v>
+        <v>1522</v>
       </c>
       <c r="AI425" s="2" t="s">
         <v>45</v>
@@ -62915,41 +62927,41 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H426" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D426" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E426" s="2" t="s">
+      <c r="I426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L426" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M426" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="F426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H426" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L426" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M426" s="2" t="s">
-        <v>1511</v>
-      </c>
       <c r="N426" s="2" t="s">
         <v>45</v>
       </c>
@@ -62963,19 +62975,19 @@
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="S426" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U426" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V426" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W426" s="2" t="s">
         <v>49</v>
@@ -62990,13 +63002,13 @@
         <v>49</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC426" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD426" s="2" t="s">
         <v>45</v>
@@ -63005,13 +63017,13 @@
         <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH426" s="2" t="s">
-        <v>45</v>
+        <v>1526</v>
       </c>
       <c r="AI426" s="2" t="s">
         <v>45</v>
@@ -63031,25 +63043,25 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D427" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E427" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1511</v>
-      </c>
       <c r="H427" s="2" t="s">
-        <v>1516</v>
+        <v>1528</v>
       </c>
       <c r="I427" s="2" t="s">
         <v>45</v>
@@ -63061,28 +63073,28 @@
         <v>45</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>1527</v>
+        <v>45</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P427" s="2" t="s">
-        <v>1528</v>
+        <v>45</v>
       </c>
       <c r="Q427" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R427" s="2">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="S427" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="T427" s="2" t="s">
         <v>50</v>
@@ -63115,16 +63127,16 @@
         <v>77</v>
       </c>
       <c r="AD427" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE427" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF427" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG427" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH427" s="2" t="s">
         <v>45</v>
@@ -63150,22 +63162,22 @@
         <v>1529</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>136</v>
+        <v>404</v>
       </c>
       <c r="D428" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="I428" s="2" t="s">
         <v>45</v>
@@ -63177,25 +63189,25 @@
         <v>45</v>
       </c>
       <c r="L428" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>1530</v>
+        <v>45</v>
       </c>
       <c r="O428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P428" s="2" t="s">
-        <v>1531</v>
+        <v>45</v>
       </c>
       <c r="Q428" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R428" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="S428" s="2">
         <v>2019</v>
@@ -63204,10 +63216,10 @@
         <v>50</v>
       </c>
       <c r="U428" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V428" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W428" s="2" t="s">
         <v>49</v>
@@ -63222,138 +63234,141 @@
         <v>49</v>
       </c>
       <c r="AA428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM428" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="429" customHeight="1" spans="2:39">
+      <c r="B429" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M429" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N429" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P429" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="Q429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R429" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S429" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T429" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U429" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z429" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA429" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB428" s="2" t="s">
+      <c r="AB429" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC428" s="2" t="s">
+      <c r="AC429" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD428" s="2" t="s">
+      <c r="AD429" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE428" s="2" t="s">
+      <c r="AE429" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF428" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG428" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM428" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="429" customHeight="1" spans="3:39">
-      <c r="C429" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D429" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G429" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H429" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L429" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M429" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="N429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R429" s="2">
-        <v>2005</v>
-      </c>
-      <c r="S429" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T429" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z429" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE429" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AF429" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH429" s="2" t="s">
         <v>45</v>
@@ -63376,61 +63391,61 @@
     </row>
     <row r="430" customHeight="1" spans="2:39">
       <c r="B430" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L430" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M430" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N430" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D430" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E430" s="2" t="s">
+      <c r="O430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P430" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="F430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H430" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L430" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M430" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="N430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O430" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="S430" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="T430" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U430" s="2" t="s">
         <v>50</v>
@@ -63457,16 +63472,16 @@
         <v>76</v>
       </c>
       <c r="AC430" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF430" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG430" s="2" t="s">
         <v>81</v>
@@ -63490,27 +63505,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" customHeight="1" spans="2:39">
-      <c r="B431" s="2" t="s">
-        <v>1538</v>
-      </c>
+    <row r="431" customHeight="1" spans="3:39">
       <c r="C431" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D431" s="3">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1427</v>
+        <v>1515</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>45</v>
@@ -63522,13 +63534,13 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1427</v>
+        <v>1515</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>1541</v>
+        <v>45</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>45</v>
@@ -63540,7 +63552,7 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="S431" s="2">
         <v>2009</v>
@@ -63549,7 +63561,7 @@
         <v>50</v>
       </c>
       <c r="U431" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V431" s="2" t="s">
         <v>49</v>
@@ -63567,7 +63579,7 @@
         <v>49</v>
       </c>
       <c r="AA431" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB431" s="2" t="s">
         <v>45</v>
@@ -63576,16 +63588,16 @@
         <v>45</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG431" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH431" s="2" t="s">
         <v>45</v>
@@ -63608,25 +63620,25 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1304</v>
+        <v>115</v>
       </c>
       <c r="D432" s="3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
@@ -63638,10 +63650,10 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>45</v>
@@ -63656,13 +63668,13 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="S432" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="T432" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U432" s="2" t="s">
         <v>50</v>
@@ -63698,7 +63710,7 @@
         <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG432" s="2" t="s">
         <v>81</v>
@@ -63724,44 +63736,44 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M433" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N433" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D433" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G433" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L433" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="M433" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N433" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O433" s="2" t="s">
         <v>45</v>
       </c>
@@ -63772,10 +63784,10 @@
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S433" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
@@ -63814,7 +63826,7 @@
         <v>45</v>
       </c>
       <c r="AF433" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG433" s="2" t="s">
         <v>81</v>
@@ -63840,25 +63852,25 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>71</v>
+        <v>1304</v>
       </c>
       <c r="D434" s="3">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="I434" s="2" t="s">
         <v>45</v>
@@ -63870,13 +63882,13 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>1555</v>
+        <v>45</v>
       </c>
       <c r="O434" s="2" t="s">
         <v>45</v>
@@ -63888,10 +63900,10 @@
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S434" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="T434" s="2" t="s">
         <v>50</v>
@@ -63918,7 +63930,7 @@
         <v>59</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC434" s="2" t="s">
         <v>45</v>
@@ -63927,7 +63939,7 @@
         <v>45</v>
       </c>
       <c r="AE434" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF434" s="2" t="s">
         <v>80</v>
@@ -63956,26 +63968,26 @@
     </row>
     <row r="435" customHeight="1" spans="2:39">
       <c r="B435" s="2" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D435" s="3">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H435" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="H435" s="2" t="s">
-        <v>1558</v>
-      </c>
       <c r="I435" s="2" t="s">
         <v>45</v>
       </c>
@@ -63986,10 +63998,10 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -64004,10 +64016,10 @@
         <v>45</v>
       </c>
       <c r="R435" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="S435" s="2">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
@@ -64046,7 +64058,7 @@
         <v>45</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG435" s="2" t="s">
         <v>81</v>
@@ -64072,44 +64084,44 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M436" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="N436" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D436" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L436" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M436" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="N436" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
       </c>
@@ -64119,17 +64131,17 @@
       <c r="Q436" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R436" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S436" s="2" t="s">
-        <v>45</v>
+      <c r="R436" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S436" s="2">
+        <v>2008</v>
       </c>
       <c r="T436" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U436" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V436" s="2" t="s">
         <v>49</v>
@@ -64141,13 +64153,13 @@
         <v>49</v>
       </c>
       <c r="Y436" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z436" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA436" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB436" s="2" t="s">
         <v>45</v>
@@ -64159,13 +64171,13 @@
         <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG436" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH436" s="2" t="s">
         <v>45</v>
@@ -64188,22 +64200,22 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E437" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D437" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>1551</v>
-      </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="H437" s="2" t="s">
         <v>1562</v>
@@ -64218,10 +64230,10 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="N437" s="2" t="s">
         <v>45</v>
@@ -64236,10 +64248,10 @@
         <v>45</v>
       </c>
       <c r="R437" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="S437" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64266,19 +64278,19 @@
         <v>59</v>
       </c>
       <c r="AB437" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC437" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD437" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE437" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>80</v>
+        <v>1137</v>
       </c>
       <c r="AG437" s="2" t="s">
         <v>81</v>
@@ -64307,23 +64319,23 @@
         <v>1563</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="D438" s="3">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E438" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H438" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="F438" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G438" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="I438" s="2" t="s">
         <v>45</v>
       </c>
@@ -64334,13 +64346,13 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>1566</v>
+        <v>45</v>
       </c>
       <c r="O438" s="2" t="s">
         <v>45</v>
@@ -64351,14 +64363,14 @@
       <c r="Q438" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R438" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S438" s="2">
-        <v>2019</v>
+      <c r="R438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S438" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U438" s="2" t="s">
         <v>49</v>
@@ -64373,7 +64385,7 @@
         <v>49</v>
       </c>
       <c r="Y438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z438" s="2" t="s">
         <v>49</v>
@@ -64420,25 +64432,25 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1568</v>
+        <v>136</v>
       </c>
       <c r="D439" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="I439" s="2" t="s">
         <v>45</v>
@@ -64450,10 +64462,10 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="M439" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>45</v>
@@ -64468,10 +64480,10 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="S439" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64501,19 +64513,19 @@
         <v>76</v>
       </c>
       <c r="AC439" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD439" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE439" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF439" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG439" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH439" s="2" t="s">
         <v>45</v>
@@ -64536,25 +64548,25 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1356</v>
+        <v>379</v>
       </c>
       <c r="D440" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="I440" s="2" t="s">
         <v>45</v>
@@ -64566,13 +64578,13 @@
         <v>45</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>47</v>
+        <v>1570</v>
       </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
@@ -64584,16 +64596,16 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="S440" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T440" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V440" s="2" t="s">
         <v>49</v>
@@ -64611,19 +64623,19 @@
         <v>49</v>
       </c>
       <c r="AA440" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB440" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC440" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD440" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE440" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF440" s="2" t="s">
         <v>45</v>
@@ -64652,26 +64664,26 @@
     </row>
     <row r="441" customHeight="1" spans="2:39">
       <c r="B441" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H441" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D441" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="H441" s="2" t="s">
-        <v>1578</v>
-      </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
       </c>
@@ -64682,10 +64694,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1579</v>
+        <v>1556</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64700,10 +64712,10 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="S441" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
@@ -64730,22 +64742,22 @@
         <v>59</v>
       </c>
       <c r="AB441" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC441" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64768,25 +64780,25 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1581</v>
+        <v>1356</v>
       </c>
       <c r="D442" s="3">
         <v>2023</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1500</v>
+        <v>1578</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>45</v>
@@ -64798,13 +64810,13 @@
         <v>45</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O442" s="2" t="s">
         <v>45</v>
@@ -64816,10 +64828,10 @@
         <v>45</v>
       </c>
       <c r="R442" s="2">
-        <v>2015</v>
+        <v>1956</v>
       </c>
       <c r="S442" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T442" s="2" t="s">
         <v>50</v>
@@ -64858,7 +64870,7 @@
         <v>79</v>
       </c>
       <c r="AF442" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG442" s="2" t="s">
         <v>45</v>
@@ -64884,25 +64896,25 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D443" s="3">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>45</v>
@@ -64914,10 +64926,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1589</v>
+        <v>1558</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64932,10 +64944,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="S443" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64965,13 +64977,13 @@
         <v>45</v>
       </c>
       <c r="AC443" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE443" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF443" s="2" t="s">
         <v>80</v>
@@ -65000,16 +65012,16 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>71</v>
+        <v>1585</v>
       </c>
       <c r="D444" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
@@ -65018,7 +65030,7 @@
         <v>1587</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1592</v>
+        <v>1504</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>45</v>
@@ -65030,13 +65042,13 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="M444" s="2" t="s">
         <v>1587</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>1593</v>
+        <v>45</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>45</v>
@@ -65048,10 +65060,10 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="S444" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
@@ -65078,22 +65090,22 @@
         <v>59</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC444" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD444" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE444" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>1594</v>
+        <v>80</v>
       </c>
       <c r="AG444" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH444" s="2" t="s">
         <v>45</v>
@@ -65116,22 +65128,22 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D445" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E445" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445" s="2" t="s">
         <v>1591</v>
-      </c>
-      <c r="F445" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>1587</v>
       </c>
       <c r="H445" s="2" t="s">
         <v>1592</v>
@@ -65146,10 +65158,10 @@
         <v>45</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>45</v>
@@ -65164,10 +65176,10 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="S445" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65197,16 +65209,16 @@
         <v>45</v>
       </c>
       <c r="AC445" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE445" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF445" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG445" s="2" t="s">
         <v>81</v>
@@ -65232,44 +65244,44 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H446" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D446" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E446" s="2" t="s">
+      <c r="I446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K446" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M446" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N446" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I446" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="K446" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L446" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="M446" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N446" s="2" t="s">
-        <v>1593</v>
-      </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
       </c>
@@ -65280,10 +65292,10 @@
         <v>45</v>
       </c>
       <c r="R446" s="2">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="S446" s="2">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="T446" s="2" t="s">
         <v>50</v>
@@ -65316,16 +65328,16 @@
         <v>45</v>
       </c>
       <c r="AD446" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE446" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>91</v>
+        <v>1598</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>1460</v>
+        <v>81</v>
       </c>
       <c r="AH446" s="2" t="s">
         <v>45</v>
@@ -65348,28 +65360,28 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="D447" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E447" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="F447" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1587</v>
-      </c>
       <c r="H447" s="2" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>1602</v>
+        <v>45</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>45</v>
@@ -65378,10 +65390,10 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N447" s="2" t="s">
         <v>45</v>
@@ -65396,10 +65408,10 @@
         <v>45</v>
       </c>
       <c r="R447" s="2">
-        <v>2016</v>
+        <v>1990</v>
       </c>
       <c r="S447" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65426,10 +65438,10 @@
         <v>59</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC447" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD447" s="2" t="s">
         <v>45</v>
@@ -65438,7 +65450,7 @@
         <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>80</v>
+        <v>1137</v>
       </c>
       <c r="AG447" s="2" t="s">
         <v>81</v>
@@ -65462,42 +65474,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="448" customHeight="1" spans="3:39">
+    <row r="448" customHeight="1" spans="2:39">
+      <c r="B448" s="2" t="s">
+        <v>1600</v>
+      </c>
       <c r="C448" s="2" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="D448" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E448" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I448" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H448" s="2" t="s">
+      <c r="J448" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="I448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K448" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M448" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>45</v>
+        <v>1597</v>
       </c>
       <c r="O448" s="2" t="s">
         <v>45</v>
@@ -65509,16 +65524,16 @@
         <v>45</v>
       </c>
       <c r="R448" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="S448" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T448" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U448" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V448" s="2" t="s">
         <v>49</v>
@@ -65548,13 +65563,13 @@
         <v>45</v>
       </c>
       <c r="AE448" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF448" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>45</v>
+        <v>1464</v>
       </c>
       <c r="AH448" s="2" t="s">
         <v>45</v>
@@ -65575,28 +65590,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="3:39">
+    <row r="449" customHeight="1" spans="2:39">
+      <c r="B449" s="2" t="s">
+        <v>1605</v>
+      </c>
       <c r="C449" s="2" t="s">
-        <v>1605</v>
+        <v>342</v>
       </c>
       <c r="D449" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E449" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I449" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="F449" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G449" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H449" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I449" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J449" s="2" t="s">
         <v>45</v>
       </c>
@@ -65604,10 +65622,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65622,10 +65640,10 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S449" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
@@ -65652,10 +65670,10 @@
         <v>59</v>
       </c>
       <c r="AB449" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC449" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD449" s="2" t="s">
         <v>45</v>
@@ -65664,10 +65682,10 @@
         <v>45</v>
       </c>
       <c r="AF449" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG449" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH449" s="2" t="s">
         <v>45</v>
@@ -65688,24 +65706,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="450" customHeight="1" spans="2:39">
-      <c r="B450" s="2" t="s">
+    <row r="450" customHeight="1" spans="3:39">
+      <c r="C450" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E450" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D450" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>1591</v>
-      </c>
       <c r="F450" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>1587</v>
+        <v>1427</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>1608</v>
@@ -65720,13 +65735,13 @@
         <v>45</v>
       </c>
       <c r="L450" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M450" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>1609</v>
+        <v>45</v>
       </c>
       <c r="O450" s="2" t="s">
         <v>45</v>
@@ -65737,17 +65752,17 @@
       <c r="Q450" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S450" s="2" t="s">
-        <v>45</v>
+      <c r="R450" s="2">
+        <v>2001</v>
+      </c>
+      <c r="S450" s="2">
+        <v>2016</v>
       </c>
       <c r="T450" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65768,22 +65783,22 @@
         <v>59</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC450" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD450" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE450" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>45</v>
@@ -65804,27 +65819,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="451" customHeight="1" spans="2:39">
-      <c r="B451" s="2" t="s">
-        <v>1610</v>
-      </c>
+    <row r="451" customHeight="1" spans="3:39">
       <c r="C451" s="2" t="s">
-        <v>342</v>
+        <v>1609</v>
       </c>
       <c r="D451" s="3">
         <v>2020</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="I451" s="2" t="s">
         <v>45</v>
@@ -65836,10 +65848,10 @@
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>45</v>
@@ -65854,13 +65866,13 @@
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="S451" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="T451" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U451" s="2" t="s">
         <v>50</v>
@@ -65872,7 +65884,7 @@
         <v>49</v>
       </c>
       <c r="X451" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y451" s="2" t="s">
         <v>49</v>
@@ -65887,19 +65899,19 @@
         <v>45</v>
       </c>
       <c r="AC451" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD451" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG451" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH451" s="2" t="s">
         <v>45</v>
@@ -65922,44 +65934,44 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>379</v>
+        <v>1585</v>
       </c>
       <c r="D452" s="3">
         <v>2020</v>
       </c>
       <c r="E452" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M452" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N452" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="F452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G452" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H452" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L452" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="M452" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N452" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
       </c>
@@ -65969,17 +65981,17 @@
       <c r="Q452" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R452" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S452" s="2">
-        <v>2018</v>
+      <c r="R452" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S452" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T452" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U452" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V452" s="2" t="s">
         <v>49</v>
@@ -65997,25 +66009,25 @@
         <v>49</v>
       </c>
       <c r="AA452" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB452" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD452" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE452" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>45</v>
@@ -66038,26 +66050,26 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H453" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D453" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H453" s="2" t="s">
-        <v>1618</v>
-      </c>
       <c r="I453" s="2" t="s">
         <v>45</v>
       </c>
@@ -66068,13 +66080,13 @@
         <v>45</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M453" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>1619</v>
+        <v>45</v>
       </c>
       <c r="O453" s="2" t="s">
         <v>45</v>
@@ -66086,16 +66098,16 @@
         <v>45</v>
       </c>
       <c r="R453" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="S453" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="T453" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>49</v>
@@ -66104,7 +66116,7 @@
         <v>49</v>
       </c>
       <c r="X453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y453" s="2" t="s">
         <v>49</v>
@@ -66122,16 +66134,16 @@
         <v>45</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH453" s="2" t="s">
         <v>45</v>
@@ -66154,25 +66166,25 @@
     </row>
     <row r="454" customHeight="1" spans="2:39">
       <c r="B454" s="2" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="D454" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E454" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="F454" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1587</v>
-      </c>
       <c r="H454" s="2" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="I454" s="2" t="s">
         <v>45</v>
@@ -66184,10 +66196,10 @@
         <v>45</v>
       </c>
       <c r="L454" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>45</v>
@@ -66202,16 +66214,16 @@
         <v>45</v>
       </c>
       <c r="R454" s="2">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="S454" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T454" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U454" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V454" s="2" t="s">
         <v>49</v>
@@ -66229,13 +66241,13 @@
         <v>49</v>
       </c>
       <c r="AA454" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB454" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC454" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD454" s="2" t="s">
         <v>45</v>
@@ -66244,13 +66256,13 @@
         <v>45</v>
       </c>
       <c r="AF454" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG454" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH454" s="2" t="s">
-        <v>1622</v>
+        <v>45</v>
       </c>
       <c r="AI454" s="2" t="s">
         <v>45</v>
@@ -66270,44 +66282,44 @@
     </row>
     <row r="455" customHeight="1" spans="2:39">
       <c r="B455" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K455" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L455" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M455" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N455" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D455" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F455" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G455" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H455" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I455" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J455" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K455" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L455" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="M455" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N455" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O455" s="2" t="s">
         <v>45</v>
       </c>
@@ -66318,16 +66330,16 @@
         <v>45</v>
       </c>
       <c r="R455" s="2">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="S455" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="T455" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U455" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V455" s="2" t="s">
         <v>49</v>
@@ -66345,13 +66357,13 @@
         <v>49</v>
       </c>
       <c r="AA455" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB455" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC455" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD455" s="2" t="s">
         <v>45</v>
@@ -66360,10 +66372,10 @@
         <v>45</v>
       </c>
       <c r="AF455" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG455" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH455" s="2" t="s">
         <v>45</v>
@@ -66386,25 +66398,25 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D456" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E456" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="F456" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G456" s="2" t="s">
-        <v>1587</v>
-      </c>
       <c r="H456" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I456" s="2" t="s">
         <v>45</v>
@@ -66416,10 +66428,10 @@
         <v>45</v>
       </c>
       <c r="L456" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M456" s="2" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="N456" s="2" t="s">
         <v>45</v>
@@ -66434,10 +66446,10 @@
         <v>45</v>
       </c>
       <c r="R456" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="S456" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>50</v>
@@ -66461,16 +66473,16 @@
         <v>49</v>
       </c>
       <c r="AA456" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC456" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD456" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE456" s="2" t="s">
         <v>45</v>
@@ -66482,7 +66494,7 @@
         <v>396</v>
       </c>
       <c r="AH456" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AI456" s="2" t="s">
         <v>45</v>
@@ -66502,26 +66514,26 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H457" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D457" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E457" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G457" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>1631</v>
-      </c>
       <c r="I457" s="2" t="s">
         <v>45</v>
       </c>
@@ -66532,10 +66544,10 @@
         <v>45</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1630</v>
+        <v>1591</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>45</v>
@@ -66550,10 +66562,10 @@
         <v>45</v>
       </c>
       <c r="R457" s="2">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="S457" s="2">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="T457" s="2" t="s">
         <v>50</v>
@@ -66577,13 +66589,13 @@
         <v>49</v>
       </c>
       <c r="AA457" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB457" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC457" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD457" s="2" t="s">
         <v>45</v>
@@ -66595,10 +66607,10 @@
         <v>91</v>
       </c>
       <c r="AG457" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH457" s="2" t="s">
-        <v>1632</v>
+        <v>45</v>
       </c>
       <c r="AI457" s="2" t="s">
         <v>45</v>
@@ -66618,25 +66630,25 @@
     </row>
     <row r="458" customHeight="1" spans="2:39">
       <c r="B458" s="2" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D458" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1634</v>
+        <v>1595</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1419</v>
+        <v>1591</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="I458" s="2" t="s">
         <v>45</v>
@@ -66648,13 +66660,13 @@
         <v>45</v>
       </c>
       <c r="L458" s="2" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="M458" s="2" t="s">
-        <v>1636</v>
+        <v>1591</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>1637</v>
+        <v>45</v>
       </c>
       <c r="O458" s="2" t="s">
         <v>45</v>
@@ -66666,16 +66678,16 @@
         <v>45</v>
       </c>
       <c r="R458" s="2">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="S458" s="2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="T458" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>49</v>
@@ -66702,19 +66714,19 @@
         <v>45</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF458" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG458" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH458" s="2" t="s">
-        <v>45</v>
+        <v>1631</v>
       </c>
       <c r="AI458" s="2" t="s">
         <v>45</v>
@@ -66734,64 +66746,64 @@
     </row>
     <row r="459" customHeight="1" spans="2:39">
       <c r="B459" s="2" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D459" s="3">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>1642</v>
+        <v>45</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>1643</v>
+        <v>45</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>1644</v>
+        <v>1593</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>1645</v>
+        <v>45</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P459" s="2" t="s">
-        <v>1645</v>
+        <v>45</v>
       </c>
       <c r="Q459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R459" s="2">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="S459" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="T459" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U459" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V459" s="2" t="s">
         <v>49</v>
@@ -66824,13 +66836,13 @@
         <v>45</v>
       </c>
       <c r="AF459" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG459" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH459" s="2" t="s">
-        <v>45</v>
+        <v>1636</v>
       </c>
       <c r="AI459" s="2" t="s">
         <v>45</v>
@@ -66850,25 +66862,25 @@
     </row>
     <row r="460" customHeight="1" spans="2:39">
       <c r="B460" s="2" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D460" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="I460" s="2" t="s">
         <v>45</v>
@@ -66880,13 +66892,13 @@
         <v>45</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>1644</v>
+        <v>1593</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>45</v>
+        <v>1641</v>
       </c>
       <c r="O460" s="2" t="s">
         <v>45</v>
@@ -66897,14 +66909,14 @@
       <c r="Q460" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R460" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S460" s="2" t="s">
-        <v>45</v>
+      <c r="R460" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S460" s="2">
+        <v>2019</v>
       </c>
       <c r="T460" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U460" s="2" t="s">
         <v>49</v>
@@ -66919,7 +66931,7 @@
         <v>49</v>
       </c>
       <c r="Y460" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z460" s="2" t="s">
         <v>49</v>
@@ -66928,10 +66940,10 @@
         <v>45</v>
       </c>
       <c r="AB460" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC460" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD460" s="2" t="s">
         <v>45</v>
@@ -66966,64 +66978,64 @@
     </row>
     <row r="461" customHeight="1" spans="2:39">
       <c r="B461" s="2" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D461" s="3">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1597</v>
+        <v>1643</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1358</v>
+        <v>1644</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>1598</v>
+        <v>1646</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>45</v>
+        <v>1647</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>45</v>
+        <v>1648</v>
       </c>
       <c r="M461" s="2" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>45</v>
+        <v>1649</v>
       </c>
       <c r="O461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P461" s="2" t="s">
-        <v>45</v>
+        <v>1649</v>
       </c>
       <c r="Q461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R461" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="S461" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="T461" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U461" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V461" s="2" t="s">
         <v>49</v>
@@ -67044,10 +67056,10 @@
         <v>59</v>
       </c>
       <c r="AB461" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC461" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD461" s="2" t="s">
         <v>45</v>
@@ -67056,10 +67068,10 @@
         <v>45</v>
       </c>
       <c r="AF461" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG461" s="2" t="s">
-        <v>1302</v>
+        <v>45</v>
       </c>
       <c r="AH461" s="2" t="s">
         <v>45</v>
@@ -67082,7 +67094,7 @@
     </row>
     <row r="462" customHeight="1" spans="2:39">
       <c r="B462" s="2" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>129</v>
@@ -67091,19 +67103,19 @@
         <v>2022</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G462" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H462" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="H462" s="2" t="s">
-        <v>1655</v>
-      </c>
       <c r="I462" s="2" t="s">
-        <v>1598</v>
+        <v>45</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>45</v>
@@ -67112,10 +67124,10 @@
         <v>45</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>45</v>
+        <v>1648</v>
       </c>
       <c r="M462" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="N462" s="2" t="s">
         <v>45</v>
@@ -67129,17 +67141,17 @@
       <c r="Q462" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R462" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S462" s="2">
-        <v>2019</v>
+      <c r="R462" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S462" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T462" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V462" s="2" t="s">
         <v>49</v>
@@ -67151,16 +67163,16 @@
         <v>49</v>
       </c>
       <c r="Y462" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z462" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA462" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB462" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC462" s="2" t="s">
         <v>77</v>
@@ -67172,10 +67184,10 @@
         <v>45</v>
       </c>
       <c r="AF462" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG462" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH462" s="2" t="s">
         <v>45</v>
@@ -67198,41 +67210,41 @@
     </row>
     <row r="463" customHeight="1" spans="2:39">
       <c r="B463" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M463" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D463" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E463" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F463" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G463" s="2" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H463" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I463" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J463" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K463" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L463" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="M463" s="2" t="s">
-        <v>1658</v>
-      </c>
       <c r="N463" s="2" t="s">
         <v>45</v>
       </c>
@@ -67246,10 +67258,10 @@
         <v>45</v>
       </c>
       <c r="R463" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="S463" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="T463" s="2" t="s">
         <v>50</v>
@@ -67276,10 +67288,10 @@
         <v>59</v>
       </c>
       <c r="AB463" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC463" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD463" s="2" t="s">
         <v>45</v>
@@ -67291,7 +67303,7 @@
         <v>91</v>
       </c>
       <c r="AG463" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH463" s="2" t="s">
         <v>45</v>
@@ -67314,28 +67326,28 @@
     </row>
     <row r="464" customHeight="1" spans="2:39">
       <c r="B464" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1662</v>
+        <v>129</v>
       </c>
       <c r="D464" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>45</v>
+        <v>1602</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>45</v>
@@ -67344,10 +67356,10 @@
         <v>45</v>
       </c>
       <c r="L464" s="2" t="s">
-        <v>1666</v>
+        <v>45</v>
       </c>
       <c r="M464" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="N464" s="2" t="s">
         <v>45</v>
@@ -67362,16 +67374,16 @@
         <v>45</v>
       </c>
       <c r="R464" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="S464" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="T464" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U464" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V464" s="2" t="s">
         <v>49</v>
@@ -67389,13 +67401,13 @@
         <v>49</v>
       </c>
       <c r="AA464" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB464" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC464" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD464" s="2" t="s">
         <v>45</v>
@@ -67404,10 +67416,10 @@
         <v>45</v>
       </c>
       <c r="AF464" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG464" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH464" s="2" t="s">
         <v>45</v>
@@ -67430,25 +67442,25 @@
     </row>
     <row r="465" customHeight="1" spans="2:39">
       <c r="B465" s="2" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D465" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>1423</v>
+        <v>1662</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="I465" s="2" t="s">
         <v>45</v>
@@ -67460,13 +67472,13 @@
         <v>45</v>
       </c>
       <c r="L465" s="2" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="M465" s="2" t="s">
-        <v>1423</v>
+        <v>1662</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>1670</v>
+        <v>45</v>
       </c>
       <c r="O465" s="2" t="s">
         <v>45</v>
@@ -67478,16 +67490,16 @@
         <v>45</v>
       </c>
       <c r="R465" s="2">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="S465" s="2">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="T465" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U465" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V465" s="2" t="s">
         <v>49</v>
@@ -67505,10 +67517,10 @@
         <v>49</v>
       </c>
       <c r="AA465" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB465" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC465" s="2" t="s">
         <v>45</v>
@@ -67520,10 +67532,10 @@
         <v>45</v>
       </c>
       <c r="AF465" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG465" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH465" s="2" t="s">
         <v>45</v>
@@ -67546,25 +67558,25 @@
     </row>
     <row r="466" customHeight="1" spans="2:39">
       <c r="B466" s="2" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="D466" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="I466" s="2" t="s">
         <v>45</v>
@@ -67576,13 +67588,13 @@
         <v>45</v>
       </c>
       <c r="L466" s="2" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="M466" s="2" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>1674</v>
+        <v>45</v>
       </c>
       <c r="O466" s="2" t="s">
         <v>45</v>
@@ -67594,16 +67606,16 @@
         <v>45</v>
       </c>
       <c r="R466" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="S466" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T466" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U466" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V466" s="2" t="s">
         <v>49</v>
@@ -67621,25 +67633,25 @@
         <v>49</v>
       </c>
       <c r="AA466" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB466" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC466" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD466" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE466" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF466" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG466" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH466" s="2" t="s">
         <v>45</v>
@@ -67662,25 +67674,25 @@
     </row>
     <row r="467" customHeight="1" spans="2:39">
       <c r="B467" s="2" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1662</v>
+        <v>115</v>
       </c>
       <c r="D467" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>1617</v>
+        <v>1427</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="I467" s="2" t="s">
         <v>45</v>
@@ -67692,13 +67704,13 @@
         <v>45</v>
       </c>
       <c r="L467" s="2" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="M467" s="2" t="s">
-        <v>1617</v>
+        <v>1427</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>45</v>
+        <v>1674</v>
       </c>
       <c r="O467" s="2" t="s">
         <v>45</v>
@@ -67776,8 +67788,240 @@
         <v>45</v>
       </c>
     </row>
+    <row r="468" customHeight="1" spans="2:39">
+      <c r="B468" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L468" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M468" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="N468" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="O468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R468" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S468" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T468" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U468" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V468" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W468" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X468" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y468" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z468" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA468" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB468" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC468" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD468" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF468" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG468" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM468" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="469" customHeight="1" spans="2:39">
+      <c r="B469" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M469" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R469" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S469" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T469" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM469" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM467">
+  <autoFilter ref="A1:AM469">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$473</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16367" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16509" uniqueCount="1691">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -11813,6 +11813,45 @@
     <t>S.P. Chen</t>
   </si>
   <si>
+    <t>Sequence variation of dengue type 2 virus isolated from clinical cases in Thailand</t>
+  </si>
+  <si>
+    <t>Takeshi Kurosu</t>
+  </si>
+  <si>
+    <t>AB587891-AB587986</t>
+  </si>
+  <si>
+    <t>Complete coding sequence of dengue virus serotype 4 isolate from field-caught mosquitoes in Thailand</t>
+  </si>
+  <si>
+    <t>Memórias do Instituto Oswaldo Cruz</t>
+  </si>
+  <si>
+    <t>Kasetsart University</t>
+  </si>
+  <si>
+    <t>Wunrada Surat</t>
+  </si>
+  <si>
+    <t>Dengue diversity across spatial and temporal scales: local structure and the effect of host population size</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Johns Hopkins Bloomberg School of Public Health</t>
+  </si>
+  <si>
+    <t>Derek Cummings</t>
+  </si>
+  <si>
+    <t>First evidence of dengue infection in domestic dogs living in different ecological settings in Thailand</t>
+  </si>
+  <si>
+    <t>Pattamaporn Kittayapong</t>
+  </si>
+  <si>
     <t>Emergence of genotype cosmopolitan of dengue virus type 2 and genotype III of dengue virus type 3 in Thailand</t>
   </si>
   <si>
@@ -11843,9 +11882,6 @@
     <t>Chulalongkorn University</t>
   </si>
   <si>
-    <t>Wunrada Surat</t>
-  </si>
-  <si>
     <t>Revealing two dynamic dengue epidemic clusters in Thailand</t>
   </si>
   <si>
@@ -11891,9 +11927,6 @@
     <t>Leah Katzelnick</t>
   </si>
   <si>
-    <t>Derek Cummings</t>
-  </si>
-  <si>
     <t>Influence of climate variables on dengue fever occurrence in the southern region of Thailand</t>
   </si>
   <si>
@@ -11915,9 +11948,6 @@
     <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
   </si>
   <si>
@@ -12366,9 +12396,6 @@
   </si>
   <si>
     <t>Mikhail Churakov</t>
-  </si>
-  <si>
-    <t>Memórias do Instituto Oswaldo Cruz</t>
   </si>
   <si>
     <t>University of Sao Paulo</t>
@@ -13776,12 +13803,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM469"/>
+  <dimension ref="A1:AM473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -58653,22 +58680,22 @@
         <v>1424</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="D389" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>989</v>
+        <v>1387</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>1388</v>
+        <v>1425</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>45</v>
@@ -58697,14 +58724,14 @@
       <c r="Q389" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R389" s="2">
-        <v>2016</v>
-      </c>
-      <c r="S389" s="2">
-        <v>2017</v>
+      <c r="R389" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S389" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T389" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U389" s="2" t="s">
         <v>50</v>
@@ -58728,25 +58755,25 @@
         <v>59</v>
       </c>
       <c r="AB389" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC389" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE389" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF389" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG389" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH389" s="2" t="s">
-        <v>45</v>
+        <v>1426</v>
       </c>
       <c r="AI389" s="2" t="s">
         <v>45</v>
@@ -58766,25 +58793,25 @@
     </row>
     <row r="390" customHeight="1" spans="2:39">
       <c r="B390" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>89</v>
+        <v>1428</v>
       </c>
       <c r="D390" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1427</v>
+        <v>991</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>45</v>
@@ -58814,13 +58841,13 @@
         <v>45</v>
       </c>
       <c r="R390" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="S390" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="T390" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U390" s="2" t="s">
         <v>50</v>
@@ -58829,7 +58856,7 @@
         <v>49</v>
       </c>
       <c r="W390" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X390" s="2" t="s">
         <v>49</v>
@@ -58844,22 +58871,22 @@
         <v>59</v>
       </c>
       <c r="AB390" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC390" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD390" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE390" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF390" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG390" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH390" s="2" t="s">
         <v>45</v>
@@ -58882,25 +58909,25 @@
     </row>
     <row r="391" customHeight="1" spans="2:39">
       <c r="B391" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>588</v>
+        <v>1432</v>
       </c>
       <c r="D391" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>335</v>
+        <v>1434</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>45</v>
@@ -58918,7 +58945,7 @@
         <v>991</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O391" s="2" t="s">
         <v>45</v>
@@ -58930,16 +58957,16 @@
         <v>45</v>
       </c>
       <c r="R391" s="2">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="S391" s="2">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U391" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V391" s="2" t="s">
         <v>49</v>
@@ -58960,22 +58987,22 @@
         <v>59</v>
       </c>
       <c r="AB391" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC391" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD391" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE391" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF391" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG391" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH391" s="2" t="s">
         <v>45</v>
@@ -58998,16 +59025,16 @@
     </row>
     <row r="392" customHeight="1" spans="2:39">
       <c r="B392" s="2" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="D392" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1433</v>
+        <v>989</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>45</v>
@@ -59016,7 +59043,7 @@
         <v>991</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I392" s="2" t="s">
         <v>45</v>
@@ -59046,10 +59073,10 @@
         <v>45</v>
       </c>
       <c r="R392" s="2">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="S392" s="2">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>50</v>
@@ -59061,7 +59088,7 @@
         <v>49</v>
       </c>
       <c r="W392" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X392" s="2" t="s">
         <v>49</v>
@@ -59076,19 +59103,19 @@
         <v>59</v>
       </c>
       <c r="AB392" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC392" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD392" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE392" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF392" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG392" s="2" t="s">
         <v>81</v>
@@ -59114,25 +59141,25 @@
     </row>
     <row r="393" customHeight="1" spans="2:39">
       <c r="B393" s="2" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>333</v>
+        <v>89</v>
       </c>
       <c r="D393" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1436</v>
+        <v>989</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>1437</v>
+        <v>991</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>1438</v>
+        <v>1388</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>45</v>
@@ -59162,16 +59189,16 @@
         <v>45</v>
       </c>
       <c r="R393" s="2">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="S393" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U393" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V393" s="2" t="s">
         <v>49</v>
@@ -59186,28 +59213,28 @@
         <v>49</v>
       </c>
       <c r="Z393" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA393" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB393" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC393" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD393" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE393" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF393" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG393" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH393" s="2" t="s">
         <v>45</v>
@@ -59230,28 +59257,28 @@
     </row>
     <row r="394" customHeight="1" spans="2:39">
       <c r="B394" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E394" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D394" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>989</v>
-      </c>
       <c r="F394" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>991</v>
+        <v>1440</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>1388</v>
+        <v>45</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>45</v>
@@ -59266,7 +59293,7 @@
         <v>991</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>1402</v>
+        <v>45</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>45</v>
@@ -59278,10 +59305,10 @@
         <v>45</v>
       </c>
       <c r="R394" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="S394" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>50</v>
@@ -59320,7 +59347,7 @@
         <v>79</v>
       </c>
       <c r="AF394" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG394" s="2" t="s">
         <v>81</v>
@@ -59346,25 +59373,25 @@
     </row>
     <row r="395" customHeight="1" spans="2:39">
       <c r="B395" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>115</v>
+        <v>588</v>
       </c>
       <c r="D395" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1400</v>
+        <v>1443</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>991</v>
+        <v>1444</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>1442</v>
+        <v>335</v>
       </c>
       <c r="I395" s="2" t="s">
         <v>45</v>
@@ -59394,16 +59421,16 @@
         <v>45</v>
       </c>
       <c r="R395" s="2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="S395" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T395" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U395" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V395" s="2" t="s">
         <v>49</v>
@@ -59424,22 +59451,22 @@
         <v>59</v>
       </c>
       <c r="AB395" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC395" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD395" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE395" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF395" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG395" s="2">
-        <v>454</v>
+        <v>45</v>
+      </c>
+      <c r="AG395" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AH395" s="2" t="s">
         <v>45</v>
@@ -59462,25 +59489,25 @@
     </row>
     <row r="396" customHeight="1" spans="2:39">
       <c r="B396" s="2" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1444</v>
+        <v>177</v>
       </c>
       <c r="D396" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1358</v>
+        <v>991</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>45</v>
@@ -59510,10 +59537,10 @@
         <v>45</v>
       </c>
       <c r="R396" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="S396" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="T396" s="2" t="s">
         <v>50</v>
@@ -59543,19 +59570,19 @@
         <v>76</v>
       </c>
       <c r="AC396" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD396" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE396" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF396" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG396" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH396" s="2" t="s">
         <v>45</v>
@@ -59581,10 +59608,10 @@
         <v>1447</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1356</v>
+        <v>333</v>
       </c>
       <c r="D397" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>1448</v>
@@ -59593,13 +59620,13 @@
         <v>45</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1421</v>
+        <v>1449</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>1450</v>
+        <v>45</v>
       </c>
       <c r="J397" s="2" t="s">
         <v>45</v>
@@ -59614,7 +59641,7 @@
         <v>991</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>1402</v>
+        <v>45</v>
       </c>
       <c r="O397" s="2" t="s">
         <v>45</v>
@@ -59626,16 +59653,16 @@
         <v>45</v>
       </c>
       <c r="R397" s="2">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="S397" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="T397" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U397" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V397" s="2" t="s">
         <v>49</v>
@@ -59650,28 +59677,28 @@
         <v>49</v>
       </c>
       <c r="Z397" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA397" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB397" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC397" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD397" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE397" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF397" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG397" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH397" s="2" t="s">
         <v>45</v>
@@ -59697,13 +59724,13 @@
         <v>1451</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1452</v>
+        <v>1345</v>
       </c>
       <c r="D398" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1453</v>
+        <v>989</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>45</v>
@@ -59712,10 +59739,10 @@
         <v>991</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>45</v>
+        <v>1388</v>
       </c>
       <c r="J398" s="2" t="s">
         <v>45</v>
@@ -59730,7 +59757,7 @@
         <v>991</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O398" s="2" t="s">
         <v>45</v>
@@ -59742,16 +59769,16 @@
         <v>45</v>
       </c>
       <c r="R398" s="2">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="S398" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="T398" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U398" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V398" s="2" t="s">
         <v>49</v>
@@ -59766,28 +59793,28 @@
         <v>49</v>
       </c>
       <c r="Z398" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA398" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB398" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC398" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD398" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE398" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF398" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG398" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH398" s="2" t="s">
         <v>45</v>
@@ -59810,25 +59837,25 @@
     </row>
     <row r="399" customHeight="1" spans="2:39">
       <c r="B399" s="2" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D399" s="3">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1430</v>
+        <v>1400</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1431</v>
+        <v>991</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>1362</v>
+        <v>1454</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>45</v>
@@ -59843,7 +59870,7 @@
         <v>46</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>1456</v>
+        <v>991</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>45</v>
@@ -59858,10 +59885,10 @@
         <v>45</v>
       </c>
       <c r="R399" s="2">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="S399" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="T399" s="2" t="s">
         <v>50</v>
@@ -59900,10 +59927,10 @@
         <v>79</v>
       </c>
       <c r="AF399" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG399" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="AG399" s="2">
+        <v>454</v>
       </c>
       <c r="AH399" s="2" t="s">
         <v>45</v>
@@ -59926,25 +59953,25 @@
     </row>
     <row r="400" customHeight="1" spans="2:39">
       <c r="B400" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E400" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="F400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H400" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="D400" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>45</v>
@@ -59959,7 +59986,7 @@
         <v>46</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1456</v>
+        <v>991</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>45</v>
@@ -59974,10 +60001,10 @@
         <v>45</v>
       </c>
       <c r="R400" s="2">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="S400" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="T400" s="2" t="s">
         <v>50</v>
@@ -59989,7 +60016,7 @@
         <v>49</v>
       </c>
       <c r="W400" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X400" s="2" t="s">
         <v>49</v>
@@ -60007,19 +60034,19 @@
         <v>76</v>
       </c>
       <c r="AC400" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE400" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF400" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG400" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH400" s="2" t="s">
         <v>45</v>
@@ -60045,25 +60072,25 @@
         <v>1459</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>330</v>
+        <v>1356</v>
       </c>
       <c r="D401" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1370</v>
+        <v>1460</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1371</v>
+        <v>1421</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>45</v>
+        <v>1434</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>45</v>
@@ -60075,10 +60102,10 @@
         <v>46</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1456</v>
+        <v>991</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>45</v>
+        <v>1402</v>
       </c>
       <c r="O401" s="2" t="s">
         <v>45</v>
@@ -60090,10 +60117,10 @@
         <v>45</v>
       </c>
       <c r="R401" s="2">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="S401" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>50</v>
@@ -60126,16 +60153,16 @@
         <v>77</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE401" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF401" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG401" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH401" s="2" t="s">
         <v>45</v>
@@ -60158,25 +60185,25 @@
     </row>
     <row r="402" customHeight="1" spans="2:39">
       <c r="B402" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>327</v>
+        <v>1463</v>
       </c>
       <c r="D402" s="3">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1371</v>
+        <v>991</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>45</v>
@@ -60191,7 +60218,7 @@
         <v>46</v>
       </c>
       <c r="M402" s="2" t="s">
-        <v>1456</v>
+        <v>991</v>
       </c>
       <c r="N402" s="2" t="s">
         <v>45</v>
@@ -60206,16 +60233,16 @@
         <v>45</v>
       </c>
       <c r="R402" s="2">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="S402" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="T402" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U402" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V402" s="2" t="s">
         <v>49</v>
@@ -60230,16 +60257,16 @@
         <v>49</v>
       </c>
       <c r="Z402" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA402" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB402" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC402" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD402" s="2" t="s">
         <v>45</v>
@@ -60248,10 +60275,10 @@
         <v>45</v>
       </c>
       <c r="AF402" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG402" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH402" s="2" t="s">
         <v>45</v>
@@ -60274,25 +60301,25 @@
     </row>
     <row r="403" customHeight="1" spans="2:39">
       <c r="B403" s="2" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D403" s="3">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1370</v>
+        <v>1443</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1371</v>
+        <v>1444</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>1460</v>
+        <v>1362</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>45</v>
@@ -60307,10 +60334,10 @@
         <v>46</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>1463</v>
+        <v>45</v>
       </c>
       <c r="O403" s="2" t="s">
         <v>45</v>
@@ -60322,10 +60349,10 @@
         <v>45</v>
       </c>
       <c r="R403" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="S403" s="2">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="T403" s="2" t="s">
         <v>50</v>
@@ -60355,7 +60382,7 @@
         <v>76</v>
       </c>
       <c r="AC403" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD403" s="2" t="s">
         <v>78</v>
@@ -60364,10 +60391,10 @@
         <v>79</v>
       </c>
       <c r="AF403" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG403" s="2" t="s">
-        <v>1464</v>
+        <v>81</v>
       </c>
       <c r="AH403" s="2" t="s">
         <v>45</v>
@@ -60390,28 +60417,31 @@
     </row>
     <row r="404" customHeight="1" spans="2:39">
       <c r="B404" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1432</v>
       </c>
       <c r="D404" s="3">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1370</v>
+        <v>1443</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>1371</v>
+        <v>1444</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>1466</v>
+        <v>1401</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>1467</v>
+        <v>45</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>1468</v>
+        <v>45</v>
       </c>
       <c r="K404" s="2" t="s">
         <v>45</v>
@@ -60420,10 +60450,10 @@
         <v>46</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>1469</v>
+        <v>45</v>
       </c>
       <c r="O404" s="2" t="s">
         <v>45</v>
@@ -60435,10 +60465,10 @@
         <v>45</v>
       </c>
       <c r="R404" s="2">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="S404" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="T404" s="2" t="s">
         <v>50</v>
@@ -60468,16 +60498,16 @@
         <v>76</v>
       </c>
       <c r="AC404" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD404" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE404" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF404" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG404" s="2" t="s">
         <v>81</v>
@@ -60503,13 +60533,13 @@
     </row>
     <row r="405" customHeight="1" spans="2:39">
       <c r="B405" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1471</v>
+        <v>330</v>
       </c>
       <c r="D405" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1370</v>
@@ -60521,7 +60551,7 @@
         <v>1371</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>45</v>
@@ -60536,7 +60566,7 @@
         <v>46</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>45</v>
@@ -60551,10 +60581,10 @@
         <v>45</v>
       </c>
       <c r="R405" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="S405" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T405" s="2" t="s">
         <v>50</v>
@@ -60584,19 +60614,19 @@
         <v>76</v>
       </c>
       <c r="AC405" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD405" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE405" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF405" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG405" s="2" t="s">
-        <v>1464</v>
+        <v>81</v>
       </c>
       <c r="AH405" s="2" t="s">
         <v>45</v>
@@ -60619,25 +60649,25 @@
     </row>
     <row r="406" customHeight="1" spans="2:39">
       <c r="B406" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="D406" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>989</v>
+        <v>1370</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>991</v>
+        <v>1371</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>45</v>
@@ -60652,7 +60682,7 @@
         <v>46</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>45</v>
@@ -60667,16 +60697,16 @@
         <v>45</v>
       </c>
       <c r="R406" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="S406" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="T406" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U406" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V406" s="2" t="s">
         <v>49</v>
@@ -60694,13 +60724,13 @@
         <v>49</v>
       </c>
       <c r="AA406" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB406" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC406" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD406" s="2" t="s">
         <v>45</v>
@@ -60709,10 +60739,10 @@
         <v>45</v>
       </c>
       <c r="AF406" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG406" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH406" s="2" t="s">
         <v>45</v>
@@ -60735,25 +60765,25 @@
     </row>
     <row r="407" customHeight="1" spans="2:39">
       <c r="B407" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="D407" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1476</v>
+        <v>1370</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1477</v>
+        <v>1371</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>45</v>
@@ -60768,10 +60798,10 @@
         <v>46</v>
       </c>
       <c r="M407" s="2" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>45</v>
+        <v>1473</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>45</v>
@@ -60783,10 +60813,10 @@
         <v>45</v>
       </c>
       <c r="R407" s="2">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="S407" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="T407" s="2" t="s">
         <v>50</v>
@@ -60813,22 +60843,22 @@
         <v>59</v>
       </c>
       <c r="AB407" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC407" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD407" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE407" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF407" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG407" s="2" t="s">
-        <v>81</v>
+        <v>1474</v>
       </c>
       <c r="AH407" s="2" t="s">
         <v>45</v>
@@ -60851,31 +60881,28 @@
     </row>
     <row r="408" customHeight="1" spans="2:39">
       <c r="B408" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>330</v>
+        <v>1475</v>
       </c>
       <c r="D408" s="3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E408" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="F408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="J408" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="K408" s="2" t="s">
         <v>45</v>
@@ -60884,10 +60911,10 @@
         <v>46</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>45</v>
+        <v>1479</v>
       </c>
       <c r="O408" s="2" t="s">
         <v>45</v>
@@ -60899,10 +60926,10 @@
         <v>45</v>
       </c>
       <c r="R408" s="2">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="S408" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T408" s="2" t="s">
         <v>50</v>
@@ -60932,13 +60959,13 @@
         <v>76</v>
       </c>
       <c r="AC408" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD408" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE408" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF408" s="2" t="s">
         <v>91</v>
@@ -60970,22 +60997,22 @@
         <v>1480</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>115</v>
+        <v>1481</v>
       </c>
       <c r="D409" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1476</v>
+        <v>1370</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1477</v>
+        <v>1371</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>45</v>
@@ -61000,7 +61027,7 @@
         <v>46</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>45</v>
@@ -61015,16 +61042,16 @@
         <v>45</v>
       </c>
       <c r="R409" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="S409" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="T409" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U409" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V409" s="2" t="s">
         <v>49</v>
@@ -61042,25 +61069,25 @@
         <v>49</v>
       </c>
       <c r="AA409" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB409" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC409" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE409" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF409" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG409" s="2" t="s">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="AH409" s="2" t="s">
         <v>45</v>
@@ -61083,25 +61110,25 @@
     </row>
     <row r="410" customHeight="1" spans="2:39">
       <c r="B410" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D410" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1483</v>
+        <v>989</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H410" s="2" t="s">
         <v>1484</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>1485</v>
       </c>
       <c r="I410" s="2" t="s">
         <v>45</v>
@@ -61116,10 +61143,10 @@
         <v>46</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>1486</v>
+        <v>45</v>
       </c>
       <c r="O410" s="2" t="s">
         <v>45</v>
@@ -61134,13 +61161,13 @@
         <v>2012</v>
       </c>
       <c r="S410" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="T410" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U410" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V410" s="2" t="s">
         <v>49</v>
@@ -61158,7 +61185,7 @@
         <v>49</v>
       </c>
       <c r="AA410" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB410" s="2" t="s">
         <v>45</v>
@@ -61167,16 +61194,16 @@
         <v>45</v>
       </c>
       <c r="AD410" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE410" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF410" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG410" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH410" s="2" t="s">
         <v>45</v>
@@ -61199,25 +61226,25 @@
     </row>
     <row r="411" customHeight="1" spans="2:39">
       <c r="B411" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D411" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>1488</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>1489</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>45</v>
@@ -61232,7 +61259,7 @@
         <v>46</v>
       </c>
       <c r="M411" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>45</v>
@@ -61247,10 +61274,10 @@
         <v>45</v>
       </c>
       <c r="R411" s="2">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="S411" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="T411" s="2" t="s">
         <v>50</v>
@@ -61289,7 +61316,7 @@
         <v>45</v>
       </c>
       <c r="AF411" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG411" s="2" t="s">
         <v>81</v>
@@ -61315,25 +61342,25 @@
     </row>
     <row r="412" customHeight="1" spans="2:39">
       <c r="B412" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="D412" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>45</v>
@@ -61348,7 +61375,7 @@
         <v>46</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>45</v>
@@ -61363,10 +61390,10 @@
         <v>45</v>
       </c>
       <c r="R412" s="2">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="S412" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="T412" s="2" t="s">
         <v>50</v>
@@ -61396,19 +61423,19 @@
         <v>76</v>
       </c>
       <c r="AC412" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD412" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE412" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF412" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG412" s="2" t="s">
-        <v>1464</v>
+        <v>81</v>
       </c>
       <c r="AH412" s="2" t="s">
         <v>45</v>
@@ -61431,25 +61458,25 @@
     </row>
     <row r="413" customHeight="1" spans="2:39">
       <c r="B413" s="2" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D413" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>45</v>
@@ -61464,7 +61491,7 @@
         <v>46</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="N413" s="2" t="s">
         <v>45</v>
@@ -61479,16 +61506,16 @@
         <v>45</v>
       </c>
       <c r="R413" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="S413" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T413" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U413" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V413" s="2" t="s">
         <v>49</v>
@@ -61506,13 +61533,13 @@
         <v>49</v>
       </c>
       <c r="AA413" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB413" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC413" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD413" s="2" t="s">
         <v>45</v>
@@ -61521,10 +61548,10 @@
         <v>45</v>
       </c>
       <c r="AF413" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG413" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH413" s="2" t="s">
         <v>45</v>
@@ -61547,25 +61574,25 @@
     </row>
     <row r="414" customHeight="1" spans="2:39">
       <c r="B414" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H414" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D414" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>1494</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>45</v>
@@ -61580,10 +61607,10 @@
         <v>46</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>1484</v>
+        <v>1494</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>45</v>
+        <v>1496</v>
       </c>
       <c r="O414" s="2" t="s">
         <v>45</v>
@@ -61595,10 +61622,10 @@
         <v>45</v>
       </c>
       <c r="R414" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="S414" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="T414" s="2" t="s">
         <v>50</v>
@@ -61631,10 +61658,10 @@
         <v>45</v>
       </c>
       <c r="AD414" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE414" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF414" s="2" t="s">
         <v>80</v>
@@ -61655,7 +61682,7 @@
         <v>45</v>
       </c>
       <c r="AL414" s="2" t="s">
-        <v>1497</v>
+        <v>45</v>
       </c>
       <c r="AM414" s="2" t="s">
         <v>45</v>
@@ -61663,25 +61690,25 @@
     </row>
     <row r="415" customHeight="1" spans="2:39">
       <c r="B415" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E415" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D415" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1483</v>
-      </c>
       <c r="F415" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1484</v>
+        <v>1371</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="I415" s="2" t="s">
         <v>45</v>
@@ -61696,7 +61723,7 @@
         <v>46</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>1484</v>
+        <v>1494</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>45</v>
@@ -61711,10 +61738,10 @@
         <v>45</v>
       </c>
       <c r="R415" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="S415" s="2">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="T415" s="2" t="s">
         <v>50</v>
@@ -61741,13 +61768,13 @@
         <v>59</v>
       </c>
       <c r="AB415" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC415" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD415" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE415" s="2" t="s">
         <v>45</v>
@@ -61779,25 +61806,25 @@
     </row>
     <row r="416" customHeight="1" spans="2:39">
       <c r="B416" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D416" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>1437</v>
+        <v>1494</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="I416" s="2" t="s">
         <v>45</v>
@@ -61809,19 +61836,19 @@
         <v>45</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>1502</v>
+        <v>46</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>1437</v>
+        <v>1494</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1437</v>
+        <v>45</v>
       </c>
       <c r="O416" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>1437</v>
+        <v>45</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>45</v>
@@ -61830,7 +61857,7 @@
         <v>2006</v>
       </c>
       <c r="S416" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="T416" s="2" t="s">
         <v>50</v>
@@ -61869,194 +61896,200 @@
         <v>79</v>
       </c>
       <c r="AF416" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG416" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AH416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL416" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM416" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="417" customHeight="1" spans="2:39">
+      <c r="B417" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M417" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R417" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S417" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T417" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U417" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z417" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA417" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC417" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF417" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG416" s="2" t="s">
+      <c r="AG417" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL416" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM416" s="2" t="s">
+      <c r="AH417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL417" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM417" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="3:39">
-      <c r="C417" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D417" s="3">
+    <row r="418" customHeight="1" spans="2:39">
+      <c r="B418" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q418" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R418" s="2">
         <v>2015</v>
       </c>
-      <c r="E417" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H417" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L417" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M417" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="N417" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="O417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P417" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Q417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R417" s="2">
-        <v>2009</v>
-      </c>
-      <c r="S417" s="2">
-        <v>2009</v>
-      </c>
-      <c r="T417" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z417" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL417" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM417" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="418" customHeight="1" spans="3:39">
-      <c r="C418" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D418" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H418" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L418" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M418" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="N418" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="O418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P418" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Q418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R418" s="2">
-        <v>2013</v>
-      </c>
       <c r="S418" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="T418" s="2" t="s">
         <v>50</v>
@@ -62080,25 +62113,25 @@
         <v>49</v>
       </c>
       <c r="AA418" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB418" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC418" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD418" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE418" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF418" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG418" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH418" s="2" t="s">
         <v>45</v>
@@ -62113,7 +62146,7 @@
         <v>45</v>
       </c>
       <c r="AL418" s="2" t="s">
-        <v>45</v>
+        <v>1507</v>
       </c>
       <c r="AM418" s="2" t="s">
         <v>45</v>
@@ -62121,22 +62154,22 @@
     </row>
     <row r="419" customHeight="1" spans="2:39">
       <c r="B419" s="2" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>342</v>
+        <v>1386</v>
       </c>
       <c r="D419" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1437</v>
+        <v>1494</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>1504</v>
@@ -62151,28 +62184,28 @@
         <v>45</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>1502</v>
+        <v>46</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>1437</v>
+        <v>1494</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1437</v>
+        <v>45</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>1437</v>
+        <v>45</v>
       </c>
       <c r="Q419" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R419" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="S419" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="T419" s="2" t="s">
         <v>50</v>
@@ -62211,7 +62244,7 @@
         <v>45</v>
       </c>
       <c r="AF419" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG419" s="2" t="s">
         <v>81</v>
@@ -62237,28 +62270,28 @@
     </row>
     <row r="420" customHeight="1" spans="2:39">
       <c r="B420" s="2" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D420" s="3">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>1508</v>
+        <v>45</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>45</v>
@@ -62267,34 +62300,34 @@
         <v>45</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="Q420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R420" s="2">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="S420" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="T420" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U420" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V420" s="2" t="s">
         <v>49</v>
@@ -62303,7 +62336,7 @@
         <v>49</v>
       </c>
       <c r="X420" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y420" s="2" t="s">
         <v>49</v>
@@ -62312,25 +62345,25 @@
         <v>49</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB420" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC420" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD420" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE420" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF420" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG420" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH420" s="2" t="s">
         <v>45</v>
@@ -62353,22 +62386,22 @@
     </row>
     <row r="421" customHeight="1" spans="3:39">
       <c r="C421" s="2" t="s">
-        <v>1509</v>
+        <v>61</v>
       </c>
       <c r="D421" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="I421" s="2" t="s">
         <v>45</v>
@@ -62380,34 +62413,34 @@
         <v>45</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="O421" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P421" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="Q421" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R421" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S421" s="2" t="s">
-        <v>45</v>
+      <c r="R421" s="2">
+        <v>2009</v>
+      </c>
+      <c r="S421" s="2">
+        <v>2009</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U421" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V421" s="2" t="s">
         <v>49</v>
@@ -62425,10 +62458,10 @@
         <v>49</v>
       </c>
       <c r="AA421" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB421" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC421" s="2" t="s">
         <v>45</v>
@@ -62440,10 +62473,10 @@
         <v>45</v>
       </c>
       <c r="AF421" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG421" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH421" s="2" t="s">
         <v>45</v>
@@ -62464,24 +62497,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" customHeight="1" spans="2:39">
-      <c r="B422" s="2" t="s">
+    <row r="422" customHeight="1" spans="3:39">
+      <c r="C422" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E422" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D422" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1500</v>
-      </c>
       <c r="F422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="H422" s="2" t="s">
         <v>1511</v>
@@ -62496,34 +62526,34 @@
         <v>45</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="O422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P422" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="Q422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R422" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="S422" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="T422" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U422" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V422" s="2" t="s">
         <v>49</v>
@@ -62544,16 +62574,16 @@
         <v>45</v>
       </c>
       <c r="AB422" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC422" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD422" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE422" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF422" s="2" t="s">
         <v>45</v>
@@ -62582,255 +62612,255 @@
     </row>
     <row r="423" customHeight="1" spans="2:39">
       <c r="B423" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L423" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="M423" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N423" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="O423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Q423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R423" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S423" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T423" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U423" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA423" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB423" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF423" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG423" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM423" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" customHeight="1" spans="2:39">
+      <c r="B424" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D423" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E423" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M423" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="N423" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="O423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R423" s="2">
-        <v>1960</v>
-      </c>
-      <c r="S423" s="2">
-        <v>2021</v>
-      </c>
-      <c r="T423" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z423" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL423" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM423" s="2" t="s">
+      <c r="D424" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N424" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="O424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P424" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Q424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R424" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S424" s="2">
+        <v>2017</v>
+      </c>
+      <c r="T424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X424" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z424" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE424" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM424" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="424" customHeight="1" spans="3:39">
-      <c r="C424" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D424" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E424" s="2" t="s">
+    <row r="425" customHeight="1" spans="3:39">
+      <c r="C425" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="F424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L424" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M424" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N424" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="O424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R424" s="2">
-        <v>2008</v>
-      </c>
-      <c r="S424" s="2">
-        <v>2010</v>
-      </c>
-      <c r="T424" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U424" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V424" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W424" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X424" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y424" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z424" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA424" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB424" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC424" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF424" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG424" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL424" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM424" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="425" customHeight="1" spans="2:39">
-      <c r="B425" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D425" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>1520</v>
-      </c>
       <c r="I425" s="2" t="s">
         <v>45</v>
       </c>
@@ -62841,28 +62871,28 @@
         <v>45</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>1515</v>
+        <v>1449</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>1521</v>
+        <v>1449</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P425" s="2" t="s">
-        <v>45</v>
+        <v>1449</v>
       </c>
       <c r="Q425" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R425" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S425" s="2">
-        <v>2012</v>
+      <c r="R425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S425" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T425" s="2" t="s">
         <v>50</v>
@@ -62901,13 +62931,13 @@
         <v>45</v>
       </c>
       <c r="AF425" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG425" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH425" s="2" t="s">
-        <v>1522</v>
+        <v>45</v>
       </c>
       <c r="AI425" s="2" t="s">
         <v>45</v>
@@ -62927,25 +62957,25 @@
     </row>
     <row r="426" customHeight="1" spans="2:39">
       <c r="B426" s="2" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D426" s="3">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1431</v>
+        <v>1449</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>45</v>
@@ -62957,34 +62987,34 @@
         <v>45</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>1515</v>
+        <v>1449</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>45</v>
+        <v>1449</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P426" s="2" t="s">
-        <v>45</v>
+        <v>1449</v>
       </c>
       <c r="Q426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R426" s="2">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="S426" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="T426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U426" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V426" s="2" t="s">
         <v>49</v>
@@ -63002,13 +63032,13 @@
         <v>49</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB426" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC426" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD426" s="2" t="s">
         <v>45</v>
@@ -63017,13 +63047,13 @@
         <v>45</v>
       </c>
       <c r="AF426" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG426" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH426" s="2" t="s">
-        <v>1526</v>
+        <v>45</v>
       </c>
       <c r="AI426" s="2" t="s">
         <v>45</v>
@@ -63043,216 +63073,213 @@
     </row>
     <row r="427" customHeight="1" spans="2:39">
       <c r="B427" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M427" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N427" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="O427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P427" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Q427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R427" s="2">
+        <v>1960</v>
+      </c>
+      <c r="S427" s="2">
+        <v>2021</v>
+      </c>
+      <c r="T427" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z427" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM427" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="428" customHeight="1" spans="3:39">
+      <c r="C428" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M428" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N428" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D427" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H427" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M427" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R427" s="2">
+      <c r="O428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R428" s="2">
         <v>2008</v>
       </c>
-      <c r="S427" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T427" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U427" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V427" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W427" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X427" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y427" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z427" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA427" s="2" t="s">
+      <c r="S428" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T428" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U428" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z428" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA428" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB427" s="2" t="s">
+      <c r="AB428" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC427" s="2" t="s">
+      <c r="AC428" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF427" s="2" t="s">
+      <c r="AD428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF428" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG427" s="2" t="s">
+      <c r="AG428" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AH427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL427" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM427" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="428" customHeight="1" spans="2:39">
-      <c r="B428" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D428" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M428" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R428" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S428" s="2">
-        <v>2019</v>
-      </c>
-      <c r="T428" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U428" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V428" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W428" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X428" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y428" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z428" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF428" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG428" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AH428" s="2" t="s">
         <v>45</v>
@@ -63275,26 +63302,26 @@
     </row>
     <row r="429" customHeight="1" spans="2:39">
       <c r="B429" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D429" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G429" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H429" s="2" t="s">
-        <v>1520</v>
-      </c>
       <c r="I429" s="2" t="s">
         <v>45</v>
       </c>
@@ -63305,10 +63332,10 @@
         <v>45</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>1531</v>
@@ -63317,16 +63344,16 @@
         <v>45</v>
       </c>
       <c r="P429" s="2" t="s">
-        <v>1532</v>
+        <v>45</v>
       </c>
       <c r="Q429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R429" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="S429" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="T429" s="2" t="s">
         <v>50</v>
@@ -63356,22 +63383,22 @@
         <v>76</v>
       </c>
       <c r="AC429" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD429" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE429" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF429" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG429" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH429" s="2" t="s">
-        <v>45</v>
+        <v>1532</v>
       </c>
       <c r="AI429" s="2" t="s">
         <v>45</v>
@@ -63394,22 +63421,22 @@
         <v>1533</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D430" s="3">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1515</v>
+        <v>1444</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1520</v>
+        <v>1535</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>45</v>
@@ -63421,28 +63448,28 @@
         <v>45</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M430" s="2" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>1534</v>
+        <v>45</v>
       </c>
       <c r="O430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P430" s="2" t="s">
-        <v>1535</v>
+        <v>45</v>
       </c>
       <c r="Q430" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R430" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="S430" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T430" s="2" t="s">
         <v>50</v>
@@ -63469,16 +63496,16 @@
         <v>59</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC430" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF430" s="2" t="s">
         <v>80</v>
@@ -63487,7 +63514,7 @@
         <v>81</v>
       </c>
       <c r="AH430" s="2" t="s">
-        <v>45</v>
+        <v>1536</v>
       </c>
       <c r="AI430" s="2" t="s">
         <v>45</v>
@@ -63505,24 +63532,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" customHeight="1" spans="3:39">
+    <row r="431" customHeight="1" spans="2:39">
+      <c r="B431" s="2" t="s">
+        <v>1537</v>
+      </c>
       <c r="C431" s="2" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="D431" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>45</v>
@@ -63534,10 +63564,10 @@
         <v>45</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="N431" s="2" t="s">
         <v>45</v>
@@ -63552,16 +63582,16 @@
         <v>45</v>
       </c>
       <c r="R431" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S431" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="T431" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U431" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V431" s="2" t="s">
         <v>49</v>
@@ -63579,13 +63609,13 @@
         <v>49</v>
       </c>
       <c r="AA431" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC431" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD431" s="2" t="s">
         <v>45</v>
@@ -63594,10 +63624,10 @@
         <v>45</v>
       </c>
       <c r="AF431" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG431" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH431" s="2" t="s">
         <v>45</v>
@@ -63620,25 +63650,25 @@
     </row>
     <row r="432" customHeight="1" spans="2:39">
       <c r="B432" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="D432" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>45</v>
@@ -63650,10 +63680,10 @@
         <v>45</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>45</v>
@@ -63668,19 +63698,19 @@
         <v>45</v>
       </c>
       <c r="R432" s="2">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="S432" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="T432" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U432" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V432" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W432" s="2" t="s">
         <v>49</v>
@@ -63695,10 +63725,10 @@
         <v>49</v>
       </c>
       <c r="AA432" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC432" s="2" t="s">
         <v>45</v>
@@ -63710,10 +63740,10 @@
         <v>45</v>
       </c>
       <c r="AF432" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG432" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH432" s="2" t="s">
         <v>45</v>
@@ -63736,58 +63766,58 @@
     </row>
     <row r="433" customHeight="1" spans="2:39">
       <c r="B433" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M433" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N433" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="O433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P433" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D433" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G433" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L433" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M433" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="N433" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="O433" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P433" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q433" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R433" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="S433" s="2">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="T433" s="2" t="s">
         <v>50</v>
@@ -63814,22 +63844,22 @@
         <v>59</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC433" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD433" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF433" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AG433" s="2" t="s">
-        <v>81</v>
+        <v>1302</v>
       </c>
       <c r="AH433" s="2" t="s">
         <v>45</v>
@@ -63852,25 +63882,25 @@
     </row>
     <row r="434" customHeight="1" spans="2:39">
       <c r="B434" s="2" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1304</v>
+        <v>136</v>
       </c>
       <c r="D434" s="3">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="I434" s="2" t="s">
         <v>45</v>
@@ -63882,28 +63912,28 @@
         <v>45</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>45</v>
+        <v>1544</v>
       </c>
       <c r="O434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P434" s="2" t="s">
-        <v>45</v>
+        <v>1545</v>
       </c>
       <c r="Q434" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R434" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S434" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T434" s="2" t="s">
         <v>50</v>
@@ -63933,13 +63963,13 @@
         <v>76</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD434" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE434" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF434" s="2" t="s">
         <v>80</v>
@@ -63966,27 +63996,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="2:39">
-      <c r="B435" s="2" t="s">
-        <v>1549</v>
-      </c>
+    <row r="435" customHeight="1" spans="3:39">
       <c r="C435" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D435" s="3">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1551</v>
+        <v>1525</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>45</v>
@@ -63998,10 +64025,10 @@
         <v>45</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>1553</v>
+        <v>1525</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>45</v>
@@ -64019,13 +64046,13 @@
         <v>2005</v>
       </c>
       <c r="S435" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="T435" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U435" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V435" s="2" t="s">
         <v>49</v>
@@ -64043,7 +64070,7 @@
         <v>49</v>
       </c>
       <c r="AA435" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB435" s="2" t="s">
         <v>45</v>
@@ -64052,16 +64079,16 @@
         <v>45</v>
       </c>
       <c r="AD435" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE435" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF435" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG435" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH435" s="2" t="s">
         <v>45</v>
@@ -64084,25 +64111,25 @@
     </row>
     <row r="436" customHeight="1" spans="2:39">
       <c r="B436" s="2" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D436" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>45</v>
@@ -64114,13 +64141,13 @@
         <v>45</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>1558</v>
+        <v>1512</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>1559</v>
+        <v>45</v>
       </c>
       <c r="O436" s="2" t="s">
         <v>45</v>
@@ -64132,13 +64159,13 @@
         <v>45</v>
       </c>
       <c r="R436" s="2">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="S436" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="T436" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U436" s="2" t="s">
         <v>50</v>
@@ -64162,7 +64189,7 @@
         <v>59</v>
       </c>
       <c r="AB436" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC436" s="2" t="s">
         <v>45</v>
@@ -64171,10 +64198,10 @@
         <v>45</v>
       </c>
       <c r="AE436" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF436" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG436" s="2" t="s">
         <v>81</v>
@@ -64200,25 +64227,25 @@
     </row>
     <row r="437" customHeight="1" spans="2:39">
       <c r="B437" s="2" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D437" s="3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="I437" s="2" t="s">
         <v>45</v>
@@ -64230,13 +64257,13 @@
         <v>45</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>1558</v>
+        <v>1512</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>45</v>
+        <v>1555</v>
       </c>
       <c r="O437" s="2" t="s">
         <v>45</v>
@@ -64251,7 +64278,7 @@
         <v>2008</v>
       </c>
       <c r="S437" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="T437" s="2" t="s">
         <v>50</v>
@@ -64290,7 +64317,7 @@
         <v>45</v>
       </c>
       <c r="AF437" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG437" s="2" t="s">
         <v>81</v>
@@ -64316,25 +64343,25 @@
     </row>
     <row r="438" customHeight="1" spans="2:39">
       <c r="B438" s="2" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>129</v>
+        <v>1304</v>
       </c>
       <c r="D438" s="3">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="I438" s="2" t="s">
         <v>45</v>
@@ -64346,11 +64373,11 @@
         <v>45</v>
       </c>
       <c r="L438" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M438" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="M438" s="2" t="s">
-        <v>1556</v>
-      </c>
       <c r="N438" s="2" t="s">
         <v>45</v>
       </c>
@@ -64363,17 +64390,17 @@
       <c r="Q438" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R438" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S438" s="2" t="s">
-        <v>45</v>
+      <c r="R438" s="2">
+        <v>2005</v>
+      </c>
+      <c r="S438" s="2">
+        <v>2006</v>
       </c>
       <c r="T438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U438" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V438" s="2" t="s">
         <v>49</v>
@@ -64385,16 +64412,16 @@
         <v>49</v>
       </c>
       <c r="Y438" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z438" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB438" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC438" s="2" t="s">
         <v>45</v>
@@ -64406,10 +64433,10 @@
         <v>45</v>
       </c>
       <c r="AF438" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG438" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH438" s="2" t="s">
         <v>45</v>
@@ -64432,25 +64459,25 @@
     </row>
     <row r="439" customHeight="1" spans="2:39">
       <c r="B439" s="2" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D439" s="3">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="I439" s="2" t="s">
         <v>45</v>
@@ -64462,10 +64489,10 @@
         <v>45</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>1558</v>
+        <v>1512</v>
       </c>
       <c r="M439" s="2" t="s">
-        <v>1556</v>
+        <v>1563</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>45</v>
@@ -64480,10 +64507,10 @@
         <v>45</v>
       </c>
       <c r="R439" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="S439" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="T439" s="2" t="s">
         <v>50</v>
@@ -64510,16 +64537,16 @@
         <v>59</v>
       </c>
       <c r="AB439" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC439" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD439" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE439" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF439" s="2" t="s">
         <v>80</v>
@@ -64548,44 +64575,44 @@
     </row>
     <row r="440" customHeight="1" spans="2:39">
       <c r="B440" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H440" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D440" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E440" s="2" t="s">
+      <c r="I440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L440" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="F440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="H440" s="2" t="s">
+      <c r="M440" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N440" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="I440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K440" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L440" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="M440" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="N440" s="2" t="s">
-        <v>1570</v>
-      </c>
       <c r="O440" s="2" t="s">
         <v>45</v>
       </c>
@@ -64596,16 +64623,16 @@
         <v>45</v>
       </c>
       <c r="R440" s="2">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="S440" s="2">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="T440" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U440" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V440" s="2" t="s">
         <v>49</v>
@@ -64623,7 +64650,7 @@
         <v>49</v>
       </c>
       <c r="AA440" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB440" s="2" t="s">
         <v>45</v>
@@ -64635,13 +64662,13 @@
         <v>45</v>
       </c>
       <c r="AE440" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF440" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AG440" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH440" s="2" t="s">
         <v>45</v>
@@ -64664,26 +64691,26 @@
     </row>
     <row r="441" customHeight="1" spans="2:39">
       <c r="B441" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="F441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H441" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="D441" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="H441" s="2" t="s">
-        <v>1575</v>
-      </c>
       <c r="I441" s="2" t="s">
         <v>45</v>
       </c>
@@ -64694,10 +64721,10 @@
         <v>45</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>1558</v>
+        <v>1568</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>45</v>
@@ -64712,10 +64739,10 @@
         <v>45</v>
       </c>
       <c r="R441" s="2">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="S441" s="2">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="T441" s="2" t="s">
         <v>50</v>
@@ -64742,7 +64769,7 @@
         <v>59</v>
       </c>
       <c r="AB441" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC441" s="2" t="s">
         <v>45</v>
@@ -64754,10 +64781,10 @@
         <v>45</v>
       </c>
       <c r="AF441" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG441" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH441" s="2" t="s">
         <v>45</v>
@@ -64780,25 +64807,25 @@
     </row>
     <row r="442" customHeight="1" spans="2:39">
       <c r="B442" s="2" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1356</v>
+        <v>129</v>
       </c>
       <c r="D442" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>45</v>
@@ -64810,13 +64837,13 @@
         <v>45</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>1558</v>
+        <v>1568</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O442" s="2" t="s">
         <v>45</v>
@@ -64827,17 +64854,17 @@
       <c r="Q442" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R442" s="2">
-        <v>1956</v>
-      </c>
-      <c r="S442" s="2">
-        <v>2018</v>
+      <c r="R442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S442" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T442" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U442" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V442" s="2" t="s">
         <v>49</v>
@@ -64849,25 +64876,25 @@
         <v>49</v>
       </c>
       <c r="Y442" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z442" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AA442" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB442" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC442" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE442" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF442" s="2" t="s">
         <v>45</v>
@@ -64896,25 +64923,25 @@
     </row>
     <row r="443" customHeight="1" spans="2:39">
       <c r="B443" s="2" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D443" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>45</v>
@@ -64926,10 +64953,10 @@
         <v>45</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>1558</v>
+        <v>1568</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>1583</v>
+        <v>1566</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>45</v>
@@ -64944,10 +64971,10 @@
         <v>45</v>
       </c>
       <c r="R443" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S443" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>50</v>
@@ -64974,16 +65001,16 @@
         <v>59</v>
       </c>
       <c r="AB443" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC443" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE443" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF443" s="2" t="s">
         <v>80</v>
@@ -65012,25 +65039,25 @@
     </row>
     <row r="444" customHeight="1" spans="2:39">
       <c r="B444" s="2" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1585</v>
+        <v>379</v>
       </c>
       <c r="D444" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1504</v>
+        <v>1579</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>45</v>
@@ -65042,13 +65069,13 @@
         <v>45</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>45</v>
+        <v>1580</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>45</v>
@@ -65060,16 +65087,16 @@
         <v>45</v>
       </c>
       <c r="R444" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="S444" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U444" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V444" s="2" t="s">
         <v>49</v>
@@ -65087,22 +65114,22 @@
         <v>49</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB444" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC444" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE444" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF444" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AG444" s="2" t="s">
         <v>45</v>
@@ -65128,25 +65155,25 @@
     </row>
     <row r="445" customHeight="1" spans="2:39">
       <c r="B445" s="2" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>115</v>
+        <v>1582</v>
       </c>
       <c r="D445" s="3">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="I445" s="2" t="s">
         <v>45</v>
@@ -65158,10 +65185,10 @@
         <v>45</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>1593</v>
+        <v>1568</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>45</v>
@@ -65176,10 +65203,10 @@
         <v>45</v>
       </c>
       <c r="R445" s="2">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="S445" s="2">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="T445" s="2" t="s">
         <v>50</v>
@@ -65206,22 +65233,22 @@
         <v>59</v>
       </c>
       <c r="AB445" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC445" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD445" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE445" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AF445" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AG445" s="2" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AH445" s="2" t="s">
         <v>45</v>
@@ -65244,25 +65271,25 @@
     </row>
     <row r="446" customHeight="1" spans="2:39">
       <c r="B446" s="2" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="D446" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="I446" s="2" t="s">
         <v>45</v>
@@ -65274,13 +65301,13 @@
         <v>45</v>
       </c>
       <c r="L446" s="2" t="s">
-        <v>1593</v>
+        <v>1568</v>
       </c>
       <c r="M446" s="2" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>1597</v>
+        <v>47</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>45</v>
@@ -65292,10 +65319,10 @@
         <v>45</v>
       </c>
       <c r="R446" s="2">
-        <v>2001</v>
+        <v>1956</v>
       </c>
       <c r="S446" s="2">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="T446" s="2" t="s">
         <v>50</v>
@@ -65322,22 +65349,22 @@
         <v>59</v>
       </c>
       <c r="AB446" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC446" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD446" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AE446" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF446" s="2" t="s">
-        <v>1598</v>
+        <v>45</v>
       </c>
       <c r="AG446" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH446" s="2" t="s">
         <v>45</v>
@@ -65360,16 +65387,16 @@
     </row>
     <row r="447" customHeight="1" spans="2:39">
       <c r="B447" s="2" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D447" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>45</v>
@@ -65378,7 +65405,7 @@
         <v>1591</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="I447" s="2" t="s">
         <v>45</v>
@@ -65390,11 +65417,11 @@
         <v>45</v>
       </c>
       <c r="L447" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M447" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="M447" s="2" t="s">
-        <v>1591</v>
-      </c>
       <c r="N447" s="2" t="s">
         <v>45</v>
       </c>
@@ -65408,10 +65435,10 @@
         <v>45</v>
       </c>
       <c r="R447" s="2">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="S447" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T447" s="2" t="s">
         <v>50</v>
@@ -65450,7 +65477,7 @@
         <v>45</v>
       </c>
       <c r="AF447" s="2" t="s">
-        <v>1137</v>
+        <v>80</v>
       </c>
       <c r="AG447" s="2" t="s">
         <v>81</v>
@@ -65476,58 +65503,58 @@
     </row>
     <row r="448" customHeight="1" spans="2:39">
       <c r="B448" s="2" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>342</v>
+        <v>1595</v>
       </c>
       <c r="D448" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M448" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R448" s="2">
+        <v>2015</v>
+      </c>
+      <c r="S448" s="2">
         <v>2017</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G448" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H448" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L448" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="M448" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="N448" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q448" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R448" s="2">
-        <v>2012</v>
-      </c>
-      <c r="S448" s="2">
-        <v>2012</v>
       </c>
       <c r="T448" s="2" t="s">
         <v>50</v>
@@ -65554,22 +65581,22 @@
         <v>59</v>
       </c>
       <c r="AB448" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC448" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD448" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE448" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF448" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AG448" s="2" t="s">
-        <v>1464</v>
+        <v>45</v>
       </c>
       <c r="AH448" s="2" t="s">
         <v>45</v>
@@ -65592,28 +65619,28 @@
     </row>
     <row r="449" customHeight="1" spans="2:39">
       <c r="B449" s="2" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="D449" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>1606</v>
+        <v>45</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>45</v>
@@ -65622,10 +65649,10 @@
         <v>45</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>45</v>
@@ -65640,10 +65667,10 @@
         <v>45</v>
       </c>
       <c r="R449" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="S449" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="T449" s="2" t="s">
         <v>50</v>
@@ -65670,7 +65697,7 @@
         <v>59</v>
       </c>
       <c r="AB449" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC449" s="2" t="s">
         <v>45</v>
@@ -65679,7 +65706,7 @@
         <v>45</v>
       </c>
       <c r="AE449" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF449" s="2" t="s">
         <v>80</v>
@@ -65706,42 +65733,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="450" customHeight="1" spans="3:39">
+    <row r="450" customHeight="1" spans="2:39">
+      <c r="B450" s="2" t="s">
+        <v>1604</v>
+      </c>
       <c r="C450" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D450" s="3">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E450" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N450" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H450" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K450" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L450" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="M450" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="N450" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O450" s="2" t="s">
         <v>45</v>
@@ -65756,13 +65786,13 @@
         <v>2001</v>
       </c>
       <c r="S450" s="2">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="T450" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V450" s="2" t="s">
         <v>49</v>
@@ -65789,16 +65819,16 @@
         <v>45</v>
       </c>
       <c r="AD450" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE450" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>45</v>
+        <v>1608</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>45</v>
@@ -65819,24 +65849,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="451" customHeight="1" spans="3:39">
+    <row r="451" customHeight="1" spans="2:39">
+      <c r="B451" s="2" t="s">
+        <v>1609</v>
+      </c>
       <c r="C451" s="2" t="s">
-        <v>1609</v>
+        <v>129</v>
       </c>
       <c r="D451" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="I451" s="2" t="s">
         <v>45</v>
@@ -65848,10 +65881,10 @@
         <v>45</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>45</v>
@@ -65866,10 +65899,10 @@
         <v>45</v>
       </c>
       <c r="R451" s="2">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="S451" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T451" s="2" t="s">
         <v>50</v>
@@ -65908,10 +65941,10 @@
         <v>45</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG451" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH451" s="2" t="s">
         <v>45</v>
@@ -65934,43 +65967,43 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E452" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D452" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>1595</v>
-      </c>
       <c r="F452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1591</v>
+        <v>1358</v>
       </c>
       <c r="H452" s="2" t="s">
         <v>1612</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>45</v>
+        <v>1613</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>45</v>
+        <v>1614</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>45</v>
@@ -65981,11 +66014,11 @@
       <c r="Q452" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R452" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S452" s="2" t="s">
-        <v>45</v>
+      <c r="R452" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S452" s="2">
+        <v>2012</v>
       </c>
       <c r="T452" s="2" t="s">
         <v>50</v>
@@ -66012,22 +66045,22 @@
         <v>59</v>
       </c>
       <c r="AB452" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC452" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD452" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE452" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>81</v>
+        <v>1474</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>45</v>
@@ -66050,28 +66083,28 @@
     </row>
     <row r="453" customHeight="1" spans="2:39">
       <c r="B453" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D453" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>45</v>
+        <v>1616</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>45</v>
@@ -66080,10 +66113,10 @@
         <v>45</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M453" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>45</v>
@@ -66098,13 +66131,13 @@
         <v>45</v>
       </c>
       <c r="R453" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="S453" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T453" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U453" s="2" t="s">
         <v>50</v>
@@ -66116,7 +66149,7 @@
         <v>49</v>
       </c>
       <c r="X453" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y453" s="2" t="s">
         <v>49</v>
@@ -66128,19 +66161,19 @@
         <v>59</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AG453" s="2" t="s">
         <v>81</v>
@@ -66164,15 +66197,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="454" customHeight="1" spans="2:39">
-      <c r="B454" s="2" t="s">
-        <v>1616</v>
-      </c>
+    <row r="454" customHeight="1" spans="3:39">
       <c r="C454" s="2" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="D454" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>1617</v>
@@ -66181,7 +66211,7 @@
         <v>45</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1591</v>
+        <v>1440</v>
       </c>
       <c r="H454" s="2" t="s">
         <v>1618</v>
@@ -66196,10 +66226,10 @@
         <v>45</v>
       </c>
       <c r="L454" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>45</v>
@@ -66214,10 +66244,10 @@
         <v>45</v>
       </c>
       <c r="R454" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="S454" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T454" s="2" t="s">
         <v>50</v>
@@ -66241,7 +66271,7 @@
         <v>49</v>
       </c>
       <c r="AA454" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB454" s="2" t="s">
         <v>45</v>
@@ -66280,27 +66310,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="455" customHeight="1" spans="2:39">
-      <c r="B455" s="2" t="s">
+    <row r="455" customHeight="1" spans="3:39">
+      <c r="C455" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E455" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D455" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>1620</v>
-      </c>
       <c r="F455" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>45</v>
@@ -66312,13 +66339,13 @@
         <v>45</v>
       </c>
       <c r="L455" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M455" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>1623</v>
+        <v>45</v>
       </c>
       <c r="O455" s="2" t="s">
         <v>45</v>
@@ -66330,16 +66357,16 @@
         <v>45</v>
       </c>
       <c r="R455" s="2">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="S455" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T455" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U455" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V455" s="2" t="s">
         <v>49</v>
@@ -66363,7 +66390,7 @@
         <v>45</v>
       </c>
       <c r="AC455" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD455" s="2" t="s">
         <v>45</v>
@@ -66372,10 +66399,10 @@
         <v>45</v>
       </c>
       <c r="AF455" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG455" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH455" s="2" t="s">
         <v>45</v>
@@ -66398,25 +66425,25 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>115</v>
+        <v>1595</v>
       </c>
       <c r="D456" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="I456" s="2" t="s">
         <v>45</v>
@@ -66428,13 +66455,13 @@
         <v>45</v>
       </c>
       <c r="L456" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M456" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>45</v>
+        <v>1622</v>
       </c>
       <c r="O456" s="2" t="s">
         <v>45</v>
@@ -66445,11 +66472,11 @@
       <c r="Q456" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R456" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S456" s="2">
-        <v>2019</v>
+      <c r="R456" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S456" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>50</v>
@@ -66476,25 +66503,25 @@
         <v>59</v>
       </c>
       <c r="AB456" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC456" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD456" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE456" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AF456" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG456" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH456" s="2" t="s">
-        <v>1626</v>
+        <v>45</v>
       </c>
       <c r="AI456" s="2" t="s">
         <v>45</v>
@@ -66514,25 +66541,25 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1392</v>
+        <v>342</v>
       </c>
       <c r="D457" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1595</v>
+        <v>1619</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>45</v>
@@ -66544,10 +66571,10 @@
         <v>45</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>45</v>
@@ -66562,13 +66589,13 @@
         <v>45</v>
       </c>
       <c r="R457" s="2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="S457" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="T457" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U457" s="2" t="s">
         <v>50</v>
@@ -66580,7 +66607,7 @@
         <v>49</v>
       </c>
       <c r="X457" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y457" s="2" t="s">
         <v>49</v>
@@ -66589,25 +66616,25 @@
         <v>49</v>
       </c>
       <c r="AA457" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB457" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC457" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD457" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE457" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF457" s="2" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="AG457" s="2" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AH457" s="2" t="s">
         <v>45</v>
@@ -66630,25 +66657,25 @@
     </row>
     <row r="458" customHeight="1" spans="2:39">
       <c r="B458" s="2" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="D458" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1595</v>
+        <v>1626</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="I458" s="2" t="s">
         <v>45</v>
@@ -66660,10 +66687,10 @@
         <v>45</v>
       </c>
       <c r="L458" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M458" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="N458" s="2" t="s">
         <v>45</v>
@@ -66678,16 +66705,16 @@
         <v>45</v>
       </c>
       <c r="R458" s="2">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="S458" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T458" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>49</v>
@@ -66714,19 +66741,19 @@
         <v>45</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE458" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF458" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG458" s="2" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AH458" s="2" t="s">
-        <v>1631</v>
+        <v>45</v>
       </c>
       <c r="AI458" s="2" t="s">
         <v>45</v>
@@ -66746,25 +66773,25 @@
     </row>
     <row r="459" customHeight="1" spans="2:39">
       <c r="B459" s="2" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D459" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="I459" s="2" t="s">
         <v>45</v>
@@ -66776,13 +66803,13 @@
         <v>45</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>1634</v>
+        <v>1601</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>45</v>
+        <v>1632</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>45</v>
@@ -66794,16 +66821,16 @@
         <v>45</v>
       </c>
       <c r="R459" s="2">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="S459" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T459" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U459" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V459" s="2" t="s">
         <v>49</v>
@@ -66824,7 +66851,7 @@
         <v>59</v>
       </c>
       <c r="AB459" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC459" s="2" t="s">
         <v>45</v>
@@ -66836,13 +66863,13 @@
         <v>45</v>
       </c>
       <c r="AF459" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG459" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH459" s="2" t="s">
-        <v>1636</v>
+        <v>45</v>
       </c>
       <c r="AI459" s="2" t="s">
         <v>45</v>
@@ -66862,25 +66889,25 @@
     </row>
     <row r="460" customHeight="1" spans="2:39">
       <c r="B460" s="2" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D460" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1638</v>
+        <v>1605</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1421</v>
+        <v>1601</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="I460" s="2" t="s">
         <v>45</v>
@@ -66892,13 +66919,13 @@
         <v>45</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>1641</v>
+        <v>45</v>
       </c>
       <c r="O460" s="2" t="s">
         <v>45</v>
@@ -66910,7 +66937,7 @@
         <v>45</v>
       </c>
       <c r="R460" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S460" s="2">
         <v>2019</v>
@@ -66919,7 +66946,7 @@
         <v>50</v>
       </c>
       <c r="U460" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V460" s="2" t="s">
         <v>49</v>
@@ -66937,13 +66964,13 @@
         <v>49</v>
       </c>
       <c r="AA460" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB460" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC460" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD460" s="2" t="s">
         <v>45</v>
@@ -66952,13 +66979,13 @@
         <v>45</v>
       </c>
       <c r="AF460" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG460" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH460" s="2" t="s">
-        <v>45</v>
+        <v>1635</v>
       </c>
       <c r="AI460" s="2" t="s">
         <v>45</v>
@@ -66978,64 +67005,64 @@
     </row>
     <row r="461" customHeight="1" spans="2:39">
       <c r="B461" s="2" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>115</v>
+        <v>1392</v>
       </c>
       <c r="D461" s="3">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1643</v>
+        <v>1605</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1644</v>
+        <v>1601</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>1646</v>
+        <v>45</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>1647</v>
+        <v>45</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>1648</v>
+        <v>1603</v>
       </c>
       <c r="M461" s="2" t="s">
-        <v>1644</v>
+        <v>1601</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>1649</v>
+        <v>45</v>
       </c>
       <c r="O461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P461" s="2" t="s">
-        <v>1649</v>
+        <v>45</v>
       </c>
       <c r="Q461" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R461" s="2">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="S461" s="2">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="T461" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U461" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V461" s="2" t="s">
         <v>49</v>
@@ -67053,13 +67080,13 @@
         <v>49</v>
       </c>
       <c r="AA461" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB461" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC461" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD461" s="2" t="s">
         <v>45</v>
@@ -67068,10 +67095,10 @@
         <v>45</v>
       </c>
       <c r="AF461" s="2" t="s">
-        <v>1137</v>
+        <v>91</v>
       </c>
       <c r="AG461" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH461" s="2" t="s">
         <v>45</v>
@@ -67094,25 +67121,25 @@
     </row>
     <row r="462" customHeight="1" spans="2:39">
       <c r="B462" s="2" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D462" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1651</v>
+        <v>1605</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>1427</v>
+        <v>1601</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="I462" s="2" t="s">
         <v>45</v>
@@ -67124,10 +67151,10 @@
         <v>45</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>1648</v>
+        <v>1603</v>
       </c>
       <c r="M462" s="2" t="s">
-        <v>1653</v>
+        <v>1601</v>
       </c>
       <c r="N462" s="2" t="s">
         <v>45</v>
@@ -67141,17 +67168,17 @@
       <c r="Q462" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R462" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S462" s="2" t="s">
-        <v>45</v>
+      <c r="R462" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S462" s="2">
+        <v>2023</v>
       </c>
       <c r="T462" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V462" s="2" t="s">
         <v>49</v>
@@ -67163,7 +67190,7 @@
         <v>49</v>
       </c>
       <c r="Y462" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z462" s="2" t="s">
         <v>49</v>
@@ -67172,25 +67199,25 @@
         <v>45</v>
       </c>
       <c r="AB462" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC462" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD462" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE462" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AF462" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG462" s="2" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AH462" s="2" t="s">
-        <v>45</v>
+        <v>1640</v>
       </c>
       <c r="AI462" s="2" t="s">
         <v>45</v>
@@ -67210,28 +67237,28 @@
     </row>
     <row r="463" customHeight="1" spans="2:39">
       <c r="B463" s="2" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D463" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1601</v>
+        <v>1642</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>1358</v>
+        <v>1643</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>1602</v>
+        <v>45</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>45</v>
@@ -67240,10 +67267,10 @@
         <v>45</v>
       </c>
       <c r="L463" s="2" t="s">
-        <v>45</v>
+        <v>1603</v>
       </c>
       <c r="M463" s="2" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="N463" s="2" t="s">
         <v>45</v>
@@ -67258,10 +67285,10 @@
         <v>45</v>
       </c>
       <c r="R463" s="2">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="S463" s="2">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="T463" s="2" t="s">
         <v>50</v>
@@ -67288,10 +67315,10 @@
         <v>59</v>
       </c>
       <c r="AB463" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC463" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD463" s="2" t="s">
         <v>45</v>
@@ -67303,10 +67330,10 @@
         <v>91</v>
       </c>
       <c r="AG463" s="2" t="s">
-        <v>1302</v>
+        <v>81</v>
       </c>
       <c r="AH463" s="2" t="s">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="AI463" s="2" t="s">
         <v>45</v>
@@ -67326,28 +67353,28 @@
     </row>
     <row r="464" customHeight="1" spans="2:39">
       <c r="B464" s="2" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D464" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>1656</v>
+        <v>1421</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>1602</v>
+        <v>45</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>45</v>
@@ -67356,13 +67383,13 @@
         <v>45</v>
       </c>
       <c r="L464" s="2" t="s">
-        <v>45</v>
+        <v>1603</v>
       </c>
       <c r="M464" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>45</v>
+        <v>1650</v>
       </c>
       <c r="O464" s="2" t="s">
         <v>45</v>
@@ -67374,7 +67401,7 @@
         <v>45</v>
       </c>
       <c r="R464" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S464" s="2">
         <v>2019</v>
@@ -67383,7 +67410,7 @@
         <v>50</v>
       </c>
       <c r="U464" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V464" s="2" t="s">
         <v>49</v>
@@ -67401,13 +67428,13 @@
         <v>49</v>
       </c>
       <c r="AA464" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AB464" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC464" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AD464" s="2" t="s">
         <v>45</v>
@@ -67416,10 +67443,10 @@
         <v>45</v>
       </c>
       <c r="AF464" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AG464" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH464" s="2" t="s">
         <v>45</v>
@@ -67442,64 +67469,64 @@
     </row>
     <row r="465" customHeight="1" spans="2:39">
       <c r="B465" s="2" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D465" s="3">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>45</v>
+        <v>1655</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>45</v>
+        <v>1656</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L465" s="2" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="M465" s="2" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>45</v>
+        <v>1658</v>
       </c>
       <c r="O465" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P465" s="2" t="s">
-        <v>45</v>
+        <v>1658</v>
       </c>
       <c r="Q465" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R465" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="S465" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="T465" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U465" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V465" s="2" t="s">
         <v>49</v>
@@ -67532,10 +67559,10 @@
         <v>45</v>
       </c>
       <c r="AF465" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="AG465" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AH465" s="2" t="s">
         <v>45</v>
@@ -67558,25 +67585,25 @@
     </row>
     <row r="466" customHeight="1" spans="2:39">
       <c r="B466" s="2" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1666</v>
+        <v>129</v>
       </c>
       <c r="D466" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>1668</v>
+        <v>1440</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="I466" s="2" t="s">
         <v>45</v>
@@ -67588,10 +67615,10 @@
         <v>45</v>
       </c>
       <c r="L466" s="2" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="M466" s="2" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="N466" s="2" t="s">
         <v>45</v>
@@ -67605,14 +67632,14 @@
       <c r="Q466" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R466" s="2">
-        <v>2020</v>
-      </c>
-      <c r="S466" s="2">
-        <v>2020</v>
+      <c r="R466" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S466" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T466" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U466" s="2" t="s">
         <v>49</v>
@@ -67627,7 +67654,7 @@
         <v>49</v>
       </c>
       <c r="Y466" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z466" s="2" t="s">
         <v>49</v>
@@ -67636,10 +67663,10 @@
         <v>45</v>
       </c>
       <c r="AB466" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC466" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD466" s="2" t="s">
         <v>45</v>
@@ -67674,28 +67701,28 @@
     </row>
     <row r="467" customHeight="1" spans="2:39">
       <c r="B467" s="2" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D467" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1672</v>
+        <v>1611</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>1427</v>
+        <v>1358</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>45</v>
+        <v>1612</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>45</v>
@@ -67704,13 +67731,13 @@
         <v>45</v>
       </c>
       <c r="L467" s="2" t="s">
-        <v>1670</v>
+        <v>45</v>
       </c>
       <c r="M467" s="2" t="s">
-        <v>1427</v>
+        <v>1665</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>1674</v>
+        <v>45</v>
       </c>
       <c r="O467" s="2" t="s">
         <v>45</v>
@@ -67722,16 +67749,16 @@
         <v>45</v>
       </c>
       <c r="R467" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S467" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T467" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U467" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V467" s="2" t="s">
         <v>49</v>
@@ -67749,13 +67776,13 @@
         <v>49</v>
       </c>
       <c r="AA467" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AB467" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AC467" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AD467" s="2" t="s">
         <v>45</v>
@@ -67764,10 +67791,10 @@
         <v>45</v>
       </c>
       <c r="AF467" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AG467" s="2" t="s">
-        <v>45</v>
+        <v>1302</v>
       </c>
       <c r="AH467" s="2" t="s">
         <v>45</v>
@@ -67790,28 +67817,28 @@
     </row>
     <row r="468" customHeight="1" spans="2:39">
       <c r="B468" s="2" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1666</v>
+        <v>129</v>
       </c>
       <c r="D468" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G468" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H468" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="H468" s="2" t="s">
-        <v>1677</v>
-      </c>
       <c r="I468" s="2" t="s">
-        <v>45</v>
+        <v>1612</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>45</v>
@@ -67820,13 +67847,13 @@
         <v>45</v>
       </c>
       <c r="L468" s="2" t="s">
-        <v>1670</v>
+        <v>45</v>
       </c>
       <c r="M468" s="2" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>1678</v>
+        <v>45</v>
       </c>
       <c r="O468" s="2" t="s">
         <v>45</v>
@@ -67838,10 +67865,10 @@
         <v>45</v>
       </c>
       <c r="R468" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="S468" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T468" s="2" t="s">
         <v>50</v>
@@ -67868,13 +67895,13 @@
         <v>59</v>
       </c>
       <c r="AB468" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AC468" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AD468" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE468" s="2" t="s">
         <v>45</v>
@@ -67906,122 +67933,586 @@
     </row>
     <row r="469" customHeight="1" spans="2:39">
       <c r="B469" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M469" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R469" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S469" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T469" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U469" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z469" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA469" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB469" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF469" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG469" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL469" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM469" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="470" customHeight="1" spans="2:39">
+      <c r="B470" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L470" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D469" s="3">
+      <c r="M470" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R470" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S470" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T470" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z470" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM470" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="471" customHeight="1" spans="2:39">
+      <c r="B471" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M471" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="N471" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R471" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S471" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T471" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z471" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL471" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM471" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="472" customHeight="1" spans="2:39">
+      <c r="B472" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M472" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N472" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="O472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R472" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S472" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T472" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U472" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA472" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB472" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC472" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD472" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF472" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG472" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM472" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="473" customHeight="1" spans="2:39">
+      <c r="B473" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D473" s="3">
         <v>2024</v>
       </c>
-      <c r="E469" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G469" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H469" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L469" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="M469" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="N469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R469" s="2">
+      <c r="E473" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L473" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M473" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R473" s="2">
         <v>2023</v>
       </c>
-      <c r="S469" s="2">
+      <c r="S473" s="2">
         <v>2023</v>
       </c>
-      <c r="T469" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z469" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL469" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM469" s="2" t="s">
+      <c r="T473" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z473" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL473" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM473" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM469">
+  <autoFilter ref="A1:AM473">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28147" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$497</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17324" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17357" uniqueCount="1755">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -12285,6 +12285,12 @@
   </si>
   <si>
     <t>KM216664-KM216747, KM222447-KM222448</t>
+  </si>
+  <si>
+    <t>Novartis-Eijkman-Hasanuddin Clinical Research Initiative</t>
+  </si>
+  <si>
+    <t>Makassar</t>
   </si>
   <si>
     <t>Divergence of the dengue virus type 2 cosmopolitan genotype associated with two predominant serotype shifts between 1 and 2 in Surabaya, Indonesia, 2008-2014</t>
@@ -12805,11 +12811,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13294,19 +13300,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13449,7 +13455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13458,7 +13464,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13989,25 +13995,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM496"/>
+  <dimension ref="A1:AM497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -65821,18 +65827,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="2:39">
-      <c r="B449" s="2" t="s">
+    <row r="449" customHeight="1" spans="4:39">
+      <c r="D449" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E449" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D449" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>1561</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>42</v>
@@ -65841,7 +65841,7 @@
         <v>1562</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>42</v>
@@ -65859,7 +65859,7 @@
         <v>1562</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>42</v>
+        <v>1583</v>
       </c>
       <c r="O449" s="2" t="s">
         <v>42</v>
@@ -65871,13 +65871,13 @@
         <v>42</v>
       </c>
       <c r="R449" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S449" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="T449" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U449" s="2" t="s">
         <v>47</v>
@@ -65907,13 +65907,13 @@
         <v>50</v>
       </c>
       <c r="AD449" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE449" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF449" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AG449" s="2" t="s">
         <v>52</v>
@@ -65939,16 +65939,16 @@
     </row>
     <row r="450" customHeight="1" spans="2:39">
       <c r="B450" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="D450" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>42</v>
@@ -65957,7 +65957,7 @@
         <v>1562</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="I450" s="2" t="s">
         <v>42</v>
@@ -65987,19 +65987,19 @@
         <v>42</v>
       </c>
       <c r="R450" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="S450" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T450" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U450" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V450" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W450" s="2" t="s">
         <v>46</v>
@@ -66014,13 +66014,13 @@
         <v>46</v>
       </c>
       <c r="AA450" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB450" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC450" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD450" s="2" t="s">
         <v>42</v>
@@ -66029,10 +66029,10 @@
         <v>42</v>
       </c>
       <c r="AF450" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG450" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH450" s="2" t="s">
         <v>42</v>
@@ -66055,13 +66055,13 @@
     </row>
     <row r="451" customHeight="1" spans="2:39">
       <c r="B451" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D451" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>1570</v>
@@ -66091,31 +66091,31 @@
         <v>1562</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>1585</v>
+        <v>42</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P451" s="2" t="s">
-        <v>1586</v>
+        <v>42</v>
       </c>
       <c r="Q451" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R451" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="S451" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T451" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U451" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V451" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W451" s="2" t="s">
         <v>46</v>
@@ -66130,25 +66130,25 @@
         <v>46</v>
       </c>
       <c r="AA451" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB451" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC451" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD451" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE451" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF451" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG451" s="2" t="s">
-        <v>1314</v>
+        <v>42</v>
       </c>
       <c r="AH451" s="2" t="s">
         <v>42</v>
@@ -66171,16 +66171,16 @@
     </row>
     <row r="452" customHeight="1" spans="2:39">
       <c r="B452" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
       <c r="D452" s="3">
         <v>2021</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1561</v>
+        <v>1570</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>42</v>
@@ -66207,22 +66207,22 @@
         <v>1562</v>
       </c>
       <c r="N452" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="O452" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P452" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="O452" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P452" s="2" t="s">
-        <v>1589</v>
-      </c>
       <c r="Q452" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R452" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S452" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="T452" s="2" t="s">
         <v>47</v>
@@ -66261,10 +66261,10 @@
         <v>57</v>
       </c>
       <c r="AF452" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AG452" s="2" t="s">
-        <v>52</v>
+        <v>1314</v>
       </c>
       <c r="AH452" s="2" t="s">
         <v>42</v>
@@ -66285,15 +66285,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="453" customHeight="1" spans="3:39">
+    <row r="453" customHeight="1" spans="2:39">
+      <c r="B453" s="2" t="s">
+        <v>1589</v>
+      </c>
       <c r="C453" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D453" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1590</v>
+        <v>1561</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>42</v>
@@ -66302,7 +66305,7 @@
         <v>1562</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="I453" s="2" t="s">
         <v>42</v>
@@ -66320,28 +66323,28 @@
         <v>1562</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>42</v>
+        <v>1590</v>
       </c>
       <c r="O453" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P453" s="2" t="s">
-        <v>42</v>
+        <v>1591</v>
       </c>
       <c r="Q453" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R453" s="2">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="S453" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="T453" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U453" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V453" s="2" t="s">
         <v>46</v>
@@ -66359,25 +66362,25 @@
         <v>46</v>
       </c>
       <c r="AA453" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB453" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC453" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE453" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF453" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG453" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH453" s="2" t="s">
         <v>42</v>
@@ -66398,27 +66401,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="454" customHeight="1" spans="2:39">
-      <c r="B454" s="2" t="s">
+    <row r="454" customHeight="1" spans="3:39">
+      <c r="C454" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E454" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D454" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E454" s="2" t="s">
+      <c r="F454" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H454" s="2" t="s">
         <v>1593</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="H454" s="2" t="s">
-        <v>1595</v>
       </c>
       <c r="I454" s="2" t="s">
         <v>42</v>
@@ -66433,7 +66433,7 @@
         <v>1524</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>1594</v>
+        <v>1562</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>42</v>
@@ -66448,16 +66448,16 @@
         <v>42</v>
       </c>
       <c r="R454" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S454" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="T454" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U454" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V454" s="2" t="s">
         <v>46</v>
@@ -66475,10 +66475,10 @@
         <v>46</v>
       </c>
       <c r="AA454" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB454" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC454" s="2" t="s">
         <v>42</v>
@@ -66490,10 +66490,10 @@
         <v>42</v>
       </c>
       <c r="AF454" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG454" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH454" s="2" t="s">
         <v>42</v>
@@ -66516,25 +66516,25 @@
     </row>
     <row r="455" customHeight="1" spans="2:39">
       <c r="B455" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G455" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D455" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E455" s="2" t="s">
+      <c r="H455" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="F455" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G455" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H455" s="2" t="s">
-        <v>1598</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>42</v>
@@ -66549,10 +66549,10 @@
         <v>1524</v>
       </c>
       <c r="M455" s="2" t="s">
-        <v>1455</v>
+        <v>1596</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>1599</v>
+        <v>42</v>
       </c>
       <c r="O455" s="2" t="s">
         <v>42</v>
@@ -66564,13 +66564,13 @@
         <v>42</v>
       </c>
       <c r="R455" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="S455" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="T455" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U455" s="2" t="s">
         <v>47</v>
@@ -66594,13 +66594,13 @@
         <v>48</v>
       </c>
       <c r="AB455" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC455" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD455" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE455" s="2" t="s">
         <v>42</v>
@@ -66632,25 +66632,25 @@
     </row>
     <row r="456" customHeight="1" spans="2:39">
       <c r="B456" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H456" s="2" t="s">
         <v>1600</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D456" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E456" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F456" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G456" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="H456" s="2" t="s">
-        <v>1601</v>
       </c>
       <c r="I456" s="2" t="s">
         <v>42</v>
@@ -66665,10 +66665,10 @@
         <v>1524</v>
       </c>
       <c r="M456" s="2" t="s">
-        <v>1602</v>
+        <v>1455</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>42</v>
+        <v>1601</v>
       </c>
       <c r="O456" s="2" t="s">
         <v>42</v>
@@ -66680,10 +66680,10 @@
         <v>42</v>
       </c>
       <c r="R456" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S456" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="T456" s="2" t="s">
         <v>47</v>
@@ -66710,19 +66710,19 @@
         <v>48</v>
       </c>
       <c r="AB456" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC456" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD456" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE456" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF456" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AG456" s="2" t="s">
         <v>52</v>
@@ -66748,25 +66748,25 @@
     </row>
     <row r="457" customHeight="1" spans="2:39">
       <c r="B457" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2009</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H457" s="2" t="s">
         <v>1603</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D457" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E457" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G457" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>1606</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>42</v>
@@ -66781,7 +66781,7 @@
         <v>1524</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>42</v>
@@ -66799,7 +66799,7 @@
         <v>2005</v>
       </c>
       <c r="S457" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="T457" s="2" t="s">
         <v>47</v>
@@ -66826,13 +66826,13 @@
         <v>48</v>
       </c>
       <c r="AB457" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC457" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD457" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE457" s="2" t="s">
         <v>42</v>
@@ -66864,43 +66864,43 @@
     </row>
     <row r="458" customHeight="1" spans="2:39">
       <c r="B458" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2007</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H458" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D458" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E458" s="2" t="s">
+      <c r="I458" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J458" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K458" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M458" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="F458" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G458" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H458" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I458" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J458" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K458" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L458" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M458" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="N458" s="2" t="s">
-        <v>1613</v>
+        <v>42</v>
       </c>
       <c r="O458" s="2" t="s">
         <v>42</v>
@@ -66912,10 +66912,10 @@
         <v>42</v>
       </c>
       <c r="R458" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S458" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="T458" s="2" t="s">
         <v>47</v>
@@ -66948,10 +66948,10 @@
         <v>42</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE458" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF458" s="2" t="s">
         <v>58</v>
@@ -66980,44 +66980,44 @@
     </row>
     <row r="459" customHeight="1" spans="2:39">
       <c r="B459" s="2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D459" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E459" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J459" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K459" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L459" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M459" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N459" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="F459" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G459" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H459" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I459" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J459" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K459" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L459" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M459" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="N459" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O459" s="2" t="s">
         <v>42</v>
       </c>
@@ -67028,10 +67028,10 @@
         <v>42</v>
       </c>
       <c r="R459" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S459" s="2">
         <v>2008</v>
-      </c>
-      <c r="S459" s="2">
-        <v>2011</v>
       </c>
       <c r="T459" s="2" t="s">
         <v>47</v>
@@ -67064,13 +67064,13 @@
         <v>42</v>
       </c>
       <c r="AD459" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE459" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF459" s="2" t="s">
-        <v>1149</v>
+        <v>58</v>
       </c>
       <c r="AG459" s="2" t="s">
         <v>52</v>
@@ -67096,22 +67096,22 @@
     </row>
     <row r="460" customHeight="1" spans="2:39">
       <c r="B460" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E460" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D460" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E460" s="2" t="s">
-        <v>1609</v>
-      </c>
       <c r="F460" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="H460" s="2" t="s">
         <v>1618</v>
@@ -67126,11 +67126,11 @@
         <v>42</v>
       </c>
       <c r="L460" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M460" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="M460" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="N460" s="2" t="s">
         <v>42</v>
       </c>
@@ -67143,17 +67143,17 @@
       <c r="Q460" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R460" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S460" s="2" t="s">
-        <v>42</v>
+      <c r="R460" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S460" s="2">
+        <v>2011</v>
       </c>
       <c r="T460" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U460" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V460" s="2" t="s">
         <v>46</v>
@@ -67165,13 +67165,13 @@
         <v>46</v>
       </c>
       <c r="Y460" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z460" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA460" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB460" s="2" t="s">
         <v>42</v>
@@ -67180,16 +67180,16 @@
         <v>42</v>
       </c>
       <c r="AD460" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE460" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF460" s="2" t="s">
-        <v>42</v>
+        <v>1149</v>
       </c>
       <c r="AG460" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH460" s="2" t="s">
         <v>42</v>
@@ -67215,19 +67215,19 @@
         <v>1619</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D461" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>1620</v>
@@ -67242,11 +67242,11 @@
         <v>42</v>
       </c>
       <c r="L461" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M461" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="M461" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="N461" s="2" t="s">
         <v>42</v>
       </c>
@@ -67259,17 +67259,17 @@
       <c r="Q461" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R461" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S461" s="2">
-        <v>2018</v>
+      <c r="R461" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S461" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T461" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U461" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V461" s="2" t="s">
         <v>46</v>
@@ -67281,31 +67281,31 @@
         <v>46</v>
       </c>
       <c r="Y461" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z461" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA461" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB461" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC461" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD461" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE461" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF461" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG461" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH461" s="2" t="s">
         <v>42</v>
@@ -67331,23 +67331,23 @@
         <v>1621</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="D462" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E462" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H462" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="F462" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G462" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H462" s="2" t="s">
-        <v>1623</v>
-      </c>
       <c r="I462" s="2" t="s">
         <v>42</v>
       </c>
@@ -67358,13 +67358,13 @@
         <v>42</v>
       </c>
       <c r="L462" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M462" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="M462" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="N462" s="2" t="s">
-        <v>1624</v>
+        <v>42</v>
       </c>
       <c r="O462" s="2" t="s">
         <v>42</v>
@@ -67376,16 +67376,16 @@
         <v>42</v>
       </c>
       <c r="R462" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S462" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T462" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V462" s="2" t="s">
         <v>46</v>
@@ -67403,25 +67403,25 @@
         <v>46</v>
       </c>
       <c r="AA462" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB462" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC462" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD462" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE462" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF462" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG462" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH462" s="2" t="s">
         <v>42</v>
@@ -67444,44 +67444,44 @@
     </row>
     <row r="463" customHeight="1" spans="2:39">
       <c r="B463" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H463" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="I463" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M463" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N463" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="D463" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E463" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F463" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G463" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H463" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I463" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J463" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K463" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L463" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M463" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="N463" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O463" s="2" t="s">
         <v>42</v>
       </c>
@@ -67492,16 +67492,16 @@
         <v>42</v>
       </c>
       <c r="R463" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="S463" s="2">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="T463" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U463" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V463" s="2" t="s">
         <v>46</v>
@@ -67519,25 +67519,25 @@
         <v>46</v>
       </c>
       <c r="AA463" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB463" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC463" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD463" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE463" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF463" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG463" s="2" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="AH463" s="2" t="s">
         <v>42</v>
@@ -67560,26 +67560,26 @@
     </row>
     <row r="464" customHeight="1" spans="2:39">
       <c r="B464" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1368</v>
+        <v>1628</v>
       </c>
       <c r="D464" s="3">
         <v>2023</v>
       </c>
       <c r="E464" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H464" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="F464" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G464" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H464" s="2" t="s">
-        <v>1632</v>
-      </c>
       <c r="I464" s="2" t="s">
         <v>42</v>
       </c>
@@ -67590,13 +67590,13 @@
         <v>42</v>
       </c>
       <c r="L464" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M464" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="M464" s="2" t="s">
-        <v>1610</v>
-      </c>
       <c r="N464" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O464" s="2" t="s">
         <v>42</v>
@@ -67608,10 +67608,10 @@
         <v>42</v>
       </c>
       <c r="R464" s="2">
-        <v>1956</v>
+        <v>2022</v>
       </c>
       <c r="S464" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="T464" s="2" t="s">
         <v>47</v>
@@ -67641,19 +67641,19 @@
         <v>49</v>
       </c>
       <c r="AC464" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD464" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AE464" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF464" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AG464" s="2" t="s">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="AH464" s="2" t="s">
         <v>42</v>
@@ -67676,26 +67676,26 @@
     </row>
     <row r="465" customHeight="1" spans="2:39">
       <c r="B465" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E465" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D465" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E465" s="2" t="s">
+      <c r="F465" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H465" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="F465" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G465" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>1636</v>
-      </c>
       <c r="I465" s="2" t="s">
         <v>42</v>
       </c>
@@ -67706,13 +67706,13 @@
         <v>42</v>
       </c>
       <c r="L465" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M465" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="M465" s="2" t="s">
-        <v>1637</v>
-      </c>
       <c r="N465" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="O465" s="2" t="s">
         <v>42</v>
@@ -67724,10 +67724,10 @@
         <v>42</v>
       </c>
       <c r="R465" s="2">
-        <v>2017</v>
+        <v>1956</v>
       </c>
       <c r="S465" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T465" s="2" t="s">
         <v>47</v>
@@ -67754,22 +67754,22 @@
         <v>48</v>
       </c>
       <c r="AB465" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC465" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD465" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE465" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF465" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG465" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH465" s="2" t="s">
         <v>42</v>
@@ -67792,26 +67792,26 @@
     </row>
     <row r="466" customHeight="1" spans="2:39">
       <c r="B466" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H466" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D466" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E466" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F466" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G466" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H466" s="2" t="s">
-        <v>1482</v>
-      </c>
       <c r="I466" s="2" t="s">
         <v>42</v>
       </c>
@@ -67822,11 +67822,11 @@
         <v>42</v>
       </c>
       <c r="L466" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M466" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="M466" s="2" t="s">
-        <v>1640</v>
-      </c>
       <c r="N466" s="2" t="s">
         <v>42</v>
       </c>
@@ -67840,13 +67840,13 @@
         <v>42</v>
       </c>
       <c r="R466" s="2">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="S466" s="2">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="T466" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U466" s="2" t="s">
         <v>47</v>
@@ -67908,41 +67908,41 @@
     </row>
     <row r="467" customHeight="1" spans="2:39">
       <c r="B467" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2005</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J467" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K467" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L467" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="M467" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="D467" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E467" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F467" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G467" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H467" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I467" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J467" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K467" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L467" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="M467" s="2" t="s">
-        <v>1640</v>
-      </c>
       <c r="N467" s="2" t="s">
         <v>42</v>
       </c>
@@ -67956,13 +67956,13 @@
         <v>42</v>
       </c>
       <c r="R467" s="2">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="S467" s="2">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="T467" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U467" s="2" t="s">
         <v>47</v>
@@ -67986,22 +67986,22 @@
         <v>48</v>
       </c>
       <c r="AB467" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC467" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD467" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE467" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF467" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AG467" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH467" s="2" t="s">
         <v>42</v>
@@ -68024,25 +68024,25 @@
     </row>
     <row r="468" customHeight="1" spans="2:39">
       <c r="B468" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="D468" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E468" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="D468" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E468" s="2" t="s">
-        <v>1646</v>
-      </c>
       <c r="F468" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="H468" s="2" t="s">
-        <v>1648</v>
+        <v>1548</v>
       </c>
       <c r="I468" s="2" t="s">
         <v>42</v>
@@ -68054,10 +68054,10 @@
         <v>42</v>
       </c>
       <c r="L468" s="2" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="M468" s="2" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="N468" s="2" t="s">
         <v>42</v>
@@ -68072,7 +68072,7 @@
         <v>42</v>
       </c>
       <c r="R468" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="S468" s="2">
         <v>2017</v>
@@ -68102,16 +68102,16 @@
         <v>48</v>
       </c>
       <c r="AB468" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC468" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD468" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE468" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF468" s="2" t="s">
         <v>58</v>
@@ -68140,41 +68140,41 @@
     </row>
     <row r="469" customHeight="1" spans="2:39">
       <c r="B469" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L469" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D469" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E469" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F469" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G469" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H469" s="2" t="s">
+      <c r="M469" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="I469" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J469" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K469" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L469" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M469" s="2" t="s">
-        <v>1650</v>
-      </c>
       <c r="N469" s="2" t="s">
         <v>42</v>
       </c>
@@ -68188,16 +68188,16 @@
         <v>42</v>
       </c>
       <c r="R469" s="2">
-        <v>1978</v>
+        <v>2017</v>
       </c>
       <c r="S469" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="T469" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U469" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V469" s="2" t="s">
         <v>46</v>
@@ -68221,7 +68221,7 @@
         <v>42</v>
       </c>
       <c r="AC469" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD469" s="2" t="s">
         <v>42</v>
@@ -68230,7 +68230,7 @@
         <v>42</v>
       </c>
       <c r="AF469" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG469" s="2" t="s">
         <v>42</v>
@@ -68256,29 +68256,29 @@
     </row>
     <row r="470" customHeight="1" spans="2:39">
       <c r="B470" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H470" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D470" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E470" s="2" t="s">
+      <c r="I470" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="F470" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G470" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H470" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I470" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J470" s="2" t="s">
         <v>42</v>
       </c>
@@ -68286,10 +68286,10 @@
         <v>42</v>
       </c>
       <c r="L470" s="2" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="M470" s="2" t="s">
-        <v>62</v>
+        <v>1652</v>
       </c>
       <c r="N470" s="2" t="s">
         <v>42</v>
@@ -68304,16 +68304,16 @@
         <v>42</v>
       </c>
       <c r="R470" s="2">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="S470" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="T470" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U470" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V470" s="2" t="s">
         <v>46</v>
@@ -68343,13 +68343,13 @@
         <v>42</v>
       </c>
       <c r="AE470" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF470" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG470" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH470" s="2" t="s">
         <v>42</v>
@@ -68372,16 +68372,16 @@
     </row>
     <row r="471" customHeight="1" spans="2:39">
       <c r="B471" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D471" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1538</v>
+        <v>1657</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>42</v>
@@ -68390,25 +68390,25 @@
         <v>62</v>
       </c>
       <c r="H471" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L471" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="I471" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J471" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K471" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L471" s="2" t="s">
-        <v>1657</v>
       </c>
       <c r="M471" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N471" s="2" t="s">
-        <v>1660</v>
+        <v>42</v>
       </c>
       <c r="O471" s="2" t="s">
         <v>42</v>
@@ -68420,10 +68420,10 @@
         <v>42</v>
       </c>
       <c r="R471" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S471" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="T471" s="2" t="s">
         <v>47</v>
@@ -68456,13 +68456,13 @@
         <v>42</v>
       </c>
       <c r="AD471" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE471" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF471" s="2" t="s">
-        <v>1661</v>
+        <v>58</v>
       </c>
       <c r="AG471" s="2" t="s">
         <v>52</v>
@@ -68488,10 +68488,10 @@
     </row>
     <row r="472" customHeight="1" spans="2:39">
       <c r="B472" s="2" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D472" s="3">
         <v>2013</v>
@@ -68506,25 +68506,25 @@
         <v>62</v>
       </c>
       <c r="H472" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L472" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="I472" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J472" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K472" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L472" s="2" t="s">
-        <v>1657</v>
       </c>
       <c r="M472" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N472" s="2" t="s">
-        <v>42</v>
+        <v>1662</v>
       </c>
       <c r="O472" s="2" t="s">
         <v>42</v>
@@ -68536,10 +68536,10 @@
         <v>42</v>
       </c>
       <c r="R472" s="2">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="S472" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="T472" s="2" t="s">
         <v>47</v>
@@ -68569,16 +68569,16 @@
         <v>42</v>
       </c>
       <c r="AC472" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD472" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE472" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF472" s="2" t="s">
-        <v>1149</v>
+        <v>1663</v>
       </c>
       <c r="AG472" s="2" t="s">
         <v>52</v>
@@ -68604,43 +68604,43 @@
     </row>
     <row r="473" customHeight="1" spans="2:39">
       <c r="B473" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>355</v>
+        <v>143</v>
       </c>
       <c r="D473" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1664</v>
+        <v>1538</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>1370</v>
+        <v>62</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>1666</v>
+        <v>42</v>
       </c>
       <c r="J473" s="2" t="s">
-        <v>1667</v>
+        <v>42</v>
       </c>
       <c r="K473" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L473" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M473" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N473" s="2" t="s">
-        <v>1660</v>
+        <v>42</v>
       </c>
       <c r="O473" s="2" t="s">
         <v>42</v>
@@ -68652,10 +68652,10 @@
         <v>42</v>
       </c>
       <c r="R473" s="2">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="S473" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="T473" s="2" t="s">
         <v>47</v>
@@ -68685,19 +68685,19 @@
         <v>42</v>
       </c>
       <c r="AC473" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD473" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE473" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF473" s="2" t="s">
-        <v>64</v>
+        <v>1149</v>
       </c>
       <c r="AG473" s="2" t="s">
-        <v>1486</v>
+        <v>52</v>
       </c>
       <c r="AH473" s="2" t="s">
         <v>42</v>
@@ -68720,43 +68720,43 @@
     </row>
     <row r="474" customHeight="1" spans="2:39">
       <c r="B474" s="2" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>355</v>
       </c>
       <c r="D474" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1538</v>
+        <v>1666</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>62</v>
+        <v>1370</v>
       </c>
       <c r="H474" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K474" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L474" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="I474" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J474" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K474" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L474" s="2" t="s">
-        <v>1657</v>
       </c>
       <c r="M474" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N474" s="2" t="s">
-        <v>42</v>
+        <v>1662</v>
       </c>
       <c r="O474" s="2" t="s">
         <v>42</v>
@@ -68768,10 +68768,10 @@
         <v>42</v>
       </c>
       <c r="R474" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="S474" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T474" s="2" t="s">
         <v>47</v>
@@ -68798,7 +68798,7 @@
         <v>48</v>
       </c>
       <c r="AB474" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC474" s="2" t="s">
         <v>42</v>
@@ -68807,13 +68807,13 @@
         <v>42</v>
       </c>
       <c r="AE474" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF474" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AG474" s="2" t="s">
-        <v>52</v>
+        <v>1486</v>
       </c>
       <c r="AH474" s="2" t="s">
         <v>42</v>
@@ -68834,28 +68834,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="475" customHeight="1" spans="3:39">
+    <row r="475" customHeight="1" spans="2:39">
+      <c r="B475" s="2" t="s">
+        <v>1670</v>
+      </c>
       <c r="C475" s="2" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
       <c r="D475" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1670</v>
+        <v>1538</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>1451</v>
+        <v>62</v>
       </c>
       <c r="H475" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I475" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="I475" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J475" s="2" t="s">
         <v>42</v>
       </c>
@@ -68863,7 +68866,7 @@
         <v>42</v>
       </c>
       <c r="L475" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M475" s="2" t="s">
         <v>62</v>
@@ -68881,7 +68884,7 @@
         <v>42</v>
       </c>
       <c r="R475" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="S475" s="2">
         <v>2016</v>
@@ -68890,7 +68893,7 @@
         <v>47</v>
       </c>
       <c r="U475" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V475" s="2" t="s">
         <v>46</v>
@@ -68911,7 +68914,7 @@
         <v>48</v>
       </c>
       <c r="AB475" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC475" s="2" t="s">
         <v>42</v>
@@ -68923,10 +68926,10 @@
         <v>42</v>
       </c>
       <c r="AF475" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG475" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH475" s="2" t="s">
         <v>42</v>
@@ -68949,10 +68952,10 @@
     </row>
     <row r="476" customHeight="1" spans="3:39">
       <c r="C476" s="2" t="s">
-        <v>1441</v>
+        <v>143</v>
       </c>
       <c r="D476" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>1672</v>
@@ -68961,10 +68964,10 @@
         <v>42</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>62</v>
+        <v>1451</v>
       </c>
       <c r="H476" s="2" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="I476" s="2" t="s">
         <v>42</v>
@@ -68976,7 +68979,7 @@
         <v>42</v>
       </c>
       <c r="L476" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M476" s="2" t="s">
         <v>62</v>
@@ -68994,16 +68997,16 @@
         <v>42</v>
       </c>
       <c r="R476" s="2">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="S476" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T476" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U476" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V476" s="2" t="s">
         <v>46</v>
@@ -69027,7 +69030,7 @@
         <v>42</v>
       </c>
       <c r="AC476" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD476" s="2" t="s">
         <v>42</v>
@@ -69036,10 +69039,10 @@
         <v>42</v>
       </c>
       <c r="AF476" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG476" s="2" t="s">
-        <v>1314</v>
+        <v>42</v>
       </c>
       <c r="AH476" s="2" t="s">
         <v>42</v>
@@ -69060,18 +69063,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" customHeight="1" spans="2:39">
-      <c r="B477" s="2" t="s">
-        <v>1673</v>
-      </c>
+    <row r="477" customHeight="1" spans="3:39">
       <c r="C477" s="2" t="s">
-        <v>1642</v>
+        <v>1441</v>
       </c>
       <c r="D477" s="3">
         <v>2020</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1538</v>
+        <v>1674</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>42</v>
@@ -69080,7 +69080,7 @@
         <v>62</v>
       </c>
       <c r="H477" s="2" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="I477" s="2" t="s">
         <v>42</v>
@@ -69092,13 +69092,13 @@
         <v>42</v>
       </c>
       <c r="L477" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M477" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N477" s="2" t="s">
-        <v>1675</v>
+        <v>42</v>
       </c>
       <c r="O477" s="2" t="s">
         <v>42</v>
@@ -69109,11 +69109,11 @@
       <c r="Q477" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R477" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S477" s="2" t="s">
-        <v>42</v>
+      <c r="R477" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S477" s="2">
+        <v>2019</v>
       </c>
       <c r="T477" s="2" t="s">
         <v>47</v>
@@ -69140,22 +69140,22 @@
         <v>48</v>
       </c>
       <c r="AB477" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC477" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD477" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE477" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF477" s="2" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="AG477" s="2" t="s">
-        <v>52</v>
+        <v>1314</v>
       </c>
       <c r="AH477" s="2" t="s">
         <v>42</v>
@@ -69178,16 +69178,16 @@
     </row>
     <row r="478" customHeight="1" spans="2:39">
       <c r="B478" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>355</v>
+        <v>1644</v>
       </c>
       <c r="D478" s="3">
         <v>2020</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1672</v>
+        <v>1538</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>42</v>
@@ -69196,7 +69196,7 @@
         <v>62</v>
       </c>
       <c r="H478" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I478" s="2" t="s">
         <v>42</v>
@@ -69208,13 +69208,13 @@
         <v>42</v>
       </c>
       <c r="L478" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M478" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N478" s="2" t="s">
-        <v>42</v>
+        <v>1677</v>
       </c>
       <c r="O478" s="2" t="s">
         <v>42</v>
@@ -69225,14 +69225,14 @@
       <c r="Q478" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R478" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S478" s="2">
-        <v>2015</v>
+      <c r="R478" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S478" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T478" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U478" s="2" t="s">
         <v>47</v>
@@ -69244,7 +69244,7 @@
         <v>46</v>
       </c>
       <c r="X478" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y478" s="2" t="s">
         <v>46</v>
@@ -69256,16 +69256,16 @@
         <v>48</v>
       </c>
       <c r="AB478" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC478" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD478" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AE478" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF478" s="2" t="s">
         <v>376</v>
@@ -69297,13 +69297,13 @@
         <v>1678</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="D479" s="3">
         <v>2020</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>42</v>
@@ -69312,7 +69312,7 @@
         <v>62</v>
       </c>
       <c r="H479" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I479" s="2" t="s">
         <v>42</v>
@@ -69324,7 +69324,7 @@
         <v>42</v>
       </c>
       <c r="L479" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M479" s="2" t="s">
         <v>62</v>
@@ -69342,16 +69342,16 @@
         <v>42</v>
       </c>
       <c r="R479" s="2">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="S479" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T479" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U479" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V479" s="2" t="s">
         <v>46</v>
@@ -69360,7 +69360,7 @@
         <v>46</v>
       </c>
       <c r="X479" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y479" s="2" t="s">
         <v>46</v>
@@ -69369,7 +69369,7 @@
         <v>46</v>
       </c>
       <c r="AA479" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB479" s="2" t="s">
         <v>42</v>
@@ -69378,16 +69378,16 @@
         <v>42</v>
       </c>
       <c r="AD479" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE479" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF479" s="2" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="AG479" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH479" s="2" t="s">
         <v>42</v>
@@ -69410,26 +69410,26 @@
     </row>
     <row r="480" customHeight="1" spans="2:39">
       <c r="B480" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E480" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="C480" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D480" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E480" s="2" t="s">
+      <c r="F480" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H480" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="F480" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G480" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H480" s="2" t="s">
-        <v>1684</v>
-      </c>
       <c r="I480" s="2" t="s">
         <v>42</v>
       </c>
@@ -69440,13 +69440,13 @@
         <v>42</v>
       </c>
       <c r="L480" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M480" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N480" s="2" t="s">
-        <v>1685</v>
+        <v>42</v>
       </c>
       <c r="O480" s="2" t="s">
         <v>42</v>
@@ -69458,13 +69458,13 @@
         <v>42</v>
       </c>
       <c r="R480" s="2">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="S480" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="T480" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U480" s="2" t="s">
         <v>46</v>
@@ -69485,7 +69485,7 @@
         <v>46</v>
       </c>
       <c r="AA480" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB480" s="2" t="s">
         <v>42</v>
@@ -69526,26 +69526,26 @@
     </row>
     <row r="481" customHeight="1" spans="2:39">
       <c r="B481" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H481" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D481" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E481" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F481" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G481" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H481" s="2" t="s">
-        <v>1687</v>
-      </c>
       <c r="I481" s="2" t="s">
         <v>42</v>
       </c>
@@ -69556,13 +69556,13 @@
         <v>42</v>
       </c>
       <c r="L481" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M481" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N481" s="2" t="s">
-        <v>42</v>
+        <v>1687</v>
       </c>
       <c r="O481" s="2" t="s">
         <v>42</v>
@@ -69574,16 +69574,16 @@
         <v>42</v>
       </c>
       <c r="R481" s="2">
+        <v>2007</v>
+      </c>
+      <c r="S481" s="2">
         <v>2017</v>
       </c>
-      <c r="S481" s="2">
-        <v>2019</v>
-      </c>
       <c r="T481" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U481" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V481" s="2" t="s">
         <v>46</v>
@@ -69607,7 +69607,7 @@
         <v>42</v>
       </c>
       <c r="AC481" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD481" s="2" t="s">
         <v>42</v>
@@ -69616,13 +69616,13 @@
         <v>42</v>
       </c>
       <c r="AF481" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG481" s="2" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="AH481" s="2" t="s">
-        <v>1688</v>
+        <v>42</v>
       </c>
       <c r="AI481" s="2" t="s">
         <v>42</v>
@@ -69642,13 +69642,13 @@
     </row>
     <row r="482" customHeight="1" spans="2:39">
       <c r="B482" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1404</v>
+        <v>130</v>
       </c>
       <c r="D482" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>1538</v>
@@ -69660,7 +69660,7 @@
         <v>62</v>
       </c>
       <c r="H482" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="I482" s="2" t="s">
         <v>42</v>
@@ -69672,7 +69672,7 @@
         <v>42</v>
       </c>
       <c r="L482" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M482" s="2" t="s">
         <v>62</v>
@@ -69690,10 +69690,10 @@
         <v>42</v>
       </c>
       <c r="R482" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="S482" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T482" s="2" t="s">
         <v>47</v>
@@ -69717,7 +69717,7 @@
         <v>46</v>
       </c>
       <c r="AA482" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB482" s="2" t="s">
         <v>42</v>
@@ -69738,7 +69738,7 @@
         <v>409</v>
       </c>
       <c r="AH482" s="2" t="s">
-        <v>42</v>
+        <v>1690</v>
       </c>
       <c r="AI482" s="2" t="s">
         <v>42</v>
@@ -69761,7 +69761,7 @@
         <v>1691</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>130</v>
+        <v>1404</v>
       </c>
       <c r="D483" s="3">
         <v>2023</v>
@@ -69788,7 +69788,7 @@
         <v>42</v>
       </c>
       <c r="L483" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M483" s="2" t="s">
         <v>62</v>
@@ -69806,7 +69806,7 @@
         <v>42</v>
       </c>
       <c r="R483" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="S483" s="2">
         <v>2023</v>
@@ -69839,10 +69839,10 @@
         <v>42</v>
       </c>
       <c r="AC483" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD483" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE483" s="2" t="s">
         <v>42</v>
@@ -69854,7 +69854,7 @@
         <v>409</v>
       </c>
       <c r="AH483" s="2" t="s">
-        <v>1693</v>
+        <v>42</v>
       </c>
       <c r="AI483" s="2" t="s">
         <v>42</v>
@@ -69874,26 +69874,26 @@
     </row>
     <row r="484" customHeight="1" spans="2:39">
       <c r="B484" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H484" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D484" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F484" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G484" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H484" s="2" t="s">
-        <v>1697</v>
-      </c>
       <c r="I484" s="2" t="s">
         <v>42</v>
       </c>
@@ -69904,10 +69904,10 @@
         <v>42</v>
       </c>
       <c r="L484" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M484" s="2" t="s">
-        <v>1696</v>
+        <v>62</v>
       </c>
       <c r="N484" s="2" t="s">
         <v>42</v>
@@ -69922,10 +69922,10 @@
         <v>42</v>
       </c>
       <c r="R484" s="2">
-        <v>1999</v>
+        <v>2023</v>
       </c>
       <c r="S484" s="2">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="T484" s="2" t="s">
         <v>47</v>
@@ -69949,16 +69949,16 @@
         <v>46</v>
       </c>
       <c r="AA484" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB484" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC484" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD484" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE484" s="2" t="s">
         <v>42</v>
@@ -69967,10 +69967,10 @@
         <v>64</v>
       </c>
       <c r="AG484" s="2" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="AH484" s="2" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="AI484" s="2" t="s">
         <v>42</v>
@@ -69990,103 +69990,103 @@
     </row>
     <row r="485" customHeight="1" spans="2:39">
       <c r="B485" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H485" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="I485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L485" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M485" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R485" s="2">
+        <v>1999</v>
+      </c>
+      <c r="S485" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T485" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U485" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA485" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB485" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE485" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF485" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG485" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH485" s="2" t="s">
         <v>1700</v>
-      </c>
-      <c r="D485" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G485" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H485" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="I485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L485" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="M485" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N485" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="O485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R485" s="2">
-        <v>2009</v>
-      </c>
-      <c r="S485" s="2">
-        <v>2017</v>
-      </c>
-      <c r="T485" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z485" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG485" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH485" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="AI485" s="2" t="s">
         <v>42</v>
@@ -70106,44 +70106,44 @@
     </row>
     <row r="486" customHeight="1" spans="2:39">
       <c r="B486" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H486" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D486" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E486" s="2" t="s">
+      <c r="I486" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K486" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M486" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N486" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="F486" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G486" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H486" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I486" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="J486" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K486" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L486" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="M486" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="N486" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O486" s="2" t="s">
         <v>42</v>
       </c>
@@ -70154,16 +70154,16 @@
         <v>42</v>
       </c>
       <c r="R486" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="S486" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="T486" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U486" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V486" s="2" t="s">
         <v>46</v>
@@ -70181,25 +70181,25 @@
         <v>46</v>
       </c>
       <c r="AA486" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB486" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC486" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD486" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE486" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF486" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG486" s="2" t="s">
-        <v>1314</v>
+        <v>42</v>
       </c>
       <c r="AH486" s="2" t="s">
         <v>42</v>
@@ -70222,29 +70222,29 @@
     </row>
     <row r="487" customHeight="1" spans="2:39">
       <c r="B487" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H487" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D487" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E487" s="2" t="s">
+      <c r="I487" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="F487" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G487" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H487" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="I487" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J487" s="2" t="s">
         <v>42</v>
       </c>
@@ -70252,13 +70252,13 @@
         <v>42</v>
       </c>
       <c r="L487" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M487" s="2" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="N487" s="2" t="s">
-        <v>1713</v>
+        <v>42</v>
       </c>
       <c r="O487" s="2" t="s">
         <v>42</v>
@@ -70270,16 +70270,16 @@
         <v>42</v>
       </c>
       <c r="R487" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="S487" s="2">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="T487" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U487" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V487" s="2" t="s">
         <v>46</v>
@@ -70297,25 +70297,25 @@
         <v>46</v>
       </c>
       <c r="AA487" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB487" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC487" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD487" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE487" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF487" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AG487" s="2" t="s">
-        <v>42</v>
+        <v>1314</v>
       </c>
       <c r="AH487" s="2" t="s">
         <v>42</v>
@@ -70338,58 +70338,58 @@
     </row>
     <row r="488" customHeight="1" spans="2:39">
       <c r="B488" s="2" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D488" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E488" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J488" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K488" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L488" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M488" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N488" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="F488" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G488" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="H488" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="I488" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="J488" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="K488" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L488" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="M488" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="N488" s="2" t="s">
-        <v>1721</v>
-      </c>
       <c r="O488" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P488" s="2" t="s">
-        <v>1721</v>
+        <v>42</v>
       </c>
       <c r="Q488" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R488" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="S488" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T488" s="2" t="s">
         <v>47</v>
@@ -70413,10 +70413,10 @@
         <v>46</v>
       </c>
       <c r="AA488" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB488" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC488" s="2" t="s">
         <v>42</v>
@@ -70428,7 +70428,7 @@
         <v>42</v>
       </c>
       <c r="AF488" s="2" t="s">
-        <v>1149</v>
+        <v>42</v>
       </c>
       <c r="AG488" s="2" t="s">
         <v>42</v>
@@ -70454,61 +70454,61 @@
     </row>
     <row r="489" customHeight="1" spans="2:39">
       <c r="B489" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J489" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K489" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L489" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D489" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E489" s="2" t="s">
+      <c r="M489" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="N489" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="F489" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H489" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="I489" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J489" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K489" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L489" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="M489" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="N489" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O489" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P489" s="2" t="s">
-        <v>42</v>
+        <v>1723</v>
       </c>
       <c r="Q489" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R489" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S489" s="2" t="s">
-        <v>42</v>
+      <c r="R489" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S489" s="2">
+        <v>2006</v>
       </c>
       <c r="T489" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U489" s="2" t="s">
         <v>46</v>
@@ -70523,19 +70523,19 @@
         <v>46</v>
       </c>
       <c r="Y489" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z489" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA489" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB489" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AC489" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD489" s="2" t="s">
         <v>42</v>
@@ -70544,7 +70544,7 @@
         <v>42</v>
       </c>
       <c r="AF489" s="2" t="s">
-        <v>42</v>
+        <v>1149</v>
       </c>
       <c r="AG489" s="2" t="s">
         <v>42</v>
@@ -70570,41 +70570,41 @@
     </row>
     <row r="490" customHeight="1" spans="2:39">
       <c r="B490" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H490" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D490" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E490" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F490" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G490" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H490" s="2" t="s">
+      <c r="I490" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J490" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K490" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L490" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="M490" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="I490" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J490" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K490" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L490" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M490" s="2" t="s">
-        <v>1728</v>
-      </c>
       <c r="N490" s="2" t="s">
         <v>42</v>
       </c>
@@ -70617,17 +70617,17 @@
       <c r="Q490" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R490" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S490" s="2">
-        <v>2018</v>
+      <c r="R490" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S490" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T490" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U490" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V490" s="2" t="s">
         <v>46</v>
@@ -70639,16 +70639,16 @@
         <v>46</v>
       </c>
       <c r="Y490" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z490" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA490" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB490" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC490" s="2" t="s">
         <v>50</v>
@@ -70660,10 +70660,10 @@
         <v>42</v>
       </c>
       <c r="AF490" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG490" s="2" t="s">
-        <v>1314</v>
+        <v>42</v>
       </c>
       <c r="AH490" s="2" t="s">
         <v>42</v>
@@ -70686,41 +70686,41 @@
     </row>
     <row r="491" customHeight="1" spans="2:39">
       <c r="B491" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H491" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="C491" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D491" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E491" s="2" t="s">
+      <c r="I491" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J491" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K491" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L491" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M491" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="F491" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G491" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="H491" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="I491" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J491" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K491" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L491" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M491" s="2" t="s">
-        <v>1728</v>
-      </c>
       <c r="N491" s="2" t="s">
         <v>42</v>
       </c>
@@ -70734,10 +70734,10 @@
         <v>42</v>
       </c>
       <c r="R491" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S491" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T491" s="2" t="s">
         <v>47</v>
@@ -70779,7 +70779,7 @@
         <v>64</v>
       </c>
       <c r="AG491" s="2" t="s">
-        <v>52</v>
+        <v>1314</v>
       </c>
       <c r="AH491" s="2" t="s">
         <v>42</v>
@@ -70802,28 +70802,28 @@
     </row>
     <row r="492" customHeight="1" spans="2:39">
       <c r="B492" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E492" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="C492" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D492" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E492" s="2" t="s">
+      <c r="F492" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H492" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="F492" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="H492" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="I492" s="2" t="s">
-        <v>42</v>
+        <v>1667</v>
       </c>
       <c r="J492" s="2" t="s">
         <v>42</v>
@@ -70832,10 +70832,10 @@
         <v>42</v>
       </c>
       <c r="L492" s="2" t="s">
-        <v>1736</v>
+        <v>42</v>
       </c>
       <c r="M492" s="2" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="N492" s="2" t="s">
         <v>42</v>
@@ -70850,10 +70850,10 @@
         <v>42</v>
       </c>
       <c r="R492" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="S492" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T492" s="2" t="s">
         <v>47</v>
@@ -70880,10 +70880,10 @@
         <v>48</v>
       </c>
       <c r="AB492" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC492" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD492" s="2" t="s">
         <v>42</v>
@@ -70918,40 +70918,40 @@
     </row>
     <row r="493" customHeight="1" spans="2:39">
       <c r="B493" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H493" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D493" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E493" s="2" t="s">
+      <c r="I493" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J493" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K493" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L493" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="F493" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G493" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="H493" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="I493" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J493" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K493" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L493" s="2" t="s">
-        <v>1741</v>
-      </c>
       <c r="M493" s="2" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="N493" s="2" t="s">
         <v>42</v>
@@ -70966,16 +70966,16 @@
         <v>42</v>
       </c>
       <c r="R493" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="S493" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="T493" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U493" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V493" s="2" t="s">
         <v>46</v>
@@ -70993,10 +70993,10 @@
         <v>46</v>
       </c>
       <c r="AA493" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB493" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC493" s="2" t="s">
         <v>42</v>
@@ -71008,10 +71008,10 @@
         <v>42</v>
       </c>
       <c r="AF493" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AG493" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH493" s="2" t="s">
         <v>42</v>
@@ -71034,43 +71034,43 @@
     </row>
     <row r="494" customHeight="1" spans="2:39">
       <c r="B494" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G494" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H494" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="C494" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D494" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E494" s="2" t="s">
+      <c r="I494" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J494" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K494" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L494" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="F494" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G494" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H494" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="I494" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J494" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K494" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L494" s="2" t="s">
+      <c r="M494" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="M494" s="2" t="s">
-        <v>1451</v>
-      </c>
       <c r="N494" s="2" t="s">
-        <v>1745</v>
+        <v>42</v>
       </c>
       <c r="O494" s="2" t="s">
         <v>42</v>
@@ -71082,10 +71082,10 @@
         <v>42</v>
       </c>
       <c r="R494" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="S494" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T494" s="2" t="s">
         <v>47</v>
@@ -71150,43 +71150,43 @@
     </row>
     <row r="495" customHeight="1" spans="2:39">
       <c r="B495" s="2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1645</v>
+        <v>130</v>
       </c>
       <c r="D495" s="3">
         <v>2023</v>
       </c>
       <c r="E495" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I495" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J495" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K495" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L495" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M495" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N495" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="F495" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G495" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="H495" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I495" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J495" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K495" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L495" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M495" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="N495" s="2" t="s">
-        <v>1749</v>
       </c>
       <c r="O495" s="2" t="s">
         <v>42</v>
@@ -71207,7 +71207,7 @@
         <v>47</v>
       </c>
       <c r="U495" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V495" s="2" t="s">
         <v>46</v>
@@ -71225,25 +71225,25 @@
         <v>46</v>
       </c>
       <c r="AA495" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB495" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC495" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD495" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AE495" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF495" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AG495" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH495" s="2" t="s">
         <v>42</v>
@@ -71266,43 +71266,43 @@
     </row>
     <row r="496" customHeight="1" spans="2:39">
       <c r="B496" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H496" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D496" s="3">
-        <v>2024</v>
-      </c>
-      <c r="E496" s="2" t="s">
+      <c r="I496" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J496" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K496" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L496" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M496" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N496" s="2" t="s">
         <v>1751</v>
-      </c>
-      <c r="F496" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G496" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H496" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I496" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J496" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K496" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L496" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M496" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N496" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="O496" s="2" t="s">
         <v>42</v>
@@ -71323,7 +71323,7 @@
         <v>47</v>
       </c>
       <c r="U496" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V496" s="2" t="s">
         <v>46</v>
@@ -71341,25 +71341,25 @@
         <v>46</v>
       </c>
       <c r="AA496" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB496" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC496" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD496" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE496" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF496" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AG496" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH496" s="2" t="s">
         <v>42</v>
@@ -71377,11 +71377,127 @@
         <v>42</v>
       </c>
       <c r="AM496" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="497" customHeight="1" spans="2:39">
+      <c r="B497" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L497" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M497" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R497" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S497" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T497" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z497" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL497" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM497" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM496">
+  <autoFilter ref="A1:AM497">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$541</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$550</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18951" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19267" uniqueCount="1896">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -12551,30 +12551,45 @@
     <t>Manado</t>
   </si>
   <si>
+    <t>Dengue incidence and length of viremia by RT-PCR in a prospective observational community contact cluster study from 2005-2009 in Indonesia</t>
+  </si>
+  <si>
     <t>Universitas Padjaran</t>
   </si>
   <si>
     <t>Silvita Riswari</t>
   </si>
   <si>
+    <t>Type-3 dengue viruses responsible for the dengue epidemic in Malaysia during 1993-1994</t>
+  </si>
+  <si>
+    <t>Yokohama City Institute of Health</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Nobuyoshi Kobayashi</t>
+  </si>
+  <si>
+    <t>Emergence of dengue virus 4 genotype IIA in Malaysia</t>
+  </si>
+  <si>
+    <t>University of Malaya</t>
+  </si>
+  <si>
+    <t>Sazaly Abubakr</t>
+  </si>
+  <si>
     <t>Importation and co-circulation of multiple serotypes of dengue virus in Sarawak, Malaysia</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>Sarawak</t>
   </si>
   <si>
     <t>Isolation of ancestral sylvatic dengue virus type 1, Malaysia</t>
   </si>
   <si>
-    <t>University of Malaya</t>
-  </si>
-  <si>
-    <t>Sazaly Abubakr</t>
-  </si>
-  <si>
     <t>Dengue virus type 1 clade replacement in recurring homotypic outbreaks</t>
   </si>
   <si>
@@ -12650,18 +12665,69 @@
     <t>Easwaran Sreekumar</t>
   </si>
   <si>
+    <t>Evolutionary analysis of dengue serotype 2 viruses using phylogenetic and bayesian methods from New Delhi, India</t>
+  </si>
+  <si>
+    <t>Jamia Millia Islamia</t>
+  </si>
+  <si>
+    <t>Shama Parveen</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Emergence of dengue virus type 1 and type 3 as dominant serotypes during 2017 in Pune and Nashik regions of Maharashtra, Western India</t>
+  </si>
+  <si>
+    <t>ICMR-Regional Medical Research Centre</t>
+  </si>
+  <si>
+    <t>Alagarasu K</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
     <t>Dengue infection in India: a systematic review and meta-analysis</t>
   </si>
   <si>
     <t>Manoj Murhekar</t>
   </si>
   <si>
+    <t>Complete genome characterization of evolutionary analysis of dengue viruses isolated during 2016-2017 in Pune, India</t>
+  </si>
+  <si>
+    <t>Bharati Vidyapeeth Deemed University</t>
+  </si>
+  <si>
+    <t>Vidya Arankalle</t>
+  </si>
+  <si>
+    <t>Emergence of dengue 4 as dominant serotype during 2017 outbreak in south India and associated cytokine expression profile</t>
+  </si>
+  <si>
+    <t>Gowri Sankar</t>
+  </si>
+  <si>
+    <t>Alwin Prem Anand</t>
+  </si>
+  <si>
+    <t>Molecular investigation of the dengue outbreak in Karnataka, South India, reveals co-circulation of all four dengue virus serotypes</t>
+  </si>
+  <si>
+    <t>Niite University</t>
+  </si>
+  <si>
+    <t>Praveen Rai</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
     <t>Serotype and genotype diversity of dengue viruses circulating in India: a multicentre retrospective study involving virus research diagnostic laboratory network during 2018</t>
   </si>
   <si>
-    <t>Alagarasu K</t>
-  </si>
-  <si>
     <t>Epidemiological and clinical characterization of dengue virus serotypes during 2017-2019 in Southern Kerala, India</t>
   </si>
   <si>
@@ -12674,6 +12740,21 @@
     <t>Kerala</t>
   </si>
   <si>
+    <t>Co-circulation of all the four dengue virus serotypes during 2018-2019: first report from Eastern Uttar Pradesh, India</t>
+  </si>
+  <si>
+    <t>PeerJ</t>
+  </si>
+  <si>
+    <t>Sthita Pragnya Behera</t>
+  </si>
+  <si>
+    <t>Pooja Bhardwaj</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
     <t>Dengue type 1 and 3 identified in travelers returning from Kathmandu, Nepal, during the October 2022 outbreak are related to strains recently identified in India</t>
   </si>
   <si>
@@ -12708,6 +12789,21 @@
   </si>
   <si>
     <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Introduction and evolution of dengue virus type 2 in Pakistan: a phylogeographic analysis</t>
+  </si>
+  <si>
+    <t>University of the Punjab</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Muhammand Idrees</t>
+  </si>
+  <si>
+    <t>KP757106-KP757129</t>
   </si>
   <si>
     <t>Molecular epidemiology of dengue 2 viruses in the Philippines: genotype shift and local evolution</t>
@@ -14322,12 +14418,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM541"/>
+  <dimension ref="A1:AM550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B491" sqref="B491"/>
+      <selection pane="bottomLeft" activeCell="AB499" sqref="AB499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -70446,7 +70542,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="486" customHeight="1" spans="3:39">
+    <row r="486" customHeight="1" spans="2:39">
+      <c r="B486" s="2" t="s">
+        <v>1670</v>
+      </c>
       <c r="C486" s="2" t="s">
         <v>81</v>
       </c>
@@ -70454,7 +70553,7 @@
         <v>2023</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>42</v>
@@ -70463,7 +70562,7 @@
         <v>1621</v>
       </c>
       <c r="H486" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="I486" s="2" t="s">
         <v>42</v>
@@ -70561,25 +70660,25 @@
     </row>
     <row r="487" customHeight="1" spans="2:39">
       <c r="B487" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="D487" s="3">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1501</v>
+        <v>1674</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>43</v>
+        <v>1675</v>
       </c>
       <c r="H487" s="2" t="s">
-        <v>63</v>
+        <v>1676</v>
       </c>
       <c r="I487" s="2" t="s">
         <v>42</v>
@@ -70594,10 +70693,10 @@
         <v>1587</v>
       </c>
       <c r="M487" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N487" s="2" t="s">
-        <v>1674</v>
+        <v>42</v>
       </c>
       <c r="O487" s="2" t="s">
         <v>42</v>
@@ -70609,13 +70708,13 @@
         <v>42</v>
       </c>
       <c r="R487" s="2">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="S487" s="2">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="T487" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U487" s="2" t="s">
         <v>47</v>
@@ -70642,16 +70741,16 @@
         <v>42</v>
       </c>
       <c r="AC487" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD487" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE487" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF487" s="2" t="s">
-        <v>58</v>
+        <v>1220</v>
       </c>
       <c r="AG487" s="2" t="s">
         <v>52</v>
@@ -70677,25 +70776,25 @@
     </row>
     <row r="488" customHeight="1" spans="2:39">
       <c r="B488" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G488" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D488" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E488" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F488" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G488" s="2" t="s">
-        <v>1673</v>
-      </c>
       <c r="H488" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="I488" s="2" t="s">
         <v>42</v>
@@ -70710,7 +70809,7 @@
         <v>1587</v>
       </c>
       <c r="M488" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N488" s="2" t="s">
         <v>42</v>
@@ -70725,10 +70824,10 @@
         <v>42</v>
       </c>
       <c r="R488" s="2">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="S488" s="2">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="T488" s="2" t="s">
         <v>46</v>
@@ -70755,7 +70854,7 @@
         <v>48</v>
       </c>
       <c r="AB488" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC488" s="2" t="s">
         <v>42</v>
@@ -70764,10 +70863,10 @@
         <v>42</v>
       </c>
       <c r="AE488" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF488" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG488" s="2" t="s">
         <v>52</v>
@@ -70793,25 +70892,25 @@
     </row>
     <row r="489" customHeight="1" spans="2:39">
       <c r="B489" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1679</v>
+        <v>268</v>
       </c>
       <c r="D489" s="3">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1676</v>
+        <v>1501</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>1673</v>
+        <v>43</v>
       </c>
       <c r="H489" s="2" t="s">
-        <v>1677</v>
+        <v>63</v>
       </c>
       <c r="I489" s="2" t="s">
         <v>42</v>
@@ -70826,10 +70925,10 @@
         <v>1587</v>
       </c>
       <c r="M489" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N489" s="2" t="s">
-        <v>42</v>
+        <v>1681</v>
       </c>
       <c r="O489" s="2" t="s">
         <v>42</v>
@@ -70841,13 +70940,13 @@
         <v>42</v>
       </c>
       <c r="R489" s="2">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="S489" s="2">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="T489" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U489" s="2" t="s">
         <v>47</v>
@@ -70871,16 +70970,16 @@
         <v>48</v>
       </c>
       <c r="AB489" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC489" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD489" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE489" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF489" s="2" t="s">
         <v>58</v>
@@ -70909,25 +71008,25 @@
     </row>
     <row r="490" customHeight="1" spans="2:39">
       <c r="B490" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D490" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>121</v>
+        <v>1678</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>99</v>
+        <v>1675</v>
       </c>
       <c r="H490" s="2" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="I490" s="2" t="s">
         <v>42</v>
@@ -70942,10 +71041,10 @@
         <v>1587</v>
       </c>
       <c r="M490" s="2" t="s">
-        <v>99</v>
+        <v>1675</v>
       </c>
       <c r="N490" s="2" t="s">
-        <v>1682</v>
+        <v>42</v>
       </c>
       <c r="O490" s="2" t="s">
         <v>42</v>
@@ -70957,13 +71056,13 @@
         <v>42</v>
       </c>
       <c r="R490" s="2">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="S490" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="T490" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U490" s="2" t="s">
         <v>47</v>
@@ -70990,16 +71089,16 @@
         <v>49</v>
       </c>
       <c r="AC490" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD490" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE490" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF490" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG490" s="2" t="s">
         <v>52</v>
@@ -71028,22 +71127,22 @@
         <v>1683</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>110</v>
+        <v>1684</v>
       </c>
       <c r="D491" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>99</v>
+        <v>1675</v>
       </c>
       <c r="H491" s="2" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="I491" s="2" t="s">
         <v>42</v>
@@ -71058,10 +71157,10 @@
         <v>1587</v>
       </c>
       <c r="M491" s="2" t="s">
-        <v>99</v>
+        <v>1675</v>
       </c>
       <c r="N491" s="2" t="s">
-        <v>1686</v>
+        <v>42</v>
       </c>
       <c r="O491" s="2" t="s">
         <v>42</v>
@@ -71073,10 +71172,10 @@
         <v>42</v>
       </c>
       <c r="R491" s="2">
-        <v>2008</v>
+        <v>1987</v>
       </c>
       <c r="S491" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="T491" s="2" t="s">
         <v>47</v>
@@ -71103,19 +71202,19 @@
         <v>48</v>
       </c>
       <c r="AB491" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC491" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD491" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE491" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF491" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG491" s="2" t="s">
         <v>52</v>
@@ -71141,25 +71240,25 @@
     </row>
     <row r="492" customHeight="1" spans="2:39">
       <c r="B492" s="2" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D492" s="3">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1676</v>
+        <v>121</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>1673</v>
+        <v>99</v>
       </c>
       <c r="H492" s="2" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="I492" s="2" t="s">
         <v>42</v>
@@ -71174,10 +71273,10 @@
         <v>1587</v>
       </c>
       <c r="M492" s="2" t="s">
-        <v>1689</v>
+        <v>99</v>
       </c>
       <c r="N492" s="2" t="s">
-        <v>42</v>
+        <v>1687</v>
       </c>
       <c r="O492" s="2" t="s">
         <v>42</v>
@@ -71189,10 +71288,10 @@
         <v>42</v>
       </c>
       <c r="R492" s="2">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="S492" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="T492" s="2" t="s">
         <v>47</v>
@@ -71222,13 +71321,13 @@
         <v>49</v>
       </c>
       <c r="AC492" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD492" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE492" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF492" s="2" t="s">
         <v>58</v>
@@ -71257,25 +71356,25 @@
     </row>
     <row r="493" customHeight="1" spans="2:39">
       <c r="B493" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H493" s="2" t="s">
         <v>1690</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D493" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E493" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F493" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G493" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="H493" s="2" t="s">
-        <v>1693</v>
       </c>
       <c r="I493" s="2" t="s">
         <v>42</v>
@@ -71290,10 +71389,10 @@
         <v>1587</v>
       </c>
       <c r="M493" s="2" t="s">
-        <v>1694</v>
+        <v>99</v>
       </c>
       <c r="N493" s="2" t="s">
-        <v>42</v>
+        <v>1691</v>
       </c>
       <c r="O493" s="2" t="s">
         <v>42</v>
@@ -71305,10 +71404,10 @@
         <v>42</v>
       </c>
       <c r="R493" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="S493" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="T493" s="2" t="s">
         <v>47</v>
@@ -71347,7 +71446,7 @@
         <v>42</v>
       </c>
       <c r="AF493" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG493" s="2" t="s">
         <v>52</v>
@@ -71373,25 +71472,25 @@
     </row>
     <row r="494" customHeight="1" spans="2:39">
       <c r="B494" s="2" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D494" s="3">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1696</v>
+        <v>1678</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>142</v>
+        <v>1675</v>
       </c>
       <c r="H494" s="2" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="I494" s="2" t="s">
         <v>42</v>
@@ -71403,13 +71502,13 @@
         <v>42</v>
       </c>
       <c r="L494" s="2" t="s">
-        <v>1698</v>
+        <v>1587</v>
       </c>
       <c r="M494" s="2" t="s">
-        <v>142</v>
+        <v>1694</v>
       </c>
       <c r="N494" s="2" t="s">
-        <v>1699</v>
+        <v>42</v>
       </c>
       <c r="O494" s="2" t="s">
         <v>42</v>
@@ -71421,10 +71520,10 @@
         <v>42</v>
       </c>
       <c r="R494" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="S494" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="T494" s="2" t="s">
         <v>47</v>
@@ -71451,7 +71550,7 @@
         <v>48</v>
       </c>
       <c r="AB494" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC494" s="2" t="s">
         <v>42</v>
@@ -71460,7 +71559,7 @@
         <v>42</v>
       </c>
       <c r="AE494" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF494" s="2" t="s">
         <v>58</v>
@@ -71489,25 +71588,25 @@
     </row>
     <row r="495" customHeight="1" spans="2:39">
       <c r="B495" s="2" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D495" s="3">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>142</v>
+        <v>1697</v>
       </c>
       <c r="H495" s="2" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="I495" s="2" t="s">
         <v>42</v>
@@ -71519,10 +71618,10 @@
         <v>42</v>
       </c>
       <c r="L495" s="2" t="s">
-        <v>1698</v>
+        <v>1587</v>
       </c>
       <c r="M495" s="2" t="s">
-        <v>142</v>
+        <v>1699</v>
       </c>
       <c r="N495" s="2" t="s">
         <v>42</v>
@@ -71537,10 +71636,10 @@
         <v>42</v>
       </c>
       <c r="R495" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="S495" s="2">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="T495" s="2" t="s">
         <v>47</v>
@@ -71579,7 +71678,7 @@
         <v>42</v>
       </c>
       <c r="AF495" s="2" t="s">
-        <v>1220</v>
+        <v>58</v>
       </c>
       <c r="AG495" s="2" t="s">
         <v>52</v>
@@ -71605,16 +71704,16 @@
     </row>
     <row r="496" customHeight="1" spans="2:39">
       <c r="B496" s="2" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D496" s="3">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>42</v>
@@ -71623,7 +71722,7 @@
         <v>142</v>
       </c>
       <c r="H496" s="2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="I496" s="2" t="s">
         <v>42</v>
@@ -71635,13 +71734,13 @@
         <v>42</v>
       </c>
       <c r="L496" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M496" s="2" t="s">
         <v>142</v>
       </c>
       <c r="N496" s="2" t="s">
-        <v>42</v>
+        <v>1704</v>
       </c>
       <c r="O496" s="2" t="s">
         <v>42</v>
@@ -71652,17 +71751,17 @@
       <c r="Q496" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R496" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S496" s="2" t="s">
-        <v>42</v>
+      <c r="R496" s="2">
+        <v>2002</v>
+      </c>
+      <c r="S496" s="2">
+        <v>2008</v>
       </c>
       <c r="T496" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U496" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V496" s="2" t="s">
         <v>46</v>
@@ -71674,13 +71773,13 @@
         <v>46</v>
       </c>
       <c r="Y496" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z496" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA496" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB496" s="2" t="s">
         <v>42</v>
@@ -71692,13 +71791,13 @@
         <v>42</v>
       </c>
       <c r="AE496" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF496" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG496" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH496" s="2" t="s">
         <v>42</v>
@@ -71724,13 +71823,13 @@
         <v>1705</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="D497" s="3">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>42</v>
@@ -71739,7 +71838,7 @@
         <v>142</v>
       </c>
       <c r="H497" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="I497" s="2" t="s">
         <v>42</v>
@@ -71751,7 +71850,7 @@
         <v>42</v>
       </c>
       <c r="L497" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M497" s="2" t="s">
         <v>142</v>
@@ -71769,10 +71868,10 @@
         <v>42</v>
       </c>
       <c r="R497" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="S497" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="T497" s="2" t="s">
         <v>47</v>
@@ -71799,19 +71898,19 @@
         <v>48</v>
       </c>
       <c r="AB497" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC497" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD497" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AE497" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF497" s="2" t="s">
-        <v>58</v>
+        <v>1220</v>
       </c>
       <c r="AG497" s="2" t="s">
         <v>52</v>
@@ -71837,16 +71936,16 @@
     </row>
     <row r="498" customHeight="1" spans="2:39">
       <c r="B498" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="D498" s="3">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>42</v>
@@ -71855,7 +71954,7 @@
         <v>142</v>
       </c>
       <c r="H498" s="2" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="I498" s="2" t="s">
         <v>42</v>
@@ -71867,13 +71966,13 @@
         <v>42</v>
       </c>
       <c r="L498" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M498" s="2" t="s">
         <v>142</v>
       </c>
       <c r="N498" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="O498" s="2" t="s">
         <v>42</v>
@@ -71885,16 +71984,16 @@
         <v>42</v>
       </c>
       <c r="R498" s="2">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="S498" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T498" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U498" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V498" s="2" t="s">
         <v>46</v>
@@ -71912,13 +72011,13 @@
         <v>46</v>
       </c>
       <c r="AA498" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB498" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC498" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD498" s="2" t="s">
         <v>42</v>
@@ -71927,10 +72026,10 @@
         <v>42</v>
       </c>
       <c r="AF498" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG498" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH498" s="2" t="s">
         <v>42</v>
@@ -71953,22 +72052,22 @@
     </row>
     <row r="499" customHeight="1" spans="2:39">
       <c r="B499" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D499" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>1713</v>
+        <v>142</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>1714</v>
@@ -71983,13 +72082,13 @@
         <v>42</v>
       </c>
       <c r="L499" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M499" s="2" t="s">
         <v>142</v>
       </c>
       <c r="N499" s="2" t="s">
-        <v>42</v>
+        <v>1715</v>
       </c>
       <c r="O499" s="2" t="s">
         <v>42</v>
@@ -72001,10 +72100,10 @@
         <v>42</v>
       </c>
       <c r="R499" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="S499" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="T499" s="2" t="s">
         <v>47</v>
@@ -72034,19 +72133,19 @@
         <v>49</v>
       </c>
       <c r="AC499" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD499" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AE499" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF499" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG499" s="2" t="s">
-        <v>482</v>
+        <v>52</v>
       </c>
       <c r="AH499" s="2" t="s">
         <v>42</v>
@@ -72069,16 +72168,16 @@
     </row>
     <row r="500" customHeight="1" spans="2:39">
       <c r="B500" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1438</v>
+        <v>81</v>
       </c>
       <c r="D500" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>42</v>
@@ -72099,13 +72198,13 @@
         <v>42</v>
       </c>
       <c r="L500" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M500" s="2" t="s">
         <v>142</v>
       </c>
       <c r="N500" s="2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="O500" s="2" t="s">
         <v>42</v>
@@ -72116,17 +72215,17 @@
       <c r="Q500" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R500" s="2">
-        <v>1956</v>
-      </c>
-      <c r="S500" s="2">
-        <v>2018</v>
+      <c r="R500" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S500" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T500" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U500" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V500" s="2" t="s">
         <v>46</v>
@@ -72138,25 +72237,25 @@
         <v>46</v>
       </c>
       <c r="Y500" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z500" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA500" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB500" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC500" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD500" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE500" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF500" s="2" t="s">
         <v>42</v>
@@ -72188,10 +72287,10 @@
         <v>1718</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="D501" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>1719</v>
@@ -72200,11 +72299,11 @@
         <v>42</v>
       </c>
       <c r="G501" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H501" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="H501" s="2" t="s">
-        <v>1721</v>
-      </c>
       <c r="I501" s="2" t="s">
         <v>42</v>
       </c>
@@ -72215,13 +72314,13 @@
         <v>42</v>
       </c>
       <c r="L501" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="M501" s="2" t="s">
-        <v>1722</v>
+        <v>142</v>
       </c>
       <c r="N501" s="2" t="s">
-        <v>42</v>
+        <v>1704</v>
       </c>
       <c r="O501" s="2" t="s">
         <v>42</v>
@@ -72233,7 +72332,7 @@
         <v>42</v>
       </c>
       <c r="R501" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S501" s="2">
         <v>2017</v>
@@ -72263,19 +72362,19 @@
         <v>48</v>
       </c>
       <c r="AB501" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC501" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD501" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE501" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF501" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG501" s="2" t="s">
         <v>52</v>
@@ -72301,29 +72400,29 @@
     </row>
     <row r="502" customHeight="1" spans="2:39">
       <c r="B502" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H502" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I502" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="C502" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D502" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E502" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F502" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G502" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H502" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I502" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J502" s="2" t="s">
         <v>42</v>
       </c>
@@ -72331,10 +72430,10 @@
         <v>42</v>
       </c>
       <c r="L502" s="2" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="M502" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="N502" s="2" t="s">
         <v>42</v>
@@ -72349,13 +72448,13 @@
         <v>42</v>
       </c>
       <c r="R502" s="2">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="S502" s="2">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="T502" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U502" s="2" t="s">
         <v>47</v>
@@ -72379,19 +72478,19 @@
         <v>48</v>
       </c>
       <c r="AB502" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC502" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD502" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE502" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF502" s="2" t="s">
-        <v>58</v>
+        <v>449</v>
       </c>
       <c r="AG502" s="2" t="s">
         <v>52</v>
@@ -72417,44 +72516,44 @@
     </row>
     <row r="503" customHeight="1" spans="2:39">
       <c r="B503" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H503" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="C503" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D503" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E503" s="2" t="s">
+      <c r="I503" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J503" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K503" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L503" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M503" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N503" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="F503" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G503" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H503" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="I503" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J503" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K503" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L503" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="M503" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="N503" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O503" s="2" t="s">
         <v>42</v>
       </c>
@@ -72465,13 +72564,13 @@
         <v>42</v>
       </c>
       <c r="R503" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="S503" s="2">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="T503" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U503" s="2" t="s">
         <v>47</v>
@@ -72495,19 +72594,19 @@
         <v>48</v>
       </c>
       <c r="AB503" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC503" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD503" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE503" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF503" s="2" t="s">
-        <v>51</v>
+        <v>449</v>
       </c>
       <c r="AG503" s="2" t="s">
         <v>52</v>
@@ -72533,25 +72632,25 @@
     </row>
     <row r="504" customHeight="1" spans="2:39">
       <c r="B504" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="D504" s="3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="H504" s="2" t="s">
-        <v>1731</v>
+        <v>1714</v>
       </c>
       <c r="I504" s="2" t="s">
         <v>42</v>
@@ -72563,10 +72662,10 @@
         <v>42</v>
       </c>
       <c r="L504" s="2" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="M504" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="N504" s="2" t="s">
         <v>42</v>
@@ -72581,16 +72680,16 @@
         <v>42</v>
       </c>
       <c r="R504" s="2">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="S504" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="T504" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U504" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V504" s="2" t="s">
         <v>46</v>
@@ -72602,7 +72701,7 @@
         <v>46</v>
       </c>
       <c r="Y504" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z504" s="2" t="s">
         <v>46</v>
@@ -72611,22 +72710,22 @@
         <v>48</v>
       </c>
       <c r="AB504" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC504" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD504" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE504" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF504" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG504" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH504" s="2" t="s">
         <v>42</v>
@@ -72649,13 +72748,13 @@
     </row>
     <row r="505" customHeight="1" spans="2:39">
       <c r="B505" s="2" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>70</v>
+        <v>465</v>
       </c>
       <c r="D505" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>1730</v>
@@ -72664,10 +72763,10 @@
         <v>42</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="H505" s="2" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="I505" s="2" t="s">
         <v>42</v>
@@ -72679,13 +72778,13 @@
         <v>42</v>
       </c>
       <c r="L505" s="2" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="M505" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>42</v>
+        <v>1732</v>
       </c>
       <c r="O505" s="2" t="s">
         <v>42</v>
@@ -72697,16 +72796,16 @@
         <v>42</v>
       </c>
       <c r="R505" s="2">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="S505" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="T505" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U505" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V505" s="2" t="s">
         <v>46</v>
@@ -72724,22 +72823,22 @@
         <v>46</v>
       </c>
       <c r="AA505" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB505" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC505" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD505" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE505" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF505" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG505" s="2" t="s">
         <v>42</v>
@@ -72765,29 +72864,29 @@
     </row>
     <row r="506" customHeight="1" spans="2:39">
       <c r="B506" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="C506" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="D506" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E506" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H506" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="F506" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G506" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H506" s="2" t="s">
+      <c r="I506" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="I506" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J506" s="2" t="s">
         <v>42</v>
       </c>
@@ -72795,13 +72894,13 @@
         <v>42</v>
       </c>
       <c r="L506" s="2" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="M506" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="N506" s="2" t="s">
-        <v>42</v>
+        <v>1737</v>
       </c>
       <c r="O506" s="2" t="s">
         <v>42</v>
@@ -72813,13 +72912,13 @@
         <v>42</v>
       </c>
       <c r="R506" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="S506" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="T506" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U506" s="2" t="s">
         <v>47</v>
@@ -72828,7 +72927,7 @@
         <v>46</v>
       </c>
       <c r="W506" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X506" s="2" t="s">
         <v>46</v>
@@ -72849,13 +72948,13 @@
         <v>50</v>
       </c>
       <c r="AD506" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE506" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AF506" s="2" t="s">
-        <v>58</v>
+        <v>449</v>
       </c>
       <c r="AG506" s="2" t="s">
         <v>52</v>
@@ -72873,7 +72972,7 @@
         <v>42</v>
       </c>
       <c r="AL506" s="2" t="s">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AM506" s="2" t="s">
         <v>42</v>
@@ -72881,7 +72980,7 @@
     </row>
     <row r="507" customHeight="1" spans="2:39">
       <c r="B507" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>73</v>
@@ -72890,16 +72989,16 @@
         <v>2023</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>1725</v>
+        <v>1740</v>
       </c>
       <c r="H507" s="2" t="s">
-        <v>125</v>
+        <v>1741</v>
       </c>
       <c r="I507" s="2" t="s">
         <v>42</v>
@@ -72911,10 +73010,10 @@
         <v>42</v>
       </c>
       <c r="L507" s="2" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="M507" s="2" t="s">
-        <v>1725</v>
+        <v>142</v>
       </c>
       <c r="N507" s="2" t="s">
         <v>42</v>
@@ -72929,10 +73028,10 @@
         <v>42</v>
       </c>
       <c r="R507" s="2">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="S507" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="T507" s="2" t="s">
         <v>47</v>
@@ -72962,19 +73061,19 @@
         <v>49</v>
       </c>
       <c r="AC507" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD507" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AE507" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF507" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG507" s="2" t="s">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="AH507" s="2" t="s">
         <v>42</v>
@@ -72997,25 +73096,25 @@
     </row>
     <row r="508" customHeight="1" spans="2:39">
       <c r="B508" s="2" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>208</v>
+        <v>1438</v>
       </c>
       <c r="D508" s="3">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>1451</v>
+        <v>142</v>
       </c>
       <c r="H508" s="2" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="I508" s="2" t="s">
         <v>42</v>
@@ -73027,13 +73126,13 @@
         <v>42</v>
       </c>
       <c r="L508" s="2" t="s">
-        <v>1742</v>
+        <v>1703</v>
       </c>
       <c r="M508" s="2" t="s">
-        <v>1743</v>
+        <v>142</v>
       </c>
       <c r="N508" s="2" t="s">
-        <v>1744</v>
+        <v>153</v>
       </c>
       <c r="O508" s="2" t="s">
         <v>42</v>
@@ -73045,13 +73144,13 @@
         <v>42</v>
       </c>
       <c r="R508" s="2">
-        <v>2004</v>
+        <v>1956</v>
       </c>
       <c r="S508" s="2">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="T508" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U508" s="2" t="s">
         <v>47</v>
@@ -73060,7 +73159,7 @@
         <v>46</v>
       </c>
       <c r="W508" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X508" s="2" t="s">
         <v>46</v>
@@ -73078,19 +73177,19 @@
         <v>49</v>
       </c>
       <c r="AC508" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD508" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE508" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF508" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG508" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH508" s="2" t="s">
         <v>42</v>
@@ -73116,55 +73215,55 @@
         <v>1745</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D509" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L509" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M509" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R509" s="2">
         <v>2017</v>
       </c>
-      <c r="E509" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G509" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H509" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L509" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="M509" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="N509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q509" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R509" s="2">
-        <v>2001</v>
-      </c>
       <c r="S509" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T509" s="2" t="s">
         <v>47</v>
@@ -73191,16 +73290,16 @@
         <v>48</v>
       </c>
       <c r="AB509" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC509" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD509" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE509" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF509" s="2" t="s">
         <v>58</v>
@@ -73229,25 +73328,25 @@
     </row>
     <row r="510" customHeight="1" spans="2:39">
       <c r="B510" s="2" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1463</v>
+        <v>133</v>
       </c>
       <c r="D510" s="3">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1573</v>
+        <v>1751</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>1451</v>
+        <v>1752</v>
       </c>
       <c r="H510" s="2" t="s">
-        <v>1574</v>
+        <v>1753</v>
       </c>
       <c r="I510" s="2" t="s">
         <v>42</v>
@@ -73259,10 +73358,10 @@
         <v>42</v>
       </c>
       <c r="L510" s="2" t="s">
-        <v>1742</v>
+        <v>1703</v>
       </c>
       <c r="M510" s="2" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="N510" s="2" t="s">
         <v>42</v>
@@ -73277,10 +73376,10 @@
         <v>42</v>
       </c>
       <c r="R510" s="2">
+        <v>2008</v>
+      </c>
+      <c r="S510" s="2">
         <v>2013</v>
-      </c>
-      <c r="S510" s="2">
-        <v>2016</v>
       </c>
       <c r="T510" s="2" t="s">
         <v>47</v>
@@ -73319,13 +73418,13 @@
         <v>42</v>
       </c>
       <c r="AF510" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG510" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AH510" s="2" t="s">
-        <v>42</v>
+        <v>1754</v>
       </c>
       <c r="AI510" s="2" t="s">
         <v>42</v>
@@ -73345,25 +73444,25 @@
     </row>
     <row r="511" customHeight="1" spans="2:39">
       <c r="B511" s="2" t="s">
-        <v>1749</v>
+        <v>1755</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1750</v>
+        <v>164</v>
       </c>
       <c r="D511" s="3">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1751</v>
+        <v>1450</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>1752</v>
+        <v>1451</v>
       </c>
       <c r="H511" s="2" t="s">
-        <v>1753</v>
+        <v>1545</v>
       </c>
       <c r="I511" s="2" t="s">
         <v>42</v>
@@ -73375,10 +73474,10 @@
         <v>42</v>
       </c>
       <c r="L511" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="M511" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="N511" s="2" t="s">
         <v>42</v>
@@ -73393,13 +73492,13 @@
         <v>42</v>
       </c>
       <c r="R511" s="2">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="S511" s="2">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="T511" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U511" s="2" t="s">
         <v>47</v>
@@ -73438,7 +73537,7 @@
         <v>58</v>
       </c>
       <c r="AG511" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH511" s="2" t="s">
         <v>42</v>
@@ -73461,41 +73560,41 @@
     </row>
     <row r="512" customHeight="1" spans="2:39">
       <c r="B512" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D512" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H512" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L512" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C512" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D512" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E512" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F512" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H512" s="2" t="s">
+      <c r="M512" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="I512" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="J512" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K512" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L512" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="M512" s="2" t="s">
-        <v>1755</v>
-      </c>
       <c r="N512" s="2" t="s">
         <v>42</v>
       </c>
@@ -73509,16 +73608,16 @@
         <v>42</v>
       </c>
       <c r="R512" s="2">
-        <v>1978</v>
+        <v>2010</v>
       </c>
       <c r="S512" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="T512" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U512" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V512" s="2" t="s">
         <v>46</v>
@@ -73542,7 +73641,7 @@
         <v>42</v>
       </c>
       <c r="AC512" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD512" s="2" t="s">
         <v>42</v>
@@ -73551,10 +73650,10 @@
         <v>42</v>
       </c>
       <c r="AF512" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG512" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH512" s="2" t="s">
         <v>42</v>
@@ -73577,25 +73676,25 @@
     </row>
     <row r="513" customHeight="1" spans="2:39">
       <c r="B513" s="2" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D513" s="3">
         <v>2014</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="H513" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="I513" s="2" t="s">
         <v>42</v>
@@ -73607,10 +73706,10 @@
         <v>42</v>
       </c>
       <c r="L513" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="M513" s="2" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="N513" s="2" t="s">
         <v>42</v>
@@ -73625,16 +73724,16 @@
         <v>42</v>
       </c>
       <c r="R513" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="S513" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="T513" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U513" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V513" s="2" t="s">
         <v>46</v>
@@ -73646,7 +73745,7 @@
         <v>46</v>
       </c>
       <c r="Y513" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z513" s="2" t="s">
         <v>46</v>
@@ -73655,7 +73754,7 @@
         <v>48</v>
       </c>
       <c r="AB513" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC513" s="2" t="s">
         <v>42</v>
@@ -73667,10 +73766,10 @@
         <v>42</v>
       </c>
       <c r="AF513" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG513" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH513" s="2" t="s">
         <v>42</v>
@@ -73693,7 +73792,7 @@
     </row>
     <row r="514" customHeight="1" spans="2:39">
       <c r="B514" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>70</v>
@@ -73702,17 +73801,17 @@
         <v>2019</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G514" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H514" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="H514" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="I514" s="2" t="s">
         <v>42</v>
       </c>
@@ -73723,10 +73822,10 @@
         <v>42</v>
       </c>
       <c r="L514" s="2" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="M514" s="2" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="N514" s="2" t="s">
         <v>42</v>
@@ -73741,13 +73840,13 @@
         <v>42</v>
       </c>
       <c r="R514" s="2">
-        <v>2012</v>
+        <v>1956</v>
       </c>
       <c r="S514" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="T514" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U514" s="2" t="s">
         <v>47</v>
@@ -73756,7 +73855,7 @@
         <v>46</v>
       </c>
       <c r="W514" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X514" s="2" t="s">
         <v>46</v>
@@ -73768,25 +73867,25 @@
         <v>46</v>
       </c>
       <c r="AA514" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB514" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC514" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD514" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE514" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF514" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG514" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH514" s="2" t="s">
         <v>42</v>
@@ -73809,26 +73908,26 @@
     </row>
     <row r="515" customHeight="1" spans="2:39">
       <c r="B515" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D515" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H515" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C515" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D515" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E515" s="2" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G515" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H515" s="2" t="s">
-        <v>1770</v>
-      </c>
       <c r="I515" s="2" t="s">
         <v>42</v>
       </c>
@@ -73839,10 +73938,10 @@
         <v>42</v>
       </c>
       <c r="L515" s="2" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="M515" s="2" t="s">
-        <v>77</v>
+        <v>1757</v>
       </c>
       <c r="N515" s="2" t="s">
         <v>42</v>
@@ -73857,13 +73956,13 @@
         <v>42</v>
       </c>
       <c r="R515" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="S515" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="T515" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U515" s="2" t="s">
         <v>47</v>
@@ -73872,7 +73971,7 @@
         <v>46</v>
       </c>
       <c r="W515" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X515" s="2" t="s">
         <v>46</v>
@@ -73887,10 +73986,10 @@
         <v>48</v>
       </c>
       <c r="AB515" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC515" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD515" s="2" t="s">
         <v>42</v>
@@ -73917,7 +74016,7 @@
         <v>42</v>
       </c>
       <c r="AL515" s="2" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="AM515" s="2" t="s">
         <v>42</v>
@@ -73925,25 +74024,25 @@
     </row>
     <row r="516" customHeight="1" spans="2:39">
       <c r="B516" s="2" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D516" s="3">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>117</v>
+        <v>1770</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>77</v>
+        <v>1757</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I516" s="2" t="s">
         <v>42</v>
@@ -73955,13 +74054,13 @@
         <v>42</v>
       </c>
       <c r="L516" s="2" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="M516" s="2" t="s">
-        <v>77</v>
+        <v>1757</v>
       </c>
       <c r="N516" s="2" t="s">
-        <v>1773</v>
+        <v>42</v>
       </c>
       <c r="O516" s="2" t="s">
         <v>42</v>
@@ -73973,10 +74072,10 @@
         <v>42</v>
       </c>
       <c r="R516" s="2">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="S516" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="T516" s="2" t="s">
         <v>47</v>
@@ -74003,22 +74102,22 @@
         <v>48</v>
       </c>
       <c r="AB516" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC516" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD516" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AE516" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF516" s="2" t="s">
-        <v>1774</v>
+        <v>58</v>
       </c>
       <c r="AG516" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH516" s="2" t="s">
         <v>42</v>
@@ -74041,43 +74140,43 @@
     </row>
     <row r="517" customHeight="1" spans="2:39">
       <c r="B517" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D517" s="3">
+        <v>2006</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H517" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I517" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J517" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K517" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L517" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="M517" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="C517" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D517" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E517" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F517" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G517" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H517" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I517" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J517" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K517" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L517" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M517" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="N517" s="2" t="s">
-        <v>42</v>
+        <v>1776</v>
       </c>
       <c r="O517" s="2" t="s">
         <v>42</v>
@@ -74089,13 +74188,13 @@
         <v>42</v>
       </c>
       <c r="R517" s="2">
-        <v>1990</v>
+        <v>2004</v>
       </c>
       <c r="S517" s="2">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="T517" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U517" s="2" t="s">
         <v>47</v>
@@ -74104,7 +74203,7 @@
         <v>46</v>
       </c>
       <c r="W517" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X517" s="2" t="s">
         <v>46</v>
@@ -74119,10 +74218,10 @@
         <v>48</v>
       </c>
       <c r="AB517" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC517" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD517" s="2" t="s">
         <v>42</v>
@@ -74131,7 +74230,7 @@
         <v>42</v>
       </c>
       <c r="AF517" s="2" t="s">
-        <v>1220</v>
+        <v>101</v>
       </c>
       <c r="AG517" s="2" t="s">
         <v>52</v>
@@ -74157,43 +74256,43 @@
     </row>
     <row r="518" customHeight="1" spans="2:39">
       <c r="B518" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D518" s="3">
         <v>2017</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H518" s="2" t="s">
-        <v>1777</v>
+        <v>122</v>
       </c>
       <c r="I518" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J518" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K518" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L518" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="M518" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="J518" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="K518" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L518" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M518" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="N518" s="2" t="s">
-        <v>1773</v>
+        <v>42</v>
       </c>
       <c r="O518" s="2" t="s">
         <v>42</v>
@@ -74205,10 +74304,10 @@
         <v>42</v>
       </c>
       <c r="R518" s="2">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="S518" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="T518" s="2" t="s">
         <v>47</v>
@@ -74235,22 +74334,22 @@
         <v>48</v>
       </c>
       <c r="AB518" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC518" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD518" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE518" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AF518" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG518" s="2" t="s">
-        <v>1549</v>
+        <v>52</v>
       </c>
       <c r="AH518" s="2" t="s">
         <v>42</v>
@@ -74273,41 +74372,41 @@
     </row>
     <row r="519" customHeight="1" spans="2:39">
       <c r="B519" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D519" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H519" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L519" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="M519" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C519" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D519" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E519" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F519" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G519" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H519" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I519" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="J519" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K519" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L519" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M519" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="N519" s="2" t="s">
         <v>42</v>
       </c>
@@ -74321,7 +74420,7 @@
         <v>42</v>
       </c>
       <c r="R519" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="S519" s="2">
         <v>2016</v>
@@ -74351,10 +74450,10 @@
         <v>48</v>
       </c>
       <c r="AB519" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC519" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD519" s="2" t="s">
         <v>42</v>
@@ -74387,24 +74486,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="520" customHeight="1" spans="3:39">
+    <row r="520" customHeight="1" spans="2:39">
+      <c r="B520" s="2" t="s">
+        <v>1781</v>
+      </c>
       <c r="C520" s="2" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="D520" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>1518</v>
+        <v>1784</v>
       </c>
       <c r="H520" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="I520" s="2" t="s">
         <v>42</v>
@@ -74416,10 +74518,10 @@
         <v>42</v>
       </c>
       <c r="L520" s="2" t="s">
-        <v>1771</v>
+        <v>1786</v>
       </c>
       <c r="M520" s="2" t="s">
-        <v>77</v>
+        <v>1787</v>
       </c>
       <c r="N520" s="2" t="s">
         <v>42</v>
@@ -74434,16 +74536,16 @@
         <v>42</v>
       </c>
       <c r="R520" s="2">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="S520" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T520" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U520" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V520" s="2" t="s">
         <v>46</v>
@@ -74467,7 +74569,7 @@
         <v>42</v>
       </c>
       <c r="AC520" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD520" s="2" t="s">
         <v>42</v>
@@ -74476,7 +74578,7 @@
         <v>42</v>
       </c>
       <c r="AF520" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG520" s="2" t="s">
         <v>42</v>
@@ -74500,27 +74602,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="521" customHeight="1" spans="3:39">
+    <row r="521" customHeight="1" spans="2:39">
+      <c r="B521" s="2" t="s">
+        <v>1788</v>
+      </c>
       <c r="C521" s="2" t="s">
-        <v>1508</v>
+        <v>81</v>
       </c>
       <c r="D521" s="3">
         <v>2020</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>111</v>
+        <v>1783</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>77</v>
+        <v>1784</v>
       </c>
       <c r="H521" s="2" t="s">
-        <v>1777</v>
+        <v>1789</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>42</v>
+        <v>1790</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>42</v>
@@ -74529,10 +74634,10 @@
         <v>42</v>
       </c>
       <c r="L521" s="2" t="s">
-        <v>1771</v>
+        <v>1786</v>
       </c>
       <c r="M521" s="2" t="s">
-        <v>77</v>
+        <v>1787</v>
       </c>
       <c r="N521" s="2" t="s">
         <v>42</v>
@@ -74547,16 +74652,16 @@
         <v>42</v>
       </c>
       <c r="R521" s="2">
-        <v>2019</v>
+        <v>1978</v>
       </c>
       <c r="S521" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="T521" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U521" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V521" s="2" t="s">
         <v>46</v>
@@ -74580,7 +74685,7 @@
         <v>42</v>
       </c>
       <c r="AC521" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD521" s="2" t="s">
         <v>42</v>
@@ -74589,10 +74694,10 @@
         <v>42</v>
       </c>
       <c r="AF521" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG521" s="2" t="s">
-        <v>1385</v>
+        <v>42</v>
       </c>
       <c r="AH521" s="2" t="s">
         <v>42</v>
@@ -74615,25 +74720,25 @@
     </row>
     <row r="522" customHeight="1" spans="2:39">
       <c r="B522" s="2" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D522" s="3">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>117</v>
+        <v>1792</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>77</v>
+        <v>1793</v>
       </c>
       <c r="H522" s="2" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="I522" s="2" t="s">
         <v>42</v>
@@ -74645,13 +74750,13 @@
         <v>42</v>
       </c>
       <c r="L522" s="2" t="s">
-        <v>1771</v>
+        <v>1786</v>
       </c>
       <c r="M522" s="2" t="s">
-        <v>77</v>
+        <v>1793</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>1786</v>
+        <v>42</v>
       </c>
       <c r="O522" s="2" t="s">
         <v>42</v>
@@ -74662,11 +74767,11 @@
       <c r="Q522" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R522" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S522" s="2" t="s">
-        <v>42</v>
+      <c r="R522" s="2">
+        <v>2001</v>
+      </c>
+      <c r="S522" s="2">
+        <v>2013</v>
       </c>
       <c r="T522" s="2" t="s">
         <v>47</v>
@@ -74696,16 +74801,16 @@
         <v>49</v>
       </c>
       <c r="AC522" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD522" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE522" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF522" s="2" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="AG522" s="2" t="s">
         <v>52</v>
@@ -74731,25 +74836,25 @@
     </row>
     <row r="523" customHeight="1" spans="2:39">
       <c r="B523" s="2" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D523" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>111</v>
+        <v>1796</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>77</v>
+        <v>1797</v>
       </c>
       <c r="H523" s="2" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="I523" s="2" t="s">
         <v>42</v>
@@ -74761,10 +74866,10 @@
         <v>42</v>
       </c>
       <c r="L523" s="2" t="s">
-        <v>1771</v>
+        <v>1799</v>
       </c>
       <c r="M523" s="2" t="s">
-        <v>77</v>
+        <v>1797</v>
       </c>
       <c r="N523" s="2" t="s">
         <v>42</v>
@@ -74779,10 +74884,10 @@
         <v>42</v>
       </c>
       <c r="R523" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="S523" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="T523" s="2" t="s">
         <v>46</v>
@@ -74794,10 +74899,10 @@
         <v>46</v>
       </c>
       <c r="W523" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X523" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y523" s="2" t="s">
         <v>46</v>
@@ -74806,22 +74911,22 @@
         <v>46</v>
       </c>
       <c r="AA523" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB523" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC523" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD523" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE523" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF523" s="2" t="s">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="AG523" s="2" t="s">
         <v>52</v>
@@ -74847,16 +74952,16 @@
     </row>
     <row r="524" customHeight="1" spans="2:39">
       <c r="B524" s="2" t="s">
-        <v>1789</v>
+        <v>1800</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>465</v>
+        <v>208</v>
       </c>
       <c r="D524" s="3">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1790</v>
+        <v>1801</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>42</v>
@@ -74865,7 +74970,7 @@
         <v>77</v>
       </c>
       <c r="H524" s="2" t="s">
-        <v>1791</v>
+        <v>1802</v>
       </c>
       <c r="I524" s="2" t="s">
         <v>42</v>
@@ -74877,7 +74982,7 @@
         <v>42</v>
       </c>
       <c r="L524" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M524" s="2" t="s">
         <v>77</v>
@@ -74895,16 +75000,16 @@
         <v>42</v>
       </c>
       <c r="R524" s="2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="S524" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="T524" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U524" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V524" s="2" t="s">
         <v>46</v>
@@ -74922,7 +75027,7 @@
         <v>46</v>
       </c>
       <c r="AA524" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB524" s="2" t="s">
         <v>42</v>
@@ -74934,13 +75039,13 @@
         <v>42</v>
       </c>
       <c r="AE524" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF524" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG524" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH524" s="2" t="s">
         <v>42</v>
@@ -74963,25 +75068,25 @@
     </row>
     <row r="525" customHeight="1" spans="2:39">
       <c r="B525" s="2" t="s">
-        <v>1792</v>
+        <v>1804</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D525" s="3">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1793</v>
+        <v>117</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>1794</v>
+        <v>77</v>
       </c>
       <c r="H525" s="2" t="s">
-        <v>1795</v>
+        <v>118</v>
       </c>
       <c r="I525" s="2" t="s">
         <v>42</v>
@@ -74993,13 +75098,13 @@
         <v>42</v>
       </c>
       <c r="L525" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M525" s="2" t="s">
         <v>77</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="O525" s="2" t="s">
         <v>42</v>
@@ -75011,16 +75116,16 @@
         <v>42</v>
       </c>
       <c r="R525" s="2">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="S525" s="2">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="T525" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U525" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V525" s="2" t="s">
         <v>46</v>
@@ -75047,16 +75152,16 @@
         <v>42</v>
       </c>
       <c r="AD525" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE525" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF525" s="2" t="s">
-        <v>42</v>
+        <v>1806</v>
       </c>
       <c r="AG525" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH525" s="2" t="s">
         <v>42</v>
@@ -75079,13 +75184,13 @@
     </row>
     <row r="526" customHeight="1" spans="2:39">
       <c r="B526" s="2" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="D526" s="3">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>117</v>
@@ -75097,7 +75202,7 @@
         <v>77</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>1798</v>
+        <v>118</v>
       </c>
       <c r="I526" s="2" t="s">
         <v>42</v>
@@ -75109,7 +75214,7 @@
         <v>42</v>
       </c>
       <c r="L526" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M526" s="2" t="s">
         <v>77</v>
@@ -75127,10 +75232,10 @@
         <v>42</v>
       </c>
       <c r="R526" s="2">
-        <v>2017</v>
+        <v>1990</v>
       </c>
       <c r="S526" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T526" s="2" t="s">
         <v>47</v>
@@ -75169,13 +75274,13 @@
         <v>42</v>
       </c>
       <c r="AF526" s="2" t="s">
-        <v>101</v>
+        <v>1220</v>
       </c>
       <c r="AG526" s="2" t="s">
-        <v>482</v>
+        <v>52</v>
       </c>
       <c r="AH526" s="2" t="s">
-        <v>1799</v>
+        <v>42</v>
       </c>
       <c r="AI526" s="2" t="s">
         <v>42</v>
@@ -75195,43 +75300,43 @@
     </row>
     <row r="527" customHeight="1" spans="2:39">
       <c r="B527" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1472</v>
+        <v>120</v>
       </c>
       <c r="D527" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H527" s="2" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>42</v>
+        <v>1810</v>
       </c>
       <c r="J527" s="2" t="s">
-        <v>42</v>
+        <v>1811</v>
       </c>
       <c r="K527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L527" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M527" s="2" t="s">
         <v>77</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>42</v>
+        <v>1805</v>
       </c>
       <c r="O527" s="2" t="s">
         <v>42</v>
@@ -75243,10 +75348,10 @@
         <v>42</v>
       </c>
       <c r="R527" s="2">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="S527" s="2">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="T527" s="2" t="s">
         <v>47</v>
@@ -75270,25 +75375,25 @@
         <v>46</v>
       </c>
       <c r="AA527" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC527" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE527" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF527" s="2" t="s">
         <v>101</v>
       </c>
       <c r="AG527" s="2" t="s">
-        <v>482</v>
+        <v>1549</v>
       </c>
       <c r="AH527" s="2" t="s">
         <v>42</v>
@@ -75311,13 +75416,13 @@
     </row>
     <row r="528" customHeight="1" spans="2:39">
       <c r="B528" s="2" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="D528" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>117</v>
@@ -75329,19 +75434,19 @@
         <v>77</v>
       </c>
       <c r="H528" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I528" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J528" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K528" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L528" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="I528" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J528" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K528" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L528" s="2" t="s">
-        <v>1771</v>
       </c>
       <c r="M528" s="2" t="s">
         <v>77</v>
@@ -75359,10 +75464,10 @@
         <v>42</v>
       </c>
       <c r="R528" s="2">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="S528" s="2">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="T528" s="2" t="s">
         <v>47</v>
@@ -75386,28 +75491,28 @@
         <v>46</v>
       </c>
       <c r="AA528" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB528" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC528" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD528" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE528" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF528" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG528" s="2" t="s">
-        <v>482</v>
+        <v>52</v>
       </c>
       <c r="AH528" s="2" t="s">
-        <v>1804</v>
+        <v>42</v>
       </c>
       <c r="AI528" s="2" t="s">
         <v>42</v>
@@ -75425,27 +75530,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="529" customHeight="1" spans="2:39">
-      <c r="B529" s="2" t="s">
-        <v>1805</v>
-      </c>
+    <row r="529" customHeight="1" spans="3:39">
       <c r="C529" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D529" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>1807</v>
+        <v>1518</v>
       </c>
       <c r="H529" s="2" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="I529" s="2" t="s">
         <v>42</v>
@@ -75457,10 +75559,10 @@
         <v>42</v>
       </c>
       <c r="L529" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M529" s="2" t="s">
-        <v>1807</v>
+        <v>77</v>
       </c>
       <c r="N529" s="2" t="s">
         <v>42</v>
@@ -75475,16 +75577,16 @@
         <v>42</v>
       </c>
       <c r="R529" s="2">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="S529" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="T529" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U529" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V529" s="2" t="s">
         <v>46</v>
@@ -75505,7 +75607,7 @@
         <v>48</v>
       </c>
       <c r="AB529" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC529" s="2" t="s">
         <v>42</v>
@@ -75517,13 +75619,13 @@
         <v>42</v>
       </c>
       <c r="AF529" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG529" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH529" s="2" t="s">
-        <v>1809</v>
+        <v>42</v>
       </c>
       <c r="AI529" s="2" t="s">
         <v>42</v>
@@ -75541,27 +75643,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" customHeight="1" spans="2:39">
-      <c r="B530" s="2" t="s">
-        <v>1810</v>
-      </c>
+    <row r="530" customHeight="1" spans="3:39">
       <c r="C530" s="2" t="s">
-        <v>1811</v>
+        <v>1508</v>
       </c>
       <c r="D530" s="3">
         <v>2020</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1812</v>
+        <v>111</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>1807</v>
+        <v>77</v>
       </c>
       <c r="H530" s="2" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="I530" s="2" t="s">
         <v>42</v>
@@ -75573,13 +75672,13 @@
         <v>42</v>
       </c>
       <c r="L530" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M530" s="2" t="s">
-        <v>1807</v>
+        <v>77</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>1814</v>
+        <v>42</v>
       </c>
       <c r="O530" s="2" t="s">
         <v>42</v>
@@ -75591,16 +75690,16 @@
         <v>42</v>
       </c>
       <c r="R530" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="S530" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T530" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U530" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V530" s="2" t="s">
         <v>46</v>
@@ -75618,13 +75717,13 @@
         <v>46</v>
       </c>
       <c r="AA530" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB530" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC530" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD530" s="2" t="s">
         <v>42</v>
@@ -75633,10 +75732,10 @@
         <v>42</v>
       </c>
       <c r="AF530" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG530" s="2" t="s">
-        <v>42</v>
+        <v>1385</v>
       </c>
       <c r="AH530" s="2" t="s">
         <v>42</v>
@@ -75659,44 +75758,44 @@
     </row>
     <row r="531" customHeight="1" spans="2:39">
       <c r="B531" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D531" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1816</v>
+        <v>117</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G531" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H531" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="H531" s="2" t="s">
+      <c r="I531" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J531" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K531" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L531" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="M531" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N531" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="I531" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="J531" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K531" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L531" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M531" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="N531" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O531" s="2" t="s">
         <v>42</v>
       </c>
@@ -75706,11 +75805,11 @@
       <c r="Q531" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R531" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S531" s="2">
-        <v>2022</v>
+      <c r="R531" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S531" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T531" s="2" t="s">
         <v>47</v>
@@ -75743,16 +75842,16 @@
         <v>50</v>
       </c>
       <c r="AD531" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE531" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AF531" s="2" t="s">
-        <v>101</v>
+        <v>449</v>
       </c>
       <c r="AG531" s="2" t="s">
-        <v>1385</v>
+        <v>52</v>
       </c>
       <c r="AH531" s="2" t="s">
         <v>42</v>
@@ -75775,25 +75874,25 @@
     </row>
     <row r="532" customHeight="1" spans="2:39">
       <c r="B532" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="D532" s="3">
         <v>2020</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1821</v>
+        <v>111</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H532" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="I532" s="2" t="s">
         <v>42</v>
@@ -75805,13 +75904,13 @@
         <v>42</v>
       </c>
       <c r="L532" s="2" t="s">
-        <v>1771</v>
+        <v>1803</v>
       </c>
       <c r="M532" s="2" t="s">
-        <v>1823</v>
+        <v>77</v>
       </c>
       <c r="N532" s="2" t="s">
-        <v>1824</v>
+        <v>42</v>
       </c>
       <c r="O532" s="2" t="s">
         <v>42</v>
@@ -75823,16 +75922,16 @@
         <v>42</v>
       </c>
       <c r="R532" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="S532" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="T532" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U532" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V532" s="2" t="s">
         <v>46</v>
@@ -75841,7 +75940,7 @@
         <v>46</v>
       </c>
       <c r="X532" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y532" s="2" t="s">
         <v>46</v>
@@ -75850,7 +75949,7 @@
         <v>46</v>
       </c>
       <c r="AA532" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB532" s="2" t="s">
         <v>42</v>
@@ -75859,16 +75958,16 @@
         <v>42</v>
       </c>
       <c r="AD532" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE532" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF532" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AG532" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH532" s="2" t="s">
         <v>42</v>
@@ -75891,58 +75990,58 @@
     </row>
     <row r="533" customHeight="1" spans="2:39">
       <c r="B533" s="2" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="D533" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>1827</v>
+        <v>77</v>
       </c>
       <c r="H533" s="2" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="I533" s="2" t="s">
-        <v>1829</v>
+        <v>42</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1830</v>
+        <v>42</v>
       </c>
       <c r="K533" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L533" s="2" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="M533" s="2" t="s">
-        <v>1827</v>
+        <v>77</v>
       </c>
       <c r="N533" s="2" t="s">
-        <v>1832</v>
+        <v>42</v>
       </c>
       <c r="O533" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P533" s="2" t="s">
-        <v>1832</v>
+        <v>42</v>
       </c>
       <c r="Q533" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R533" s="2">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="S533" s="2">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="T533" s="2" t="s">
         <v>47</v>
@@ -75966,10 +76065,10 @@
         <v>46</v>
       </c>
       <c r="AA533" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB533" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC533" s="2" t="s">
         <v>42</v>
@@ -75981,7 +76080,7 @@
         <v>42</v>
       </c>
       <c r="AF533" s="2" t="s">
-        <v>1220</v>
+        <v>42</v>
       </c>
       <c r="AG533" s="2" t="s">
         <v>42</v>
@@ -76007,25 +76106,25 @@
     </row>
     <row r="534" customHeight="1" spans="2:39">
       <c r="B534" s="2" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D534" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>1518</v>
+        <v>1826</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="I534" s="2" t="s">
         <v>42</v>
@@ -76037,13 +76136,13 @@
         <v>42</v>
       </c>
       <c r="L534" s="2" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="M534" s="2" t="s">
-        <v>1836</v>
+        <v>77</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>42</v>
+        <v>1828</v>
       </c>
       <c r="O534" s="2" t="s">
         <v>42</v>
@@ -76054,11 +76153,11 @@
       <c r="Q534" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R534" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S534" s="2" t="s">
-        <v>42</v>
+      <c r="R534" s="2">
+        <v>2007</v>
+      </c>
+      <c r="S534" s="2">
+        <v>2017</v>
       </c>
       <c r="T534" s="2" t="s">
         <v>46</v>
@@ -76076,19 +76175,19 @@
         <v>46</v>
       </c>
       <c r="Y534" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z534" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA534" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB534" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC534" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD534" s="2" t="s">
         <v>42</v>
@@ -76123,58 +76222,58 @@
     </row>
     <row r="535" customHeight="1" spans="2:39">
       <c r="B535" s="2" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D535" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H535" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L535" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="M535" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R535" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S535" s="2">
         <v>2019</v>
-      </c>
-      <c r="E535" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G535" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H535" s="2" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I535" s="2" t="s">
-        <v>1777</v>
-      </c>
-      <c r="J535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M535" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="N535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q535" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R535" s="2">
-        <v>2018</v>
-      </c>
-      <c r="S535" s="2">
-        <v>2018</v>
       </c>
       <c r="T535" s="2" t="s">
         <v>47</v>
@@ -76216,10 +76315,10 @@
         <v>101</v>
       </c>
       <c r="AG535" s="2" t="s">
-        <v>1385</v>
+        <v>482</v>
       </c>
       <c r="AH535" s="2" t="s">
-        <v>42</v>
+        <v>1831</v>
       </c>
       <c r="AI535" s="2" t="s">
         <v>42</v>
@@ -76239,28 +76338,28 @@
     </row>
     <row r="536" customHeight="1" spans="2:39">
       <c r="B536" s="2" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>81</v>
+        <v>1472</v>
       </c>
       <c r="D536" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1841</v>
+        <v>117</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>1839</v>
+        <v>77</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
       <c r="I536" s="2" t="s">
-        <v>1777</v>
+        <v>42</v>
       </c>
       <c r="J536" s="2" t="s">
         <v>42</v>
@@ -76269,10 +76368,10 @@
         <v>42</v>
       </c>
       <c r="L536" s="2" t="s">
-        <v>42</v>
+        <v>1803</v>
       </c>
       <c r="M536" s="2" t="s">
-        <v>1839</v>
+        <v>77</v>
       </c>
       <c r="N536" s="2" t="s">
         <v>42</v>
@@ -76287,10 +76386,10 @@
         <v>42</v>
       </c>
       <c r="R536" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="S536" s="2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="T536" s="2" t="s">
         <v>47</v>
@@ -76314,7 +76413,7 @@
         <v>46</v>
       </c>
       <c r="AA536" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB536" s="2" t="s">
         <v>42</v>
@@ -76332,7 +76431,7 @@
         <v>101</v>
       </c>
       <c r="AG536" s="2" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
       <c r="AH536" s="2" t="s">
         <v>42</v>
@@ -76355,25 +76454,25 @@
     </row>
     <row r="537" customHeight="1" spans="2:39">
       <c r="B537" s="2" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D537" s="3">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1844</v>
+        <v>117</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>1845</v>
+        <v>77</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="I537" s="2" t="s">
         <v>42</v>
@@ -76385,10 +76484,10 @@
         <v>42</v>
       </c>
       <c r="L537" s="2" t="s">
-        <v>1847</v>
+        <v>1803</v>
       </c>
       <c r="M537" s="2" t="s">
-        <v>1845</v>
+        <v>77</v>
       </c>
       <c r="N537" s="2" t="s">
         <v>42</v>
@@ -76403,10 +76502,10 @@
         <v>42</v>
       </c>
       <c r="R537" s="2">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="S537" s="2">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="T537" s="2" t="s">
         <v>47</v>
@@ -76430,16 +76529,16 @@
         <v>46</v>
       </c>
       <c r="AA537" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB537" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC537" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD537" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE537" s="2" t="s">
         <v>42</v>
@@ -76448,10 +76547,10 @@
         <v>101</v>
       </c>
       <c r="AG537" s="2" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
       <c r="AH537" s="2" t="s">
-        <v>42</v>
+        <v>1836</v>
       </c>
       <c r="AI537" s="2" t="s">
         <v>42</v>
@@ -76471,25 +76570,25 @@
     </row>
     <row r="538" customHeight="1" spans="2:39">
       <c r="B538" s="2" t="s">
-        <v>1848</v>
+        <v>1837</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1750</v>
+        <v>110</v>
       </c>
       <c r="D538" s="3">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1849</v>
+        <v>1838</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1851</v>
+        <v>1840</v>
       </c>
       <c r="I538" s="2" t="s">
         <v>42</v>
@@ -76501,10 +76600,10 @@
         <v>42</v>
       </c>
       <c r="L538" s="2" t="s">
-        <v>1852</v>
+        <v>1803</v>
       </c>
       <c r="M538" s="2" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>42</v>
@@ -76519,16 +76618,16 @@
         <v>42</v>
       </c>
       <c r="R538" s="2">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="S538" s="2">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="T538" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U538" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V538" s="2" t="s">
         <v>46</v>
@@ -76546,10 +76645,10 @@
         <v>46</v>
       </c>
       <c r="AA538" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB538" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC538" s="2" t="s">
         <v>42</v>
@@ -76561,13 +76660,13 @@
         <v>42</v>
       </c>
       <c r="AF538" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG538" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH538" s="2" t="s">
-        <v>42</v>
+        <v>1841</v>
       </c>
       <c r="AI538" s="2" t="s">
         <v>42</v>
@@ -76587,25 +76686,25 @@
     </row>
     <row r="539" customHeight="1" spans="2:39">
       <c r="B539" s="2" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>208</v>
+        <v>1843</v>
       </c>
       <c r="D539" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>1518</v>
+        <v>1839</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="I539" s="2" t="s">
         <v>42</v>
@@ -76617,13 +76716,13 @@
         <v>42</v>
       </c>
       <c r="L539" s="2" t="s">
-        <v>1852</v>
+        <v>1803</v>
       </c>
       <c r="M539" s="2" t="s">
-        <v>1518</v>
+        <v>1839</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
       <c r="O539" s="2" t="s">
         <v>42</v>
@@ -76635,10 +76734,10 @@
         <v>42</v>
       </c>
       <c r="R539" s="2">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="S539" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="T539" s="2" t="s">
         <v>47</v>
@@ -76703,28 +76802,28 @@
     </row>
     <row r="540" customHeight="1" spans="2:39">
       <c r="B540" s="2" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1750</v>
+        <v>73</v>
       </c>
       <c r="D540" s="3">
         <v>2023</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G540" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H540" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="H540" s="2" t="s">
-        <v>1859</v>
-      </c>
       <c r="I540" s="2" t="s">
-        <v>42</v>
+        <v>1851</v>
       </c>
       <c r="J540" s="2" t="s">
         <v>42</v>
@@ -76733,13 +76832,13 @@
         <v>42</v>
       </c>
       <c r="L540" s="2" t="s">
-        <v>1852</v>
+        <v>1803</v>
       </c>
       <c r="M540" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>1860</v>
+        <v>42</v>
       </c>
       <c r="O540" s="2" t="s">
         <v>42</v>
@@ -76751,10 +76850,10 @@
         <v>42</v>
       </c>
       <c r="R540" s="2">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="S540" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="T540" s="2" t="s">
         <v>47</v>
@@ -76787,16 +76886,16 @@
         <v>50</v>
       </c>
       <c r="AD540" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE540" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF540" s="2" t="s">
         <v>101</v>
       </c>
       <c r="AG540" s="2" t="s">
-        <v>52</v>
+        <v>1385</v>
       </c>
       <c r="AH540" s="2" t="s">
         <v>42</v>
@@ -76819,122 +76918,1166 @@
     </row>
     <row r="541" customHeight="1" spans="2:39">
       <c r="B541" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H541" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L541" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="M541" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N541" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="O541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R541" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S541" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T541" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM541" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="542" customHeight="1" spans="2:39">
+      <c r="B542" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I542" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="C541" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D541" s="3">
+      <c r="J542" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L542" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="M542" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N542" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P542" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="Q542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R542" s="2">
+        <v>2006</v>
+      </c>
+      <c r="S542" s="2">
+        <v>2006</v>
+      </c>
+      <c r="T542" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z542" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA542" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB542" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF542" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM542" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="543" customHeight="1" spans="2:39">
+      <c r="B543" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H543" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L543" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="M543" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y543" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z543" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB543" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC543" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM543" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="544" customHeight="1" spans="2:39">
+      <c r="B544" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D544" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H544" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I544" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M544" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R544" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S544" s="2">
+        <v>2018</v>
+      </c>
+      <c r="T544" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U544" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V544" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W544" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X544" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y544" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z544" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA544" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC544" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF544" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG544" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AH544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM544" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="545" customHeight="1" spans="2:39">
+      <c r="B545" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M545" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R545" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S545" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T545" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U545" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V545" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W545" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X545" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y545" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z545" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA545" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC545" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF545" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG545" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM545" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="546" customHeight="1" spans="2:39">
+      <c r="B546" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H546" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L546" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="M546" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="N546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R546" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S546" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T546" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U546" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V546" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W546" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X546" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y546" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z546" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA546" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB546" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF546" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG546" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM546" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="547" customHeight="1" spans="2:39">
+      <c r="B547" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H547" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L547" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M547" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R547" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S547" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T547" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM547" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="548" customHeight="1" spans="2:39">
+      <c r="B548" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H548" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L548" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M548" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N548" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="O548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R548" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S548" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T548" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z548" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM548" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="549" customHeight="1" spans="2:39">
+      <c r="B549" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D549" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H549" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L549" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M549" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N549" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="O549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R549" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S549" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T549" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U549" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V549" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W549" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X549" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y549" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z549" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA549" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB549" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC549" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD549" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF549" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG549" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM549" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="550" customHeight="1" spans="2:39">
+      <c r="B550" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D550" s="3">
         <v>2024</v>
       </c>
-      <c r="E541" s="2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="H541" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="I541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L541" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="M541" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="N541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R541" s="2">
+      <c r="E550" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L550" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M550" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R550" s="2">
         <v>2023</v>
       </c>
-      <c r="S541" s="2">
+      <c r="S550" s="2">
         <v>2023</v>
       </c>
-      <c r="T541" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z541" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM541" s="2" t="s">
+      <c r="T550" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM550" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM541">
+  <autoFilter ref="A1:AM550">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28237" windowHeight="4935"/>
+    <workbookView windowWidth="28237" windowHeight="5302"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$550</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$556</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19267" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19547" uniqueCount="1917">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -13052,15 +13052,39 @@
     <t>OQ706226-OQ706228</t>
   </si>
   <si>
+    <t>Phylogenetic relationships of dengue-1 viruses from Argentina and Paraguay</t>
+  </si>
+  <si>
+    <t>University of Nevada</t>
+  </si>
+  <si>
+    <t>Gabriela Aviles</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Complete genome sequencing of dengue virus type 1 isolated in Bueno Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Hospital Ninos Dr. Richardo Gutierrez</t>
+  </si>
+  <si>
+    <t>Paola Roxana Barrero</t>
+  </si>
+  <si>
+    <t>Bueno Aires</t>
+  </si>
+  <si>
+    <t>Genetic analysis of dengue virus type 3 isolated in Bueno Aires, Argentina</t>
+  </si>
+  <si>
     <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
   </si>
   <si>
     <t>Ciudad Autonoma de Bueno Aires</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>Estefania Tittarelli</t>
   </si>
   <si>
@@ -13082,21 +13106,33 @@
     <t>Cordoba</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
     <t>Retrospective spatio-temporal dynaimcs of dengue virus 1, 2 and 4 in Paraguay</t>
   </si>
   <si>
     <t>Laboratorio Central de Salud Publica</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
     <t>Marta Giovanetti</t>
   </si>
   <si>
     <t>Ana Filippis</t>
   </si>
   <si>
+    <t>Molecular epidemiology of American/Asian genotype DENV-2 in Peru</t>
+  </si>
+  <si>
+    <t>U.S. Naval Medical Research Unit No.6</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Cristhopher Cruz</t>
+  </si>
+  <si>
     <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
   </si>
   <si>
@@ -13106,9 +13142,6 @@
     <t>Valerie Paz-Soldan</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
     <t>Iquitos</t>
   </si>
   <si>
@@ -13181,6 +13214,60 @@
     <t>RSR</t>
   </si>
   <si>
+    <t>First two autochthonous dengue virus infections in metropolitan France, September 2010</t>
+  </si>
+  <si>
+    <t>France Institute for Public Health Surveillance, France</t>
+  </si>
+  <si>
+    <t>La Ruche</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Autochthonous case of dengue in France, October 2013</t>
+  </si>
+  <si>
+    <t>Regional Office of the French Institute for Public Health Surveillance, France</t>
+  </si>
+  <si>
+    <t>E Marchand</t>
+  </si>
+  <si>
+    <t>Autochthonous dengue in mainland France, 2022: geographical extension and incidence increase</t>
+  </si>
+  <si>
+    <t>French National Public Health Agency</t>
+  </si>
+  <si>
+    <t>Florian Franke</t>
+  </si>
+  <si>
+    <t>Marie-Claire Paty</t>
+  </si>
+  <si>
+    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
+  </si>
+  <si>
+    <t>Henri Mondor University Hospital</t>
+  </si>
+  <si>
+    <t>Marta Zatta</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Increase in dengue fever in travellers returning from Egypt, Germany 2023</t>
+  </si>
+  <si>
+    <t>Robert Koch Institute</t>
+  </si>
+  <si>
+    <t>Christina Frank</t>
+  </si>
+  <si>
     <t>First autochthonous dengue outbreak in Italy, Auguest 2020</t>
   </si>
   <si>
@@ -13193,21 +13280,6 @@
     <t>Luca Lazzarini</t>
   </si>
   <si>
-    <t>MED</t>
-  </si>
-  <si>
-    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
-  </si>
-  <si>
-    <t>Henri Mondor University Hospital</t>
-  </si>
-  <si>
-    <t>Marta Zatta</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>Outbreaks of autochthonous dengue in Lazio region, Italy, August to Spetember 2023</t>
   </si>
   <si>
@@ -13218,15 +13290,6 @@
   </si>
   <si>
     <t>Lazio</t>
-  </si>
-  <si>
-    <t>Increase in dengue fever in travellers returning from Egypt, Germany 2023</t>
-  </si>
-  <si>
-    <t>Robert Koch Institute</t>
-  </si>
-  <si>
-    <t>Christina Frank</t>
   </si>
 </sst>
 </file>
@@ -14418,12 +14481,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM550"/>
+  <dimension ref="A1:AM558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB499" sqref="AB499"/>
+      <selection pane="bottomLeft" activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -76573,10 +76636,10 @@
         <v>1837</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D538" s="3">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1838</v>
@@ -76585,10 +76648,10 @@
         <v>42</v>
       </c>
       <c r="G538" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H538" s="2" t="s">
         <v>1839</v>
-      </c>
-      <c r="H538" s="2" t="s">
-        <v>1840</v>
       </c>
       <c r="I538" s="2" t="s">
         <v>42</v>
@@ -76603,7 +76666,7 @@
         <v>1803</v>
       </c>
       <c r="M538" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>42</v>
@@ -76618,10 +76681,10 @@
         <v>42</v>
       </c>
       <c r="R538" s="2">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="S538" s="2">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="T538" s="2" t="s">
         <v>47</v>
@@ -76660,13 +76723,13 @@
         <v>42</v>
       </c>
       <c r="AF538" s="2" t="s">
-        <v>101</v>
+        <v>1220</v>
       </c>
       <c r="AG538" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AH538" s="2" t="s">
-        <v>1841</v>
+        <v>42</v>
       </c>
       <c r="AI538" s="2" t="s">
         <v>42</v>
@@ -76686,25 +76749,25 @@
     </row>
     <row r="539" customHeight="1" spans="2:39">
       <c r="B539" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E539" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="F539" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H539" s="2" t="s">
         <v>1843</v>
-      </c>
-      <c r="D539" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E539" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F539" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="H539" s="2" t="s">
-        <v>1845</v>
       </c>
       <c r="I539" s="2" t="s">
         <v>42</v>
@@ -76719,10 +76782,10 @@
         <v>1803</v>
       </c>
       <c r="M539" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="O539" s="2" t="s">
         <v>42</v>
@@ -76734,16 +76797,16 @@
         <v>42</v>
       </c>
       <c r="R539" s="2">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="S539" s="2">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="T539" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U539" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V539" s="2" t="s">
         <v>46</v>
@@ -76761,10 +76824,10 @@
         <v>46</v>
       </c>
       <c r="AA539" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB539" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC539" s="2" t="s">
         <v>42</v>
@@ -76776,10 +76839,10 @@
         <v>42</v>
       </c>
       <c r="AF539" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG539" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH539" s="2" t="s">
         <v>42</v>
@@ -76802,28 +76865,28 @@
     </row>
     <row r="540" customHeight="1" spans="2:39">
       <c r="B540" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="D540" s="3">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="I540" s="2" t="s">
-        <v>1851</v>
+        <v>42</v>
       </c>
       <c r="J540" s="2" t="s">
         <v>42</v>
@@ -76835,10 +76898,10 @@
         <v>1803</v>
       </c>
       <c r="M540" s="2" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>42</v>
+        <v>1844</v>
       </c>
       <c r="O540" s="2" t="s">
         <v>42</v>
@@ -76850,10 +76913,10 @@
         <v>42</v>
       </c>
       <c r="R540" s="2">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="S540" s="2">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="T540" s="2" t="s">
         <v>47</v>
@@ -76877,25 +76940,25 @@
         <v>46</v>
       </c>
       <c r="AA540" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB540" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC540" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD540" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE540" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF540" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG540" s="2" t="s">
-        <v>1385</v>
+        <v>52</v>
       </c>
       <c r="AH540" s="2" t="s">
         <v>42</v>
@@ -76918,25 +76981,25 @@
     </row>
     <row r="541" customHeight="1" spans="2:39">
       <c r="B541" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="D541" s="3">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>43</v>
+        <v>1840</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="I541" s="2" t="s">
         <v>42</v>
@@ -76951,10 +77014,10 @@
         <v>1803</v>
       </c>
       <c r="M541" s="2" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>1856</v>
+        <v>42</v>
       </c>
       <c r="O541" s="2" t="s">
         <v>42</v>
@@ -76966,16 +77029,16 @@
         <v>42</v>
       </c>
       <c r="R541" s="2">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="S541" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="T541" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U541" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V541" s="2" t="s">
         <v>46</v>
@@ -76993,10 +77056,10 @@
         <v>46</v>
       </c>
       <c r="AA541" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB541" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC541" s="2" t="s">
         <v>42</v>
@@ -77008,13 +77071,13 @@
         <v>42</v>
       </c>
       <c r="AF541" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG541" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH541" s="2" t="s">
-        <v>42</v>
+        <v>1849</v>
       </c>
       <c r="AI541" s="2" t="s">
         <v>42</v>
@@ -77034,58 +77097,58 @@
     </row>
     <row r="542" customHeight="1" spans="2:39">
       <c r="B542" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>208</v>
+        <v>1851</v>
       </c>
       <c r="D542" s="3">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>1859</v>
+        <v>1840</v>
       </c>
       <c r="H542" s="2" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="I542" s="2" t="s">
-        <v>1861</v>
+        <v>42</v>
       </c>
       <c r="J542" s="2" t="s">
-        <v>1862</v>
+        <v>42</v>
       </c>
       <c r="K542" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L542" s="2" t="s">
-        <v>1863</v>
+        <v>1803</v>
       </c>
       <c r="M542" s="2" t="s">
-        <v>1859</v>
+        <v>1840</v>
       </c>
       <c r="N542" s="2" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
       <c r="O542" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P542" s="2" t="s">
-        <v>1864</v>
+        <v>42</v>
       </c>
       <c r="Q542" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R542" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="S542" s="2">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="T542" s="2" t="s">
         <v>47</v>
@@ -77109,10 +77172,10 @@
         <v>46</v>
       </c>
       <c r="AA542" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB542" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC542" s="2" t="s">
         <v>42</v>
@@ -77124,7 +77187,7 @@
         <v>42</v>
       </c>
       <c r="AF542" s="2" t="s">
-        <v>1220</v>
+        <v>42</v>
       </c>
       <c r="AG542" s="2" t="s">
         <v>42</v>
@@ -77150,25 +77213,25 @@
     </row>
     <row r="543" customHeight="1" spans="2:39">
       <c r="B543" s="2" t="s">
-        <v>1865</v>
+        <v>1837</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D543" s="3">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>1518</v>
+        <v>43</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1867</v>
+        <v>1839</v>
       </c>
       <c r="I543" s="2" t="s">
         <v>42</v>
@@ -77180,10 +77243,10 @@
         <v>42</v>
       </c>
       <c r="L543" s="2" t="s">
-        <v>1863</v>
+        <v>1803</v>
       </c>
       <c r="M543" s="2" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="N543" s="2" t="s">
         <v>42</v>
@@ -77197,17 +77260,17 @@
       <c r="Q543" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R543" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S543" s="2" t="s">
-        <v>42</v>
+      <c r="R543" s="2">
+        <v>1988</v>
+      </c>
+      <c r="S543" s="2">
+        <v>2000</v>
       </c>
       <c r="T543" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U543" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V543" s="2" t="s">
         <v>46</v>
@@ -77219,19 +77282,19 @@
         <v>46</v>
       </c>
       <c r="Y543" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z543" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA543" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB543" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AC543" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD543" s="2" t="s">
         <v>42</v>
@@ -77240,10 +77303,10 @@
         <v>42</v>
       </c>
       <c r="AF543" s="2" t="s">
-        <v>42</v>
+        <v>1220</v>
       </c>
       <c r="AG543" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH543" s="2" t="s">
         <v>42</v>
@@ -77266,28 +77329,28 @@
     </row>
     <row r="544" customHeight="1" spans="2:39">
       <c r="B544" s="2" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="D544" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>61</v>
+        <v>1857</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>62</v>
+        <v>1855</v>
       </c>
       <c r="H544" s="2" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>1809</v>
+        <v>1859</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>42</v>
@@ -77296,10 +77359,10 @@
         <v>42</v>
       </c>
       <c r="L544" s="2" t="s">
-        <v>42</v>
+        <v>1803</v>
       </c>
       <c r="M544" s="2" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="N544" s="2" t="s">
         <v>42</v>
@@ -77314,10 +77377,10 @@
         <v>42</v>
       </c>
       <c r="R544" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="S544" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="T544" s="2" t="s">
         <v>47</v>
@@ -77344,7 +77407,7 @@
         <v>48</v>
       </c>
       <c r="AB544" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC544" s="2" t="s">
         <v>50</v>
@@ -77353,7 +77416,7 @@
         <v>42</v>
       </c>
       <c r="AE544" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF544" s="2" t="s">
         <v>101</v>
@@ -77382,28 +77445,28 @@
     </row>
     <row r="545" customHeight="1" spans="2:39">
       <c r="B545" s="2" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D545" s="3">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="H545" s="2" t="s">
-        <v>1874</v>
+        <v>1863</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>1809</v>
+        <v>42</v>
       </c>
       <c r="J545" s="2" t="s">
         <v>42</v>
@@ -77412,10 +77475,10 @@
         <v>42</v>
       </c>
       <c r="L545" s="2" t="s">
-        <v>42</v>
+        <v>1803</v>
       </c>
       <c r="M545" s="2" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="N545" s="2" t="s">
         <v>42</v>
@@ -77430,10 +77493,10 @@
         <v>42</v>
       </c>
       <c r="R545" s="2">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="S545" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="T545" s="2" t="s">
         <v>47</v>
@@ -77472,7 +77535,7 @@
         <v>42</v>
       </c>
       <c r="AF545" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG545" s="2" t="s">
         <v>52</v>
@@ -77498,25 +77561,25 @@
     </row>
     <row r="546" customHeight="1" spans="2:39">
       <c r="B546" s="2" t="s">
-        <v>1875</v>
+        <v>1864</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D546" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>1876</v>
+        <v>1865</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>1877</v>
+        <v>43</v>
       </c>
       <c r="H546" s="2" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
       <c r="I546" s="2" t="s">
         <v>42</v>
@@ -77528,13 +77591,13 @@
         <v>42</v>
       </c>
       <c r="L546" s="2" t="s">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="M546" s="2" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>42</v>
+        <v>1867</v>
       </c>
       <c r="O546" s="2" t="s">
         <v>42</v>
@@ -77546,16 +77609,16 @@
         <v>42</v>
       </c>
       <c r="R546" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="S546" s="2">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="T546" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U546" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V546" s="2" t="s">
         <v>46</v>
@@ -77573,10 +77636,10 @@
         <v>46</v>
       </c>
       <c r="AA546" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB546" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC546" s="2" t="s">
         <v>42</v>
@@ -77588,10 +77651,10 @@
         <v>42</v>
       </c>
       <c r="AF546" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG546" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH546" s="2" t="s">
         <v>42</v>
@@ -77614,58 +77677,58 @@
     </row>
     <row r="547" customHeight="1" spans="2:39">
       <c r="B547" s="2" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1782</v>
+        <v>208</v>
       </c>
       <c r="D547" s="3">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="H547" s="2" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>42</v>
+        <v>1872</v>
       </c>
       <c r="J547" s="2" t="s">
-        <v>42</v>
+        <v>1873</v>
       </c>
       <c r="K547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L547" s="2" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="M547" s="2" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="N547" s="2" t="s">
-        <v>42</v>
+        <v>1875</v>
       </c>
       <c r="O547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P547" s="2" t="s">
-        <v>42</v>
+        <v>1875</v>
       </c>
       <c r="Q547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R547" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="S547" s="2">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="T547" s="2" t="s">
         <v>47</v>
@@ -77689,10 +77752,10 @@
         <v>46</v>
       </c>
       <c r="AA547" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB547" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC547" s="2" t="s">
         <v>42</v>
@@ -77704,7 +77767,7 @@
         <v>42</v>
       </c>
       <c r="AF547" s="2" t="s">
-        <v>42</v>
+        <v>1220</v>
       </c>
       <c r="AG547" s="2" t="s">
         <v>42</v>
@@ -77730,16 +77793,16 @@
     </row>
     <row r="548" customHeight="1" spans="2:39">
       <c r="B548" s="2" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="D548" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>42</v>
@@ -77748,7 +77811,7 @@
         <v>1518</v>
       </c>
       <c r="H548" s="2" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="I548" s="2" t="s">
         <v>42</v>
@@ -77760,13 +77823,13 @@
         <v>42</v>
       </c>
       <c r="L548" s="2" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="M548" s="2" t="s">
-        <v>1518</v>
+        <v>1879</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>1888</v>
+        <v>42</v>
       </c>
       <c r="O548" s="2" t="s">
         <v>42</v>
@@ -77777,14 +77840,14 @@
       <c r="Q548" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R548" s="2">
-        <v>2023</v>
-      </c>
-      <c r="S548" s="2">
-        <v>2023</v>
+      <c r="R548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S548" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T548" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U548" s="2" t="s">
         <v>46</v>
@@ -77799,7 +77862,7 @@
         <v>46</v>
       </c>
       <c r="Y548" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z548" s="2" t="s">
         <v>46</v>
@@ -77808,10 +77871,10 @@
         <v>42</v>
       </c>
       <c r="AB548" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC548" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD548" s="2" t="s">
         <v>42</v>
@@ -77846,28 +77909,28 @@
     </row>
     <row r="549" customHeight="1" spans="2:39">
       <c r="B549" s="2" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1782</v>
+        <v>208</v>
       </c>
       <c r="D549" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1890</v>
+        <v>61</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>1882</v>
+        <v>62</v>
       </c>
       <c r="H549" s="2" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>42</v>
+        <v>1809</v>
       </c>
       <c r="J549" s="2" t="s">
         <v>42</v>
@@ -77876,13 +77939,13 @@
         <v>42</v>
       </c>
       <c r="L549" s="2" t="s">
-        <v>1884</v>
+        <v>42</v>
       </c>
       <c r="M549" s="2" t="s">
         <v>1882</v>
       </c>
       <c r="N549" s="2" t="s">
-        <v>1892</v>
+        <v>42</v>
       </c>
       <c r="O549" s="2" t="s">
         <v>42</v>
@@ -77894,10 +77957,10 @@
         <v>42</v>
       </c>
       <c r="R549" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S549" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="T549" s="2" t="s">
         <v>47</v>
@@ -77924,13 +77987,13 @@
         <v>48</v>
       </c>
       <c r="AB549" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC549" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD549" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE549" s="2" t="s">
         <v>42</v>
@@ -77939,7 +78002,7 @@
         <v>101</v>
       </c>
       <c r="AG549" s="2" t="s">
-        <v>52</v>
+        <v>1385</v>
       </c>
       <c r="AH549" s="2" t="s">
         <v>42</v>
@@ -77962,122 +78025,1050 @@
     </row>
     <row r="550" customHeight="1" spans="2:39">
       <c r="B550" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I550" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M550" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R550" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S550" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T550" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U550" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z550" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA550" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC550" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF550" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG550" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM550" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="551" customHeight="1" spans="2:39">
+      <c r="B551" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H551" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L551" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="M551" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="N551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R551" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S551" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T551" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U551" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V551" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W551" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X551" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y551" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z551" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA551" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB551" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF551" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG551" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM551" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="552" customHeight="1" spans="2:39">
+      <c r="B552" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H552" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C550" s="2" t="s">
+      <c r="I552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L552" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M552" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R552" s="2">
+        <v>2010</v>
+      </c>
+      <c r="S552" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T552" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z552" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM552" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="553" customHeight="1" spans="2:39">
+      <c r="B553" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C553" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="D550" s="3">
+      <c r="D553" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L553" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M553" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R553" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S553" s="2">
+        <v>2013</v>
+      </c>
+      <c r="T553" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z553" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM553" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="554" customHeight="1" spans="2:39">
+      <c r="B554" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H554" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L554" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M554" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R554" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S554" s="2">
+        <v>2022</v>
+      </c>
+      <c r="T554" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM554" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="555" customHeight="1" spans="2:39">
+      <c r="B555" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D555" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L555" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M555" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N555" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R555" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S555" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T555" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM555" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="2:39">
+      <c r="B556" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D556" s="3">
         <v>2024</v>
       </c>
-      <c r="E550" s="2" t="s">
+      <c r="E556" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L556" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="F550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G550" s="2" t="s">
+      <c r="M556" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="H550" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="I550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L550" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="M550" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="N550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R550" s="2">
+      <c r="N556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R556" s="2">
         <v>2023</v>
       </c>
-      <c r="S550" s="2">
+      <c r="S556" s="2">
         <v>2023</v>
       </c>
-      <c r="T550" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z550" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM550" s="2" t="s">
+      <c r="T556" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z556" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM556" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="2:39">
+      <c r="B557" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H557" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L557" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M557" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="N557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R557" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S557" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T557" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z557" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM557" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="558" customHeight="1" spans="2:39">
+      <c r="B558" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D558" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H558" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L558" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M558" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="N558" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R558" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S558" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T558" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U558" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V558" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W558" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X558" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y558" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z558" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA558" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB558" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC558" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD558" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF558" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG558" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM558" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM550">
+  <autoFilter ref="A1:AM556">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$556</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$566</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19547" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19862" uniqueCount="1961">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -257,6 +257,9 @@
     <t>Nikos Vasilakis</t>
   </si>
   <si>
+    <t>D3</t>
+  </si>
+  <si>
     <t>Comparative evolutionary epidemiology of dengue virus serotypes</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
     <t>Carlos Schrago</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>Refining the global spatial limits of dengue virus transmission by evidence-based consensus</t>
   </si>
   <si>
@@ -13199,19 +13199,139 @@
     <t>Joana Morais</t>
   </si>
   <si>
+    <t>Dengue in the Middle East and North Africa: a systematic review</t>
+  </si>
+  <si>
+    <t>Weill Cornell Medical College</t>
+  </si>
+  <si>
+    <t>John Humphrey</t>
+  </si>
+  <si>
+    <t>RAR</t>
+  </si>
+  <si>
+    <t>Regionwide</t>
+  </si>
+  <si>
+    <t>Phylogeny of dengue viruses circulating in Jeddah, Saudi Arabia: 1994 to 2006</t>
+  </si>
+  <si>
+    <t>Tropical Medicine and International Health</t>
+  </si>
+  <si>
+    <t>Dr Soliman Fakeeb Hospital</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Mary Cardosa</t>
+  </si>
+  <si>
+    <t>RSR</t>
+  </si>
+  <si>
+    <t>Jazan</t>
+  </si>
+  <si>
     <t>Complete genome sequencing and phylogenetic analysis of dengue type 1 virus isolated from Jeddah, Saudi Arabia</t>
   </si>
   <si>
     <t>King Abdulaziz University</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>Esam Azhar</t>
   </si>
   <si>
-    <t>RSR</t>
+    <t>Phylogenetic characterization of circulating dengue and alkhumra hemorrhagic fever viruses in western Saudi Arabia and lack of evidence of Zika virus in the region: a retrospective study, 2010-2015</t>
+  </si>
+  <si>
+    <t>Anwar Hashem</t>
+  </si>
+  <si>
+    <t>The emergence of an imported variant of dengue virus serotype 2 in the Jazan region, southwestern Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Tropical Diseases, Travel Medicine and Vaccines</t>
+  </si>
+  <si>
+    <t>Sadu Public Health Authority</t>
+  </si>
+  <si>
+    <t>Ommer Dafalla</t>
+  </si>
+  <si>
+    <t>Ahmed Abdulhaq</t>
+  </si>
+  <si>
+    <t>Hatim Almutairi</t>
+  </si>
+  <si>
+    <t>First report of epidemic dengue fever among internally diaplaced persons in humanitarian camps of North Darfur, Sudan</t>
+  </si>
+  <si>
+    <t>University of Khartoum</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Ayman Ahmed</t>
+  </si>
+  <si>
+    <t>North Darfur</t>
+  </si>
+  <si>
+    <t>Circulation of dengue virus serotype 2 in humans and mosquitoes during an outbreak in El Quseir city, Egypt</t>
+  </si>
+  <si>
+    <t>Infection and Drug Resistance</t>
+  </si>
+  <si>
+    <t>South Valley University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Asmaa El-Kady</t>
+  </si>
+  <si>
+    <t>Hatem Elshabrawy</t>
+  </si>
+  <si>
+    <t>El Quseir</t>
+  </si>
+  <si>
+    <t>Dengue epidemiology in Qatar from 2013-2021: a retrospective study</t>
+  </si>
+  <si>
+    <t>Ministry of Public Health, Qatar</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Devendra Bansal</t>
+  </si>
+  <si>
+    <t>Epidemiological investigation of dengue fever outbreak and its socieoeconomic determinants in Banadir region, Somalia</t>
+  </si>
+  <si>
+    <t>Ministry of Public Health, Somalia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Mohamed Abdelrahman Mohamed</t>
+  </si>
+  <si>
+    <t>Banadir</t>
   </si>
   <si>
     <t>First two autochthonous dengue virus infections in metropolitan France, September 2010</t>
@@ -13290,6 +13410,18 @@
   </si>
   <si>
     <t>Lazio</t>
+  </si>
+  <si>
+    <t>Molecular characterization of imported and autochthonous dengue in Northeastern Spain</t>
+  </si>
+  <si>
+    <t>Hospital Clinic de Barcelona</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Miguel Martinez</t>
   </si>
 </sst>
 </file>
@@ -14481,12 +14613,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM558"/>
+  <dimension ref="A1:AM567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B555" sqref="B555"/>
+      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -15514,16 +15646,16 @@
         <v>42</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>42</v>
@@ -15552,7 +15684,7 @@
     </row>
     <row r="10" customHeight="1" spans="2:39">
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>70</v>
@@ -15561,16 +15693,16 @@
         <v>2012</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>42</v>
@@ -15636,7 +15768,7 @@
         <v>50</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>57</v>
@@ -15984,7 +16116,7 @@
         <v>50</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>57</v>
@@ -16216,7 +16348,7 @@
         <v>50</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>57</v>
@@ -16263,7 +16395,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>42</v>
@@ -16332,7 +16464,7 @@
         <v>50</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="2" t="s">
         <v>57</v>
@@ -16495,7 +16627,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>112</v>
@@ -16727,7 +16859,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>118</v>
@@ -17307,7 +17439,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>135</v>
@@ -17376,7 +17508,7 @@
         <v>42</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE25" s="2" t="s">
         <v>42</v>
@@ -17423,7 +17555,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>137</v>
@@ -17492,7 +17624,7 @@
         <v>42</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>42</v>
@@ -17655,7 +17787,7 @@
         <v>42</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>112</v>
@@ -18652,7 +18784,7 @@
         <v>50</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>57</v>
@@ -19000,7 +19132,7 @@
         <v>50</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>57</v>
@@ -21784,7 +21916,7 @@
         <v>50</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE63" s="2" t="s">
         <v>42</v>
@@ -22016,7 +22148,7 @@
         <v>50</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE65" s="2" t="s">
         <v>57</v>
@@ -23750,7 +23882,7 @@
         <v>50</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>42</v>
@@ -24678,7 +24810,7 @@
         <v>50</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE88" s="2" t="s">
         <v>42</v>
@@ -24794,7 +24926,7 @@
         <v>50</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE89" s="2" t="s">
         <v>42</v>
@@ -25722,7 +25854,7 @@
         <v>50</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE97" s="2" t="s">
         <v>57</v>
@@ -26882,7 +27014,7 @@
         <v>50</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE107" s="2" t="s">
         <v>42</v>
@@ -27807,7 +27939,7 @@
         <v>50</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE115" s="2" t="s">
         <v>57</v>
@@ -28619,7 +28751,7 @@
         <v>50</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE122" s="2" t="s">
         <v>57</v>
@@ -29660,7 +29792,7 @@
         <v>50</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE131" s="2" t="s">
         <v>57</v>
@@ -32732,7 +32864,7 @@
         <v>42</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE158" s="2" t="s">
         <v>42</v>
@@ -33080,7 +33212,7 @@
         <v>50</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE161" s="2" t="s">
         <v>42</v>
@@ -33312,7 +33444,7 @@
         <v>42</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE163" s="2" t="s">
         <v>42</v>
@@ -33428,7 +33560,7 @@
         <v>50</v>
       </c>
       <c r="AD164" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE164" s="2" t="s">
         <v>57</v>
@@ -33544,7 +33676,7 @@
         <v>42</v>
       </c>
       <c r="AD165" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE165" s="2" t="s">
         <v>42</v>
@@ -34466,7 +34598,7 @@
         <v>50</v>
       </c>
       <c r="AD173" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE173" s="2" t="s">
         <v>57</v>
@@ -35156,7 +35288,7 @@
         <v>50</v>
       </c>
       <c r="AD179" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE179" s="2" t="s">
         <v>57</v>
@@ -37128,7 +37260,7 @@
         <v>50</v>
       </c>
       <c r="AD196" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE196" s="2" t="s">
         <v>57</v>
@@ -37244,7 +37376,7 @@
         <v>50</v>
       </c>
       <c r="AD197" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE197" s="2" t="s">
         <v>57</v>
@@ -38285,7 +38417,7 @@
         <v>50</v>
       </c>
       <c r="AD206" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE206" s="2" t="s">
         <v>57</v>
@@ -42440,7 +42572,7 @@
         <v>50</v>
       </c>
       <c r="AD242" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE242" s="2" t="s">
         <v>42</v>
@@ -46351,7 +46483,7 @@
         <v>50</v>
       </c>
       <c r="AD276" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE276" s="2" t="s">
         <v>57</v>
@@ -48900,7 +49032,7 @@
         <v>50</v>
       </c>
       <c r="AD298" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE298" s="2" t="s">
         <v>57</v>
@@ -50045,7 +50177,7 @@
         <v>42</v>
       </c>
       <c r="AD308" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE308" s="2" t="s">
         <v>42</v>
@@ -50274,7 +50406,7 @@
         <v>42</v>
       </c>
       <c r="AD310" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE310" s="2" t="s">
         <v>42</v>
@@ -50738,7 +50870,7 @@
         <v>42</v>
       </c>
       <c r="AD314" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE314" s="2" t="s">
         <v>42</v>
@@ -51083,7 +51215,7 @@
         <v>50</v>
       </c>
       <c r="AD317" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE317" s="2" t="s">
         <v>57</v>
@@ -51548,7 +51680,7 @@
         <v>50</v>
       </c>
       <c r="AD321" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE321" s="2" t="s">
         <v>42</v>
@@ -51782,7 +51914,7 @@
         <v>50</v>
       </c>
       <c r="AD323" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE323" s="2" t="s">
         <v>57</v>
@@ -51899,7 +52031,7 @@
         <v>42</v>
       </c>
       <c r="AD324" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE324" s="2" t="s">
         <v>42</v>
@@ -52016,7 +52148,7 @@
         <v>50</v>
       </c>
       <c r="AD325" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE325" s="2" t="s">
         <v>57</v>
@@ -52250,7 +52382,7 @@
         <v>50</v>
       </c>
       <c r="AD327" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE327" s="2" t="s">
         <v>57</v>
@@ -52484,7 +52616,7 @@
         <v>50</v>
       </c>
       <c r="AD329" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE329" s="2" t="s">
         <v>57</v>
@@ -52835,7 +52967,7 @@
         <v>50</v>
       </c>
       <c r="AD332" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE332" s="2" t="s">
         <v>57</v>
@@ -55150,7 +55282,7 @@
         <v>42</v>
       </c>
       <c r="AD352" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE352" s="2" t="s">
         <v>42</v>
@@ -55266,7 +55398,7 @@
         <v>42</v>
       </c>
       <c r="AD353" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE353" s="2" t="s">
         <v>42</v>
@@ -55382,7 +55514,7 @@
         <v>42</v>
       </c>
       <c r="AD354" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE354" s="2" t="s">
         <v>42</v>
@@ -55498,7 +55630,7 @@
         <v>42</v>
       </c>
       <c r="AD355" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE355" s="2" t="s">
         <v>42</v>
@@ -56423,7 +56555,7 @@
         <v>42</v>
       </c>
       <c r="AD363" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE363" s="2" t="s">
         <v>57</v>
@@ -57934,7 +58066,7 @@
         <v>50</v>
       </c>
       <c r="AD376" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE376" s="2" t="s">
         <v>42</v>
@@ -58862,7 +58994,7 @@
         <v>42</v>
       </c>
       <c r="AD384" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE384" s="2" t="s">
         <v>42</v>
@@ -58978,7 +59110,7 @@
         <v>50</v>
       </c>
       <c r="AD385" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE385" s="2" t="s">
         <v>42</v>
@@ -59210,7 +59342,7 @@
         <v>42</v>
       </c>
       <c r="AD387" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE387" s="2" t="s">
         <v>42</v>
@@ -59442,7 +59574,7 @@
         <v>50</v>
       </c>
       <c r="AD389" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE389" s="2" t="s">
         <v>57</v>
@@ -60715,7 +60847,7 @@
         <v>50</v>
       </c>
       <c r="AD400" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE400" s="2" t="s">
         <v>57</v>
@@ -60831,7 +60963,7 @@
         <v>42</v>
       </c>
       <c r="AD401" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE401" s="2" t="s">
         <v>42</v>
@@ -61179,7 +61311,7 @@
         <v>50</v>
       </c>
       <c r="AD404" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE404" s="2" t="s">
         <v>57</v>
@@ -61762,7 +61894,7 @@
         <v>42</v>
       </c>
       <c r="AD409" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE409" s="2" t="s">
         <v>42</v>
@@ -61994,7 +62126,7 @@
         <v>50</v>
       </c>
       <c r="AD411" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE411" s="2" t="s">
         <v>42</v>
@@ -62690,7 +62822,7 @@
         <v>50</v>
       </c>
       <c r="AD417" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE417" s="2" t="s">
         <v>57</v>
@@ -63154,7 +63286,7 @@
         <v>50</v>
       </c>
       <c r="AD421" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE421" s="2" t="s">
         <v>57</v>
@@ -63270,7 +63402,7 @@
         <v>50</v>
       </c>
       <c r="AD422" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE422" s="2" t="s">
         <v>42</v>
@@ -63386,7 +63518,7 @@
         <v>50</v>
       </c>
       <c r="AD423" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE423" s="2" t="s">
         <v>57</v>
@@ -63502,7 +63634,7 @@
         <v>50</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE424" s="2" t="s">
         <v>57</v>
@@ -63966,7 +64098,7 @@
         <v>50</v>
       </c>
       <c r="AD428" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE428" s="2" t="s">
         <v>57</v>
@@ -64082,7 +64214,7 @@
         <v>50</v>
       </c>
       <c r="AD429" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE429" s="2" t="s">
         <v>57</v>
@@ -64198,7 +64330,7 @@
         <v>50</v>
       </c>
       <c r="AD430" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE430" s="2" t="s">
         <v>57</v>
@@ -64314,7 +64446,7 @@
         <v>50</v>
       </c>
       <c r="AD431" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE431" s="2" t="s">
         <v>57</v>
@@ -64546,7 +64678,7 @@
         <v>50</v>
       </c>
       <c r="AD433" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE433" s="2" t="s">
         <v>57</v>
@@ -65126,7 +65258,7 @@
         <v>42</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE438" s="2" t="s">
         <v>57</v>
@@ -65239,7 +65371,7 @@
         <v>50</v>
       </c>
       <c r="AD439" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE439" s="2" t="s">
         <v>57</v>
@@ -65355,7 +65487,7 @@
         <v>42</v>
       </c>
       <c r="AD440" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE440" s="2" t="s">
         <v>57</v>
@@ -65587,7 +65719,7 @@
         <v>50</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE442" s="2" t="s">
         <v>42</v>
@@ -65935,7 +66067,7 @@
         <v>42</v>
       </c>
       <c r="AD445" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE445" s="2" t="s">
         <v>42</v>
@@ -66051,7 +66183,7 @@
         <v>50</v>
       </c>
       <c r="AD446" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE446" s="2" t="s">
         <v>42</v>
@@ -66167,7 +66299,7 @@
         <v>50</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE447" s="2" t="s">
         <v>57</v>
@@ -66631,7 +66763,7 @@
         <v>42</v>
       </c>
       <c r="AD451" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE451" s="2" t="s">
         <v>42</v>
@@ -66747,7 +66879,7 @@
         <v>50</v>
       </c>
       <c r="AD452" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE452" s="2" t="s">
         <v>57</v>
@@ -66863,7 +66995,7 @@
         <v>50</v>
       </c>
       <c r="AD453" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE453" s="2" t="s">
         <v>57</v>
@@ -67443,7 +67575,7 @@
         <v>50</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE458" s="2" t="s">
         <v>57</v>
@@ -67490,7 +67622,7 @@
         <v>42</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>1599</v>
@@ -67907,7 +68039,7 @@
         <v>50</v>
       </c>
       <c r="AD462" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE462" s="2" t="s">
         <v>57</v>
@@ -68603,7 +68735,7 @@
         <v>50</v>
       </c>
       <c r="AD468" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE468" s="2" t="s">
         <v>57</v>
@@ -68835,7 +68967,7 @@
         <v>42</v>
       </c>
       <c r="AD470" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE470" s="2" t="s">
         <v>42</v>
@@ -69183,7 +69315,7 @@
         <v>42</v>
       </c>
       <c r="AD473" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE473" s="2" t="s">
         <v>42</v>
@@ -69415,7 +69547,7 @@
         <v>50</v>
       </c>
       <c r="AD475" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE475" s="2" t="s">
         <v>57</v>
@@ -69647,7 +69779,7 @@
         <v>50</v>
       </c>
       <c r="AD477" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE477" s="2" t="s">
         <v>57</v>
@@ -69763,7 +69895,7 @@
         <v>50</v>
       </c>
       <c r="AD478" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE478" s="2" t="s">
         <v>57</v>
@@ -69879,7 +70011,7 @@
         <v>50</v>
       </c>
       <c r="AD479" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE479" s="2" t="s">
         <v>57</v>
@@ -69995,7 +70127,7 @@
         <v>50</v>
       </c>
       <c r="AD480" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE480" s="2" t="s">
         <v>57</v>
@@ -70111,7 +70243,7 @@
         <v>50</v>
       </c>
       <c r="AD481" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE481" s="2" t="s">
         <v>57</v>
@@ -70191,7 +70323,7 @@
         <v>42</v>
       </c>
       <c r="R482" s="2">
-        <v>20113</v>
+        <v>2013</v>
       </c>
       <c r="S482" s="2">
         <v>2019</v>
@@ -70227,7 +70359,7 @@
         <v>50</v>
       </c>
       <c r="AD482" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE482" s="2" t="s">
         <v>57</v>
@@ -70459,7 +70591,7 @@
         <v>50</v>
       </c>
       <c r="AD484" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE484" s="2" t="s">
         <v>57</v>
@@ -70575,7 +70707,7 @@
         <v>50</v>
       </c>
       <c r="AD485" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE485" s="2" t="s">
         <v>57</v>
@@ -70807,7 +70939,7 @@
         <v>42</v>
       </c>
       <c r="AD487" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE487" s="2" t="s">
         <v>42</v>
@@ -71387,7 +71519,7 @@
         <v>50</v>
       </c>
       <c r="AD492" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE492" s="2" t="s">
         <v>57</v>
@@ -71503,7 +71635,7 @@
         <v>42</v>
       </c>
       <c r="AD493" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE493" s="2" t="s">
         <v>42</v>
@@ -71735,7 +71867,7 @@
         <v>42</v>
       </c>
       <c r="AD495" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE495" s="2" t="s">
         <v>42</v>
@@ -71967,7 +72099,7 @@
         <v>42</v>
       </c>
       <c r="AD497" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE497" s="2" t="s">
         <v>42</v>
@@ -72199,7 +72331,7 @@
         <v>50</v>
       </c>
       <c r="AD499" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE499" s="2" t="s">
         <v>57</v>
@@ -72431,7 +72563,7 @@
         <v>50</v>
       </c>
       <c r="AD501" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE501" s="2" t="s">
         <v>57</v>
@@ -72547,7 +72679,7 @@
         <v>50</v>
       </c>
       <c r="AD502" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE502" s="2" t="s">
         <v>57</v>
@@ -72663,7 +72795,7 @@
         <v>50</v>
       </c>
       <c r="AD503" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE503" s="2" t="s">
         <v>57</v>
@@ -72779,7 +72911,7 @@
         <v>50</v>
       </c>
       <c r="AD504" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE504" s="2" t="s">
         <v>57</v>
@@ -73011,7 +73143,7 @@
         <v>50</v>
       </c>
       <c r="AD506" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE506" s="2" t="s">
         <v>57</v>
@@ -73127,7 +73259,7 @@
         <v>42</v>
       </c>
       <c r="AD507" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE507" s="2" t="s">
         <v>42</v>
@@ -73243,7 +73375,7 @@
         <v>50</v>
       </c>
       <c r="AD508" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE508" s="2" t="s">
         <v>57</v>
@@ -73939,7 +74071,7 @@
         <v>50</v>
       </c>
       <c r="AD514" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE514" s="2" t="s">
         <v>57</v>
@@ -74171,7 +74303,7 @@
         <v>50</v>
       </c>
       <c r="AD516" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE516" s="2" t="s">
         <v>57</v>
@@ -74403,7 +74535,7 @@
         <v>50</v>
       </c>
       <c r="AD518" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE518" s="2" t="s">
         <v>57</v>
@@ -75030,7 +75162,7 @@
         <v>42</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H524" s="2" t="s">
         <v>1802</v>
@@ -75048,7 +75180,7 @@
         <v>1803</v>
       </c>
       <c r="M524" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N524" s="2" t="s">
         <v>42</v>
@@ -75146,7 +75278,7 @@
         <v>42</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H525" s="2" t="s">
         <v>118</v>
@@ -75164,7 +75296,7 @@
         <v>1803</v>
       </c>
       <c r="M525" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N525" s="2" t="s">
         <v>1805</v>
@@ -75215,7 +75347,7 @@
         <v>42</v>
       </c>
       <c r="AD525" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE525" s="2" t="s">
         <v>42</v>
@@ -75262,7 +75394,7 @@
         <v>42</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H526" s="2" t="s">
         <v>118</v>
@@ -75280,7 +75412,7 @@
         <v>1803</v>
       </c>
       <c r="M526" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N526" s="2" t="s">
         <v>42</v>
@@ -75396,7 +75528,7 @@
         <v>1803</v>
       </c>
       <c r="M527" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N527" s="2" t="s">
         <v>1805</v>
@@ -75494,7 +75626,7 @@
         <v>42</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H528" s="2" t="s">
         <v>118</v>
@@ -75512,7 +75644,7 @@
         <v>1803</v>
       </c>
       <c r="M528" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N528" s="2" t="s">
         <v>42</v>
@@ -75625,7 +75757,7 @@
         <v>1803</v>
       </c>
       <c r="M529" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N529" s="2" t="s">
         <v>42</v>
@@ -75720,7 +75852,7 @@
         <v>42</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H530" s="2" t="s">
         <v>1809</v>
@@ -75738,7 +75870,7 @@
         <v>1803</v>
       </c>
       <c r="M530" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N530" s="2" t="s">
         <v>42</v>
@@ -75836,7 +75968,7 @@
         <v>42</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H531" s="2" t="s">
         <v>1817</v>
@@ -75854,7 +75986,7 @@
         <v>1803</v>
       </c>
       <c r="M531" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N531" s="2" t="s">
         <v>1818</v>
@@ -75905,7 +76037,7 @@
         <v>50</v>
       </c>
       <c r="AD531" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE531" s="2" t="s">
         <v>57</v>
@@ -75952,7 +76084,7 @@
         <v>42</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H532" s="2" t="s">
         <v>1820</v>
@@ -75970,7 +76102,7 @@
         <v>1803</v>
       </c>
       <c r="M532" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N532" s="2" t="s">
         <v>42</v>
@@ -76021,7 +76153,7 @@
         <v>42</v>
       </c>
       <c r="AD532" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE532" s="2" t="s">
         <v>42</v>
@@ -76068,7 +76200,7 @@
         <v>42</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H533" s="2" t="s">
         <v>1823</v>
@@ -76086,7 +76218,7 @@
         <v>1803</v>
       </c>
       <c r="M533" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N533" s="2" t="s">
         <v>42</v>
@@ -76202,7 +76334,7 @@
         <v>1803</v>
       </c>
       <c r="M534" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N534" s="2" t="s">
         <v>1828</v>
@@ -76300,7 +76432,7 @@
         <v>42</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H535" s="2" t="s">
         <v>1830</v>
@@ -76318,7 +76450,7 @@
         <v>1803</v>
       </c>
       <c r="M535" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N535" s="2" t="s">
         <v>42</v>
@@ -76416,7 +76548,7 @@
         <v>42</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H536" s="2" t="s">
         <v>1833</v>
@@ -76434,7 +76566,7 @@
         <v>1803</v>
       </c>
       <c r="M536" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N536" s="2" t="s">
         <v>42</v>
@@ -76532,7 +76664,7 @@
         <v>42</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H537" s="2" t="s">
         <v>1835</v>
@@ -76550,7 +76682,7 @@
         <v>1803</v>
       </c>
       <c r="M537" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N537" s="2" t="s">
         <v>42</v>
@@ -76601,7 +76733,7 @@
         <v>42</v>
       </c>
       <c r="AD537" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE537" s="2" t="s">
         <v>42</v>
@@ -76764,7 +76896,7 @@
         <v>42</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H539" s="2" t="s">
         <v>1843</v>
@@ -76949,7 +77081,7 @@
         <v>42</v>
       </c>
       <c r="AD540" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE540" s="2" t="s">
         <v>42</v>
@@ -78144,10 +78276,10 @@
         <v>1886</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D551" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>1887</v>
@@ -78156,26 +78288,26 @@
         <v>42</v>
       </c>
       <c r="G551" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H551" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="H551" s="2" t="s">
+      <c r="I551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L551" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="I551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L551" s="2" t="s">
+      <c r="M551" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="M551" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="N551" s="2" t="s">
         <v>42</v>
       </c>
@@ -78189,16 +78321,16 @@
         <v>42</v>
       </c>
       <c r="R551" s="2">
-        <v>2011</v>
+        <v>1941</v>
       </c>
       <c r="S551" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="T551" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U551" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V551" s="2" t="s">
         <v>46</v>
@@ -78210,16 +78342,16 @@
         <v>46</v>
       </c>
       <c r="Y551" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z551" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA551" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB551" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC551" s="2" t="s">
         <v>42</v>
@@ -78231,10 +78363,10 @@
         <v>42</v>
       </c>
       <c r="AF551" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG551" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH551" s="2" t="s">
         <v>42</v>
@@ -78260,22 +78392,22 @@
         <v>1891</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1782</v>
+        <v>1892</v>
       </c>
       <c r="D552" s="3">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>1518</v>
+        <v>1894</v>
       </c>
       <c r="H552" s="2" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="I552" s="2" t="s">
         <v>42</v>
@@ -78287,13 +78419,13 @@
         <v>42</v>
       </c>
       <c r="L552" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M552" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="M552" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="N552" s="2" t="s">
-        <v>42</v>
+        <v>1897</v>
       </c>
       <c r="O552" s="2" t="s">
         <v>42</v>
@@ -78305,16 +78437,16 @@
         <v>42</v>
       </c>
       <c r="R552" s="2">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="S552" s="2">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="T552" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U552" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V552" s="2" t="s">
         <v>46</v>
@@ -78332,25 +78464,25 @@
         <v>46</v>
       </c>
       <c r="AA552" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB552" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC552" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD552" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE552" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF552" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG552" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH552" s="2" t="s">
         <v>42</v>
@@ -78373,41 +78505,41 @@
     </row>
     <row r="553" customHeight="1" spans="2:39">
       <c r="B553" s="2" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1782</v>
+        <v>133</v>
       </c>
       <c r="D553" s="3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E553" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L553" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="F553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G553" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H553" s="2" t="s">
-        <v>1897</v>
-      </c>
-      <c r="I553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L553" s="2" t="s">
+      <c r="M553" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="M553" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="N553" s="2" t="s">
         <v>42</v>
       </c>
@@ -78421,16 +78553,16 @@
         <v>42</v>
       </c>
       <c r="R553" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="S553" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="T553" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U553" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V553" s="2" t="s">
         <v>46</v>
@@ -78448,10 +78580,10 @@
         <v>46</v>
       </c>
       <c r="AA553" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB553" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC553" s="2" t="s">
         <v>42</v>
@@ -78463,10 +78595,10 @@
         <v>42</v>
       </c>
       <c r="AF553" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG553" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH553" s="2" t="s">
         <v>42</v>
@@ -78489,13 +78621,13 @@
     </row>
     <row r="554" customHeight="1" spans="2:39">
       <c r="B554" s="2" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1782</v>
+        <v>1402</v>
       </c>
       <c r="D554" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>1899</v>
@@ -78504,13 +78636,13 @@
         <v>42</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>1518</v>
+        <v>1894</v>
       </c>
       <c r="H554" s="2" t="s">
         <v>1900</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>42</v>
@@ -78519,11 +78651,11 @@
         <v>42</v>
       </c>
       <c r="L554" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M554" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="M554" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="N554" s="2" t="s">
         <v>42</v>
       </c>
@@ -78537,16 +78669,16 @@
         <v>42</v>
       </c>
       <c r="R554" s="2">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="S554" s="2">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="T554" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U554" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V554" s="2" t="s">
         <v>46</v>
@@ -78564,25 +78696,25 @@
         <v>46</v>
       </c>
       <c r="AA554" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB554" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC554" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD554" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE554" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF554" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG554" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH554" s="2" t="s">
         <v>42</v>
@@ -78605,43 +78737,43 @@
     </row>
     <row r="555" customHeight="1" spans="2:39">
       <c r="B555" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>208</v>
+        <v>1904</v>
       </c>
       <c r="D555" s="3">
         <v>2023</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>1518</v>
+        <v>1894</v>
       </c>
       <c r="H555" s="2" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>42</v>
+        <v>1907</v>
       </c>
       <c r="J555" s="2" t="s">
-        <v>42</v>
+        <v>1908</v>
       </c>
       <c r="K555" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L555" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M555" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="M555" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="N555" s="2" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="O555" s="2" t="s">
         <v>42</v>
@@ -78653,16 +78785,16 @@
         <v>42</v>
       </c>
       <c r="R555" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="S555" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T555" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U555" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V555" s="2" t="s">
         <v>46</v>
@@ -78680,13 +78812,13 @@
         <v>46</v>
       </c>
       <c r="AA555" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB555" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC555" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD555" s="2" t="s">
         <v>42</v>
@@ -78695,10 +78827,10 @@
         <v>42</v>
       </c>
       <c r="AF555" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AG555" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH555" s="2" t="s">
         <v>42</v>
@@ -78721,25 +78853,25 @@
     </row>
     <row r="556" customHeight="1" spans="2:39">
       <c r="B556" s="2" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1782</v>
+        <v>227</v>
       </c>
       <c r="D556" s="3">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>1826</v>
+        <v>1911</v>
       </c>
       <c r="H556" s="2" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="I556" s="2" t="s">
         <v>42</v>
@@ -78751,13 +78883,13 @@
         <v>42</v>
       </c>
       <c r="L556" s="2" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="M556" s="2" t="s">
-        <v>1826</v>
+        <v>1911</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>42</v>
+        <v>1913</v>
       </c>
       <c r="O556" s="2" t="s">
         <v>42</v>
@@ -78769,34 +78901,34 @@
         <v>42</v>
       </c>
       <c r="R556" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="S556" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T556" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z556" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA556" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB556" s="2" t="s">
         <v>42</v>
@@ -78837,28 +78969,28 @@
     </row>
     <row r="557" customHeight="1" spans="2:39">
       <c r="B557" s="2" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1782</v>
+        <v>1915</v>
       </c>
       <c r="D557" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>42</v>
+        <v>1917</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="H557" s="2" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="I557" s="2" t="s">
-        <v>42</v>
+        <v>1920</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>42</v>
@@ -78867,10 +78999,10 @@
         <v>42</v>
       </c>
       <c r="L557" s="2" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="M557" s="2" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="N557" s="2" t="s">
         <v>42</v>
@@ -78879,16 +79011,16 @@
         <v>42</v>
       </c>
       <c r="P557" s="2" t="s">
-        <v>42</v>
+        <v>1921</v>
       </c>
       <c r="Q557" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R557" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="S557" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="T557" s="2" t="s">
         <v>47</v>
@@ -78912,13 +79044,13 @@
         <v>46</v>
       </c>
       <c r="AA557" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB557" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC557" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD557" s="2" t="s">
         <v>42</v>
@@ -78953,25 +79085,25 @@
     </row>
     <row r="558" customHeight="1" spans="2:39">
       <c r="B558" s="2" t="s">
-        <v>1913</v>
+        <v>1922</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1782</v>
+        <v>1427</v>
       </c>
       <c r="D558" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1914</v>
+        <v>1923</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>1911</v>
+        <v>1924</v>
       </c>
       <c r="H558" s="2" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="I558" s="2" t="s">
         <v>42</v>
@@ -78983,13 +79115,13 @@
         <v>42</v>
       </c>
       <c r="L558" s="2" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="M558" s="2" t="s">
-        <v>1911</v>
+        <v>1924</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>1916</v>
+        <v>42</v>
       </c>
       <c r="O558" s="2" t="s">
         <v>42</v>
@@ -79001,16 +79133,16 @@
         <v>42</v>
       </c>
       <c r="R558" s="2">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="S558" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="T558" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U558" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V558" s="2" t="s">
         <v>46</v>
@@ -79031,44 +79163,1088 @@
         <v>48</v>
       </c>
       <c r="AB558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM558" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="559" customHeight="1" spans="2:39">
+      <c r="B559" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L559" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M559" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N559" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R559" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S559" s="2">
+        <v>2022</v>
+      </c>
+      <c r="T559" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z559" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA559" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM559" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="560" customHeight="1" spans="2:39">
+      <c r="B560" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L560" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M560" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R560" s="2">
+        <v>2010</v>
+      </c>
+      <c r="S560" s="2">
+        <v>2010</v>
+      </c>
+      <c r="T560" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z560" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM560" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="561" customHeight="1" spans="2:39">
+      <c r="B561" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L561" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M561" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R561" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S561" s="2">
+        <v>2013</v>
+      </c>
+      <c r="T561" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM561" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="562" customHeight="1" spans="2:39">
+      <c r="B562" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D562" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="J562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L562" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M562" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R562" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S562" s="2">
+        <v>2022</v>
+      </c>
+      <c r="T562" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z562" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM562" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="563" customHeight="1" spans="2:39">
+      <c r="B563" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L563" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M563" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N563" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R563" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S563" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T563" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z563" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM563" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="564" customHeight="1" spans="2:39">
+      <c r="B564" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D564" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L564" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M564" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R564" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S564" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T564" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z564" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM564" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="565" customHeight="1" spans="2:39">
+      <c r="B565" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L565" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R565" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S565" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T565" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z565" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM565" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="566" customHeight="1" spans="2:39">
+      <c r="B566" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L566" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M566" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N566" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="O566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R566" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S566" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T566" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U566" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA566" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB566" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC558" s="2" t="s">
+      <c r="AC566" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD558" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF558" s="2" t="s">
+      <c r="AD566" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF566" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AG558" s="2" t="s">
+      <c r="AG566" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL558" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM558" s="2" t="s">
+      <c r="AH566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM566" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="567" customHeight="1" spans="2:39">
+      <c r="B567" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L567" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="N567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R567" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S567" s="2">
+        <v>2018</v>
+      </c>
+      <c r="T567" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U567" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA567" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB567" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC567" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD567" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE567" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF567" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG567" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM567" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM556">
+  <autoFilter ref="A1:AM566">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28237" windowHeight="5302"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$566</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$569</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19862" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19932" uniqueCount="1967">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -12941,6 +12941,27 @@
     <t>CNA</t>
   </si>
   <si>
+    <t>Mosquitoes infected with dengue viruses in Brazil</t>
+  </si>
+  <si>
+    <t>Luiz Figueiredo</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NS5</t>
+  </si>
+  <si>
+    <t>Two lineage of dengue virus type 2, Brazil</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Amilcar Tanuri</t>
+  </si>
+  <si>
     <t>Phylogeography of dengue virus serotype 4, Brazil, 2010-2011</t>
   </si>
   <si>
@@ -12948,9 +12969,6 @@
   </si>
   <si>
     <t>Pedro Vasconcelos</t>
-  </si>
-  <si>
-    <t>SA</t>
   </si>
   <si>
     <t>Genetic variation in the 3' untraslated region of dengue virus serotype 3 strains isolated from mosquitoes and humans in Brazil</t>
@@ -13429,11 +13447,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13918,19 +13936,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14073,7 +14091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14082,7 +14100,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14613,25 +14631,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM567"/>
+  <dimension ref="A1:AM569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
+      <selection pane="bottomLeft" activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6283185840708" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.14159292035398" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="19" max="39" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="39" width="7.125" style="2" customWidth="1"/>
     <col min="40" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -75150,13 +75168,13 @@
         <v>1800</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="D524" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1801</v>
+        <v>111</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>42</v>
@@ -75165,19 +75183,19 @@
         <v>78</v>
       </c>
       <c r="H524" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I524" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J524" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K524" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L524" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="I524" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J524" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K524" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L524" s="2" t="s">
-        <v>1803</v>
       </c>
       <c r="M524" s="2" t="s">
         <v>78</v>
@@ -75195,13 +75213,13 @@
         <v>42</v>
       </c>
       <c r="R524" s="2">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="S524" s="2">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="T524" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U524" s="2" t="s">
         <v>47</v>
@@ -75210,7 +75228,7 @@
         <v>46</v>
       </c>
       <c r="W524" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X524" s="2" t="s">
         <v>46</v>
@@ -75225,19 +75243,19 @@
         <v>48</v>
       </c>
       <c r="AB524" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC524" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD524" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE524" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF524" s="2" t="s">
-        <v>58</v>
+        <v>1803</v>
       </c>
       <c r="AG524" s="2" t="s">
         <v>52</v>
@@ -75266,13 +75284,13 @@
         <v>1804</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D525" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>117</v>
+        <v>1805</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>42</v>
@@ -75281,7 +75299,7 @@
         <v>78</v>
       </c>
       <c r="H525" s="2" t="s">
-        <v>118</v>
+        <v>1806</v>
       </c>
       <c r="I525" s="2" t="s">
         <v>42</v>
@@ -75293,13 +75311,13 @@
         <v>42</v>
       </c>
       <c r="L525" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M525" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>1805</v>
+        <v>42</v>
       </c>
       <c r="O525" s="2" t="s">
         <v>42</v>
@@ -75311,13 +75329,13 @@
         <v>42</v>
       </c>
       <c r="R525" s="2">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="S525" s="2">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="T525" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U525" s="2" t="s">
         <v>47</v>
@@ -75344,16 +75362,16 @@
         <v>42</v>
       </c>
       <c r="AC525" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD525" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE525" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF525" s="2" t="s">
-        <v>1806</v>
+        <v>58</v>
       </c>
       <c r="AG525" s="2" t="s">
         <v>52</v>
@@ -75382,13 +75400,13 @@
         <v>1807</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="D526" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>117</v>
+        <v>1808</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>42</v>
@@ -75397,7 +75415,7 @@
         <v>78</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>118</v>
+        <v>1809</v>
       </c>
       <c r="I526" s="2" t="s">
         <v>42</v>
@@ -75409,7 +75427,7 @@
         <v>42</v>
       </c>
       <c r="L526" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M526" s="2" t="s">
         <v>78</v>
@@ -75427,10 +75445,10 @@
         <v>42</v>
       </c>
       <c r="R526" s="2">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="S526" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="T526" s="2" t="s">
         <v>47</v>
@@ -75460,16 +75478,16 @@
         <v>42</v>
       </c>
       <c r="AC526" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD526" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE526" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF526" s="2" t="s">
-        <v>1220</v>
+        <v>58</v>
       </c>
       <c r="AG526" s="2" t="s">
         <v>52</v>
@@ -75495,43 +75513,43 @@
     </row>
     <row r="527" customHeight="1" spans="2:39">
       <c r="B527" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D527" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H527" s="2" t="s">
-        <v>1809</v>
+        <v>118</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>1810</v>
+        <v>42</v>
       </c>
       <c r="J527" s="2" t="s">
-        <v>1811</v>
+        <v>42</v>
       </c>
       <c r="K527" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L527" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M527" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="O527" s="2" t="s">
         <v>42</v>
@@ -75543,10 +75561,10 @@
         <v>42</v>
       </c>
       <c r="R527" s="2">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="S527" s="2">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="T527" s="2" t="s">
         <v>47</v>
@@ -75579,16 +75597,16 @@
         <v>42</v>
       </c>
       <c r="AD527" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE527" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF527" s="2" t="s">
-        <v>101</v>
+        <v>1812</v>
       </c>
       <c r="AG527" s="2" t="s">
-        <v>1549</v>
+        <v>52</v>
       </c>
       <c r="AH527" s="2" t="s">
         <v>42</v>
@@ -75611,13 +75629,13 @@
     </row>
     <row r="528" customHeight="1" spans="2:39">
       <c r="B528" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D528" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>117</v>
@@ -75632,7 +75650,7 @@
         <v>118</v>
       </c>
       <c r="I528" s="2" t="s">
-        <v>1813</v>
+        <v>42</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>42</v>
@@ -75641,7 +75659,7 @@
         <v>42</v>
       </c>
       <c r="L528" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M528" s="2" t="s">
         <v>78</v>
@@ -75659,10 +75677,10 @@
         <v>42</v>
       </c>
       <c r="R528" s="2">
-        <v>2016</v>
+        <v>1990</v>
       </c>
       <c r="S528" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="T528" s="2" t="s">
         <v>47</v>
@@ -75689,10 +75707,10 @@
         <v>48</v>
       </c>
       <c r="AB528" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC528" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD528" s="2" t="s">
         <v>42</v>
@@ -75701,7 +75719,7 @@
         <v>42</v>
       </c>
       <c r="AF528" s="2" t="s">
-        <v>58</v>
+        <v>1220</v>
       </c>
       <c r="AG528" s="2" t="s">
         <v>52</v>
@@ -75725,42 +75743,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="529" customHeight="1" spans="3:39">
+    <row r="529" customHeight="1" spans="2:39">
+      <c r="B529" s="2" t="s">
+        <v>1814</v>
+      </c>
       <c r="C529" s="2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D529" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1814</v>
+        <v>61</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>1518</v>
+        <v>62</v>
       </c>
       <c r="H529" s="2" t="s">
         <v>1815</v>
       </c>
       <c r="I529" s="2" t="s">
-        <v>42</v>
+        <v>1816</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>42</v>
+        <v>1817</v>
       </c>
       <c r="K529" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L529" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M529" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N529" s="2" t="s">
-        <v>42</v>
+        <v>1811</v>
       </c>
       <c r="O529" s="2" t="s">
         <v>42</v>
@@ -75772,16 +75793,16 @@
         <v>42</v>
       </c>
       <c r="R529" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="S529" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T529" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U529" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V529" s="2" t="s">
         <v>46</v>
@@ -75811,13 +75832,13 @@
         <v>42</v>
       </c>
       <c r="AE529" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF529" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG529" s="2" t="s">
-        <v>42</v>
+        <v>1549</v>
       </c>
       <c r="AH529" s="2" t="s">
         <v>42</v>
@@ -75838,15 +75859,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" customHeight="1" spans="3:39">
+    <row r="530" customHeight="1" spans="2:39">
+      <c r="B530" s="2" t="s">
+        <v>1818</v>
+      </c>
       <c r="C530" s="2" t="s">
-        <v>1508</v>
+        <v>120</v>
       </c>
       <c r="D530" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>42</v>
@@ -75855,10 +75879,10 @@
         <v>78</v>
       </c>
       <c r="H530" s="2" t="s">
-        <v>1809</v>
+        <v>118</v>
       </c>
       <c r="I530" s="2" t="s">
-        <v>42</v>
+        <v>1819</v>
       </c>
       <c r="J530" s="2" t="s">
         <v>42</v>
@@ -75867,7 +75891,7 @@
         <v>42</v>
       </c>
       <c r="L530" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M530" s="2" t="s">
         <v>78</v>
@@ -75885,10 +75909,10 @@
         <v>42</v>
       </c>
       <c r="R530" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="S530" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="T530" s="2" t="s">
         <v>47</v>
@@ -75915,10 +75939,10 @@
         <v>48</v>
       </c>
       <c r="AB530" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC530" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD530" s="2" t="s">
         <v>42</v>
@@ -75927,10 +75951,10 @@
         <v>42</v>
       </c>
       <c r="AF530" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG530" s="2" t="s">
-        <v>1385</v>
+        <v>52</v>
       </c>
       <c r="AH530" s="2" t="s">
         <v>42</v>
@@ -75951,27 +75975,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="531" customHeight="1" spans="2:39">
-      <c r="B531" s="2" t="s">
-        <v>1816</v>
-      </c>
+    <row r="531" customHeight="1" spans="3:39">
       <c r="C531" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D531" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>117</v>
+        <v>1820</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>78</v>
+        <v>1518</v>
       </c>
       <c r="H531" s="2" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="I531" s="2" t="s">
         <v>42</v>
@@ -75983,13 +76004,13 @@
         <v>42</v>
       </c>
       <c r="L531" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M531" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N531" s="2" t="s">
-        <v>1818</v>
+        <v>42</v>
       </c>
       <c r="O531" s="2" t="s">
         <v>42</v>
@@ -76000,17 +76021,17 @@
       <c r="Q531" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R531" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S531" s="2" t="s">
-        <v>42</v>
+      <c r="R531" s="2">
+        <v>2001</v>
+      </c>
+      <c r="S531" s="2">
+        <v>2016</v>
       </c>
       <c r="T531" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U531" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V531" s="2" t="s">
         <v>46</v>
@@ -76031,22 +76052,22 @@
         <v>48</v>
       </c>
       <c r="AB531" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC531" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD531" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE531" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF531" s="2" t="s">
-        <v>449</v>
+        <v>42</v>
       </c>
       <c r="AG531" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH531" s="2" t="s">
         <v>42</v>
@@ -76067,12 +76088,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="532" customHeight="1" spans="2:39">
-      <c r="B532" s="2" t="s">
-        <v>1819</v>
-      </c>
+    <row r="532" customHeight="1" spans="3:39">
       <c r="C532" s="2" t="s">
-        <v>120</v>
+        <v>1508</v>
       </c>
       <c r="D532" s="3">
         <v>2020</v>
@@ -76087,7 +76105,7 @@
         <v>78</v>
       </c>
       <c r="H532" s="2" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="I532" s="2" t="s">
         <v>42</v>
@@ -76099,7 +76117,7 @@
         <v>42</v>
       </c>
       <c r="L532" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M532" s="2" t="s">
         <v>78</v>
@@ -76117,13 +76135,13 @@
         <v>42</v>
       </c>
       <c r="R532" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="S532" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="T532" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U532" s="2" t="s">
         <v>47</v>
@@ -76135,7 +76153,7 @@
         <v>46</v>
       </c>
       <c r="X532" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y532" s="2" t="s">
         <v>46</v>
@@ -76150,19 +76168,19 @@
         <v>42</v>
       </c>
       <c r="AC532" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD532" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE532" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF532" s="2" t="s">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="AG532" s="2" t="s">
-        <v>52</v>
+        <v>1385</v>
       </c>
       <c r="AH532" s="2" t="s">
         <v>42</v>
@@ -76185,16 +76203,16 @@
     </row>
     <row r="533" customHeight="1" spans="2:39">
       <c r="B533" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="D533" s="3">
         <v>2020</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1822</v>
+        <v>117</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>42</v>
@@ -76215,13 +76233,13 @@
         <v>42</v>
       </c>
       <c r="L533" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M533" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N533" s="2" t="s">
-        <v>42</v>
+        <v>1824</v>
       </c>
       <c r="O533" s="2" t="s">
         <v>42</v>
@@ -76232,17 +76250,17 @@
       <c r="Q533" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R533" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S533" s="2">
-        <v>2018</v>
+      <c r="R533" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S533" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T533" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U533" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V533" s="2" t="s">
         <v>46</v>
@@ -76260,25 +76278,25 @@
         <v>46</v>
       </c>
       <c r="AA533" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB533" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC533" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD533" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE533" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF533" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AG533" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH533" s="2" t="s">
         <v>42</v>
@@ -76301,26 +76319,26 @@
     </row>
     <row r="534" customHeight="1" spans="2:39">
       <c r="B534" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D534" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1825</v>
+        <v>111</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G534" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H534" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="H534" s="2" t="s">
-        <v>1827</v>
-      </c>
       <c r="I534" s="2" t="s">
         <v>42</v>
       </c>
@@ -76331,13 +76349,13 @@
         <v>42</v>
       </c>
       <c r="L534" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M534" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>1828</v>
+        <v>42</v>
       </c>
       <c r="O534" s="2" t="s">
         <v>42</v>
@@ -76349,16 +76367,16 @@
         <v>42</v>
       </c>
       <c r="R534" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="S534" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="T534" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U534" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V534" s="2" t="s">
         <v>46</v>
@@ -76367,7 +76385,7 @@
         <v>46</v>
       </c>
       <c r="X534" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y534" s="2" t="s">
         <v>46</v>
@@ -76385,16 +76403,16 @@
         <v>42</v>
       </c>
       <c r="AD534" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE534" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF534" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AG534" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH534" s="2" t="s">
         <v>42</v>
@@ -76417,16 +76435,16 @@
     </row>
     <row r="535" customHeight="1" spans="2:39">
       <c r="B535" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="D535" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>117</v>
+        <v>1828</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>42</v>
@@ -76435,7 +76453,7 @@
         <v>78</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I535" s="2" t="s">
         <v>42</v>
@@ -76447,7 +76465,7 @@
         <v>42</v>
       </c>
       <c r="L535" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M535" s="2" t="s">
         <v>78</v>
@@ -76465,16 +76483,16 @@
         <v>42</v>
       </c>
       <c r="R535" s="2">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="S535" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T535" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U535" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V535" s="2" t="s">
         <v>46</v>
@@ -76492,13 +76510,13 @@
         <v>46</v>
       </c>
       <c r="AA535" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB535" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC535" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD535" s="2" t="s">
         <v>42</v>
@@ -76507,13 +76525,13 @@
         <v>42</v>
       </c>
       <c r="AF535" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG535" s="2" t="s">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="AH535" s="2" t="s">
-        <v>1831</v>
+        <v>42</v>
       </c>
       <c r="AI535" s="2" t="s">
         <v>42</v>
@@ -76533,22 +76551,22 @@
     </row>
     <row r="536" customHeight="1" spans="2:39">
       <c r="B536" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>1832</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D536" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E536" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F536" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H536" s="2" t="s">
         <v>1833</v>
@@ -76563,13 +76581,13 @@
         <v>42</v>
       </c>
       <c r="L536" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M536" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N536" s="2" t="s">
-        <v>42</v>
+        <v>1834</v>
       </c>
       <c r="O536" s="2" t="s">
         <v>42</v>
@@ -76581,16 +76599,16 @@
         <v>42</v>
       </c>
       <c r="R536" s="2">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="S536" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="T536" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U536" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V536" s="2" t="s">
         <v>46</v>
@@ -76608,13 +76626,13 @@
         <v>46</v>
       </c>
       <c r="AA536" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB536" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC536" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD536" s="2" t="s">
         <v>42</v>
@@ -76623,10 +76641,10 @@
         <v>42</v>
       </c>
       <c r="AF536" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG536" s="2" t="s">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="AH536" s="2" t="s">
         <v>42</v>
@@ -76649,13 +76667,13 @@
     </row>
     <row r="537" customHeight="1" spans="2:39">
       <c r="B537" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D537" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>117</v>
@@ -76667,7 +76685,7 @@
         <v>78</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I537" s="2" t="s">
         <v>42</v>
@@ -76679,7 +76697,7 @@
         <v>42</v>
       </c>
       <c r="L537" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M537" s="2" t="s">
         <v>78</v>
@@ -76697,10 +76715,10 @@
         <v>42</v>
       </c>
       <c r="R537" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="S537" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="T537" s="2" t="s">
         <v>47</v>
@@ -76724,16 +76742,16 @@
         <v>46</v>
       </c>
       <c r="AA537" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB537" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC537" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD537" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE537" s="2" t="s">
         <v>42</v>
@@ -76745,7 +76763,7 @@
         <v>482</v>
       </c>
       <c r="AH537" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="AI537" s="2" t="s">
         <v>42</v>
@@ -76765,22 +76783,22 @@
     </row>
     <row r="538" customHeight="1" spans="2:39">
       <c r="B538" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>103</v>
+        <v>1472</v>
       </c>
       <c r="D538" s="3">
-        <v>2002</v>
+        <v>2023</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1838</v>
+        <v>117</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H538" s="2" t="s">
         <v>1839</v>
@@ -76795,10 +76813,10 @@
         <v>42</v>
       </c>
       <c r="L538" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M538" s="2" t="s">
-        <v>1840</v>
+        <v>78</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>42</v>
@@ -76813,10 +76831,10 @@
         <v>42</v>
       </c>
       <c r="R538" s="2">
-        <v>1988</v>
+        <v>2021</v>
       </c>
       <c r="S538" s="2">
-        <v>2000</v>
+        <v>2023</v>
       </c>
       <c r="T538" s="2" t="s">
         <v>47</v>
@@ -76840,13 +76858,13 @@
         <v>46</v>
       </c>
       <c r="AA538" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB538" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC538" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD538" s="2" t="s">
         <v>42</v>
@@ -76855,10 +76873,10 @@
         <v>42</v>
       </c>
       <c r="AF538" s="2" t="s">
-        <v>1220</v>
+        <v>101</v>
       </c>
       <c r="AG538" s="2" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
       <c r="AH538" s="2" t="s">
         <v>42</v>
@@ -76881,16 +76899,16 @@
     </row>
     <row r="539" customHeight="1" spans="2:39">
       <c r="B539" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="D539" s="3">
-        <v>2004</v>
+        <v>2023</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1842</v>
+        <v>117</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>42</v>
@@ -76899,7 +76917,7 @@
         <v>78</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="I539" s="2" t="s">
         <v>42</v>
@@ -76911,13 +76929,13 @@
         <v>42</v>
       </c>
       <c r="L539" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M539" s="2" t="s">
-        <v>1840</v>
+        <v>78</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>1844</v>
+        <v>42</v>
       </c>
       <c r="O539" s="2" t="s">
         <v>42</v>
@@ -76929,10 +76947,10 @@
         <v>42</v>
       </c>
       <c r="R539" s="2">
-        <v>1990</v>
+        <v>2023</v>
       </c>
       <c r="S539" s="2">
-        <v>2000</v>
+        <v>2023</v>
       </c>
       <c r="T539" s="2" t="s">
         <v>47</v>
@@ -76956,16 +76974,16 @@
         <v>46</v>
       </c>
       <c r="AA539" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB539" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC539" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD539" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE539" s="2" t="s">
         <v>42</v>
@@ -76974,10 +76992,10 @@
         <v>101</v>
       </c>
       <c r="AG539" s="2" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
       <c r="AH539" s="2" t="s">
-        <v>42</v>
+        <v>1842</v>
       </c>
       <c r="AI539" s="2" t="s">
         <v>42</v>
@@ -76997,26 +77015,26 @@
     </row>
     <row r="540" customHeight="1" spans="2:39">
       <c r="B540" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D540" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H540" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="C540" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D540" s="3">
-        <v>2008</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H540" s="2" t="s">
-        <v>1843</v>
-      </c>
       <c r="I540" s="2" t="s">
         <v>42</v>
       </c>
@@ -77027,13 +77045,13 @@
         <v>42</v>
       </c>
       <c r="L540" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M540" s="2" t="s">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>1844</v>
+        <v>42</v>
       </c>
       <c r="O540" s="2" t="s">
         <v>42</v>
@@ -77045,10 +77063,10 @@
         <v>42</v>
       </c>
       <c r="R540" s="2">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="S540" s="2">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="T540" s="2" t="s">
         <v>47</v>
@@ -77072,22 +77090,22 @@
         <v>46</v>
       </c>
       <c r="AA540" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB540" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC540" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD540" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE540" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF540" s="2" t="s">
-        <v>58</v>
+        <v>1220</v>
       </c>
       <c r="AG540" s="2" t="s">
         <v>52</v>
@@ -77113,43 +77131,43 @@
     </row>
     <row r="541" customHeight="1" spans="2:39">
       <c r="B541" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H541" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L541" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M541" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C541" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D541" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E541" s="2" t="s">
-        <v>1847</v>
-      </c>
-      <c r="F541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G541" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H541" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K541" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L541" s="2" t="s">
-        <v>1803</v>
-      </c>
-      <c r="M541" s="2" t="s">
-        <v>1840</v>
-      </c>
       <c r="N541" s="2" t="s">
-        <v>42</v>
+        <v>1850</v>
       </c>
       <c r="O541" s="2" t="s">
         <v>42</v>
@@ -77161,10 +77179,10 @@
         <v>42</v>
       </c>
       <c r="R541" s="2">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="S541" s="2">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="T541" s="2" t="s">
         <v>47</v>
@@ -77209,7 +77227,7 @@
         <v>52</v>
       </c>
       <c r="AH541" s="2" t="s">
-        <v>1849</v>
+        <v>42</v>
       </c>
       <c r="AI541" s="2" t="s">
         <v>42</v>
@@ -77229,44 +77247,44 @@
     </row>
     <row r="542" customHeight="1" spans="2:39">
       <c r="B542" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L542" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M542" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="N542" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C542" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D542" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E542" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F542" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G542" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H542" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="I542" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J542" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K542" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L542" s="2" t="s">
-        <v>1803</v>
-      </c>
-      <c r="M542" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="N542" s="2" t="s">
-        <v>1854</v>
-      </c>
       <c r="O542" s="2" t="s">
         <v>42</v>
       </c>
@@ -77277,16 +77295,16 @@
         <v>42</v>
       </c>
       <c r="R542" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="S542" s="2">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="T542" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U542" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V542" s="2" t="s">
         <v>46</v>
@@ -77313,16 +77331,16 @@
         <v>42</v>
       </c>
       <c r="AD542" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE542" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF542" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AG542" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH542" s="2" t="s">
         <v>42</v>
@@ -77345,25 +77363,25 @@
     </row>
     <row r="543" customHeight="1" spans="2:39">
       <c r="B543" s="2" t="s">
-        <v>1837</v>
+        <v>1852</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D543" s="3">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1838</v>
+        <v>1853</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>43</v>
+        <v>1846</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1839</v>
+        <v>1854</v>
       </c>
       <c r="I543" s="2" t="s">
         <v>42</v>
@@ -77375,10 +77393,10 @@
         <v>42</v>
       </c>
       <c r="L543" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M543" s="2" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="N543" s="2" t="s">
         <v>42</v>
@@ -77393,10 +77411,10 @@
         <v>42</v>
       </c>
       <c r="R543" s="2">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="S543" s="2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="T543" s="2" t="s">
         <v>47</v>
@@ -77435,13 +77453,13 @@
         <v>42</v>
       </c>
       <c r="AF543" s="2" t="s">
-        <v>1220</v>
+        <v>101</v>
       </c>
       <c r="AG543" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AH543" s="2" t="s">
-        <v>42</v>
+        <v>1855</v>
       </c>
       <c r="AI543" s="2" t="s">
         <v>42</v>
@@ -77464,25 +77482,25 @@
         <v>1856</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>73</v>
+        <v>1857</v>
       </c>
       <c r="D544" s="3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="H544" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>1859</v>
+        <v>42</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>42</v>
@@ -77491,13 +77509,13 @@
         <v>42</v>
       </c>
       <c r="L544" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M544" s="2" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="N544" s="2" t="s">
-        <v>42</v>
+        <v>1860</v>
       </c>
       <c r="O544" s="2" t="s">
         <v>42</v>
@@ -77509,16 +77527,16 @@
         <v>42</v>
       </c>
       <c r="R544" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="S544" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="T544" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U544" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V544" s="2" t="s">
         <v>46</v>
@@ -77536,25 +77554,25 @@
         <v>46</v>
       </c>
       <c r="AA544" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB544" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC544" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD544" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE544" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF544" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG544" s="2" t="s">
-        <v>1385</v>
+        <v>42</v>
       </c>
       <c r="AH544" s="2" t="s">
         <v>42</v>
@@ -77577,41 +77595,41 @@
     </row>
     <row r="545" customHeight="1" spans="2:39">
       <c r="B545" s="2" t="s">
-        <v>1860</v>
+        <v>1843</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D545" s="3">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E545" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L545" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M545" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="F545" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H545" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="I545" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J545" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K545" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L545" s="2" t="s">
-        <v>1803</v>
-      </c>
-      <c r="M545" s="2" t="s">
-        <v>1862</v>
-      </c>
       <c r="N545" s="2" t="s">
         <v>42</v>
       </c>
@@ -77625,10 +77643,10 @@
         <v>42</v>
       </c>
       <c r="R545" s="2">
+        <v>1988</v>
+      </c>
+      <c r="S545" s="2">
         <v>2000</v>
-      </c>
-      <c r="S545" s="2">
-        <v>2012</v>
       </c>
       <c r="T545" s="2" t="s">
         <v>47</v>
@@ -77655,10 +77673,10 @@
         <v>48</v>
       </c>
       <c r="AB545" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC545" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD545" s="2" t="s">
         <v>42</v>
@@ -77667,7 +77685,7 @@
         <v>42</v>
       </c>
       <c r="AF545" s="2" t="s">
-        <v>58</v>
+        <v>1220</v>
       </c>
       <c r="AG545" s="2" t="s">
         <v>52</v>
@@ -77693,29 +77711,29 @@
     </row>
     <row r="546" customHeight="1" spans="2:39">
       <c r="B546" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H546" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="C546" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D546" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E546" s="2" t="s">
+      <c r="I546" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="F546" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H546" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I546" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J546" s="2" t="s">
         <v>42</v>
       </c>
@@ -77723,13 +77741,13 @@
         <v>42</v>
       </c>
       <c r="L546" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M546" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>1867</v>
+        <v>42</v>
       </c>
       <c r="O546" s="2" t="s">
         <v>42</v>
@@ -77741,16 +77759,16 @@
         <v>42</v>
       </c>
       <c r="R546" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="S546" s="2">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="T546" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U546" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V546" s="2" t="s">
         <v>46</v>
@@ -77768,25 +77786,25 @@
         <v>46</v>
       </c>
       <c r="AA546" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB546" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC546" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD546" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE546" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AF546" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG546" s="2" t="s">
-        <v>42</v>
+        <v>1385</v>
       </c>
       <c r="AH546" s="2" t="s">
         <v>42</v>
@@ -77809,64 +77827,64 @@
     </row>
     <row r="547" customHeight="1" spans="2:39">
       <c r="B547" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="C547" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D547" s="3">
-        <v>2008</v>
-      </c>
-      <c r="E547" s="2" t="s">
+      <c r="H547" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="F547" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G547" s="2" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H547" s="2" t="s">
-        <v>1871</v>
-      </c>
       <c r="I547" s="2" t="s">
-        <v>1872</v>
+        <v>42</v>
       </c>
       <c r="J547" s="2" t="s">
-        <v>1873</v>
+        <v>42</v>
       </c>
       <c r="K547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L547" s="2" t="s">
-        <v>1874</v>
+        <v>1802</v>
       </c>
       <c r="M547" s="2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="N547" s="2" t="s">
-        <v>1875</v>
+        <v>42</v>
       </c>
       <c r="O547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P547" s="2" t="s">
-        <v>1875</v>
+        <v>42</v>
       </c>
       <c r="Q547" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R547" s="2">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="S547" s="2">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="T547" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U547" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V547" s="2" t="s">
         <v>46</v>
@@ -77887,10 +77905,10 @@
         <v>48</v>
       </c>
       <c r="AB547" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC547" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD547" s="2" t="s">
         <v>42</v>
@@ -77899,10 +77917,10 @@
         <v>42</v>
       </c>
       <c r="AF547" s="2" t="s">
-        <v>1220</v>
+        <v>58</v>
       </c>
       <c r="AG547" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH547" s="2" t="s">
         <v>42</v>
@@ -77925,25 +77943,25 @@
     </row>
     <row r="548" customHeight="1" spans="2:39">
       <c r="B548" s="2" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="D548" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>1518</v>
+        <v>43</v>
       </c>
       <c r="H548" s="2" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="I548" s="2" t="s">
         <v>42</v>
@@ -77955,13 +77973,13 @@
         <v>42</v>
       </c>
       <c r="L548" s="2" t="s">
-        <v>1874</v>
+        <v>1802</v>
       </c>
       <c r="M548" s="2" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>42</v>
+        <v>1873</v>
       </c>
       <c r="O548" s="2" t="s">
         <v>42</v>
@@ -77972,14 +77990,14 @@
       <c r="Q548" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R548" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S548" s="2" t="s">
-        <v>42</v>
+      <c r="R548" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S548" s="2">
+        <v>2019</v>
       </c>
       <c r="T548" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U548" s="2" t="s">
         <v>46</v>
@@ -77994,7 +78012,7 @@
         <v>46</v>
       </c>
       <c r="Y548" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z548" s="2" t="s">
         <v>46</v>
@@ -78003,10 +78021,10 @@
         <v>42</v>
       </c>
       <c r="AB548" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC548" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD548" s="2" t="s">
         <v>42</v>
@@ -78041,64 +78059,64 @@
     </row>
     <row r="549" customHeight="1" spans="2:39">
       <c r="B549" s="2" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D549" s="3">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>61</v>
+        <v>1875</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>62</v>
+        <v>1876</v>
       </c>
       <c r="H549" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I549" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L549" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="M549" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N549" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="I549" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="J549" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K549" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L549" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M549" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="N549" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O549" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P549" s="2" t="s">
-        <v>42</v>
+        <v>1881</v>
       </c>
       <c r="Q549" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R549" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="S549" s="2">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="T549" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U549" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V549" s="2" t="s">
         <v>46</v>
@@ -78119,10 +78137,10 @@
         <v>48</v>
       </c>
       <c r="AB549" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC549" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD549" s="2" t="s">
         <v>42</v>
@@ -78131,10 +78149,10 @@
         <v>42</v>
       </c>
       <c r="AF549" s="2" t="s">
-        <v>101</v>
+        <v>1220</v>
       </c>
       <c r="AG549" s="2" t="s">
-        <v>1385</v>
+        <v>42</v>
       </c>
       <c r="AH549" s="2" t="s">
         <v>42</v>
@@ -78157,7 +78175,7 @@
     </row>
     <row r="550" customHeight="1" spans="2:39">
       <c r="B550" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>81</v>
@@ -78166,32 +78184,32 @@
         <v>2022</v>
       </c>
       <c r="E550" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H550" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="F550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G550" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="H550" s="2" t="s">
+      <c r="I550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L550" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="M550" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="I550" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="J550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L550" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M550" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="N550" s="2" t="s">
         <v>42</v>
       </c>
@@ -78204,17 +78222,17 @@
       <c r="Q550" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R550" s="2">
-        <v>2017</v>
-      </c>
-      <c r="S550" s="2">
-        <v>2019</v>
+      <c r="R550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S550" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T550" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U550" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V550" s="2" t="s">
         <v>46</v>
@@ -78226,16 +78244,16 @@
         <v>46</v>
       </c>
       <c r="Y550" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z550" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA550" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB550" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC550" s="2" t="s">
         <v>50</v>
@@ -78247,10 +78265,10 @@
         <v>42</v>
       </c>
       <c r="AF550" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG550" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH550" s="2" t="s">
         <v>42</v>
@@ -78276,38 +78294,38 @@
         <v>1886</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="D551" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E551" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H551" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="F551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G551" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H551" s="2" t="s">
+      <c r="I551" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M551" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="I551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L551" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="M551" s="2" t="s">
-        <v>1890</v>
-      </c>
       <c r="N551" s="2" t="s">
         <v>42</v>
       </c>
@@ -78321,16 +78339,16 @@
         <v>42</v>
       </c>
       <c r="R551" s="2">
-        <v>1941</v>
+        <v>2018</v>
       </c>
       <c r="S551" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="T551" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U551" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V551" s="2" t="s">
         <v>46</v>
@@ -78342,19 +78360,19 @@
         <v>46</v>
       </c>
       <c r="Y551" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z551" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA551" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB551" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AC551" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD551" s="2" t="s">
         <v>42</v>
@@ -78363,10 +78381,10 @@
         <v>42</v>
       </c>
       <c r="AF551" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG551" s="2" t="s">
-        <v>42</v>
+        <v>1385</v>
       </c>
       <c r="AH551" s="2" t="s">
         <v>42</v>
@@ -78389,28 +78407,28 @@
     </row>
     <row r="552" customHeight="1" spans="2:39">
       <c r="B552" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H552" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="C552" s="2" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D552" s="3">
-        <v>2008</v>
-      </c>
-      <c r="E552" s="2" t="s">
-        <v>1893</v>
-      </c>
-      <c r="F552" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G552" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H552" s="2" t="s">
-        <v>1895</v>
-      </c>
       <c r="I552" s="2" t="s">
-        <v>42</v>
+        <v>1815</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>42</v>
@@ -78419,13 +78437,13 @@
         <v>42</v>
       </c>
       <c r="L552" s="2" t="s">
-        <v>1896</v>
+        <v>42</v>
       </c>
       <c r="M552" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>1897</v>
+        <v>42</v>
       </c>
       <c r="O552" s="2" t="s">
         <v>42</v>
@@ -78437,10 +78455,10 @@
         <v>42</v>
       </c>
       <c r="R552" s="2">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="S552" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="T552" s="2" t="s">
         <v>47</v>
@@ -78467,19 +78485,19 @@
         <v>48</v>
       </c>
       <c r="AB552" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC552" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD552" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE552" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF552" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AG552" s="2" t="s">
         <v>52</v>
@@ -78505,64 +78523,64 @@
     </row>
     <row r="553" customHeight="1" spans="2:39">
       <c r="B553" s="2" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D553" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L553" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="M553" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="N553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R553" s="2">
+        <v>1941</v>
+      </c>
+      <c r="S553" s="2">
         <v>2015</v>
       </c>
-      <c r="E553" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G553" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H553" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="I553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L553" s="2" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M553" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q553" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R553" s="2">
-        <v>2011</v>
-      </c>
-      <c r="S553" s="2">
-        <v>2011</v>
-      </c>
       <c r="T553" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U553" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V553" s="2" t="s">
         <v>46</v>
@@ -78574,16 +78592,16 @@
         <v>46</v>
       </c>
       <c r="Y553" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z553" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA553" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB553" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC553" s="2" t="s">
         <v>42</v>
@@ -78595,10 +78613,10 @@
         <v>42</v>
       </c>
       <c r="AF553" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG553" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH553" s="2" t="s">
         <v>42</v>
@@ -78621,13 +78639,13 @@
     </row>
     <row r="554" customHeight="1" spans="2:39">
       <c r="B554" s="2" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1402</v>
+        <v>1898</v>
       </c>
       <c r="D554" s="3">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>1899</v>
@@ -78636,28 +78654,28 @@
         <v>42</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="H554" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L554" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M554" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="I554" s="2" t="s">
-        <v>1902</v>
-      </c>
-      <c r="J554" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K554" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L554" s="2" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M554" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="N554" s="2" t="s">
-        <v>42</v>
+        <v>1903</v>
       </c>
       <c r="O554" s="2" t="s">
         <v>42</v>
@@ -78669,10 +78687,10 @@
         <v>42</v>
       </c>
       <c r="R554" s="2">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="S554" s="2">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="T554" s="2" t="s">
         <v>47</v>
@@ -78699,7 +78717,7 @@
         <v>48</v>
       </c>
       <c r="AB554" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC554" s="2" t="s">
         <v>50</v>
@@ -78711,7 +78729,7 @@
         <v>42</v>
       </c>
       <c r="AF554" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="AG554" s="2" t="s">
         <v>52</v>
@@ -78737,13 +78755,13 @@
     </row>
     <row r="555" customHeight="1" spans="2:39">
       <c r="B555" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1904</v>
+        <v>133</v>
       </c>
       <c r="D555" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>1905</v>
@@ -78752,28 +78770,28 @@
         <v>42</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="H555" s="2" t="s">
         <v>1906</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1907</v>
+        <v>42</v>
       </c>
       <c r="J555" s="2" t="s">
-        <v>1908</v>
+        <v>42</v>
       </c>
       <c r="K555" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L555" s="2" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="M555" s="2" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>1897</v>
+        <v>42</v>
       </c>
       <c r="O555" s="2" t="s">
         <v>42</v>
@@ -78785,10 +78803,10 @@
         <v>42</v>
       </c>
       <c r="R555" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="S555" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="T555" s="2" t="s">
         <v>47</v>
@@ -78815,10 +78833,10 @@
         <v>48</v>
       </c>
       <c r="AB555" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AC555" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD555" s="2" t="s">
         <v>42</v>
@@ -78827,7 +78845,7 @@
         <v>42</v>
       </c>
       <c r="AF555" s="2" t="s">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="AG555" s="2" t="s">
         <v>52</v>
@@ -78853,28 +78871,28 @@
     </row>
     <row r="556" customHeight="1" spans="2:39">
       <c r="B556" s="2" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>227</v>
+        <v>1402</v>
       </c>
       <c r="D556" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
       <c r="H556" s="2" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="I556" s="2" t="s">
-        <v>42</v>
+        <v>1908</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>42</v>
@@ -78883,13 +78901,13 @@
         <v>42</v>
       </c>
       <c r="L556" s="2" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="M556" s="2" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>1913</v>
+        <v>42</v>
       </c>
       <c r="O556" s="2" t="s">
         <v>42</v>
@@ -78901,10 +78919,10 @@
         <v>42</v>
       </c>
       <c r="R556" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="S556" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="T556" s="2" t="s">
         <v>47</v>
@@ -78913,19 +78931,19 @@
         <v>47</v>
       </c>
       <c r="V556" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W556" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X556" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y556" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z556" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA556" s="2" t="s">
         <v>48</v>
@@ -78934,19 +78952,19 @@
         <v>42</v>
       </c>
       <c r="AC556" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD556" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE556" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF556" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AG556" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH556" s="2" t="s">
         <v>42</v>
@@ -78969,64 +78987,64 @@
     </row>
     <row r="557" customHeight="1" spans="2:39">
       <c r="B557" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H557" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J557" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C557" s="2" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D557" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E557" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="F557" s="2" t="s">
-        <v>1917</v>
-      </c>
-      <c r="G557" s="2" t="s">
-        <v>1918</v>
-      </c>
-      <c r="H557" s="2" t="s">
-        <v>1919</v>
-      </c>
-      <c r="I557" s="2" t="s">
-        <v>1920</v>
-      </c>
-      <c r="J557" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K557" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L557" s="2" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="M557" s="2" t="s">
-        <v>1918</v>
+        <v>1900</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>42</v>
+        <v>1903</v>
       </c>
       <c r="O557" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P557" s="2" t="s">
-        <v>1921</v>
+        <v>42</v>
       </c>
       <c r="Q557" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R557" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="S557" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T557" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U557" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V557" s="2" t="s">
         <v>46</v>
@@ -79059,10 +79077,10 @@
         <v>42</v>
       </c>
       <c r="AF557" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AG557" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH557" s="2" t="s">
         <v>42</v>
@@ -79085,25 +79103,25 @@
     </row>
     <row r="558" customHeight="1" spans="2:39">
       <c r="B558" s="2" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1427</v>
+        <v>227</v>
       </c>
       <c r="D558" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="H558" s="2" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="I558" s="2" t="s">
         <v>42</v>
@@ -79115,13 +79133,13 @@
         <v>42</v>
       </c>
       <c r="L558" s="2" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="M558" s="2" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>42</v>
+        <v>1919</v>
       </c>
       <c r="O558" s="2" t="s">
         <v>42</v>
@@ -79133,31 +79151,31 @@
         <v>42</v>
       </c>
       <c r="R558" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="S558" s="2">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="T558" s="2" t="s">
         <v>47</v>
       </c>
       <c r="U558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z558" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA558" s="2" t="s">
         <v>48</v>
@@ -79201,58 +79219,58 @@
     </row>
     <row r="559" customHeight="1" spans="2:39">
       <c r="B559" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I559" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C559" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D559" s="3">
-        <v>2024</v>
-      </c>
-      <c r="E559" s="2" t="s">
+      <c r="J559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L559" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M559" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="N559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P559" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="F559" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G559" s="2" t="s">
-        <v>1928</v>
-      </c>
-      <c r="H559" s="2" t="s">
-        <v>1929</v>
-      </c>
-      <c r="I559" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J559" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K559" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L559" s="2" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M559" s="2" t="s">
-        <v>1928</v>
-      </c>
-      <c r="N559" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O559" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P559" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q559" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R559" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="S559" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="T559" s="2" t="s">
         <v>47</v>
@@ -79282,7 +79300,7 @@
         <v>42</v>
       </c>
       <c r="AC559" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD559" s="2" t="s">
         <v>42</v>
@@ -79317,26 +79335,26 @@
     </row>
     <row r="560" customHeight="1" spans="2:39">
       <c r="B560" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H560" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="C560" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D560" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E560" s="2" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F560" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G560" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H560" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="I560" s="2" t="s">
         <v>42</v>
       </c>
@@ -79347,10 +79365,10 @@
         <v>42</v>
       </c>
       <c r="L560" s="2" t="s">
-        <v>1934</v>
+        <v>1902</v>
       </c>
       <c r="M560" s="2" t="s">
-        <v>1518</v>
+        <v>1930</v>
       </c>
       <c r="N560" s="2" t="s">
         <v>42</v>
@@ -79365,10 +79383,10 @@
         <v>42</v>
       </c>
       <c r="R560" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="S560" s="2">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="T560" s="2" t="s">
         <v>47</v>
@@ -79392,7 +79410,7 @@
         <v>46</v>
       </c>
       <c r="AA560" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB560" s="2" t="s">
         <v>42</v>
@@ -79433,44 +79451,44 @@
     </row>
     <row r="561" customHeight="1" spans="2:39">
       <c r="B561" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H561" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="C561" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D561" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E561" s="2" t="s">
+      <c r="I561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L561" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M561" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N561" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="F561" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G561" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H561" s="2" t="s">
-        <v>1937</v>
-      </c>
-      <c r="I561" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J561" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K561" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L561" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="M561" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N561" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O561" s="2" t="s">
         <v>42</v>
       </c>
@@ -79481,10 +79499,10 @@
         <v>42</v>
       </c>
       <c r="R561" s="2">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="S561" s="2">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="T561" s="2" t="s">
         <v>47</v>
@@ -79508,7 +79526,7 @@
         <v>46</v>
       </c>
       <c r="AA561" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB561" s="2" t="s">
         <v>42</v>
@@ -79549,16 +79567,16 @@
     </row>
     <row r="562" customHeight="1" spans="2:39">
       <c r="B562" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>1782</v>
       </c>
       <c r="D562" s="3">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>42</v>
@@ -79567,19 +79585,19 @@
         <v>1518</v>
       </c>
       <c r="H562" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L562" s="2" t="s">
         <v>1940</v>
-      </c>
-      <c r="I562" s="2" t="s">
-        <v>1941</v>
-      </c>
-      <c r="J562" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K562" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L562" s="2" t="s">
-        <v>1934</v>
       </c>
       <c r="M562" s="2" t="s">
         <v>1518</v>
@@ -79597,10 +79615,10 @@
         <v>42</v>
       </c>
       <c r="R562" s="2">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="S562" s="2">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="T562" s="2" t="s">
         <v>47</v>
@@ -79665,16 +79683,16 @@
     </row>
     <row r="563" customHeight="1" spans="2:39">
       <c r="B563" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E563" s="2" t="s">
         <v>1942</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D563" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E563" s="2" t="s">
-        <v>1943</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>42</v>
@@ -79683,7 +79701,7 @@
         <v>1518</v>
       </c>
       <c r="H563" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="I563" s="2" t="s">
         <v>42</v>
@@ -79695,13 +79713,13 @@
         <v>42</v>
       </c>
       <c r="L563" s="2" t="s">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="M563" s="2" t="s">
         <v>1518</v>
       </c>
       <c r="N563" s="2" t="s">
-        <v>1945</v>
+        <v>42</v>
       </c>
       <c r="O563" s="2" t="s">
         <v>42</v>
@@ -79713,10 +79731,10 @@
         <v>42</v>
       </c>
       <c r="R563" s="2">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="S563" s="2">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="T563" s="2" t="s">
         <v>47</v>
@@ -79781,29 +79799,29 @@
     </row>
     <row r="564" customHeight="1" spans="2:39">
       <c r="B564" s="2" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>1782</v>
       </c>
       <c r="D564" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E564" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I564" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="F564" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G564" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="H564" s="2" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I564" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J564" s="2" t="s">
         <v>42</v>
       </c>
@@ -79811,10 +79829,10 @@
         <v>42</v>
       </c>
       <c r="L564" s="2" t="s">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="M564" s="2" t="s">
-        <v>1826</v>
+        <v>1518</v>
       </c>
       <c r="N564" s="2" t="s">
         <v>42</v>
@@ -79829,10 +79847,10 @@
         <v>42</v>
       </c>
       <c r="R564" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="S564" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="T564" s="2" t="s">
         <v>47</v>
@@ -79897,44 +79915,44 @@
     </row>
     <row r="565" customHeight="1" spans="2:39">
       <c r="B565" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E565" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C565" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D565" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E565" s="2" t="s">
+      <c r="F565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H565" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="F565" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G565" s="2" t="s">
+      <c r="I565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L565" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N565" s="2" t="s">
         <v>1951</v>
       </c>
-      <c r="H565" s="2" t="s">
-        <v>1952</v>
-      </c>
-      <c r="I565" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J565" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K565" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L565" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="M565" s="2" t="s">
-        <v>1951</v>
-      </c>
-      <c r="N565" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O565" s="2" t="s">
         <v>42</v>
       </c>
@@ -79945,10 +79963,10 @@
         <v>42</v>
       </c>
       <c r="R565" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="S565" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="T565" s="2" t="s">
         <v>47</v>
@@ -80013,26 +80031,26 @@
     </row>
     <row r="566" customHeight="1" spans="2:39">
       <c r="B566" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>1782</v>
       </c>
       <c r="D566" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E566" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H566" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="F566" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G566" s="2" t="s">
-        <v>1951</v>
-      </c>
-      <c r="H566" s="2" t="s">
-        <v>1955</v>
-      </c>
       <c r="I566" s="2" t="s">
         <v>42</v>
       </c>
@@ -80043,13 +80061,13 @@
         <v>42</v>
       </c>
       <c r="L566" s="2" t="s">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="M566" s="2" t="s">
-        <v>1951</v>
+        <v>1832</v>
       </c>
       <c r="N566" s="2" t="s">
-        <v>1956</v>
+        <v>42</v>
       </c>
       <c r="O566" s="2" t="s">
         <v>42</v>
@@ -80070,7 +80088,7 @@
         <v>47</v>
       </c>
       <c r="U566" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V566" s="2" t="s">
         <v>46</v>
@@ -80088,25 +80106,25 @@
         <v>46</v>
       </c>
       <c r="AA566" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB566" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC566" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD566" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE566" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AF566" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AG566" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH566" s="2" t="s">
         <v>42</v>
@@ -80129,122 +80147,354 @@
     </row>
     <row r="567" customHeight="1" spans="2:39">
       <c r="B567" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G567" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="H567" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L567" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="N567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R567" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S567" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T567" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z567" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM567" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="568" customHeight="1" spans="2:39">
+      <c r="B568" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L568" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M568" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="N568" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="O568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R568" s="2">
+        <v>2023</v>
+      </c>
+      <c r="S568" s="2">
+        <v>2023</v>
+      </c>
+      <c r="T568" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U568" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V568" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W568" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X568" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y568" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z568" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA568" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB568" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC568" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD568" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF568" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG568" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM568" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="569" customHeight="1" spans="2:39">
+      <c r="B569" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D567" s="3">
+      <c r="D569" s="3">
         <v>2021</v>
       </c>
-      <c r="E567" s="2" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G567" s="2" t="s">
-        <v>1959</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>1960</v>
-      </c>
-      <c r="I567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L567" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="M567" s="2" t="s">
-        <v>1959</v>
-      </c>
-      <c r="N567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R567" s="2">
+      <c r="E569" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L569" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M569" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="N569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R569" s="2">
         <v>2013</v>
       </c>
-      <c r="S567" s="2">
+      <c r="S569" s="2">
         <v>2018</v>
       </c>
-      <c r="T567" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U567" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V567" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W567" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X567" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y567" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z567" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA567" s="2" t="s">
+      <c r="T569" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U569" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V569" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W569" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X569" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y569" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z569" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA569" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB567" s="2" t="s">
+      <c r="AB569" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC567" s="2" t="s">
+      <c r="AC569" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD567" s="2" t="s">
+      <c r="AD569" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE567" s="2" t="s">
+      <c r="AE569" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF567" s="2" t="s">
+      <c r="AF569" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG567" s="2" t="s">
+      <c r="AG569" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL567" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM567" s="2" t="s">
+      <c r="AH569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM569" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM566">
+  <autoFilter ref="A1:AM569">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDrRef.xlsx
+++ b/Data/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDrRef" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$569</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDrRef!$A$1:$AM$572</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19932" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20036" uniqueCount="1977">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -12941,15 +12941,33 @@
     <t>CNA</t>
   </si>
   <si>
+    <t>Complete genetic characterization of a Brazilian dengue virus type 3 strain isolated from a fatal outcome</t>
+  </si>
+  <si>
+    <t>Marize Miagostovich</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Dengue virus type 4, Manaus, Brazil</t>
+  </si>
+  <si>
+    <t>Fundacao de Medicina Tropical do Amazonas</t>
+  </si>
+  <si>
+    <t>Regina Maria Pinto de Figueiredo</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
     <t>Mosquitoes infected with dengue viruses in Brazil</t>
   </si>
   <si>
     <t>Luiz Figueiredo</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>NS5</t>
   </si>
   <si>
@@ -13068,6 +13086,18 @@
   </si>
   <si>
     <t>OQ706226-OQ706228</t>
+  </si>
+  <si>
+    <t>DENV-1 genotype V circulation during the nonepidemic period in the Northeast of Sao Paulo state endemic area</t>
+  </si>
+  <si>
+    <t>Blood Center of Riberirao Preto</t>
+  </si>
+  <si>
+    <t>Simone Kashima</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
   </si>
   <si>
     <t>Phylogenetic relationships of dengue-1 viruses from Argentina and Paraguay</t>
@@ -14631,12 +14661,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM569"/>
+  <dimension ref="A1:AM572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B526" sqref="B526"/>
+      <selection pane="bottomLeft" activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -75168,13 +75198,13 @@
         <v>1800</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>133</v>
+        <v>1508</v>
       </c>
       <c r="D524" s="3">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>42</v>
@@ -75213,13 +75243,13 @@
         <v>42</v>
       </c>
       <c r="R524" s="2">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="S524" s="2">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="T524" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U524" s="2" t="s">
         <v>47</v>
@@ -75228,7 +75258,7 @@
         <v>46</v>
       </c>
       <c r="W524" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X524" s="2" t="s">
         <v>46</v>
@@ -75243,10 +75273,10 @@
         <v>48</v>
       </c>
       <c r="AB524" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC524" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AD524" s="2" t="s">
         <v>75</v>
@@ -75255,7 +75285,7 @@
         